--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -114,10 +114,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -327,7 +328,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -364,27 +365,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -436,8 +437,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2112,7 +2117,7 @@
   <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2242,7 +2247,7 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -2314,7 +2319,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2626,32 +2631,65 @@
         <v>0</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9" t="n">
+        <f aca="false">A15+A17</f>
+        <v>2</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="n">
+        <f aca="false">C15</f>
+        <v>2</v>
+      </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="9" t="n">
+        <f aca="false">F15+F17</f>
+        <v>10</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="7"/>
+      <c r="K15" s="7" t="n">
+        <f aca="false">H15</f>
+        <v>10</v>
+      </c>
       <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
+      <c r="M15" s="9" t="n">
+        <f aca="false">K15+K17</f>
+        <v>16</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="7" t="n">
+        <f aca="false">M15</f>
+        <v>16</v>
+      </c>
       <c r="Q15" s="8"/>
-      <c r="R15" s="9"/>
+      <c r="R15" s="9" t="n">
+        <f aca="false">P15+P17</f>
+        <v>21</v>
+      </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="7"/>
+      <c r="U15" s="7" t="n">
+        <f aca="false">R15</f>
+        <v>21</v>
+      </c>
       <c r="V15" s="8"/>
-      <c r="W15" s="9"/>
+      <c r="W15" s="9" t="n">
+        <f aca="false">U15+U17</f>
+        <v>29</v>
+      </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="7"/>
+      <c r="Z15" s="7" t="n">
+        <f aca="false">MAX(W15,W20)</f>
+        <v>30</v>
+      </c>
       <c r="AA15" s="8"/>
-      <c r="AB15" s="9"/>
+      <c r="AB15" s="9" t="n">
+        <f aca="false">Z15+Z17</f>
+        <v>34</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
@@ -2700,78 +2738,149 @@
         <f aca="false">VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="11" t="n">
+        <f aca="false">C18-C15</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="12" t="n">
+        <f aca="false">MIN(F15,F20)-C15</f>
+        <v>0</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="n">
         <f aca="false">VLOOKUP(F16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="11" t="n">
+        <f aca="false">H18-H15</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="12" t="n">
+        <f aca="false">K15-H15</f>
+        <v>0</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="n">
         <f aca="false">VLOOKUP(K16,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12"/>
+      <c r="L17" s="11" t="n">
+        <f aca="false">M18-M15</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="12" t="n">
+        <f aca="false">P15-M15</f>
+        <v>0</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2" t="n">
         <f aca="false">VLOOKUP(P16,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
+      <c r="Q17" s="11" t="n">
+        <f aca="false">R18-R15</f>
+        <v>1</v>
+      </c>
+      <c r="R17" s="12" t="n">
+        <f aca="false">U15-R15</f>
+        <v>0</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2" t="n">
         <f aca="false">VLOOKUP(U16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="V17" s="11"/>
-      <c r="W17" s="12"/>
+      <c r="V17" s="11" t="n">
+        <f aca="false">W18-W15</f>
+        <v>1</v>
+      </c>
+      <c r="W17" s="12" t="n">
+        <f aca="false">Z15-W15</f>
+        <v>1</v>
+      </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2" t="n">
         <f aca="false">VLOOKUP(Z16,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="12"/>
+      <c r="AA17" s="11" t="n">
+        <f aca="false">AB18-AB15</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
+      <c r="A18" s="13" t="n">
+        <f aca="false">C18-A17</f>
+        <v>0</v>
+      </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="14" t="n">
+        <f aca="false">MIN(F18,F23)</f>
+        <v>2</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="13"/>
+      <c r="F18" s="13" t="n">
+        <f aca="false">H18-F17</f>
+        <v>3</v>
+      </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="14" t="n">
+        <f aca="false">K18</f>
+        <v>11</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="13"/>
+      <c r="K18" s="13" t="n">
+        <f aca="false">M18-K17</f>
+        <v>11</v>
+      </c>
       <c r="L18" s="8"/>
-      <c r="M18" s="14"/>
+      <c r="M18" s="14" t="n">
+        <f aca="false">P18</f>
+        <v>17</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="13"/>
+      <c r="P18" s="13" t="n">
+        <f aca="false">R18-P17</f>
+        <v>17</v>
+      </c>
       <c r="Q18" s="8"/>
-      <c r="R18" s="14"/>
+      <c r="R18" s="14" t="n">
+        <f aca="false">U18</f>
+        <v>22</v>
+      </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="13"/>
+      <c r="U18" s="13" t="n">
+        <f aca="false">W18-U17</f>
+        <v>22</v>
+      </c>
       <c r="V18" s="8"/>
-      <c r="W18" s="14"/>
+      <c r="W18" s="14" t="n">
+        <f aca="false">Z18</f>
+        <v>30</v>
+      </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="13"/>
+      <c r="Z18" s="13" t="n">
+        <f aca="false">AB18-Z17</f>
+        <v>30</v>
+      </c>
       <c r="AA18" s="8"/>
-      <c r="AB18" s="14"/>
+      <c r="AB18" s="14" t="n">
+        <f aca="false">AB15</f>
+        <v>34</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
@@ -2807,23 +2916,47 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7" t="n">
+        <f aca="false">C15</f>
+        <v>2</v>
+      </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
+      <c r="H20" s="9" t="n">
+        <f aca="false">F20+F22</f>
+        <v>11</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="7"/>
+      <c r="K20" s="7" t="n">
+        <f aca="false">H20</f>
+        <v>11</v>
+      </c>
       <c r="L20" s="8"/>
-      <c r="M20" s="9"/>
+      <c r="M20" s="9" t="n">
+        <f aca="false">K20+K22</f>
+        <v>22</v>
+      </c>
       <c r="N20" s="2"/>
-      <c r="P20" s="7"/>
+      <c r="P20" s="7" t="n">
+        <f aca="false">M20</f>
+        <v>22</v>
+      </c>
       <c r="Q20" s="8"/>
-      <c r="R20" s="9"/>
+      <c r="R20" s="9" t="n">
+        <f aca="false">P20+P22</f>
+        <v>28</v>
+      </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="7"/>
+      <c r="U20" s="7" t="n">
+        <f aca="false">MAX(R20,R25)</f>
+        <v>28</v>
+      </c>
       <c r="V20" s="8"/>
-      <c r="W20" s="9"/>
+      <c r="W20" s="9" t="n">
+        <f aca="false">U20+U22</f>
+        <v>30</v>
+      </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
@@ -2871,33 +3004,57 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="n">
         <f aca="false">VLOOKUP(F21,$A$2:$H$13,8)</f>
-        <v>8</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="G22" s="11" t="n">
+        <f aca="false">H23-H20</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="12" t="n">
+        <f aca="false">MIN(K20,K25)-H20</f>
+        <v>0</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$H$13,8)</f>
-        <v>8</v>
-      </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="12"/>
+        <v>11</v>
+      </c>
+      <c r="L22" s="11" t="n">
+        <f aca="false">M23-M20</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="12" t="n">
+        <f aca="false">P20-M20</f>
+        <v>0</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="P22" s="2" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="12"/>
+      <c r="Q22" s="11" t="n">
+        <f aca="false">R23-R20</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="12" t="n">
+        <f aca="false">U20-R20</f>
+        <v>0</v>
+      </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="11"/>
-      <c r="W22" s="12"/>
+      <c r="V22" s="11" t="n">
+        <f aca="false">W23-W20</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="12" t="n">
+        <f aca="false">Z15-W20</f>
+        <v>0</v>
+      </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
@@ -2908,23 +3065,47 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="13"/>
+      <c r="F23" s="13" t="n">
+        <f aca="false">H23-F22</f>
+        <v>2</v>
+      </c>
       <c r="G23" s="8"/>
-      <c r="H23" s="14"/>
+      <c r="H23" s="14" t="n">
+        <f aca="false">MIN(K23,K28)</f>
+        <v>11</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="13"/>
+      <c r="K23" s="13" t="n">
+        <f aca="false">M23-K22</f>
+        <v>11</v>
+      </c>
       <c r="L23" s="8"/>
-      <c r="M23" s="14"/>
+      <c r="M23" s="14" t="n">
+        <f aca="false">P23</f>
+        <v>22</v>
+      </c>
       <c r="N23" s="2"/>
-      <c r="P23" s="13"/>
+      <c r="P23" s="13" t="n">
+        <f aca="false">R23-P22</f>
+        <v>22</v>
+      </c>
       <c r="Q23" s="8"/>
-      <c r="R23" s="14"/>
+      <c r="R23" s="14" t="n">
+        <f aca="false">U23</f>
+        <v>28</v>
+      </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="13"/>
+      <c r="U23" s="13" t="n">
+        <f aca="false">W23-U22</f>
+        <v>28</v>
+      </c>
       <c r="V23" s="8"/>
-      <c r="W23" s="14"/>
+      <c r="W23" s="14" t="n">
+        <f aca="false">Z18</f>
+        <v>30</v>
+      </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
@@ -2968,14 +3149,26 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="7"/>
+      <c r="K25" s="7" t="n">
+        <f aca="false">H20</f>
+        <v>11</v>
+      </c>
       <c r="L25" s="8"/>
-      <c r="M25" s="9"/>
+      <c r="M25" s="9" t="n">
+        <f aca="false">K25+K27</f>
+        <v>19</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="7"/>
+      <c r="P25" s="7" t="n">
+        <f aca="false">M25</f>
+        <v>19</v>
+      </c>
       <c r="Q25" s="8"/>
-      <c r="R25" s="9"/>
+      <c r="R25" s="9" t="n">
+        <f aca="false">P25+P27</f>
+        <v>24</v>
+      </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -3032,16 +3225,28 @@
         <f aca="false">VLOOKUP(K26,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="12"/>
+      <c r="L27" s="11" t="n">
+        <f aca="false">M28-M25</f>
+        <v>4</v>
+      </c>
+      <c r="M27" s="12" t="n">
+        <f aca="false">P25-M25</f>
+        <v>0</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2" t="n">
         <f aca="false">VLOOKUP(P26,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="12"/>
+      <c r="Q27" s="11" t="n">
+        <f aca="false">R28-R25</f>
+        <v>4</v>
+      </c>
+      <c r="R27" s="12" t="n">
+        <f aca="false">U20-R25</f>
+        <v>4</v>
+      </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -3062,14 +3267,26 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="13"/>
+      <c r="K28" s="13" t="n">
+        <f aca="false">M28-K27</f>
+        <v>15</v>
+      </c>
       <c r="L28" s="8"/>
-      <c r="M28" s="14"/>
+      <c r="M28" s="14" t="n">
+        <f aca="false">P28</f>
+        <v>23</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="13"/>
+      <c r="P28" s="13" t="n">
+        <f aca="false">R28-P27</f>
+        <v>23</v>
+      </c>
       <c r="Q28" s="8"/>
-      <c r="R28" s="14"/>
+      <c r="R28" s="14" t="n">
+        <f aca="false">U23</f>
+        <v>28</v>
+      </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -3530,7 +3747,7 @@
       <c r="L43" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A16:C16"/>
@@ -3553,8 +3770,9 @@
     <mergeCell ref="C39:K39"/>
     <mergeCell ref="C40:K40"/>
     <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C42:K42"/>
   </mergeCells>
-  <conditionalFormatting sqref="B17 G17 G22 L17 Q17 V17 AA17 L22 V22 L27 Q27 Q22">
+  <conditionalFormatting sqref="AA17 V17 V22 Q17 Q22 Q27 L27 L22 L17 G17 G22 B17">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -3908,37 +4126,37 @@
         <f aca="false">VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="12"/>
       <c r="F17" s="2" t="n">
         <f aca="false">VLOOKUP(F16,$A$2:$H$13,8)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="12"/>
       <c r="K17" s="2" t="n">
         <f aca="false">VLOOKUP(K16,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="L17" s="11"/>
+      <c r="L17" s="28"/>
       <c r="M17" s="12"/>
       <c r="P17" s="2" t="n">
         <f aca="false">VLOOKUP(P16,$A$2:$H$13,8)</f>
         <v>3</v>
       </c>
-      <c r="Q17" s="11"/>
+      <c r="Q17" s="28"/>
       <c r="R17" s="12"/>
       <c r="U17" s="2" t="n">
         <f aca="false">VLOOKUP(U16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="V17" s="11"/>
+      <c r="V17" s="28"/>
       <c r="W17" s="12"/>
       <c r="Z17" s="2" t="n">
         <f aca="false">VLOOKUP(Z16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="AA17" s="11"/>
+      <c r="AA17" s="28"/>
       <c r="AB17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4002,25 +4220,25 @@
         <f aca="false">VLOOKUP(F21,$A$2:$H$13,8)</f>
         <v>7</v>
       </c>
-      <c r="G22" s="11"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="12"/>
       <c r="K22" s="2" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="L22" s="11"/>
+      <c r="L22" s="28"/>
       <c r="M22" s="12"/>
       <c r="P22" s="2" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="11"/>
+      <c r="Q22" s="28"/>
       <c r="R22" s="12"/>
       <c r="U22" s="2" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="11"/>
+      <c r="V22" s="28"/>
       <c r="W22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4062,13 +4280,13 @@
         <f aca="false">VLOOKUP(K26,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="L27" s="11"/>
+      <c r="L27" s="28"/>
       <c r="M27" s="12"/>
       <c r="U27" s="2" t="n">
         <f aca="false">VLOOKUP(U26,$A$2:$H$13,8)</f>
         <v>9</v>
       </c>
-      <c r="V27" s="11"/>
+      <c r="V27" s="28"/>
       <c r="W27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" state="visible" r:id="rId2"/>
@@ -328,7 +328,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -426,6 +426,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2116,8 +2120,8 @@
   </sheetPr>
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3705,17 +3709,17 @@
       <c r="B42" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
       <c r="L42" s="16"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -3734,17 +3738,17 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="15"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3795,15 +3799,15 @@
   </sheetPr>
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z17" activeCellId="0" sqref="Z17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA20" activeCellId="0" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="26" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="27" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="10" style="26" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="27" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="28" width="3.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="10" style="27" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,7 +3827,7 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="26"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -3842,7 +3846,7 @@
       <c r="H2" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -3861,7 +3865,7 @@
       <c r="H3" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -3882,7 +3886,7 @@
       <c r="H4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
@@ -3901,7 +3905,7 @@
       <c r="H5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="26"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
@@ -3920,7 +3924,7 @@
       <c r="H6" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="26"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
@@ -3939,7 +3943,7 @@
       <c r="H7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="26"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
@@ -3962,7 +3966,7 @@
       <c r="H8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="26"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
@@ -3987,7 +3991,7 @@
       <c r="H9" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I9" s="26"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
@@ -4006,7 +4010,7 @@
       <c r="H10" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="26"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
@@ -4027,7 +4031,7 @@
       <c r="H11" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="I11" s="26"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
@@ -4046,7 +4050,7 @@
       <c r="H12" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="I12" s="26"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
@@ -4067,7 +4071,7 @@
       <c r="H13" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="I13" s="26"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
@@ -4126,37 +4130,37 @@
         <f aca="false">VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="B17" s="28"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="12"/>
       <c r="F17" s="2" t="n">
         <f aca="false">VLOOKUP(F16,$A$2:$H$13,8)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="28"/>
+      <c r="G17" s="29"/>
       <c r="H17" s="12"/>
       <c r="K17" s="2" t="n">
         <f aca="false">VLOOKUP(K16,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="L17" s="28"/>
+      <c r="L17" s="29"/>
       <c r="M17" s="12"/>
       <c r="P17" s="2" t="n">
         <f aca="false">VLOOKUP(P16,$A$2:$H$13,8)</f>
         <v>3</v>
       </c>
-      <c r="Q17" s="28"/>
+      <c r="Q17" s="29"/>
       <c r="R17" s="12"/>
       <c r="U17" s="2" t="n">
         <f aca="false">VLOOKUP(U16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="V17" s="28"/>
+      <c r="V17" s="29"/>
       <c r="W17" s="12"/>
       <c r="Z17" s="2" t="n">
         <f aca="false">VLOOKUP(Z16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="AA17" s="28"/>
+      <c r="AA17" s="29"/>
       <c r="AB17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4220,25 +4224,25 @@
         <f aca="false">VLOOKUP(F21,$A$2:$H$13,8)</f>
         <v>7</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="12"/>
       <c r="K22" s="2" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="L22" s="28"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="12"/>
       <c r="P22" s="2" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="28"/>
+      <c r="Q22" s="29"/>
       <c r="R22" s="12"/>
       <c r="U22" s="2" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="28"/>
+      <c r="V22" s="29"/>
       <c r="W22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4280,13 +4284,13 @@
         <f aca="false">VLOOKUP(K26,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="L27" s="28"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="12"/>
       <c r="U27" s="2" t="n">
         <f aca="false">VLOOKUP(U26,$A$2:$H$13,8)</f>
         <v>9</v>
       </c>
-      <c r="V27" s="28"/>
+      <c r="V27" s="29"/>
       <c r="W27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -327,7 +327,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -336,7 +336,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -428,6 +428,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -438,6 +442,10 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2111,8 +2119,8 @@
   </sheetPr>
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N10" activeCellId="0" sqref="N10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2242,7 +2250,7 @@
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -2314,7 +2322,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -2622,9 +2630,7 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="2"/>
@@ -2871,7 +2877,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="n">
         <f aca="false">VLOOKUP(F21,$A$2:$H$13,8)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
@@ -2879,7 +2885,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$H$13,8)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="12"/>
@@ -3488,17 +3494,17 @@
       <c r="B42" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
       <c r="L42" s="16"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -3517,20 +3523,20 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="15"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A16:C16"/>
@@ -3553,8 +3559,9 @@
     <mergeCell ref="C39:K39"/>
     <mergeCell ref="C40:K40"/>
     <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C42:K42"/>
   </mergeCells>
-  <conditionalFormatting sqref="B17 G17 G22 L17 Q17 V17 AA17 L22 V22 L27 Q27 Q22">
+  <conditionalFormatting sqref="AA17 V17 V22 Q17 Q22 Q27 L27 L22 L17 G17 G22 B17">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -3575,17 +3582,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BX28"/>
+  <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z17" activeCellId="0" sqref="Z17"/>
+      <selection pane="topLeft" activeCell="AA20" activeCellId="0" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="26" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="27" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="10" style="26" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="27" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="28" width="3.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="10" style="27" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3605,74 +3612,7 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-      <c r="M1" s="0"/>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
-      <c r="Q1" s="0"/>
-      <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
-      <c r="T1" s="0"/>
-      <c r="U1" s="0"/>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
-      <c r="X1" s="0"/>
-      <c r="Y1" s="0"/>
-      <c r="Z1" s="0"/>
-      <c r="AA1" s="0"/>
-      <c r="AB1" s="0"/>
-      <c r="AC1" s="0"/>
-      <c r="AD1" s="0"/>
-      <c r="AE1" s="0"/>
-      <c r="AF1" s="0"/>
-      <c r="AG1" s="0"/>
-      <c r="AH1" s="0"/>
-      <c r="AI1" s="0"/>
-      <c r="AJ1" s="0"/>
-      <c r="AK1" s="0"/>
-      <c r="AL1" s="0"/>
-      <c r="AM1" s="0"/>
-      <c r="AN1" s="0"/>
-      <c r="AO1" s="0"/>
-      <c r="AP1" s="0"/>
-      <c r="AQ1" s="0"/>
-      <c r="AR1" s="0"/>
-      <c r="AS1" s="0"/>
-      <c r="AT1" s="0"/>
-      <c r="AU1" s="0"/>
-      <c r="AV1" s="0"/>
-      <c r="AW1" s="0"/>
-      <c r="AX1" s="0"/>
-      <c r="AY1" s="0"/>
-      <c r="AZ1" s="0"/>
-      <c r="BA1" s="0"/>
-      <c r="BB1" s="0"/>
-      <c r="BC1" s="0"/>
-      <c r="BD1" s="0"/>
-      <c r="BE1" s="0"/>
-      <c r="BF1" s="0"/>
-      <c r="BG1" s="0"/>
-      <c r="BH1" s="0"/>
-      <c r="BI1" s="0"/>
-      <c r="BJ1" s="0"/>
-      <c r="BK1" s="0"/>
-      <c r="BL1" s="0"/>
-      <c r="BM1" s="0"/>
-      <c r="BN1" s="0"/>
-      <c r="BO1" s="0"/>
-      <c r="BP1" s="0"/>
-      <c r="BQ1" s="0"/>
-      <c r="BR1" s="0"/>
-      <c r="BS1" s="0"/>
-      <c r="BT1" s="0"/>
-      <c r="BU1" s="0"/>
-      <c r="BV1" s="0"/>
-      <c r="BW1" s="0"/>
-      <c r="BX1" s="0"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -3691,74 +3631,7 @@
       <c r="H2" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I2" s="0"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
-      <c r="R2" s="0"/>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
-      <c r="U2" s="0"/>
-      <c r="V2" s="0"/>
-      <c r="W2" s="0"/>
-      <c r="X2" s="0"/>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="0"/>
-      <c r="AA2" s="0"/>
-      <c r="AB2" s="0"/>
-      <c r="AC2" s="0"/>
-      <c r="AD2" s="0"/>
-      <c r="AE2" s="0"/>
-      <c r="AF2" s="0"/>
-      <c r="AG2" s="0"/>
-      <c r="AH2" s="0"/>
-      <c r="AI2" s="0"/>
-      <c r="AJ2" s="0"/>
-      <c r="AK2" s="0"/>
-      <c r="AL2" s="0"/>
-      <c r="AM2" s="0"/>
-      <c r="AN2" s="0"/>
-      <c r="AO2" s="0"/>
-      <c r="AP2" s="0"/>
-      <c r="AQ2" s="0"/>
-      <c r="AR2" s="0"/>
-      <c r="AS2" s="0"/>
-      <c r="AT2" s="0"/>
-      <c r="AU2" s="0"/>
-      <c r="AV2" s="0"/>
-      <c r="AW2" s="0"/>
-      <c r="AX2" s="0"/>
-      <c r="AY2" s="0"/>
-      <c r="AZ2" s="0"/>
-      <c r="BA2" s="0"/>
-      <c r="BB2" s="0"/>
-      <c r="BC2" s="0"/>
-      <c r="BD2" s="0"/>
-      <c r="BE2" s="0"/>
-      <c r="BF2" s="0"/>
-      <c r="BG2" s="0"/>
-      <c r="BH2" s="0"/>
-      <c r="BI2" s="0"/>
-      <c r="BJ2" s="0"/>
-      <c r="BK2" s="0"/>
-      <c r="BL2" s="0"/>
-      <c r="BM2" s="0"/>
-      <c r="BN2" s="0"/>
-      <c r="BO2" s="0"/>
-      <c r="BP2" s="0"/>
-      <c r="BQ2" s="0"/>
-      <c r="BR2" s="0"/>
-      <c r="BS2" s="0"/>
-      <c r="BT2" s="0"/>
-      <c r="BU2" s="0"/>
-      <c r="BV2" s="0"/>
-      <c r="BW2" s="0"/>
-      <c r="BX2" s="0"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -3777,74 +3650,7 @@
       <c r="H3" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
-      <c r="R3" s="0"/>
-      <c r="S3" s="0"/>
-      <c r="T3" s="0"/>
-      <c r="U3" s="0"/>
-      <c r="V3" s="0"/>
-      <c r="W3" s="0"/>
-      <c r="X3" s="0"/>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="0"/>
-      <c r="AA3" s="0"/>
-      <c r="AB3" s="0"/>
-      <c r="AC3" s="0"/>
-      <c r="AD3" s="0"/>
-      <c r="AE3" s="0"/>
-      <c r="AF3" s="0"/>
-      <c r="AG3" s="0"/>
-      <c r="AH3" s="0"/>
-      <c r="AI3" s="0"/>
-      <c r="AJ3" s="0"/>
-      <c r="AK3" s="0"/>
-      <c r="AL3" s="0"/>
-      <c r="AM3" s="0"/>
-      <c r="AN3" s="0"/>
-      <c r="AO3" s="0"/>
-      <c r="AP3" s="0"/>
-      <c r="AQ3" s="0"/>
-      <c r="AR3" s="0"/>
-      <c r="AS3" s="0"/>
-      <c r="AT3" s="0"/>
-      <c r="AU3" s="0"/>
-      <c r="AV3" s="0"/>
-      <c r="AW3" s="0"/>
-      <c r="AX3" s="0"/>
-      <c r="AY3" s="0"/>
-      <c r="AZ3" s="0"/>
-      <c r="BA3" s="0"/>
-      <c r="BB3" s="0"/>
-      <c r="BC3" s="0"/>
-      <c r="BD3" s="0"/>
-      <c r="BE3" s="0"/>
-      <c r="BF3" s="0"/>
-      <c r="BG3" s="0"/>
-      <c r="BH3" s="0"/>
-      <c r="BI3" s="0"/>
-      <c r="BJ3" s="0"/>
-      <c r="BK3" s="0"/>
-      <c r="BL3" s="0"/>
-      <c r="BM3" s="0"/>
-      <c r="BN3" s="0"/>
-      <c r="BO3" s="0"/>
-      <c r="BP3" s="0"/>
-      <c r="BQ3" s="0"/>
-      <c r="BR3" s="0"/>
-      <c r="BS3" s="0"/>
-      <c r="BT3" s="0"/>
-      <c r="BU3" s="0"/>
-      <c r="BV3" s="0"/>
-      <c r="BW3" s="0"/>
-      <c r="BX3" s="0"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -3865,74 +3671,7 @@
       <c r="H4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
-      <c r="K4" s="0"/>
-      <c r="L4" s="0"/>
-      <c r="M4" s="0"/>
-      <c r="N4" s="0"/>
-      <c r="O4" s="0"/>
-      <c r="P4" s="0"/>
-      <c r="Q4" s="0"/>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
-      <c r="U4" s="0"/>
-      <c r="V4" s="0"/>
-      <c r="W4" s="0"/>
-      <c r="X4" s="0"/>
-      <c r="Y4" s="0"/>
-      <c r="Z4" s="0"/>
-      <c r="AA4" s="0"/>
-      <c r="AB4" s="0"/>
-      <c r="AC4" s="0"/>
-      <c r="AD4" s="0"/>
-      <c r="AE4" s="0"/>
-      <c r="AF4" s="0"/>
-      <c r="AG4" s="0"/>
-      <c r="AH4" s="0"/>
-      <c r="AI4" s="0"/>
-      <c r="AJ4" s="0"/>
-      <c r="AK4" s="0"/>
-      <c r="AL4" s="0"/>
-      <c r="AM4" s="0"/>
-      <c r="AN4" s="0"/>
-      <c r="AO4" s="0"/>
-      <c r="AP4" s="0"/>
-      <c r="AQ4" s="0"/>
-      <c r="AR4" s="0"/>
-      <c r="AS4" s="0"/>
-      <c r="AT4" s="0"/>
-      <c r="AU4" s="0"/>
-      <c r="AV4" s="0"/>
-      <c r="AW4" s="0"/>
-      <c r="AX4" s="0"/>
-      <c r="AY4" s="0"/>
-      <c r="AZ4" s="0"/>
-      <c r="BA4" s="0"/>
-      <c r="BB4" s="0"/>
-      <c r="BC4" s="0"/>
-      <c r="BD4" s="0"/>
-      <c r="BE4" s="0"/>
-      <c r="BF4" s="0"/>
-      <c r="BG4" s="0"/>
-      <c r="BH4" s="0"/>
-      <c r="BI4" s="0"/>
-      <c r="BJ4" s="0"/>
-      <c r="BK4" s="0"/>
-      <c r="BL4" s="0"/>
-      <c r="BM4" s="0"/>
-      <c r="BN4" s="0"/>
-      <c r="BO4" s="0"/>
-      <c r="BP4" s="0"/>
-      <c r="BQ4" s="0"/>
-      <c r="BR4" s="0"/>
-      <c r="BS4" s="0"/>
-      <c r="BT4" s="0"/>
-      <c r="BU4" s="0"/>
-      <c r="BV4" s="0"/>
-      <c r="BW4" s="0"/>
-      <c r="BX4" s="0"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
@@ -3951,74 +3690,7 @@
       <c r="H5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="0"/>
-      <c r="J5" s="0"/>
-      <c r="K5" s="0"/>
-      <c r="L5" s="0"/>
-      <c r="M5" s="0"/>
-      <c r="N5" s="0"/>
-      <c r="O5" s="0"/>
-      <c r="P5" s="0"/>
-      <c r="Q5" s="0"/>
-      <c r="R5" s="0"/>
-      <c r="S5" s="0"/>
-      <c r="T5" s="0"/>
-      <c r="U5" s="0"/>
-      <c r="V5" s="0"/>
-      <c r="W5" s="0"/>
-      <c r="X5" s="0"/>
-      <c r="Y5" s="0"/>
-      <c r="Z5" s="0"/>
-      <c r="AA5" s="0"/>
-      <c r="AB5" s="0"/>
-      <c r="AC5" s="0"/>
-      <c r="AD5" s="0"/>
-      <c r="AE5" s="0"/>
-      <c r="AF5" s="0"/>
-      <c r="AG5" s="0"/>
-      <c r="AH5" s="0"/>
-      <c r="AI5" s="0"/>
-      <c r="AJ5" s="0"/>
-      <c r="AK5" s="0"/>
-      <c r="AL5" s="0"/>
-      <c r="AM5" s="0"/>
-      <c r="AN5" s="0"/>
-      <c r="AO5" s="0"/>
-      <c r="AP5" s="0"/>
-      <c r="AQ5" s="0"/>
-      <c r="AR5" s="0"/>
-      <c r="AS5" s="0"/>
-      <c r="AT5" s="0"/>
-      <c r="AU5" s="0"/>
-      <c r="AV5" s="0"/>
-      <c r="AW5" s="0"/>
-      <c r="AX5" s="0"/>
-      <c r="AY5" s="0"/>
-      <c r="AZ5" s="0"/>
-      <c r="BA5" s="0"/>
-      <c r="BB5" s="0"/>
-      <c r="BC5" s="0"/>
-      <c r="BD5" s="0"/>
-      <c r="BE5" s="0"/>
-      <c r="BF5" s="0"/>
-      <c r="BG5" s="0"/>
-      <c r="BH5" s="0"/>
-      <c r="BI5" s="0"/>
-      <c r="BJ5" s="0"/>
-      <c r="BK5" s="0"/>
-      <c r="BL5" s="0"/>
-      <c r="BM5" s="0"/>
-      <c r="BN5" s="0"/>
-      <c r="BO5" s="0"/>
-      <c r="BP5" s="0"/>
-      <c r="BQ5" s="0"/>
-      <c r="BR5" s="0"/>
-      <c r="BS5" s="0"/>
-      <c r="BT5" s="0"/>
-      <c r="BU5" s="0"/>
-      <c r="BV5" s="0"/>
-      <c r="BW5" s="0"/>
-      <c r="BX5" s="0"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
@@ -4037,74 +3709,7 @@
       <c r="H6" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="0"/>
-      <c r="J6" s="0"/>
-      <c r="K6" s="0"/>
-      <c r="L6" s="0"/>
-      <c r="M6" s="0"/>
-      <c r="N6" s="0"/>
-      <c r="O6" s="0"/>
-      <c r="P6" s="0"/>
-      <c r="Q6" s="0"/>
-      <c r="R6" s="0"/>
-      <c r="S6" s="0"/>
-      <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
-      <c r="V6" s="0"/>
-      <c r="W6" s="0"/>
-      <c r="X6" s="0"/>
-      <c r="Y6" s="0"/>
-      <c r="Z6" s="0"/>
-      <c r="AA6" s="0"/>
-      <c r="AB6" s="0"/>
-      <c r="AC6" s="0"/>
-      <c r="AD6" s="0"/>
-      <c r="AE6" s="0"/>
-      <c r="AF6" s="0"/>
-      <c r="AG6" s="0"/>
-      <c r="AH6" s="0"/>
-      <c r="AI6" s="0"/>
-      <c r="AJ6" s="0"/>
-      <c r="AK6" s="0"/>
-      <c r="AL6" s="0"/>
-      <c r="AM6" s="0"/>
-      <c r="AN6" s="0"/>
-      <c r="AO6" s="0"/>
-      <c r="AP6" s="0"/>
-      <c r="AQ6" s="0"/>
-      <c r="AR6" s="0"/>
-      <c r="AS6" s="0"/>
-      <c r="AT6" s="0"/>
-      <c r="AU6" s="0"/>
-      <c r="AV6" s="0"/>
-      <c r="AW6" s="0"/>
-      <c r="AX6" s="0"/>
-      <c r="AY6" s="0"/>
-      <c r="AZ6" s="0"/>
-      <c r="BA6" s="0"/>
-      <c r="BB6" s="0"/>
-      <c r="BC6" s="0"/>
-      <c r="BD6" s="0"/>
-      <c r="BE6" s="0"/>
-      <c r="BF6" s="0"/>
-      <c r="BG6" s="0"/>
-      <c r="BH6" s="0"/>
-      <c r="BI6" s="0"/>
-      <c r="BJ6" s="0"/>
-      <c r="BK6" s="0"/>
-      <c r="BL6" s="0"/>
-      <c r="BM6" s="0"/>
-      <c r="BN6" s="0"/>
-      <c r="BO6" s="0"/>
-      <c r="BP6" s="0"/>
-      <c r="BQ6" s="0"/>
-      <c r="BR6" s="0"/>
-      <c r="BS6" s="0"/>
-      <c r="BT6" s="0"/>
-      <c r="BU6" s="0"/>
-      <c r="BV6" s="0"/>
-      <c r="BW6" s="0"/>
-      <c r="BX6" s="0"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
@@ -4123,74 +3728,7 @@
       <c r="H7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="0"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
-      <c r="AF7" s="0"/>
-      <c r="AG7" s="0"/>
-      <c r="AH7" s="0"/>
-      <c r="AI7" s="0"/>
-      <c r="AJ7" s="0"/>
-      <c r="AK7" s="0"/>
-      <c r="AL7" s="0"/>
-      <c r="AM7" s="0"/>
-      <c r="AN7" s="0"/>
-      <c r="AO7" s="0"/>
-      <c r="AP7" s="0"/>
-      <c r="AQ7" s="0"/>
-      <c r="AR7" s="0"/>
-      <c r="AS7" s="0"/>
-      <c r="AT7" s="0"/>
-      <c r="AU7" s="0"/>
-      <c r="AV7" s="0"/>
-      <c r="AW7" s="0"/>
-      <c r="AX7" s="0"/>
-      <c r="AY7" s="0"/>
-      <c r="AZ7" s="0"/>
-      <c r="BA7" s="0"/>
-      <c r="BB7" s="0"/>
-      <c r="BC7" s="0"/>
-      <c r="BD7" s="0"/>
-      <c r="BE7" s="0"/>
-      <c r="BF7" s="0"/>
-      <c r="BG7" s="0"/>
-      <c r="BH7" s="0"/>
-      <c r="BI7" s="0"/>
-      <c r="BJ7" s="0"/>
-      <c r="BK7" s="0"/>
-      <c r="BL7" s="0"/>
-      <c r="BM7" s="0"/>
-      <c r="BN7" s="0"/>
-      <c r="BO7" s="0"/>
-      <c r="BP7" s="0"/>
-      <c r="BQ7" s="0"/>
-      <c r="BR7" s="0"/>
-      <c r="BS7" s="0"/>
-      <c r="BT7" s="0"/>
-      <c r="BU7" s="0"/>
-      <c r="BV7" s="0"/>
-      <c r="BW7" s="0"/>
-      <c r="BX7" s="0"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
@@ -4213,74 +3751,7 @@
       <c r="H8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0"/>
-      <c r="AI8" s="0"/>
-      <c r="AJ8" s="0"/>
-      <c r="AK8" s="0"/>
-      <c r="AL8" s="0"/>
-      <c r="AM8" s="0"/>
-      <c r="AN8" s="0"/>
-      <c r="AO8" s="0"/>
-      <c r="AP8" s="0"/>
-      <c r="AQ8" s="0"/>
-      <c r="AR8" s="0"/>
-      <c r="AS8" s="0"/>
-      <c r="AT8" s="0"/>
-      <c r="AU8" s="0"/>
-      <c r="AV8" s="0"/>
-      <c r="AW8" s="0"/>
-      <c r="AX8" s="0"/>
-      <c r="AY8" s="0"/>
-      <c r="AZ8" s="0"/>
-      <c r="BA8" s="0"/>
-      <c r="BB8" s="0"/>
-      <c r="BC8" s="0"/>
-      <c r="BD8" s="0"/>
-      <c r="BE8" s="0"/>
-      <c r="BF8" s="0"/>
-      <c r="BG8" s="0"/>
-      <c r="BH8" s="0"/>
-      <c r="BI8" s="0"/>
-      <c r="BJ8" s="0"/>
-      <c r="BK8" s="0"/>
-      <c r="BL8" s="0"/>
-      <c r="BM8" s="0"/>
-      <c r="BN8" s="0"/>
-      <c r="BO8" s="0"/>
-      <c r="BP8" s="0"/>
-      <c r="BQ8" s="0"/>
-      <c r="BR8" s="0"/>
-      <c r="BS8" s="0"/>
-      <c r="BT8" s="0"/>
-      <c r="BU8" s="0"/>
-      <c r="BV8" s="0"/>
-      <c r="BW8" s="0"/>
-      <c r="BX8" s="0"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
@@ -4305,74 +3776,7 @@
       <c r="H9" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
-      <c r="L9" s="0"/>
-      <c r="M9" s="0"/>
-      <c r="N9" s="0"/>
-      <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
-      <c r="R9" s="0"/>
-      <c r="S9" s="0"/>
-      <c r="T9" s="0"/>
-      <c r="U9" s="0"/>
-      <c r="V9" s="0"/>
-      <c r="W9" s="0"/>
-      <c r="X9" s="0"/>
-      <c r="Y9" s="0"/>
-      <c r="Z9" s="0"/>
-      <c r="AA9" s="0"/>
-      <c r="AB9" s="0"/>
-      <c r="AC9" s="0"/>
-      <c r="AD9" s="0"/>
-      <c r="AE9" s="0"/>
-      <c r="AF9" s="0"/>
-      <c r="AG9" s="0"/>
-      <c r="AH9" s="0"/>
-      <c r="AI9" s="0"/>
-      <c r="AJ9" s="0"/>
-      <c r="AK9" s="0"/>
-      <c r="AL9" s="0"/>
-      <c r="AM9" s="0"/>
-      <c r="AN9" s="0"/>
-      <c r="AO9" s="0"/>
-      <c r="AP9" s="0"/>
-      <c r="AQ9" s="0"/>
-      <c r="AR9" s="0"/>
-      <c r="AS9" s="0"/>
-      <c r="AT9" s="0"/>
-      <c r="AU9" s="0"/>
-      <c r="AV9" s="0"/>
-      <c r="AW9" s="0"/>
-      <c r="AX9" s="0"/>
-      <c r="AY9" s="0"/>
-      <c r="AZ9" s="0"/>
-      <c r="BA9" s="0"/>
-      <c r="BB9" s="0"/>
-      <c r="BC9" s="0"/>
-      <c r="BD9" s="0"/>
-      <c r="BE9" s="0"/>
-      <c r="BF9" s="0"/>
-      <c r="BG9" s="0"/>
-      <c r="BH9" s="0"/>
-      <c r="BI9" s="0"/>
-      <c r="BJ9" s="0"/>
-      <c r="BK9" s="0"/>
-      <c r="BL9" s="0"/>
-      <c r="BM9" s="0"/>
-      <c r="BN9" s="0"/>
-      <c r="BO9" s="0"/>
-      <c r="BP9" s="0"/>
-      <c r="BQ9" s="0"/>
-      <c r="BR9" s="0"/>
-      <c r="BS9" s="0"/>
-      <c r="BT9" s="0"/>
-      <c r="BU9" s="0"/>
-      <c r="BV9" s="0"/>
-      <c r="BW9" s="0"/>
-      <c r="BX9" s="0"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
@@ -4391,74 +3795,7 @@
       <c r="H10" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="0"/>
-      <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
-      <c r="L10" s="0"/>
-      <c r="M10" s="0"/>
-      <c r="N10" s="0"/>
-      <c r="O10" s="0"/>
-      <c r="P10" s="0"/>
-      <c r="Q10" s="0"/>
-      <c r="R10" s="0"/>
-      <c r="S10" s="0"/>
-      <c r="T10" s="0"/>
-      <c r="U10" s="0"/>
-      <c r="V10" s="0"/>
-      <c r="W10" s="0"/>
-      <c r="X10" s="0"/>
-      <c r="Y10" s="0"/>
-      <c r="Z10" s="0"/>
-      <c r="AA10" s="0"/>
-      <c r="AB10" s="0"/>
-      <c r="AC10" s="0"/>
-      <c r="AD10" s="0"/>
-      <c r="AE10" s="0"/>
-      <c r="AF10" s="0"/>
-      <c r="AG10" s="0"/>
-      <c r="AH10" s="0"/>
-      <c r="AI10" s="0"/>
-      <c r="AJ10" s="0"/>
-      <c r="AK10" s="0"/>
-      <c r="AL10" s="0"/>
-      <c r="AM10" s="0"/>
-      <c r="AN10" s="0"/>
-      <c r="AO10" s="0"/>
-      <c r="AP10" s="0"/>
-      <c r="AQ10" s="0"/>
-      <c r="AR10" s="0"/>
-      <c r="AS10" s="0"/>
-      <c r="AT10" s="0"/>
-      <c r="AU10" s="0"/>
-      <c r="AV10" s="0"/>
-      <c r="AW10" s="0"/>
-      <c r="AX10" s="0"/>
-      <c r="AY10" s="0"/>
-      <c r="AZ10" s="0"/>
-      <c r="BA10" s="0"/>
-      <c r="BB10" s="0"/>
-      <c r="BC10" s="0"/>
-      <c r="BD10" s="0"/>
-      <c r="BE10" s="0"/>
-      <c r="BF10" s="0"/>
-      <c r="BG10" s="0"/>
-      <c r="BH10" s="0"/>
-      <c r="BI10" s="0"/>
-      <c r="BJ10" s="0"/>
-      <c r="BK10" s="0"/>
-      <c r="BL10" s="0"/>
-      <c r="BM10" s="0"/>
-      <c r="BN10" s="0"/>
-      <c r="BO10" s="0"/>
-      <c r="BP10" s="0"/>
-      <c r="BQ10" s="0"/>
-      <c r="BR10" s="0"/>
-      <c r="BS10" s="0"/>
-      <c r="BT10" s="0"/>
-      <c r="BU10" s="0"/>
-      <c r="BV10" s="0"/>
-      <c r="BW10" s="0"/>
-      <c r="BX10" s="0"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
@@ -4479,74 +3816,7 @@
       <c r="H11" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="0"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="0"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0"/>
-      <c r="X11" s="0"/>
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0"/>
-      <c r="AA11" s="0"/>
-      <c r="AB11" s="0"/>
-      <c r="AC11" s="0"/>
-      <c r="AD11" s="0"/>
-      <c r="AE11" s="0"/>
-      <c r="AF11" s="0"/>
-      <c r="AG11" s="0"/>
-      <c r="AH11" s="0"/>
-      <c r="AI11" s="0"/>
-      <c r="AJ11" s="0"/>
-      <c r="AK11" s="0"/>
-      <c r="AL11" s="0"/>
-      <c r="AM11" s="0"/>
-      <c r="AN11" s="0"/>
-      <c r="AO11" s="0"/>
-      <c r="AP11" s="0"/>
-      <c r="AQ11" s="0"/>
-      <c r="AR11" s="0"/>
-      <c r="AS11" s="0"/>
-      <c r="AT11" s="0"/>
-      <c r="AU11" s="0"/>
-      <c r="AV11" s="0"/>
-      <c r="AW11" s="0"/>
-      <c r="AX11" s="0"/>
-      <c r="AY11" s="0"/>
-      <c r="AZ11" s="0"/>
-      <c r="BA11" s="0"/>
-      <c r="BB11" s="0"/>
-      <c r="BC11" s="0"/>
-      <c r="BD11" s="0"/>
-      <c r="BE11" s="0"/>
-      <c r="BF11" s="0"/>
-      <c r="BG11" s="0"/>
-      <c r="BH11" s="0"/>
-      <c r="BI11" s="0"/>
-      <c r="BJ11" s="0"/>
-      <c r="BK11" s="0"/>
-      <c r="BL11" s="0"/>
-      <c r="BM11" s="0"/>
-      <c r="BN11" s="0"/>
-      <c r="BO11" s="0"/>
-      <c r="BP11" s="0"/>
-      <c r="BQ11" s="0"/>
-      <c r="BR11" s="0"/>
-      <c r="BS11" s="0"/>
-      <c r="BT11" s="0"/>
-      <c r="BU11" s="0"/>
-      <c r="BV11" s="0"/>
-      <c r="BW11" s="0"/>
-      <c r="BX11" s="0"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
@@ -4565,74 +3835,7 @@
       <c r="H12" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="0"/>
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
-      <c r="S12" s="0"/>
-      <c r="T12" s="0"/>
-      <c r="U12" s="0"/>
-      <c r="V12" s="0"/>
-      <c r="W12" s="0"/>
-      <c r="X12" s="0"/>
-      <c r="Y12" s="0"/>
-      <c r="Z12" s="0"/>
-      <c r="AA12" s="0"/>
-      <c r="AB12" s="0"/>
-      <c r="AC12" s="0"/>
-      <c r="AD12" s="0"/>
-      <c r="AE12" s="0"/>
-      <c r="AF12" s="0"/>
-      <c r="AG12" s="0"/>
-      <c r="AH12" s="0"/>
-      <c r="AI12" s="0"/>
-      <c r="AJ12" s="0"/>
-      <c r="AK12" s="0"/>
-      <c r="AL12" s="0"/>
-      <c r="AM12" s="0"/>
-      <c r="AN12" s="0"/>
-      <c r="AO12" s="0"/>
-      <c r="AP12" s="0"/>
-      <c r="AQ12" s="0"/>
-      <c r="AR12" s="0"/>
-      <c r="AS12" s="0"/>
-      <c r="AT12" s="0"/>
-      <c r="AU12" s="0"/>
-      <c r="AV12" s="0"/>
-      <c r="AW12" s="0"/>
-      <c r="AX12" s="0"/>
-      <c r="AY12" s="0"/>
-      <c r="AZ12" s="0"/>
-      <c r="BA12" s="0"/>
-      <c r="BB12" s="0"/>
-      <c r="BC12" s="0"/>
-      <c r="BD12" s="0"/>
-      <c r="BE12" s="0"/>
-      <c r="BF12" s="0"/>
-      <c r="BG12" s="0"/>
-      <c r="BH12" s="0"/>
-      <c r="BI12" s="0"/>
-      <c r="BJ12" s="0"/>
-      <c r="BK12" s="0"/>
-      <c r="BL12" s="0"/>
-      <c r="BM12" s="0"/>
-      <c r="BN12" s="0"/>
-      <c r="BO12" s="0"/>
-      <c r="BP12" s="0"/>
-      <c r="BQ12" s="0"/>
-      <c r="BR12" s="0"/>
-      <c r="BS12" s="0"/>
-      <c r="BT12" s="0"/>
-      <c r="BU12" s="0"/>
-      <c r="BV12" s="0"/>
-      <c r="BW12" s="0"/>
-      <c r="BX12" s="0"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
@@ -4653,74 +3856,7 @@
       <c r="H13" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-      <c r="M13" s="0"/>
-      <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
-      <c r="S13" s="0"/>
-      <c r="T13" s="0"/>
-      <c r="U13" s="0"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
-      <c r="X13" s="0"/>
-      <c r="Y13" s="0"/>
-      <c r="Z13" s="0"/>
-      <c r="AA13" s="0"/>
-      <c r="AB13" s="0"/>
-      <c r="AC13" s="0"/>
-      <c r="AD13" s="0"/>
-      <c r="AE13" s="0"/>
-      <c r="AF13" s="0"/>
-      <c r="AG13" s="0"/>
-      <c r="AH13" s="0"/>
-      <c r="AI13" s="0"/>
-      <c r="AJ13" s="0"/>
-      <c r="AK13" s="0"/>
-      <c r="AL13" s="0"/>
-      <c r="AM13" s="0"/>
-      <c r="AN13" s="0"/>
-      <c r="AO13" s="0"/>
-      <c r="AP13" s="0"/>
-      <c r="AQ13" s="0"/>
-      <c r="AR13" s="0"/>
-      <c r="AS13" s="0"/>
-      <c r="AT13" s="0"/>
-      <c r="AU13" s="0"/>
-      <c r="AV13" s="0"/>
-      <c r="AW13" s="0"/>
-      <c r="AX13" s="0"/>
-      <c r="AY13" s="0"/>
-      <c r="AZ13" s="0"/>
-      <c r="BA13" s="0"/>
-      <c r="BB13" s="0"/>
-      <c r="BC13" s="0"/>
-      <c r="BD13" s="0"/>
-      <c r="BE13" s="0"/>
-      <c r="BF13" s="0"/>
-      <c r="BG13" s="0"/>
-      <c r="BH13" s="0"/>
-      <c r="BI13" s="0"/>
-      <c r="BJ13" s="0"/>
-      <c r="BK13" s="0"/>
-      <c r="BL13" s="0"/>
-      <c r="BM13" s="0"/>
-      <c r="BN13" s="0"/>
-      <c r="BO13" s="0"/>
-      <c r="BP13" s="0"/>
-      <c r="BQ13" s="0"/>
-      <c r="BR13" s="0"/>
-      <c r="BS13" s="0"/>
-      <c r="BT13" s="0"/>
-      <c r="BU13" s="0"/>
-      <c r="BV13" s="0"/>
-      <c r="BW13" s="0"/>
-      <c r="BX13" s="0"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
@@ -4779,37 +3915,37 @@
         <f aca="false">VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="12"/>
       <c r="F17" s="2" t="n">
         <f aca="false">VLOOKUP(F16,$A$2:$H$13,8)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="29"/>
       <c r="H17" s="12"/>
       <c r="K17" s="2" t="n">
         <f aca="false">VLOOKUP(K16,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="L17" s="11"/>
+      <c r="L17" s="29"/>
       <c r="M17" s="12"/>
       <c r="P17" s="2" t="n">
         <f aca="false">VLOOKUP(P16,$A$2:$H$13,8)</f>
         <v>3</v>
       </c>
-      <c r="Q17" s="11"/>
+      <c r="Q17" s="29"/>
       <c r="R17" s="12"/>
       <c r="U17" s="2" t="n">
         <f aca="false">VLOOKUP(U16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="V17" s="11"/>
+      <c r="V17" s="29"/>
       <c r="W17" s="12"/>
       <c r="Z17" s="2" t="n">
         <f aca="false">VLOOKUP(Z16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="AA17" s="11"/>
+      <c r="AA17" s="29"/>
       <c r="AB17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4873,25 +4009,25 @@
         <f aca="false">VLOOKUP(F21,$A$2:$H$13,8)</f>
         <v>7</v>
       </c>
-      <c r="G22" s="11"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="12"/>
       <c r="K22" s="2" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="L22" s="11"/>
+      <c r="L22" s="29"/>
       <c r="M22" s="12"/>
       <c r="P22" s="2" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="11"/>
+      <c r="Q22" s="29"/>
       <c r="R22" s="12"/>
       <c r="U22" s="2" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="11"/>
+      <c r="V22" s="29"/>
       <c r="W22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4933,13 +4069,13 @@
         <f aca="false">VLOOKUP(K26,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="L27" s="11"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="12"/>
       <c r="U27" s="2" t="n">
         <f aca="false">VLOOKUP(U26,$A$2:$H$13,8)</f>
         <v>9</v>
       </c>
-      <c r="V27" s="11"/>
+      <c r="V27" s="29"/>
       <c r="W27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" state="visible" r:id="rId2"/>
@@ -2119,8 +2119,8 @@
   </sheetPr>
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X26" activeCellId="0" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2630,34 +2630,58 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7"/>
+      <c r="A15" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="9" t="n">
+        <v>10</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="7"/>
+      <c r="K15" s="7" t="n">
+        <v>10</v>
+      </c>
       <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
+      <c r="M15" s="9" t="n">
+        <v>16</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="7" t="n">
+        <v>16</v>
+      </c>
       <c r="Q15" s="8"/>
-      <c r="R15" s="9"/>
+      <c r="R15" s="9" t="n">
+        <v>21</v>
+      </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="7"/>
+      <c r="U15" s="7" t="n">
+        <v>21</v>
+      </c>
       <c r="V15" s="8"/>
-      <c r="W15" s="9"/>
+      <c r="W15" s="9" t="n">
+        <v>29</v>
+      </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="7"/>
+      <c r="Z15" s="7" t="n">
+        <v>30</v>
+      </c>
       <c r="AA15" s="8"/>
-      <c r="AB15" s="9"/>
+      <c r="AB15" s="9" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
@@ -2706,78 +2730,126 @@
         <f aca="false">VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="n">
         <f aca="false">VLOOKUP(F16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="n">
         <f aca="false">VLOOKUP(K16,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12"/>
+      <c r="L17" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2" t="n">
         <f aca="false">VLOOKUP(P16,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="12"/>
+      <c r="Q17" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2" t="n">
         <f aca="false">VLOOKUP(U16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="V17" s="11"/>
-      <c r="W17" s="12"/>
+      <c r="V17" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2" t="n">
         <f aca="false">VLOOKUP(Z16,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="12"/>
+      <c r="AA17" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
+      <c r="A18" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="14" t="n">
+        <v>2</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="13"/>
+      <c r="F18" s="13" t="n">
+        <v>3</v>
+      </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="14" t="n">
+        <v>11</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="13"/>
+      <c r="K18" s="13" t="n">
+        <v>11</v>
+      </c>
       <c r="L18" s="8"/>
-      <c r="M18" s="14"/>
+      <c r="M18" s="14" t="n">
+        <v>17</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="13"/>
+      <c r="P18" s="13" t="n">
+        <v>17</v>
+      </c>
       <c r="Q18" s="8"/>
-      <c r="R18" s="14"/>
+      <c r="R18" s="14" t="n">
+        <v>22</v>
+      </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="13"/>
+      <c r="U18" s="13" t="n">
+        <v>22</v>
+      </c>
       <c r="V18" s="8"/>
-      <c r="W18" s="14"/>
+      <c r="W18" s="14" t="n">
+        <v>30</v>
+      </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="13"/>
+      <c r="Z18" s="13" t="n">
+        <v>30</v>
+      </c>
       <c r="AA18" s="8"/>
-      <c r="AB18" s="14"/>
+      <c r="AB18" s="14" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
@@ -2813,23 +2885,39 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
+      <c r="H20" s="9" t="n">
+        <v>11</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="7"/>
+      <c r="K20" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="L20" s="8"/>
-      <c r="M20" s="9"/>
+      <c r="M20" s="9" t="n">
+        <v>22</v>
+      </c>
       <c r="N20" s="2"/>
-      <c r="P20" s="7"/>
+      <c r="P20" s="7" t="n">
+        <v>22</v>
+      </c>
       <c r="Q20" s="8"/>
-      <c r="R20" s="9"/>
+      <c r="R20" s="9" t="n">
+        <v>28</v>
+      </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="7"/>
+      <c r="U20" s="7" t="n">
+        <v>28</v>
+      </c>
       <c r="V20" s="8"/>
-      <c r="W20" s="9"/>
+      <c r="W20" s="9" t="n">
+        <v>30</v>
+      </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
@@ -2879,31 +2967,47 @@
         <f aca="false">VLOOKUP(F21,$A$2:$H$13,8)</f>
         <v>9</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$H$13,8)</f>
         <v>11</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="12"/>
+      <c r="L22" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="P22" s="2" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="12"/>
+      <c r="Q22" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="11"/>
-      <c r="W22" s="12"/>
+      <c r="V22" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
@@ -2914,23 +3018,39 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="13"/>
+      <c r="F23" s="13" t="n">
+        <v>2</v>
+      </c>
       <c r="G23" s="8"/>
-      <c r="H23" s="14"/>
+      <c r="H23" s="14" t="n">
+        <v>11</v>
+      </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="13"/>
+      <c r="K23" s="13" t="n">
+        <v>11</v>
+      </c>
       <c r="L23" s="8"/>
-      <c r="M23" s="14"/>
+      <c r="M23" s="14" t="n">
+        <v>22</v>
+      </c>
       <c r="N23" s="2"/>
-      <c r="P23" s="13"/>
+      <c r="P23" s="13" t="n">
+        <v>22</v>
+      </c>
       <c r="Q23" s="8"/>
-      <c r="R23" s="14"/>
+      <c r="R23" s="14" t="n">
+        <v>28</v>
+      </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="13"/>
+      <c r="U23" s="13" t="n">
+        <v>28</v>
+      </c>
       <c r="V23" s="8"/>
-      <c r="W23" s="14"/>
+      <c r="W23" s="14" t="n">
+        <v>30</v>
+      </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
@@ -2974,14 +3094,22 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="7"/>
+      <c r="K25" s="7" t="n">
+        <v>11</v>
+      </c>
       <c r="L25" s="8"/>
-      <c r="M25" s="9"/>
+      <c r="M25" s="9" t="n">
+        <v>19</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="7"/>
+      <c r="P25" s="7" t="n">
+        <v>19</v>
+      </c>
       <c r="Q25" s="8"/>
-      <c r="R25" s="9"/>
+      <c r="R25" s="9" t="n">
+        <v>24</v>
+      </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -3038,16 +3166,24 @@
         <f aca="false">VLOOKUP(K26,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="12"/>
+      <c r="L27" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M27" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2" t="n">
         <f aca="false">VLOOKUP(P26,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="12"/>
+      <c r="Q27" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" s="12" t="n">
+        <v>4</v>
+      </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -3068,14 +3204,22 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="13"/>
+      <c r="K28" s="13" t="n">
+        <v>15</v>
+      </c>
       <c r="L28" s="8"/>
-      <c r="M28" s="14"/>
+      <c r="M28" s="14" t="n">
+        <v>23</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="13"/>
+      <c r="P28" s="13" t="n">
+        <v>23</v>
+      </c>
       <c r="Q28" s="8"/>
-      <c r="R28" s="14"/>
+      <c r="R28" s="14" t="n">
+        <v>28</v>
+      </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -3584,7 +3728,7 @@
   </sheetPr>
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AA20" activeCellId="0" sqref="AA20"/>
     </sheetView>
   </sheetViews>

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="29">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -35,13 +35,13 @@
     <t xml:space="preserve">D</t>
   </si>
   <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">E</t>
@@ -114,12 +114,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -145,6 +146,13 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFEB3B"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -197,7 +205,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +220,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB3B"/>
+        <bgColor rgb="FFFFF176"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
         <bgColor rgb="FF9CCC65"/>
       </patternFill>
@@ -219,7 +233,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFEB3B"/>
       </patternFill>
     </fill>
     <fill>
@@ -299,7 +313,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -326,13 +340,36 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="75" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -340,23 +377,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -364,39 +393,67 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -404,35 +461,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -440,16 +469,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -457,8 +482,9 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Gesamtpuffer" xfId="20"/>
+    <cellStyle name="Task" xfId="21"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -467,6 +493,33 @@
         <b val="1"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFEB3B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB3B"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -513,7 +566,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFEB3B"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -570,7 +623,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800640" y="2601000"/>
+          <a:off x="800640" y="2976840"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -612,7 +665,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2169000" y="2599200"/>
+          <a:off x="2169000" y="2975400"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -654,7 +707,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3524760" y="2599200"/>
+          <a:off x="3524760" y="2975400"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -696,7 +749,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4880880" y="2599200"/>
+          <a:off x="4880880" y="2975400"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -738,7 +791,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6236640" y="2599200"/>
+          <a:off x="6236640" y="2975400"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -780,7 +833,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2169000" y="3411720"/>
+          <a:off x="2169000" y="3787560"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -822,7 +875,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3524760" y="3411720"/>
+          <a:off x="3524760" y="3787560"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -864,7 +917,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4880880" y="3411720"/>
+          <a:off x="4880880" y="3787560"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -906,7 +959,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6236640" y="3411720"/>
+          <a:off x="6236640" y="3787560"/>
           <a:ext cx="276840" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -948,7 +1001,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085040" y="3411720"/>
+          <a:off x="1085040" y="3787560"/>
           <a:ext cx="276840" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -990,7 +1043,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2440800" y="4224240"/>
+          <a:off x="2440800" y="4600080"/>
           <a:ext cx="276840" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1032,7 +1085,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4880880" y="4224240"/>
+          <a:off x="4880880" y="4600080"/>
           <a:ext cx="277200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1074,7 +1127,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3524760" y="4224240"/>
+          <a:off x="3524760" y="4600080"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1116,7 +1169,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085040" y="2602800"/>
+          <a:off x="1085040" y="2978640"/>
           <a:ext cx="0" cy="826200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1149,7 +1202,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1158,7 +1211,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2440800" y="3415680"/>
+          <a:off x="2440800" y="3791520"/>
           <a:ext cx="0" cy="825840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1191,7 +1244,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1200,7 +1253,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5151600" y="3415680"/>
+          <a:off x="5151600" y="3791520"/>
           <a:ext cx="0" cy="825840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1242,7 +1295,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6507360" y="2602800"/>
+          <a:off x="6507360" y="2978640"/>
           <a:ext cx="0" cy="826200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2117,15 +2170,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB43"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X26" activeCellId="0" sqref="X26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2142,464 +2195,1166 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="n">
+        <v>45019</v>
+      </c>
+      <c r="K1" s="3" t="n">
+        <v>45020</v>
+      </c>
+      <c r="L1" s="3" t="n">
+        <v>45021</v>
+      </c>
+      <c r="M1" s="3" t="n">
+        <v>45022</v>
+      </c>
+      <c r="N1" s="3" t="n">
+        <v>45023</v>
+      </c>
+      <c r="O1" s="3" t="n">
+        <v>45024</v>
+      </c>
+      <c r="P1" s="3" t="n">
+        <v>45025</v>
+      </c>
+      <c r="Q1" s="3" t="n">
+        <v>45026</v>
+      </c>
+      <c r="R1" s="3" t="n">
+        <v>45027</v>
+      </c>
+      <c r="S1" s="3" t="n">
+        <v>45028</v>
+      </c>
+      <c r="T1" s="3" t="n">
+        <v>45029</v>
+      </c>
+      <c r="U1" s="3" t="n">
+        <v>45030</v>
+      </c>
+      <c r="V1" s="3" t="n">
+        <v>45031</v>
+      </c>
+      <c r="W1" s="3" t="n">
+        <v>45032</v>
+      </c>
+      <c r="X1" s="3" t="n">
+        <v>45033</v>
+      </c>
+      <c r="Y1" s="3" t="n">
+        <v>45034</v>
+      </c>
+      <c r="Z1" s="3" t="n">
+        <v>45035</v>
+      </c>
+      <c r="AA1" s="3" t="n">
+        <v>45036</v>
+      </c>
+      <c r="AB1" s="3" t="n">
+        <v>45037</v>
+      </c>
+      <c r="AC1" s="3" t="n">
+        <v>45038</v>
+      </c>
+      <c r="AD1" s="3" t="n">
+        <v>45039</v>
+      </c>
+      <c r="AE1" s="3" t="n">
+        <v>45040</v>
+      </c>
+      <c r="AF1" s="3" t="n">
+        <v>45041</v>
+      </c>
+      <c r="AG1" s="3" t="n">
+        <v>45042</v>
+      </c>
+      <c r="AH1" s="3" t="n">
+        <v>45043</v>
+      </c>
+      <c r="AI1" s="3" t="n">
+        <v>45044</v>
+      </c>
+      <c r="AJ1" s="3" t="n">
+        <v>45045</v>
+      </c>
+      <c r="AK1" s="3" t="n">
+        <v>45046</v>
+      </c>
+      <c r="AL1" s="3" t="n">
+        <v>45047</v>
+      </c>
+      <c r="AM1" s="3" t="n">
+        <v>45048</v>
+      </c>
+      <c r="AN1" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="AO1" s="3" t="n">
+        <v>45050</v>
+      </c>
+      <c r="AP1" s="3" t="n">
+        <v>45051</v>
+      </c>
+      <c r="AQ1" s="3" t="n">
+        <v>45052</v>
+      </c>
+      <c r="AR1" s="3" t="n">
+        <v>45053</v>
+      </c>
+      <c r="AS1" s="3" t="n">
+        <v>45054</v>
+      </c>
+      <c r="AT1" s="3" t="n">
+        <v>45055</v>
+      </c>
+      <c r="AU1" s="3" t="n">
+        <v>45056</v>
+      </c>
+      <c r="AV1" s="3" t="n">
+        <v>45057</v>
+      </c>
+      <c r="AW1" s="3" t="n">
+        <v>45058</v>
+      </c>
+      <c r="AX1" s="3" t="n">
+        <v>45059</v>
+      </c>
+      <c r="AY1" s="3" t="n">
+        <v>45060</v>
+      </c>
+      <c r="AZ1" s="3" t="n">
+        <v>45061</v>
+      </c>
+      <c r="BA1" s="3" t="n">
+        <v>45062</v>
+      </c>
+      <c r="BB1" s="3" t="n">
+        <v>45063</v>
+      </c>
+      <c r="BC1" s="3" t="n">
+        <v>45064</v>
+      </c>
+      <c r="BD1" s="3" t="n">
+        <v>45065</v>
+      </c>
+      <c r="BE1" s="3" t="n">
+        <v>45066</v>
+      </c>
+      <c r="BF1" s="3" t="n">
+        <v>45067</v>
+      </c>
+      <c r="BG1" s="3" t="n">
+        <v>45068</v>
+      </c>
+      <c r="BH1" s="3" t="n">
+        <v>45069</v>
+      </c>
+      <c r="BI1" s="3" t="n">
+        <v>45070</v>
+      </c>
+      <c r="BJ1" s="3" t="n">
+        <v>45071</v>
+      </c>
+      <c r="BK1" s="3" t="n">
+        <v>45072</v>
+      </c>
+      <c r="BL1" s="3" t="n">
+        <v>45073</v>
+      </c>
+      <c r="BM1" s="3" t="n">
+        <v>45074</v>
+      </c>
+      <c r="BN1" s="3" t="n">
+        <v>45075</v>
+      </c>
+      <c r="BO1" s="3" t="n">
+        <v>45076</v>
+      </c>
+      <c r="BP1" s="3" t="n">
+        <v>45077</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <f aca="false">SUM(J2:BP2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="8"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="8"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <f aca="false">SUM(J3:BP3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8"/>
+      <c r="BK3" s="8"/>
+      <c r="BL3" s="8"/>
+      <c r="BM3" s="8"/>
+      <c r="BN3" s="8"/>
+      <c r="BO3" s="8"/>
+      <c r="BP3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <f aca="false">SUM(J4:BP4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="8"/>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="8"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="8"/>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3" t="n">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <f aca="false">SUM(J5:BP5)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="8"/>
+      <c r="BK5" s="8"/>
+      <c r="BL5" s="8"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="8"/>
+      <c r="BO5" s="8"/>
+      <c r="BP5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <f aca="false">SUM(J6:BP6)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+      <c r="BI6" s="8"/>
+      <c r="BJ6" s="8"/>
+      <c r="BK6" s="8"/>
+      <c r="BL6" s="8"/>
+      <c r="BM6" s="8"/>
+      <c r="BN6" s="8"/>
+      <c r="BO6" s="8"/>
+      <c r="BP6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <f aca="false">SUM(J7:BP7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="8"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="8"/>
+      <c r="BI7" s="8"/>
+      <c r="BJ7" s="8"/>
+      <c r="BK7" s="8"/>
+      <c r="BL7" s="8"/>
+      <c r="BM7" s="8"/>
+      <c r="BN7" s="8"/>
+      <c r="BO7" s="8"/>
+      <c r="BP7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <f aca="false">SUM(J8:BP8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="8"/>
+      <c r="BH8" s="8"/>
+      <c r="BI8" s="8"/>
+      <c r="BJ8" s="8"/>
+      <c r="BK8" s="8"/>
+      <c r="BL8" s="8"/>
+      <c r="BM8" s="8"/>
+      <c r="BN8" s="8"/>
+      <c r="BO8" s="8"/>
+      <c r="BP8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <f aca="false">SUM(J9:BP9)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="8"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+      <c r="BG9" s="8"/>
+      <c r="BH9" s="8"/>
+      <c r="BI9" s="8"/>
+      <c r="BJ9" s="8"/>
+      <c r="BK9" s="8"/>
+      <c r="BL9" s="8"/>
+      <c r="BM9" s="8"/>
+      <c r="BN9" s="8"/>
+      <c r="BO9" s="8"/>
+      <c r="BP9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <f aca="false">SUM(J10:BP10)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="8"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8"/>
+      <c r="BG10" s="8"/>
+      <c r="BH10" s="8"/>
+      <c r="BI10" s="8"/>
+      <c r="BJ10" s="8"/>
+      <c r="BK10" s="8"/>
+      <c r="BL10" s="8"/>
+      <c r="BM10" s="8"/>
+      <c r="BN10" s="8"/>
+      <c r="BO10" s="8"/>
+      <c r="BP10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <f aca="false">SUM(J11:BP11)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="8"/>
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="8"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="8"/>
+      <c r="BC11" s="8"/>
+      <c r="BD11" s="8"/>
+      <c r="BE11" s="8"/>
+      <c r="BF11" s="8"/>
+      <c r="BG11" s="8"/>
+      <c r="BH11" s="8"/>
+      <c r="BI11" s="8"/>
+      <c r="BJ11" s="8"/>
+      <c r="BK11" s="8"/>
+      <c r="BL11" s="8"/>
+      <c r="BM11" s="8"/>
+      <c r="BN11" s="8"/>
+      <c r="BO11" s="8"/>
+      <c r="BP11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="I12" s="2" t="n">
+        <f aca="false">SUM(J12:BP12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="8"/>
+      <c r="BC12" s="8"/>
+      <c r="BD12" s="8"/>
+      <c r="BE12" s="8"/>
+      <c r="BF12" s="8"/>
+      <c r="BG12" s="8"/>
+      <c r="BH12" s="8"/>
+      <c r="BI12" s="8"/>
+      <c r="BJ12" s="8"/>
+      <c r="BK12" s="8"/>
+      <c r="BL12" s="8"/>
+      <c r="BM12" s="8"/>
+      <c r="BN12" s="8"/>
+      <c r="BO12" s="8"/>
+      <c r="BP12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
+      <c r="I13" s="2" t="n">
+        <f aca="false">SUM(J13:BP13)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="8"/>
+      <c r="BC13" s="8"/>
+      <c r="BD13" s="8"/>
+      <c r="BE13" s="8"/>
+      <c r="BF13" s="8"/>
+      <c r="BG13" s="8"/>
+      <c r="BH13" s="8"/>
+      <c r="BI13" s="8"/>
+      <c r="BJ13" s="8"/>
+      <c r="BK13" s="8"/>
+      <c r="BL13" s="8"/>
+      <c r="BM13" s="8"/>
+      <c r="BN13" s="8"/>
+      <c r="BO13" s="8"/>
+      <c r="BP13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
@@ -2630,110 +3385,110 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="n">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12" t="n">
         <v>2</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9" t="n">
+      <c r="G15" s="11"/>
+      <c r="H15" s="12" t="n">
         <v>10</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="7" t="n">
+      <c r="K15" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9" t="n">
+      <c r="L15" s="11"/>
+      <c r="M15" s="12" t="n">
         <v>16</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="7" t="n">
+      <c r="P15" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="9" t="n">
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12" t="n">
         <v>21</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="7" t="n">
+      <c r="U15" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="V15" s="8"/>
-      <c r="W15" s="9" t="n">
+      <c r="V15" s="11"/>
+      <c r="W15" s="12" t="n">
         <v>29</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="7" t="n">
+      <c r="Z15" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="9" t="n">
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="12" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="F16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="10" t="s">
+      <c r="P16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="10" t="s">
+      <c r="U16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="10" t="s">
+      <c r="Z16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <f aca="false">VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="12" t="n">
+      <c r="C17" s="15" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="2"/>
@@ -2742,10 +3497,10 @@
         <f aca="false">VLOOKUP(F16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="11" t="n">
+      <c r="G17" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="H17" s="12" t="n">
+      <c r="H17" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
@@ -2754,10 +3509,10 @@
         <f aca="false">VLOOKUP(K16,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="L17" s="11" t="n">
+      <c r="L17" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="M17" s="12" t="n">
+      <c r="M17" s="15" t="n">
         <v>0</v>
       </c>
       <c r="N17" s="2"/>
@@ -2766,10 +3521,10 @@
         <f aca="false">VLOOKUP(P16,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q17" s="11" t="n">
+      <c r="Q17" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="12" t="n">
+      <c r="R17" s="15" t="n">
         <v>0</v>
       </c>
       <c r="S17" s="2"/>
@@ -2778,10 +3533,10 @@
         <f aca="false">VLOOKUP(U16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="V17" s="11" t="n">
+      <c r="V17" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="W17" s="12" t="n">
+      <c r="W17" s="15" t="n">
         <v>1</v>
       </c>
       <c r="X17" s="2"/>
@@ -2790,64 +3545,64 @@
         <f aca="false">VLOOKUP(Z16,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="AA17" s="11" t="n">
+      <c r="AA17" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="AB17" s="12" t="n">
+      <c r="AB17" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="n">
+      <c r="A18" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="14" t="n">
+      <c r="B18" s="11"/>
+      <c r="C18" s="17" t="n">
         <v>2</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="13" t="n">
+      <c r="F18" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="14" t="n">
+      <c r="G18" s="11"/>
+      <c r="H18" s="17" t="n">
         <v>11</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="13" t="n">
+      <c r="K18" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="14" t="n">
+      <c r="L18" s="11"/>
+      <c r="M18" s="17" t="n">
         <v>17</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="13" t="n">
+      <c r="P18" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="14" t="n">
+      <c r="Q18" s="11"/>
+      <c r="R18" s="17" t="n">
         <v>22</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="13" t="n">
+      <c r="U18" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="V18" s="8"/>
-      <c r="W18" s="14" t="n">
+      <c r="V18" s="11"/>
+      <c r="W18" s="17" t="n">
         <v>30</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="13" t="n">
+      <c r="Z18" s="16" t="n">
         <v>30</v>
       </c>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="14" t="n">
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="17" t="n">
         <v>34</v>
       </c>
     </row>
@@ -2885,37 +3640,37 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="7" t="n">
+      <c r="F20" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9" t="n">
+      <c r="G20" s="11"/>
+      <c r="H20" s="12" t="n">
         <v>11</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="7" t="n">
+      <c r="K20" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="9" t="n">
+      <c r="L20" s="11"/>
+      <c r="M20" s="12" t="n">
         <v>22</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="P20" s="7" t="n">
+      <c r="P20" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="9" t="n">
+      <c r="Q20" s="11"/>
+      <c r="R20" s="12" t="n">
         <v>28</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="7" t="n">
+      <c r="U20" s="10" t="n">
         <v>28</v>
       </c>
-      <c r="V20" s="8"/>
-      <c r="W20" s="9" t="n">
+      <c r="V20" s="11"/>
+      <c r="W20" s="12" t="n">
         <v>30</v>
       </c>
       <c r="X20" s="2"/>
@@ -2928,31 +3683,31 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="F21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
       <c r="N21" s="2"/>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="10" t="s">
+      <c r="U21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
@@ -2967,10 +3722,10 @@
         <f aca="false">VLOOKUP(F21,$A$2:$H$13,8)</f>
         <v>9</v>
       </c>
-      <c r="G22" s="11" t="n">
+      <c r="G22" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="12" t="n">
+      <c r="H22" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
@@ -2979,10 +3734,10 @@
         <f aca="false">VLOOKUP(K21,$A$2:$H$13,8)</f>
         <v>11</v>
       </c>
-      <c r="L22" s="11" t="n">
+      <c r="L22" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="M22" s="12" t="n">
+      <c r="M22" s="15" t="n">
         <v>0</v>
       </c>
       <c r="N22" s="2"/>
@@ -2990,10 +3745,10 @@
         <f aca="false">VLOOKUP(P21,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="11" t="n">
+      <c r="Q22" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="R22" s="12" t="n">
+      <c r="R22" s="15" t="n">
         <v>0</v>
       </c>
       <c r="S22" s="2"/>
@@ -3002,10 +3757,10 @@
         <f aca="false">VLOOKUP(U21,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="11" t="n">
+      <c r="V22" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="W22" s="12" t="n">
+      <c r="W22" s="15" t="n">
         <v>0</v>
       </c>
       <c r="X22" s="2"/>
@@ -3018,37 +3773,37 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="13" t="n">
+      <c r="F23" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="14" t="n">
+      <c r="G23" s="11"/>
+      <c r="H23" s="17" t="n">
         <v>11</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="13" t="n">
+      <c r="K23" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="14" t="n">
+      <c r="L23" s="11"/>
+      <c r="M23" s="17" t="n">
         <v>22</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="P23" s="13" t="n">
+      <c r="P23" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="14" t="n">
+      <c r="Q23" s="11"/>
+      <c r="R23" s="17" t="n">
         <v>28</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="13" t="n">
+      <c r="U23" s="16" t="n">
         <v>28</v>
       </c>
-      <c r="V23" s="8"/>
-      <c r="W23" s="14" t="n">
+      <c r="V23" s="11"/>
+      <c r="W23" s="17" t="n">
         <v>30</v>
       </c>
       <c r="X23" s="2"/>
@@ -3094,20 +3849,20 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="7" t="n">
+      <c r="K25" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="9" t="n">
+      <c r="L25" s="11"/>
+      <c r="M25" s="12" t="n">
         <v>19</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="7" t="n">
+      <c r="P25" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="9" t="n">
+      <c r="Q25" s="11"/>
+      <c r="R25" s="12" t="n">
         <v>24</v>
       </c>
       <c r="S25" s="2"/>
@@ -3130,18 +3885,18 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="10" t="s">
+      <c r="P26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -3166,10 +3921,10 @@
         <f aca="false">VLOOKUP(K26,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="L27" s="11" t="n">
+      <c r="L27" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="M27" s="12" t="n">
+      <c r="M27" s="15" t="n">
         <v>0</v>
       </c>
       <c r="N27" s="2"/>
@@ -3178,10 +3933,10 @@
         <f aca="false">VLOOKUP(P26,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q27" s="11" t="n">
+      <c r="Q27" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="R27" s="12" t="n">
+      <c r="R27" s="15" t="n">
         <v>4</v>
       </c>
       <c r="S27" s="2"/>
@@ -3204,20 +3959,20 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="13" t="n">
+      <c r="K28" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="14" t="n">
+      <c r="L28" s="11"/>
+      <c r="M28" s="17" t="n">
         <v>23</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="13" t="n">
+      <c r="P28" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="14" t="n">
+      <c r="Q28" s="11"/>
+      <c r="R28" s="17" t="n">
         <v>28</v>
       </c>
       <c r="S28" s="2"/>
@@ -3258,18 +4013,18 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -3286,22 +4041,22 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="16"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="19"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -3318,20 +4073,20 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15"/>
-      <c r="B32" s="18" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="16"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="19"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -3348,24 +4103,24 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="16"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="19"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -3382,22 +4137,22 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15"/>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17" t="s">
+      <c r="C34" s="20"/>
+      <c r="D34" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="16"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="19"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -3414,18 +4169,18 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="16"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="19"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -3442,22 +4197,22 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15"/>
-      <c r="B36" s="22" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="16"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="19"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -3474,22 +4229,22 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15"/>
-      <c r="B37" s="22" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="16"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="19"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -3506,22 +4261,22 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15"/>
-      <c r="B38" s="22" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="16"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="19"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -3538,22 +4293,22 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15"/>
-      <c r="B39" s="22" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="16"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="19"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -3570,22 +4325,22 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15"/>
-      <c r="B40" s="20" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="16"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="19"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -3602,22 +4357,22 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15"/>
-      <c r="B41" s="21" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="16"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="19"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -3634,22 +4389,22 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15"/>
-      <c r="B42" s="24" t="s">
+      <c r="A42" s="18"/>
+      <c r="B42" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="16"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="19"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -3666,18 +4421,18 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3710,6 +4465,14 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J1:BP13">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>IF(OR(WEEKDAY(J$1,1)=7,WEEKDAY(J$1,1)=6),1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3728,15 +4491,15 @@
   </sheetPr>
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AA20" activeCellId="0" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="27" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="28" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="10" style="27" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="30" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="31" width="3.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="10" style="30" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3756,479 +4519,479 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="27"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3" t="n">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" s="30"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="I9" s="30"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="30"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" s="30"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" s="30"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="12"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="F16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="K16" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="P16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5" t="s">
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="U16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5" t="s">
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="Z16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="9"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="9"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="F16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="K16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="P16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="U16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="Z16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <f aca="false">VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
       <c r="F17" s="2" t="n">
         <f aca="false">VLOOKUP(F16,$A$2:$H$13,8)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
       <c r="K17" s="2" t="n">
         <f aca="false">VLOOKUP(K16,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="L17" s="29"/>
-      <c r="M17" s="12"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15"/>
       <c r="P17" s="2" t="n">
         <f aca="false">VLOOKUP(P16,$A$2:$H$13,8)</f>
         <v>3</v>
       </c>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="12"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="15"/>
       <c r="U17" s="2" t="n">
         <f aca="false">VLOOKUP(U16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="V17" s="29"/>
-      <c r="W17" s="12"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="15"/>
       <c r="Z17" s="2" t="n">
         <f aca="false">VLOOKUP(Z16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="12"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="14"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="14"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="14"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="14"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="14"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="14"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="17"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="17"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="17"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="17"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="17"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="9"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="9"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="12"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="K21" s="10" t="s">
+      <c r="F21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="K21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="P21" s="10" t="s">
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="P21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="U21" s="10" t="s">
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="U21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="2" t="n">
         <f aca="false">VLOOKUP(F21,$A$2:$H$13,8)</f>
         <v>7</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
       <c r="K22" s="2" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="12"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="15"/>
       <c r="P22" s="2" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="12"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="15"/>
       <c r="U22" s="2" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="29"/>
-      <c r="W22" s="12"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="13"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="14"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="14"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="14"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="14"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="17"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="17"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="17"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K25" s="7"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="9"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="9"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="12"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="U26" s="10" t="s">
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="U26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K27" s="2" t="n">
         <f aca="false">VLOOKUP(K26,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="L27" s="29"/>
-      <c r="M27" s="12"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="15"/>
       <c r="U27" s="2" t="n">
         <f aca="false">VLOOKUP(U26,$A$2:$H$13,8)</f>
         <v>9</v>
       </c>
-      <c r="V27" s="29"/>
-      <c r="W27" s="12"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="13"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="14"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="14"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="17"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4248,7 +5011,7 @@
     <mergeCell ref="U26:W26"/>
   </mergeCells>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -2173,7 +2173,7 @@
   <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J:J"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4467,7 +4467,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:BP13">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>IF(OR(WEEKDAY(J$1,1)=7,WEEKDAY(J$1,1)=6),1,0)</formula>
+      <formula>IF(OR(WEEKDAY(J$1,2)=7,WEEKDAY(J$1,2)=6),1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>1</formula>
@@ -4492,7 +4492,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA20" activeCellId="0" sqref="AA20"/>
+      <selection pane="topLeft" activeCell="AA20" activeCellId="1" sqref="J:J AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -238,6 +238,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF5722"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
         <bgColor rgb="FF9CCC65"/>
       </patternFill>
@@ -270,12 +276,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF176"/>
         <bgColor rgb="FFFFF59D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF5722"/>
-        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
@@ -344,7 +344,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -381,11 +381,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -393,23 +397,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2173,7 +2177,9 @@
   <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J:J"/>
+      <pane xSplit="28" ySplit="0" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="U9" activeCellId="0" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2395,16 +2401,20 @@
       </c>
       <c r="I2" s="2" t="n">
         <f aca="false">SUM(J2:BP2)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="9"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
@@ -2425,7 +2435,7 @@
       <c r="AI2" s="8"/>
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
+      <c r="AL2" s="9"/>
       <c r="AM2" s="8"/>
       <c r="AN2" s="8"/>
       <c r="AO2" s="8"/>
@@ -2442,7 +2452,7 @@
       <c r="AZ2" s="8"/>
       <c r="BA2" s="8"/>
       <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
+      <c r="BC2" s="9"/>
       <c r="BD2" s="8"/>
       <c r="BE2" s="8"/>
       <c r="BF2" s="8"/>
@@ -2453,7 +2463,7 @@
       <c r="BK2" s="8"/>
       <c r="BL2" s="8"/>
       <c r="BM2" s="8"/>
-      <c r="BN2" s="8"/>
+      <c r="BN2" s="9"/>
       <c r="BO2" s="8"/>
       <c r="BP2" s="8"/>
     </row>
@@ -2461,11 +2471,11 @@
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2476,23 +2486,39 @@
       </c>
       <c r="I3" s="2" t="n">
         <f aca="false">SUM(J3:BP3)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="L3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
+      <c r="X3" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
@@ -2506,7 +2532,7 @@
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
+      <c r="AL3" s="9"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="8"/>
       <c r="AO3" s="8"/>
@@ -2523,7 +2549,7 @@
       <c r="AZ3" s="8"/>
       <c r="BA3" s="8"/>
       <c r="BB3" s="8"/>
-      <c r="BC3" s="8"/>
+      <c r="BC3" s="9"/>
       <c r="BD3" s="8"/>
       <c r="BE3" s="8"/>
       <c r="BF3" s="8"/>
@@ -2534,7 +2560,7 @@
       <c r="BK3" s="8"/>
       <c r="BL3" s="8"/>
       <c r="BM3" s="8"/>
-      <c r="BN3" s="8"/>
+      <c r="BN3" s="9"/>
       <c r="BO3" s="8"/>
       <c r="BP3" s="8"/>
     </row>
@@ -2542,11 +2568,11 @@
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
@@ -2559,24 +2585,42 @@
       </c>
       <c r="I4" s="2" t="n">
         <f aca="false">SUM(J4:BP4)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="L4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
+      <c r="X4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
@@ -2589,7 +2633,7 @@
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
+      <c r="AL4" s="9"/>
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
       <c r="AO4" s="8"/>
@@ -2606,7 +2650,7 @@
       <c r="AZ4" s="8"/>
       <c r="BA4" s="8"/>
       <c r="BB4" s="8"/>
-      <c r="BC4" s="8"/>
+      <c r="BC4" s="9"/>
       <c r="BD4" s="8"/>
       <c r="BE4" s="8"/>
       <c r="BF4" s="8"/>
@@ -2617,7 +2661,7 @@
       <c r="BK4" s="8"/>
       <c r="BL4" s="8"/>
       <c r="BM4" s="8"/>
-      <c r="BN4" s="8"/>
+      <c r="BN4" s="9"/>
       <c r="BO4" s="8"/>
       <c r="BP4" s="8"/>
     </row>
@@ -2625,11 +2669,11 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
@@ -2640,7 +2684,7 @@
       </c>
       <c r="I5" s="2" t="n">
         <f aca="false">SUM(J5:BP5)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -2649,7 +2693,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="Q5" s="9"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
@@ -2657,20 +2701,32 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
+      <c r="Y5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
+      <c r="AE5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
+      <c r="AL5" s="9"/>
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
@@ -2687,7 +2743,7 @@
       <c r="AZ5" s="8"/>
       <c r="BA5" s="8"/>
       <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
+      <c r="BC5" s="9"/>
       <c r="BD5" s="8"/>
       <c r="BE5" s="8"/>
       <c r="BF5" s="8"/>
@@ -2698,7 +2754,7 @@
       <c r="BK5" s="8"/>
       <c r="BL5" s="8"/>
       <c r="BM5" s="8"/>
-      <c r="BN5" s="8"/>
+      <c r="BN5" s="9"/>
       <c r="BO5" s="8"/>
       <c r="BP5" s="8"/>
     </row>
@@ -2706,11 +2762,11 @@
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
@@ -2721,7 +2777,7 @@
       </c>
       <c r="I6" s="2" t="n">
         <f aca="false">SUM(J6:BP6)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -2730,7 +2786,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -2739,22 +2795,44 @@
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
+      <c r="Z6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
+      <c r="AE6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AP6" s="8"/>
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
@@ -2768,7 +2846,7 @@
       <c r="AZ6" s="8"/>
       <c r="BA6" s="8"/>
       <c r="BB6" s="8"/>
-      <c r="BC6" s="8"/>
+      <c r="BC6" s="9"/>
       <c r="BD6" s="8"/>
       <c r="BE6" s="8"/>
       <c r="BF6" s="8"/>
@@ -2779,7 +2857,7 @@
       <c r="BK6" s="8"/>
       <c r="BL6" s="8"/>
       <c r="BM6" s="8"/>
-      <c r="BN6" s="8"/>
+      <c r="BN6" s="9"/>
       <c r="BO6" s="8"/>
       <c r="BP6" s="8"/>
     </row>
@@ -2787,11 +2865,11 @@
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
@@ -2802,7 +2880,7 @@
       </c>
       <c r="I7" s="2" t="n">
         <f aca="false">SUM(J7:BP7)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -2811,7 +2889,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
+      <c r="Q7" s="9"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
@@ -2820,19 +2898,35 @@
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
+      <c r="Z7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
+      <c r="AE7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
-      <c r="AL7" s="8"/>
+      <c r="AL7" s="9"/>
       <c r="AM7" s="8"/>
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
@@ -2849,7 +2943,7 @@
       <c r="AZ7" s="8"/>
       <c r="BA7" s="8"/>
       <c r="BB7" s="8"/>
-      <c r="BC7" s="8"/>
+      <c r="BC7" s="9"/>
       <c r="BD7" s="8"/>
       <c r="BE7" s="8"/>
       <c r="BF7" s="8"/>
@@ -2860,7 +2954,7 @@
       <c r="BK7" s="8"/>
       <c r="BL7" s="8"/>
       <c r="BM7" s="8"/>
-      <c r="BN7" s="8"/>
+      <c r="BN7" s="9"/>
       <c r="BO7" s="8"/>
       <c r="BP7" s="8"/>
     </row>
@@ -2868,13 +2962,13 @@
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
@@ -2887,7 +2981,7 @@
       </c>
       <c r="I8" s="2" t="n">
         <f aca="false">SUM(J8:BP8)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -2896,7 +2990,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="Q8" s="9"/>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
@@ -2912,14 +3006,24 @@
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
+      <c r="AG8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AO8" s="8"/>
       <c r="AP8" s="8"/>
       <c r="AQ8" s="8"/>
@@ -2934,7 +3038,7 @@
       <c r="AZ8" s="8"/>
       <c r="BA8" s="8"/>
       <c r="BB8" s="8"/>
-      <c r="BC8" s="8"/>
+      <c r="BC8" s="9"/>
       <c r="BD8" s="8"/>
       <c r="BE8" s="8"/>
       <c r="BF8" s="8"/>
@@ -2945,7 +3049,7 @@
       <c r="BK8" s="8"/>
       <c r="BL8" s="8"/>
       <c r="BM8" s="8"/>
-      <c r="BN8" s="8"/>
+      <c r="BN8" s="9"/>
       <c r="BO8" s="8"/>
       <c r="BP8" s="8"/>
     </row>
@@ -2953,11 +3057,11 @@
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
@@ -2968,7 +3072,7 @@
       </c>
       <c r="I9" s="2" t="n">
         <f aca="false">SUM(J9:BP9)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -2977,7 +3081,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="Q9" s="9"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
@@ -2998,15 +3102,21 @@
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
+      <c r="AL9" s="9"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="8"/>
       <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
+      <c r="AP9" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ9" s="8"/>
       <c r="AR9" s="8"/>
-      <c r="AS9" s="8"/>
-      <c r="AT9" s="8"/>
+      <c r="AS9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AU9" s="8"/>
       <c r="AV9" s="8"/>
       <c r="AW9" s="8"/>
@@ -3015,7 +3125,7 @@
       <c r="AZ9" s="8"/>
       <c r="BA9" s="8"/>
       <c r="BB9" s="8"/>
-      <c r="BC9" s="8"/>
+      <c r="BC9" s="9"/>
       <c r="BD9" s="8"/>
       <c r="BE9" s="8"/>
       <c r="BF9" s="8"/>
@@ -3026,7 +3136,7 @@
       <c r="BK9" s="8"/>
       <c r="BL9" s="8"/>
       <c r="BM9" s="8"/>
-      <c r="BN9" s="8"/>
+      <c r="BN9" s="9"/>
       <c r="BO9" s="8"/>
       <c r="BP9" s="8"/>
     </row>
@@ -3034,11 +3144,11 @@
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
@@ -3058,7 +3168,7 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
+      <c r="Q10" s="9"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
@@ -3079,7 +3189,7 @@
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
-      <c r="AL10" s="8"/>
+      <c r="AL10" s="9"/>
       <c r="AM10" s="8"/>
       <c r="AN10" s="8"/>
       <c r="AO10" s="8"/>
@@ -3096,7 +3206,7 @@
       <c r="AZ10" s="8"/>
       <c r="BA10" s="8"/>
       <c r="BB10" s="8"/>
-      <c r="BC10" s="8"/>
+      <c r="BC10" s="9"/>
       <c r="BD10" s="8"/>
       <c r="BE10" s="8"/>
       <c r="BF10" s="8"/>
@@ -3107,7 +3217,7 @@
       <c r="BK10" s="8"/>
       <c r="BL10" s="8"/>
       <c r="BM10" s="8"/>
-      <c r="BN10" s="8"/>
+      <c r="BN10" s="9"/>
       <c r="BO10" s="8"/>
       <c r="BP10" s="8"/>
     </row>
@@ -3115,11 +3225,11 @@
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
@@ -3130,7 +3240,7 @@
       </c>
       <c r="I11" s="2" t="n">
         <f aca="false">SUM(J11:BP11)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -3139,7 +3249,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="Q11" s="9"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
@@ -3160,24 +3270,40 @@
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="8"/>
+      <c r="AL11" s="9"/>
       <c r="AM11" s="8"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="8"/>
-      <c r="AP11" s="8"/>
+      <c r="AO11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="8"/>
-      <c r="AS11" s="8"/>
-      <c r="AT11" s="8"/>
-      <c r="AU11" s="8"/>
-      <c r="AV11" s="8"/>
-      <c r="AW11" s="8"/>
+      <c r="AS11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AX11" s="8"/>
       <c r="AY11" s="8"/>
-      <c r="AZ11" s="8"/>
+      <c r="AZ11" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="BA11" s="8"/>
       <c r="BB11" s="8"/>
-      <c r="BC11" s="8"/>
+      <c r="BC11" s="9"/>
       <c r="BD11" s="8"/>
       <c r="BE11" s="8"/>
       <c r="BF11" s="8"/>
@@ -3188,7 +3314,7 @@
       <c r="BK11" s="8"/>
       <c r="BL11" s="8"/>
       <c r="BM11" s="8"/>
-      <c r="BN11" s="8"/>
+      <c r="BN11" s="9"/>
       <c r="BO11" s="8"/>
       <c r="BP11" s="8"/>
     </row>
@@ -3196,13 +3322,13 @@
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
@@ -3213,7 +3339,7 @@
       </c>
       <c r="I12" s="2" t="n">
         <f aca="false">SUM(J12:BP12)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -3222,7 +3348,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
@@ -3243,7 +3369,7 @@
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8"/>
       <c r="AK12" s="8"/>
-      <c r="AL12" s="8"/>
+      <c r="AL12" s="9"/>
       <c r="AM12" s="8"/>
       <c r="AN12" s="8"/>
       <c r="AO12" s="8"/>
@@ -3252,15 +3378,19 @@
       <c r="AR12" s="8"/>
       <c r="AS12" s="8"/>
       <c r="AT12" s="8"/>
-      <c r="AU12" s="8"/>
-      <c r="AV12" s="8"/>
+      <c r="AU12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AW12" s="8"/>
       <c r="AX12" s="8"/>
       <c r="AY12" s="8"/>
       <c r="AZ12" s="8"/>
       <c r="BA12" s="8"/>
       <c r="BB12" s="8"/>
-      <c r="BC12" s="8"/>
+      <c r="BC12" s="9"/>
       <c r="BD12" s="8"/>
       <c r="BE12" s="8"/>
       <c r="BF12" s="8"/>
@@ -3271,7 +3401,7 @@
       <c r="BK12" s="8"/>
       <c r="BL12" s="8"/>
       <c r="BM12" s="8"/>
-      <c r="BN12" s="8"/>
+      <c r="BN12" s="9"/>
       <c r="BO12" s="8"/>
       <c r="BP12" s="8"/>
     </row>
@@ -3279,13 +3409,13 @@
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -3294,7 +3424,7 @@
       </c>
       <c r="I13" s="2" t="n">
         <f aca="false">SUM(J13:BP13)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -3303,7 +3433,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="9"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
@@ -3324,7 +3454,7 @@
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8"/>
       <c r="AK13" s="8"/>
-      <c r="AL13" s="8"/>
+      <c r="AL13" s="9"/>
       <c r="AM13" s="8"/>
       <c r="AN13" s="8"/>
       <c r="AO13" s="8"/>
@@ -3339,20 +3469,28 @@
       <c r="AX13" s="8"/>
       <c r="AY13" s="8"/>
       <c r="AZ13" s="8"/>
-      <c r="BA13" s="8"/>
-      <c r="BB13" s="8"/>
-      <c r="BC13" s="8"/>
-      <c r="BD13" s="8"/>
+      <c r="BA13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="BE13" s="8"/>
       <c r="BF13" s="8"/>
-      <c r="BG13" s="8"/>
+      <c r="BG13" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="BH13" s="8"/>
       <c r="BI13" s="8"/>
       <c r="BJ13" s="8"/>
       <c r="BK13" s="8"/>
       <c r="BL13" s="8"/>
       <c r="BM13" s="8"/>
-      <c r="BN13" s="8"/>
+      <c r="BN13" s="9"/>
       <c r="BO13" s="8"/>
       <c r="BP13" s="8"/>
     </row>
@@ -3385,110 +3523,110 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="n">
+      <c r="A15" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12" t="n">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13" t="n">
         <v>2</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="10" t="n">
+      <c r="F15" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12" t="n">
+      <c r="G15" s="12"/>
+      <c r="H15" s="13" t="n">
         <v>10</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="10" t="n">
+      <c r="K15" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12" t="n">
+      <c r="L15" s="12"/>
+      <c r="M15" s="13" t="n">
         <v>16</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="10" t="n">
+      <c r="P15" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12" t="n">
+      <c r="Q15" s="12"/>
+      <c r="R15" s="13" t="n">
         <v>21</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="10" t="n">
+      <c r="U15" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="V15" s="11"/>
-      <c r="W15" s="12" t="n">
+      <c r="V15" s="12"/>
+      <c r="W15" s="13" t="n">
         <v>29</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="10" t="n">
+      <c r="Z15" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="12" t="n">
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="13" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="13" t="s">
+      <c r="P16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="13" t="s">
+      <c r="U16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="13" t="s">
+      <c r="Z16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <f aca="false">VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="B17" s="14" t="n">
+      <c r="B17" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C17" s="16" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="2"/>
@@ -3497,10 +3635,10 @@
         <f aca="false">VLOOKUP(F16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="15" t="n">
+      <c r="G17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
@@ -3509,10 +3647,10 @@
         <f aca="false">VLOOKUP(K16,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="L17" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="15" t="n">
+      <c r="L17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="16" t="n">
         <v>0</v>
       </c>
       <c r="N17" s="2"/>
@@ -3521,10 +3659,10 @@
         <f aca="false">VLOOKUP(P16,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q17" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="15" t="n">
+      <c r="Q17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="16" t="n">
         <v>0</v>
       </c>
       <c r="S17" s="2"/>
@@ -3533,10 +3671,10 @@
         <f aca="false">VLOOKUP(U16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="V17" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W17" s="15" t="n">
+      <c r="V17" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" s="16" t="n">
         <v>1</v>
       </c>
       <c r="X17" s="2"/>
@@ -3545,64 +3683,64 @@
         <f aca="false">VLOOKUP(Z16,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="AA17" s="14" t="n">
+      <c r="AA17" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AB17" s="15" t="n">
+      <c r="AB17" s="16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="n">
+      <c r="A18" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="17" t="n">
+      <c r="B18" s="12"/>
+      <c r="C18" s="18" t="n">
         <v>2</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="16" t="n">
+      <c r="F18" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="17" t="n">
+      <c r="G18" s="12"/>
+      <c r="H18" s="18" t="n">
         <v>11</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="16" t="n">
+      <c r="K18" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="17" t="n">
+      <c r="L18" s="12"/>
+      <c r="M18" s="18" t="n">
         <v>17</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="16" t="n">
+      <c r="P18" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="17" t="n">
+      <c r="Q18" s="12"/>
+      <c r="R18" s="18" t="n">
         <v>22</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="16" t="n">
+      <c r="U18" s="17" t="n">
         <v>22</v>
       </c>
-      <c r="V18" s="11"/>
-      <c r="W18" s="17" t="n">
+      <c r="V18" s="12"/>
+      <c r="W18" s="18" t="n">
         <v>30</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="16" t="n">
+      <c r="Z18" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="17" t="n">
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="18" t="n">
         <v>34</v>
       </c>
     </row>
@@ -3640,37 +3778,37 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="10" t="n">
+      <c r="F20" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12" t="n">
+      <c r="G20" s="12"/>
+      <c r="H20" s="13" t="n">
         <v>11</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="10" t="n">
+      <c r="K20" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="12" t="n">
+      <c r="L20" s="12"/>
+      <c r="M20" s="13" t="n">
         <v>22</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="P20" s="10" t="n">
+      <c r="P20" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="12" t="n">
+      <c r="Q20" s="12"/>
+      <c r="R20" s="13" t="n">
         <v>28</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="10" t="n">
+      <c r="U20" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="V20" s="11"/>
-      <c r="W20" s="12" t="n">
+      <c r="V20" s="12"/>
+      <c r="W20" s="13" t="n">
         <v>30</v>
       </c>
       <c r="X20" s="2"/>
@@ -3683,31 +3821,31 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
       <c r="N21" s="2"/>
-      <c r="P21" s="13" t="s">
+      <c r="P21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="13" t="s">
+      <c r="U21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
@@ -3722,10 +3860,10 @@
         <f aca="false">VLOOKUP(F21,$A$2:$H$13,8)</f>
         <v>9</v>
       </c>
-      <c r="G22" s="14" t="n">
+      <c r="G22" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="15" t="n">
+      <c r="H22" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
@@ -3734,10 +3872,10 @@
         <f aca="false">VLOOKUP(K21,$A$2:$H$13,8)</f>
         <v>11</v>
       </c>
-      <c r="L22" s="14" t="n">
+      <c r="L22" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="M22" s="15" t="n">
+      <c r="M22" s="16" t="n">
         <v>0</v>
       </c>
       <c r="N22" s="2"/>
@@ -3745,10 +3883,10 @@
         <f aca="false">VLOOKUP(P21,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="14" t="n">
+      <c r="Q22" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="R22" s="15" t="n">
+      <c r="R22" s="16" t="n">
         <v>0</v>
       </c>
       <c r="S22" s="2"/>
@@ -3757,10 +3895,10 @@
         <f aca="false">VLOOKUP(U21,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="14" t="n">
+      <c r="V22" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="W22" s="15" t="n">
+      <c r="W22" s="16" t="n">
         <v>0</v>
       </c>
       <c r="X22" s="2"/>
@@ -3773,37 +3911,37 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="16" t="n">
+      <c r="F23" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="17" t="n">
+      <c r="G23" s="12"/>
+      <c r="H23" s="18" t="n">
         <v>11</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="16" t="n">
+      <c r="K23" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="17" t="n">
+      <c r="L23" s="12"/>
+      <c r="M23" s="18" t="n">
         <v>22</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="P23" s="16" t="n">
+      <c r="P23" s="17" t="n">
         <v>22</v>
       </c>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="17" t="n">
+      <c r="Q23" s="12"/>
+      <c r="R23" s="18" t="n">
         <v>28</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="16" t="n">
+      <c r="U23" s="17" t="n">
         <v>28</v>
       </c>
-      <c r="V23" s="11"/>
-      <c r="W23" s="17" t="n">
+      <c r="V23" s="12"/>
+      <c r="W23" s="18" t="n">
         <v>30</v>
       </c>
       <c r="X23" s="2"/>
@@ -3849,20 +3987,20 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="10" t="n">
+      <c r="K25" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="12" t="n">
+      <c r="L25" s="12"/>
+      <c r="M25" s="13" t="n">
         <v>19</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="10" t="n">
+      <c r="P25" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="12" t="n">
+      <c r="Q25" s="12"/>
+      <c r="R25" s="13" t="n">
         <v>24</v>
       </c>
       <c r="S25" s="2"/>
@@ -3885,18 +4023,18 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="13" t="s">
+      <c r="P26" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -3921,10 +4059,10 @@
         <f aca="false">VLOOKUP(K26,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="L27" s="14" t="n">
+      <c r="L27" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="M27" s="15" t="n">
+      <c r="M27" s="16" t="n">
         <v>0</v>
       </c>
       <c r="N27" s="2"/>
@@ -3933,10 +4071,10 @@
         <f aca="false">VLOOKUP(P26,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q27" s="14" t="n">
+      <c r="Q27" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="R27" s="15" t="n">
+      <c r="R27" s="16" t="n">
         <v>4</v>
       </c>
       <c r="S27" s="2"/>
@@ -3959,20 +4097,20 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="16" t="n">
+      <c r="K28" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="17" t="n">
+      <c r="L28" s="12"/>
+      <c r="M28" s="18" t="n">
         <v>23</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="16" t="n">
+      <c r="P28" s="17" t="n">
         <v>23</v>
       </c>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="17" t="n">
+      <c r="Q28" s="12"/>
+      <c r="R28" s="18" t="n">
         <v>28</v>
       </c>
       <c r="S28" s="2"/>
@@ -4013,18 +4151,18 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4041,22 +4179,22 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18"/>
-      <c r="B31" s="20" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20" t="s">
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="19"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="20"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4073,20 +4211,20 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18"/>
-      <c r="B32" s="21" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="19"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="20"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4103,24 +4241,24 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="18"/>
-      <c r="B33" s="23" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="19"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="20"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4137,22 +4275,22 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18"/>
-      <c r="B34" s="20" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20" t="s">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="19"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="20"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4169,18 +4307,18 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="19"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="20"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4197,22 +4335,22 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18"/>
-      <c r="B36" s="25" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="19"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="20"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4229,22 +4367,22 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18"/>
-      <c r="B37" s="25" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="19"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="20"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4261,22 +4399,22 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="18"/>
-      <c r="B38" s="25" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="19"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="20"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -4293,22 +4431,22 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="18"/>
-      <c r="B39" s="25" t="s">
+      <c r="A39" s="19"/>
+      <c r="B39" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="19"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="20"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -4325,22 +4463,22 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="18"/>
-      <c r="B40" s="23" t="s">
+      <c r="A40" s="19"/>
+      <c r="B40" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="19"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="20"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -4357,22 +4495,22 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18"/>
-      <c r="B41" s="24" t="s">
+      <c r="A41" s="19"/>
+      <c r="B41" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="19"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="20"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -4389,22 +4527,22 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18"/>
-      <c r="B42" s="27" t="s">
+      <c r="A42" s="19"/>
+      <c r="B42" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="19"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="20"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -4421,18 +4559,18 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -4492,14 +4630,14 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA20" activeCellId="1" sqref="J:J AA20"/>
+      <selection pane="topLeft" activeCell="AA20" activeCellId="0" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="30" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="31" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="10" style="30" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="31" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="32" width="3.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="10" style="31" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4519,7 +4657,7 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="30"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -4538,17 +4676,17 @@
       <c r="H2" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I2" s="30"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
@@ -4557,17 +4695,17 @@
       <c r="H3" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
@@ -4578,17 +4716,17 @@
       <c r="H4" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="I4" s="30"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
@@ -4597,17 +4735,17 @@
       <c r="H5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
@@ -4616,17 +4754,17 @@
       <c r="H6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
@@ -4635,19 +4773,19 @@
       <c r="H7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
@@ -4658,19 +4796,19 @@
       <c r="H8" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
@@ -4683,17 +4821,17 @@
       <c r="H9" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
@@ -4702,19 +4840,19 @@
       <c r="H10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
@@ -4723,17 +4861,17 @@
       <c r="H11" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="6" t="s">
         <v>15</v>
       </c>
@@ -4742,19 +4880,19 @@
       <c r="H12" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="6"/>
@@ -4763,235 +4901,235 @@
       <c r="H13" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="12"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="12"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="13"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="13"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="13"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="F16" s="13" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="F16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="K16" s="13" t="s">
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="K16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="P16" s="13" t="s">
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="P16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="U16" s="13" t="s">
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="U16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="Z16" s="13" t="s">
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="Z16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <f aca="false">VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
       <c r="F17" s="2" t="n">
         <f aca="false">VLOOKUP(F16,$A$2:$H$13,8)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
       <c r="K17" s="2" t="n">
         <f aca="false">VLOOKUP(K16,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="16"/>
       <c r="P17" s="2" t="n">
         <f aca="false">VLOOKUP(P16,$A$2:$H$13,8)</f>
         <v>3</v>
       </c>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="16"/>
       <c r="U17" s="2" t="n">
         <f aca="false">VLOOKUP(U16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="V17" s="14"/>
-      <c r="W17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="16"/>
       <c r="Z17" s="2" t="n">
         <f aca="false">VLOOKUP(Z16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="17"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="17"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="17"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="17"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="17"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="17"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="18"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="18"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="18"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="18"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="18"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="12"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="12"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="13"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="13"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="K21" s="13" t="s">
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="K21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="P21" s="13" t="s">
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="P21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="U21" s="13" t="s">
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="U21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="2" t="n">
         <f aca="false">VLOOKUP(F21,$A$2:$H$13,8)</f>
         <v>7</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
       <c r="K22" s="2" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="16"/>
       <c r="P22" s="2" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="16"/>
       <c r="U22" s="2" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="14"/>
-      <c r="W22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="16"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="17"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="17"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="17"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="18"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="18"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="18"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K25" s="10"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="12"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="12"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="13"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="U26" s="13" t="s">
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="U26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K27" s="2" t="n">
         <f aca="false">VLOOKUP(K26,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="16"/>
       <c r="U27" s="2" t="n">
         <f aca="false">VLOOKUP(U26,$A$2:$H$13,8)</f>
         <v>9</v>
       </c>
-      <c r="V27" s="14"/>
-      <c r="W27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="16"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="17"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="18"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="29">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -35,13 +35,13 @@
     <t xml:space="preserve">D</t>
   </si>
   <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">E</t>
@@ -116,11 +116,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -146,6 +146,13 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFEB3B"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -198,7 +205,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +220,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB3B"/>
+        <bgColor rgb="FFFFF176"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
         <bgColor rgb="FF9CCC65"/>
       </patternFill>
@@ -220,7 +233,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFEB3B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5722"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
@@ -261,12 +280,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF5722"/>
-        <bgColor rgb="FFFF8080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB71C1C"/>
         <bgColor rgb="FFC9211E"/>
       </patternFill>
@@ -300,7 +313,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,13 +340,36 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="75" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -341,23 +377,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -365,39 +397,67 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -405,35 +465,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -445,12 +477,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -458,8 +486,9 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Gesamtpuffer" xfId="20"/>
+    <cellStyle name="Task" xfId="21"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -468,6 +497,33 @@
         <b val="1"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFEB3B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB3B"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -514,7 +570,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFEB3B"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -571,7 +627,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800640" y="2601000"/>
+          <a:off x="800640" y="2976840"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -613,7 +669,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2169000" y="2599200"/>
+          <a:off x="2169000" y="2975400"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -655,7 +711,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3524760" y="2599200"/>
+          <a:off x="3524760" y="2975400"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -697,7 +753,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4880880" y="2599200"/>
+          <a:off x="4880880" y="2975400"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -739,7 +795,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6236640" y="2599200"/>
+          <a:off x="6236640" y="2975400"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -781,7 +837,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2169000" y="3411720"/>
+          <a:off x="2169000" y="3787560"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -823,7 +879,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3524760" y="3411720"/>
+          <a:off x="3524760" y="3787560"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -865,7 +921,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4880880" y="3411720"/>
+          <a:off x="4880880" y="3787560"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -907,7 +963,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6236640" y="3411720"/>
+          <a:off x="6236640" y="3787560"/>
           <a:ext cx="276840" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -949,7 +1005,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085040" y="3411720"/>
+          <a:off x="1085040" y="3787560"/>
           <a:ext cx="276840" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -991,7 +1047,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2440800" y="4224240"/>
+          <a:off x="2440800" y="4600080"/>
           <a:ext cx="276840" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1033,7 +1089,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4880880" y="4224240"/>
+          <a:off x="4880880" y="4600080"/>
           <a:ext cx="277200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1075,7 +1131,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3524760" y="4224240"/>
+          <a:off x="3524760" y="4600080"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1117,7 +1173,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085040" y="2602800"/>
+          <a:off x="1085040" y="2978640"/>
           <a:ext cx="0" cy="826200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1150,7 +1206,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1159,7 +1215,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2440800" y="3415680"/>
+          <a:off x="2440800" y="3791520"/>
           <a:ext cx="0" cy="825840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1192,7 +1248,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1201,7 +1257,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5151600" y="3415680"/>
+          <a:off x="5151600" y="3791520"/>
           <a:ext cx="0" cy="825840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1243,7 +1299,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6507360" y="2602800"/>
+          <a:off x="6507360" y="2978640"/>
           <a:ext cx="0" cy="826200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2118,15 +2174,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB43"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="28" ySplit="0" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="BN2" activeCellId="0" sqref="BN2:BN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2143,464 +2201,1166 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="n">
+        <v>45019</v>
+      </c>
+      <c r="K1" s="3" t="n">
+        <v>45020</v>
+      </c>
+      <c r="L1" s="3" t="n">
+        <v>45021</v>
+      </c>
+      <c r="M1" s="3" t="n">
+        <v>45022</v>
+      </c>
+      <c r="N1" s="3" t="n">
+        <v>45023</v>
+      </c>
+      <c r="O1" s="3" t="n">
+        <v>45024</v>
+      </c>
+      <c r="P1" s="3" t="n">
+        <v>45025</v>
+      </c>
+      <c r="Q1" s="3" t="n">
+        <v>45026</v>
+      </c>
+      <c r="R1" s="3" t="n">
+        <v>45027</v>
+      </c>
+      <c r="S1" s="3" t="n">
+        <v>45028</v>
+      </c>
+      <c r="T1" s="3" t="n">
+        <v>45029</v>
+      </c>
+      <c r="U1" s="3" t="n">
+        <v>45030</v>
+      </c>
+      <c r="V1" s="3" t="n">
+        <v>45031</v>
+      </c>
+      <c r="W1" s="3" t="n">
+        <v>45032</v>
+      </c>
+      <c r="X1" s="3" t="n">
+        <v>45033</v>
+      </c>
+      <c r="Y1" s="3" t="n">
+        <v>45034</v>
+      </c>
+      <c r="Z1" s="3" t="n">
+        <v>45035</v>
+      </c>
+      <c r="AA1" s="3" t="n">
+        <v>45036</v>
+      </c>
+      <c r="AB1" s="3" t="n">
+        <v>45037</v>
+      </c>
+      <c r="AC1" s="3" t="n">
+        <v>45038</v>
+      </c>
+      <c r="AD1" s="3" t="n">
+        <v>45039</v>
+      </c>
+      <c r="AE1" s="3" t="n">
+        <v>45040</v>
+      </c>
+      <c r="AF1" s="3" t="n">
+        <v>45041</v>
+      </c>
+      <c r="AG1" s="3" t="n">
+        <v>45042</v>
+      </c>
+      <c r="AH1" s="3" t="n">
+        <v>45043</v>
+      </c>
+      <c r="AI1" s="3" t="n">
+        <v>45044</v>
+      </c>
+      <c r="AJ1" s="3" t="n">
+        <v>45045</v>
+      </c>
+      <c r="AK1" s="3" t="n">
+        <v>45046</v>
+      </c>
+      <c r="AL1" s="3" t="n">
+        <v>45047</v>
+      </c>
+      <c r="AM1" s="3" t="n">
+        <v>45048</v>
+      </c>
+      <c r="AN1" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="AO1" s="3" t="n">
+        <v>45050</v>
+      </c>
+      <c r="AP1" s="3" t="n">
+        <v>45051</v>
+      </c>
+      <c r="AQ1" s="3" t="n">
+        <v>45052</v>
+      </c>
+      <c r="AR1" s="3" t="n">
+        <v>45053</v>
+      </c>
+      <c r="AS1" s="3" t="n">
+        <v>45054</v>
+      </c>
+      <c r="AT1" s="3" t="n">
+        <v>45055</v>
+      </c>
+      <c r="AU1" s="3" t="n">
+        <v>45056</v>
+      </c>
+      <c r="AV1" s="3" t="n">
+        <v>45057</v>
+      </c>
+      <c r="AW1" s="3" t="n">
+        <v>45058</v>
+      </c>
+      <c r="AX1" s="3" t="n">
+        <v>45059</v>
+      </c>
+      <c r="AY1" s="3" t="n">
+        <v>45060</v>
+      </c>
+      <c r="AZ1" s="3" t="n">
+        <v>45061</v>
+      </c>
+      <c r="BA1" s="3" t="n">
+        <v>45062</v>
+      </c>
+      <c r="BB1" s="3" t="n">
+        <v>45063</v>
+      </c>
+      <c r="BC1" s="3" t="n">
+        <v>45064</v>
+      </c>
+      <c r="BD1" s="3" t="n">
+        <v>45065</v>
+      </c>
+      <c r="BE1" s="3" t="n">
+        <v>45066</v>
+      </c>
+      <c r="BF1" s="3" t="n">
+        <v>45067</v>
+      </c>
+      <c r="BG1" s="3" t="n">
+        <v>45068</v>
+      </c>
+      <c r="BH1" s="3" t="n">
+        <v>45069</v>
+      </c>
+      <c r="BI1" s="3" t="n">
+        <v>45070</v>
+      </c>
+      <c r="BJ1" s="3" t="n">
+        <v>45071</v>
+      </c>
+      <c r="BK1" s="3" t="n">
+        <v>45072</v>
+      </c>
+      <c r="BL1" s="3" t="n">
+        <v>45073</v>
+      </c>
+      <c r="BM1" s="3" t="n">
+        <v>45074</v>
+      </c>
+      <c r="BN1" s="3" t="n">
+        <v>45075</v>
+      </c>
+      <c r="BO1" s="3" t="n">
+        <v>45076</v>
+      </c>
+      <c r="BP1" s="3" t="n">
+        <v>45077</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <f aca="false">SUM(J2:BP2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="9"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="8"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="9"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <f aca="false">SUM(J3:BP3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8"/>
+      <c r="BK3" s="8"/>
+      <c r="BL3" s="8"/>
+      <c r="BM3" s="8"/>
+      <c r="BN3" s="9"/>
+      <c r="BO3" s="8"/>
+      <c r="BP3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <f aca="false">SUM(J4:BP4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="8"/>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="8"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="9"/>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3" t="n">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <f aca="false">SUM(J5:BP5)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="8"/>
+      <c r="BK5" s="8"/>
+      <c r="BL5" s="8"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="8"/>
+      <c r="BP5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <f aca="false">SUM(J6:BP6)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+      <c r="BI6" s="8"/>
+      <c r="BJ6" s="8"/>
+      <c r="BK6" s="8"/>
+      <c r="BL6" s="8"/>
+      <c r="BM6" s="8"/>
+      <c r="BN6" s="9"/>
+      <c r="BO6" s="8"/>
+      <c r="BP6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <f aca="false">SUM(J7:BP7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8"/>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8"/>
+      <c r="AZ7" s="8"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" s="8"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8"/>
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="8"/>
+      <c r="BI7" s="8"/>
+      <c r="BJ7" s="8"/>
+      <c r="BK7" s="8"/>
+      <c r="BL7" s="8"/>
+      <c r="BM7" s="8"/>
+      <c r="BN7" s="9"/>
+      <c r="BO7" s="8"/>
+      <c r="BP7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <f aca="false">SUM(J8:BP8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8"/>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8"/>
+      <c r="AZ8" s="8"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" s="8"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8"/>
+      <c r="BG8" s="8"/>
+      <c r="BH8" s="8"/>
+      <c r="BI8" s="8"/>
+      <c r="BJ8" s="8"/>
+      <c r="BK8" s="8"/>
+      <c r="BL8" s="8"/>
+      <c r="BM8" s="8"/>
+      <c r="BN8" s="9"/>
+      <c r="BO8" s="8"/>
+      <c r="BP8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <f aca="false">SUM(J9:BP9)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8"/>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8"/>
+      <c r="AZ9" s="8"/>
+      <c r="BA9" s="8"/>
+      <c r="BB9" s="8"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8"/>
+      <c r="BG9" s="8"/>
+      <c r="BH9" s="8"/>
+      <c r="BI9" s="8"/>
+      <c r="BJ9" s="8"/>
+      <c r="BK9" s="8"/>
+      <c r="BL9" s="8"/>
+      <c r="BM9" s="8"/>
+      <c r="BN9" s="9"/>
+      <c r="BO9" s="8"/>
+      <c r="BP9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <f aca="false">SUM(J10:BP10)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8"/>
+      <c r="AX10" s="8"/>
+      <c r="AY10" s="8"/>
+      <c r="AZ10" s="8"/>
+      <c r="BA10" s="8"/>
+      <c r="BB10" s="8"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8"/>
+      <c r="BG10" s="8"/>
+      <c r="BH10" s="8"/>
+      <c r="BI10" s="8"/>
+      <c r="BJ10" s="8"/>
+      <c r="BK10" s="8"/>
+      <c r="BL10" s="8"/>
+      <c r="BM10" s="8"/>
+      <c r="BN10" s="9"/>
+      <c r="BO10" s="8"/>
+      <c r="BP10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <f aca="false">SUM(J11:BP11)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8"/>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8"/>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="8"/>
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="8"/>
+      <c r="AZ11" s="8"/>
+      <c r="BA11" s="8"/>
+      <c r="BB11" s="8"/>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="8"/>
+      <c r="BE11" s="8"/>
+      <c r="BF11" s="8"/>
+      <c r="BG11" s="8"/>
+      <c r="BH11" s="8"/>
+      <c r="BI11" s="8"/>
+      <c r="BJ11" s="8"/>
+      <c r="BK11" s="8"/>
+      <c r="BL11" s="8"/>
+      <c r="BM11" s="8"/>
+      <c r="BN11" s="9"/>
+      <c r="BO11" s="8"/>
+      <c r="BP11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="I12" s="2" t="n">
+        <f aca="false">SUM(J12:BP12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="8"/>
+      <c r="AZ12" s="8"/>
+      <c r="BA12" s="8"/>
+      <c r="BB12" s="8"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="8"/>
+      <c r="BE12" s="8"/>
+      <c r="BF12" s="8"/>
+      <c r="BG12" s="8"/>
+      <c r="BH12" s="8"/>
+      <c r="BI12" s="8"/>
+      <c r="BJ12" s="8"/>
+      <c r="BK12" s="8"/>
+      <c r="BL12" s="8"/>
+      <c r="BM12" s="8"/>
+      <c r="BN12" s="9"/>
+      <c r="BO12" s="8"/>
+      <c r="BP12" s="8"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
+      <c r="I13" s="2" t="n">
+        <f aca="false">SUM(J13:BP13)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="8"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="8"/>
+      <c r="BE13" s="8"/>
+      <c r="BF13" s="8"/>
+      <c r="BG13" s="8"/>
+      <c r="BH13" s="8"/>
+      <c r="BI13" s="8"/>
+      <c r="BJ13" s="8"/>
+      <c r="BK13" s="8"/>
+      <c r="BL13" s="8"/>
+      <c r="BM13" s="8"/>
+      <c r="BN13" s="9"/>
+      <c r="BO13" s="8"/>
+      <c r="BP13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
@@ -2631,123 +3391,110 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="n">
-        <f aca="false">A15+A17</f>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13" t="n">
         <v>2</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="7" t="n">
-        <f aca="false">C15</f>
+      <c r="F15" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9" t="n">
-        <f aca="false">F15+F17</f>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13" t="n">
         <v>10</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="7" t="n">
-        <f aca="false">H15</f>
+      <c r="K15" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9" t="n">
-        <f aca="false">K15+K17</f>
+      <c r="L15" s="12"/>
+      <c r="M15" s="13" t="n">
         <v>16</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="7" t="n">
-        <f aca="false">M15</f>
+      <c r="P15" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="9" t="n">
-        <f aca="false">P15+P17</f>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="13" t="n">
         <v>21</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="7" t="n">
-        <f aca="false">R15</f>
+      <c r="U15" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="V15" s="8"/>
-      <c r="W15" s="9" t="n">
-        <f aca="false">U15+U17</f>
+      <c r="V15" s="12"/>
+      <c r="W15" s="13" t="n">
         <v>29</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="7" t="n">
-        <f aca="false">MAX(W15,W20)</f>
+      <c r="Z15" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="9" t="n">
-        <f aca="false">Z15+Z17</f>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="13" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="F16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="10" t="s">
+      <c r="P16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="10" t="s">
+      <c r="U16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="10" t="s">
+      <c r="Z16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <f aca="false">VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="B17" s="11" t="n">
-        <f aca="false">C18-C15</f>
+      <c r="B17" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="12" t="n">
-        <f aca="false">MIN(F15,F20)-C15</f>
+      <c r="C17" s="16" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="2"/>
@@ -2756,12 +3503,10 @@
         <f aca="false">VLOOKUP(F16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="11" t="n">
-        <f aca="false">H18-H15</f>
+      <c r="G17" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="H17" s="12" t="n">
-        <f aca="false">K15-H15</f>
+      <c r="H17" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
@@ -2770,12 +3515,10 @@
         <f aca="false">VLOOKUP(K16,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="L17" s="11" t="n">
-        <f aca="false">M18-M15</f>
+      <c r="L17" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="M17" s="12" t="n">
-        <f aca="false">P15-M15</f>
+      <c r="M17" s="16" t="n">
         <v>0</v>
       </c>
       <c r="N17" s="2"/>
@@ -2784,12 +3527,10 @@
         <f aca="false">VLOOKUP(P16,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q17" s="11" t="n">
-        <f aca="false">R18-R15</f>
+      <c r="Q17" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="12" t="n">
-        <f aca="false">U15-R15</f>
+      <c r="R17" s="16" t="n">
         <v>0</v>
       </c>
       <c r="S17" s="2"/>
@@ -2798,12 +3539,10 @@
         <f aca="false">VLOOKUP(U16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="V17" s="11" t="n">
-        <f aca="false">W18-W15</f>
+      <c r="V17" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="W17" s="12" t="n">
-        <f aca="false">Z15-W15</f>
+      <c r="W17" s="16" t="n">
         <v>1</v>
       </c>
       <c r="X17" s="2"/>
@@ -2812,77 +3551,64 @@
         <f aca="false">VLOOKUP(Z16,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="AA17" s="11" t="n">
-        <f aca="false">AB18-AB15</f>
+      <c r="AA17" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="AB17" s="12" t="n">
+      <c r="AB17" s="16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="n">
-        <f aca="false">C18-A17</f>
+      <c r="A18" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="14" t="n">
-        <f aca="false">MIN(F18,F23)</f>
+      <c r="B18" s="12"/>
+      <c r="C18" s="18" t="n">
         <v>2</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="13" t="n">
-        <f aca="false">H18-F17</f>
+      <c r="F18" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="14" t="n">
-        <f aca="false">K18</f>
+      <c r="G18" s="12"/>
+      <c r="H18" s="18" t="n">
         <v>11</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="13" t="n">
-        <f aca="false">M18-K17</f>
+      <c r="K18" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="14" t="n">
-        <f aca="false">P18</f>
+      <c r="L18" s="12"/>
+      <c r="M18" s="18" t="n">
         <v>17</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="13" t="n">
-        <f aca="false">R18-P17</f>
+      <c r="P18" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="14" t="n">
-        <f aca="false">U18</f>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="18" t="n">
         <v>22</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="13" t="n">
-        <f aca="false">W18-U17</f>
+      <c r="U18" s="17" t="n">
         <v>22</v>
       </c>
-      <c r="V18" s="8"/>
-      <c r="W18" s="14" t="n">
-        <f aca="false">Z18</f>
+      <c r="V18" s="12"/>
+      <c r="W18" s="18" t="n">
         <v>30</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="13" t="n">
-        <f aca="false">AB18-Z17</f>
+      <c r="Z18" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="14" t="n">
-        <f aca="false">AB15</f>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="18" t="n">
         <v>34</v>
       </c>
     </row>
@@ -2920,45 +3646,37 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="7" t="n">
-        <f aca="false">C15</f>
+      <c r="F20" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9" t="n">
-        <f aca="false">F20+F22</f>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13" t="n">
         <v>11</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="7" t="n">
-        <f aca="false">H20</f>
+      <c r="K20" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="9" t="n">
-        <f aca="false">K20+K22</f>
+      <c r="L20" s="12"/>
+      <c r="M20" s="13" t="n">
         <v>22</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="P20" s="7" t="n">
-        <f aca="false">M20</f>
+      <c r="P20" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="9" t="n">
-        <f aca="false">P20+P22</f>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="13" t="n">
         <v>28</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="7" t="n">
-        <f aca="false">MAX(R20,R25)</f>
+      <c r="U20" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="V20" s="8"/>
-      <c r="W20" s="9" t="n">
-        <f aca="false">U20+U22</f>
+      <c r="V20" s="12"/>
+      <c r="W20" s="13" t="n">
         <v>30</v>
       </c>
       <c r="X20" s="2"/>
@@ -2971,31 +3689,31 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="F21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
       <c r="N21" s="2"/>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="10" t="s">
+      <c r="U21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
@@ -3010,12 +3728,10 @@
         <f aca="false">VLOOKUP(F21,$A$2:$H$13,8)</f>
         <v>9</v>
       </c>
-      <c r="G22" s="11" t="n">
-        <f aca="false">H23-H20</f>
+      <c r="G22" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="12" t="n">
-        <f aca="false">MIN(K20,K25)-H20</f>
+      <c r="H22" s="16" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
@@ -3024,12 +3740,10 @@
         <f aca="false">VLOOKUP(K21,$A$2:$H$13,8)</f>
         <v>11</v>
       </c>
-      <c r="L22" s="11" t="n">
-        <f aca="false">M23-M20</f>
+      <c r="L22" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="M22" s="12" t="n">
-        <f aca="false">P20-M20</f>
+      <c r="M22" s="16" t="n">
         <v>0</v>
       </c>
       <c r="N22" s="2"/>
@@ -3037,12 +3751,10 @@
         <f aca="false">VLOOKUP(P21,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="11" t="n">
-        <f aca="false">R23-R20</f>
+      <c r="Q22" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="R22" s="12" t="n">
-        <f aca="false">U20-R20</f>
+      <c r="R22" s="16" t="n">
         <v>0</v>
       </c>
       <c r="S22" s="2"/>
@@ -3051,12 +3763,10 @@
         <f aca="false">VLOOKUP(U21,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="11" t="n">
-        <f aca="false">W23-W20</f>
+      <c r="V22" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="W22" s="12" t="n">
-        <f aca="false">Z15-W20</f>
+      <c r="W22" s="16" t="n">
         <v>0</v>
       </c>
       <c r="X22" s="2"/>
@@ -3069,45 +3779,37 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="13" t="n">
-        <f aca="false">H23-F22</f>
+      <c r="F23" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="14" t="n">
-        <f aca="false">MIN(K23,K28)</f>
+      <c r="G23" s="12"/>
+      <c r="H23" s="18" t="n">
         <v>11</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="13" t="n">
-        <f aca="false">M23-K22</f>
+      <c r="K23" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="14" t="n">
-        <f aca="false">P23</f>
+      <c r="L23" s="12"/>
+      <c r="M23" s="18" t="n">
         <v>22</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="P23" s="13" t="n">
-        <f aca="false">R23-P22</f>
+      <c r="P23" s="17" t="n">
         <v>22</v>
       </c>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="14" t="n">
-        <f aca="false">U23</f>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="18" t="n">
         <v>28</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="13" t="n">
-        <f aca="false">W23-U22</f>
+      <c r="U23" s="17" t="n">
         <v>28</v>
       </c>
-      <c r="V23" s="8"/>
-      <c r="W23" s="14" t="n">
-        <f aca="false">Z18</f>
+      <c r="V23" s="12"/>
+      <c r="W23" s="18" t="n">
         <v>30</v>
       </c>
       <c r="X23" s="2"/>
@@ -3153,24 +3855,20 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="7" t="n">
-        <f aca="false">H20</f>
+      <c r="K25" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="9" t="n">
-        <f aca="false">K25+K27</f>
+      <c r="L25" s="12"/>
+      <c r="M25" s="13" t="n">
         <v>19</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="7" t="n">
-        <f aca="false">M25</f>
+      <c r="P25" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="9" t="n">
-        <f aca="false">P25+P27</f>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="13" t="n">
         <v>24</v>
       </c>
       <c r="S25" s="2"/>
@@ -3193,18 +3891,18 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="10" t="s">
+      <c r="P26" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -3229,12 +3927,10 @@
         <f aca="false">VLOOKUP(K26,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="L27" s="11" t="n">
-        <f aca="false">M28-M25</f>
+      <c r="L27" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="M27" s="12" t="n">
-        <f aca="false">P25-M25</f>
+      <c r="M27" s="16" t="n">
         <v>0</v>
       </c>
       <c r="N27" s="2"/>
@@ -3243,12 +3939,10 @@
         <f aca="false">VLOOKUP(P26,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q27" s="11" t="n">
-        <f aca="false">R28-R25</f>
+      <c r="Q27" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="R27" s="12" t="n">
-        <f aca="false">U20-R25</f>
+      <c r="R27" s="16" t="n">
         <v>4</v>
       </c>
       <c r="S27" s="2"/>
@@ -3271,24 +3965,20 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="13" t="n">
-        <f aca="false">M28-K27</f>
+      <c r="K28" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="14" t="n">
-        <f aca="false">P28</f>
+      <c r="L28" s="12"/>
+      <c r="M28" s="18" t="n">
         <v>23</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="13" t="n">
-        <f aca="false">R28-P27</f>
+      <c r="P28" s="17" t="n">
         <v>23</v>
       </c>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="14" t="n">
-        <f aca="false">U23</f>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="18" t="n">
         <v>28</v>
       </c>
       <c r="S28" s="2"/>
@@ -3329,18 +4019,18 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -3357,22 +4047,22 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17" t="s">
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="16"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="20"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -3389,20 +4079,20 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15"/>
-      <c r="B32" s="18" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="16"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="20"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -3419,24 +4109,24 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="16"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="20"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -3453,22 +4143,22 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15"/>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17" t="s">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="16"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="20"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -3485,18 +4175,18 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="16"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="20"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -3513,22 +4203,22 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15"/>
-      <c r="B36" s="22" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="16"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="20"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -3545,22 +4235,22 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15"/>
-      <c r="B37" s="22" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="16"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="20"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -3577,22 +4267,22 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15"/>
-      <c r="B38" s="22" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="16"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="20"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -3609,22 +4299,22 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15"/>
-      <c r="B39" s="22" t="s">
+      <c r="A39" s="19"/>
+      <c r="B39" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="16"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="20"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -3641,22 +4331,22 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15"/>
-      <c r="B40" s="20" t="s">
+      <c r="A40" s="19"/>
+      <c r="B40" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="16"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="20"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -3673,22 +4363,22 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15"/>
-      <c r="B41" s="21" t="s">
+      <c r="A41" s="19"/>
+      <c r="B41" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="16"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="20"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -3705,22 +4395,22 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15"/>
-      <c r="B42" s="24" t="s">
+      <c r="A42" s="19"/>
+      <c r="B42" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="16"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="20"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -3737,18 +4427,18 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3781,6 +4471,14 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J1:BP13">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>IF(OR(WEEKDAY(J$1,2)=7,WEEKDAY(J$1,2)=6),1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3799,15 +4497,15 @@
   </sheetPr>
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA20" activeCellId="0" sqref="AA20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA20" activeCellId="1" sqref="BN2:BN13 AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="27" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="28" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="10" style="27" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="31" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="32" width="3.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="10" style="31" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3827,479 +4525,479 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="27"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3" t="n">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="13"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="13"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="13"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="K16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="P16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5" t="s">
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="U16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5" t="s">
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="Z16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="9"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="9"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="F16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="K16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="P16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="U16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="Z16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <f aca="false">VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
       <c r="F17" s="2" t="n">
         <f aca="false">VLOOKUP(F16,$A$2:$H$13,8)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
       <c r="K17" s="2" t="n">
         <f aca="false">VLOOKUP(K16,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="L17" s="29"/>
-      <c r="M17" s="12"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="16"/>
       <c r="P17" s="2" t="n">
         <f aca="false">VLOOKUP(P16,$A$2:$H$13,8)</f>
         <v>3</v>
       </c>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="12"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="16"/>
       <c r="U17" s="2" t="n">
         <f aca="false">VLOOKUP(U16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="V17" s="29"/>
-      <c r="W17" s="12"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="16"/>
       <c r="Z17" s="2" t="n">
         <f aca="false">VLOOKUP(Z16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="12"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="14"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="14"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="14"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="14"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="14"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="14"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="18"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="18"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="18"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="18"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="18"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="9"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="9"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="9"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="13"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="13"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="K21" s="10" t="s">
+      <c r="F21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="K21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="P21" s="10" t="s">
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="P21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="U21" s="10" t="s">
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="U21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="2" t="n">
         <f aca="false">VLOOKUP(F21,$A$2:$H$13,8)</f>
         <v>7</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
       <c r="K22" s="2" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="12"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="16"/>
       <c r="P22" s="2" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="12"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="16"/>
       <c r="U22" s="2" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="29"/>
-      <c r="W22" s="12"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="13"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="14"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="14"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="14"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="14"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="18"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="18"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="18"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K25" s="7"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="9"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="9"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="13"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="U26" s="10" t="s">
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="U26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K27" s="2" t="n">
         <f aca="false">VLOOKUP(K26,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="L27" s="29"/>
-      <c r="M27" s="12"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="16"/>
       <c r="U27" s="2" t="n">
         <f aca="false">VLOOKUP(U26,$A$2:$H$13,8)</f>
         <v>9</v>
       </c>
-      <c r="V27" s="29"/>
-      <c r="W27" s="12"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="13"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="14"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="14"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="18"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4319,7 +5017,7 @@
     <mergeCell ref="U26:W26"/>
   </mergeCells>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -2177,9 +2177,9 @@
   <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="28" ySplit="0" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <pane xSplit="28" ySplit="0" topLeftCell="AP1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BN2" activeCellId="0" sqref="BN2:BN13"/>
+      <selection pane="topRight" activeCell="A8" activeCellId="1" sqref="11:11 8:8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2401,10 +2401,14 @@
       </c>
       <c r="I2" s="2" t="n">
         <f aca="false">SUM(J2:BP2)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
@@ -2482,23 +2486,39 @@
       </c>
       <c r="I3" s="2" t="n">
         <f aca="false">SUM(J3:BP3)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="L3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
+      <c r="R3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
+      <c r="X3" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
@@ -2565,24 +2585,42 @@
       </c>
       <c r="I4" s="2" t="n">
         <f aca="false">SUM(J4:BP4)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="L4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="9"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
+      <c r="R4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
+      <c r="X4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
@@ -2646,7 +2684,7 @@
       </c>
       <c r="I5" s="2" t="n">
         <f aca="false">SUM(J5:BP5)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -2663,14 +2701,26 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
+      <c r="Y5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
+      <c r="AE5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
       <c r="AI5" s="8"/>
@@ -2727,7 +2777,7 @@
       </c>
       <c r="I6" s="2" t="n">
         <f aca="false">SUM(J6:BP6)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -2745,22 +2795,44 @@
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
+      <c r="Z6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
+      <c r="AE6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
       <c r="AL6" s="9"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
+      <c r="AM6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AP6" s="8"/>
       <c r="AQ6" s="8"/>
       <c r="AR6" s="8"/>
@@ -2808,7 +2880,7 @@
       </c>
       <c r="I7" s="2" t="n">
         <f aca="false">SUM(J7:BP7)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -2826,16 +2898,32 @@
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
+      <c r="Z7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
+      <c r="AE7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
       <c r="AL7" s="9"/>
@@ -2893,7 +2981,7 @@
       </c>
       <c r="I8" s="2" t="n">
         <f aca="false">SUM(J8:BP8)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -2918,14 +3006,24 @@
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
+      <c r="AG8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
       <c r="AL8" s="9"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
+      <c r="AM8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AO8" s="8"/>
       <c r="AP8" s="8"/>
       <c r="AQ8" s="8"/>
@@ -2974,7 +3072,7 @@
       </c>
       <c r="I9" s="2" t="n">
         <f aca="false">SUM(J9:BP9)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -3008,14 +3106,26 @@
       <c r="AM9" s="8"/>
       <c r="AN9" s="8"/>
       <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
+      <c r="AP9" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ9" s="8"/>
       <c r="AR9" s="8"/>
-      <c r="AS9" s="8"/>
-      <c r="AT9" s="8"/>
-      <c r="AU9" s="8"/>
-      <c r="AV9" s="8"/>
-      <c r="AW9" s="8"/>
+      <c r="AS9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AX9" s="8"/>
       <c r="AY9" s="8"/>
       <c r="AZ9" s="8"/>
@@ -3055,7 +3165,7 @@
       </c>
       <c r="I10" s="2" t="n">
         <f aca="false">SUM(J10:BP10)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -3086,13 +3196,23 @@
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
       <c r="AL10" s="9"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="8"/>
-      <c r="AP10" s="8"/>
+      <c r="AM10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ10" s="8"/>
       <c r="AR10" s="8"/>
-      <c r="AS10" s="8"/>
+      <c r="AS10" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AT10" s="8"/>
       <c r="AU10" s="8"/>
       <c r="AV10" s="8"/>
@@ -3136,7 +3256,7 @@
       </c>
       <c r="I11" s="2" t="n">
         <f aca="false">SUM(J11:BP11)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -3169,18 +3289,34 @@
       <c r="AL11" s="9"/>
       <c r="AM11" s="8"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="8"/>
-      <c r="AP11" s="8"/>
+      <c r="AO11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="8"/>
-      <c r="AS11" s="8"/>
-      <c r="AT11" s="8"/>
-      <c r="AU11" s="8"/>
-      <c r="AV11" s="8"/>
-      <c r="AW11" s="8"/>
+      <c r="AS11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="AX11" s="8"/>
       <c r="AY11" s="8"/>
-      <c r="AZ11" s="8"/>
+      <c r="AZ11" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="BA11" s="8"/>
       <c r="BB11" s="8"/>
       <c r="BC11" s="9"/>
@@ -3219,7 +3355,7 @@
       </c>
       <c r="I12" s="2" t="n">
         <f aca="false">SUM(J12:BP12)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -3263,8 +3399,12 @@
       <c r="AW12" s="8"/>
       <c r="AX12" s="8"/>
       <c r="AY12" s="8"/>
-      <c r="AZ12" s="8"/>
-      <c r="BA12" s="8"/>
+      <c r="AZ12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="BB12" s="8"/>
       <c r="BC12" s="9"/>
       <c r="BD12" s="8"/>
@@ -3300,7 +3440,7 @@
       </c>
       <c r="I13" s="2" t="n">
         <f aca="false">SUM(J13:BP13)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -3346,13 +3486,21 @@
       <c r="AY13" s="8"/>
       <c r="AZ13" s="8"/>
       <c r="BA13" s="8"/>
-      <c r="BB13" s="8"/>
+      <c r="BB13" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="BC13" s="9"/>
-      <c r="BD13" s="8"/>
+      <c r="BD13" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="BE13" s="8"/>
       <c r="BF13" s="8"/>
-      <c r="BG13" s="8"/>
-      <c r="BH13" s="8"/>
+      <c r="BG13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH13" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="BI13" s="8"/>
       <c r="BJ13" s="8"/>
       <c r="BK13" s="8"/>
@@ -4498,7 +4646,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA20" activeCellId="1" sqref="BN2:BN13 AA20"/>
+      <selection pane="topLeft" activeCell="AA20" activeCellId="2" sqref="11:11 8:8 AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -185,13 +185,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <name val="Alegreya Sans"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFC9211E"/>
       <name val="Alegreya Sans"/>
@@ -199,6 +192,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Alegreya Sans"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="9"/>
       <name val="Alegreya Sans"/>
       <family val="3"/>
@@ -344,7 +344,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -425,27 +425,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2168,8 +2164,8 @@
   </sheetPr>
   <dimension ref="A1:BP43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G13" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U22" activeCellId="0" sqref="U22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z28" activeCellId="0" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2563,7 +2559,9 @@
       <c r="B17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="n">
@@ -2573,7 +2571,9 @@
       <c r="G17" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8" t="n">
@@ -2583,7 +2583,9 @@
       <c r="L17" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="M17" s="14"/>
+      <c r="M17" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8" t="n">
@@ -2593,7 +2595,9 @@
       <c r="Q17" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="14"/>
+      <c r="R17" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8" t="n">
@@ -2603,7 +2607,9 @@
       <c r="V17" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="W17" s="14"/>
+      <c r="W17" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
       <c r="Z17" s="8" t="n">
@@ -2613,7 +2619,9 @@
       <c r="AA17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AB17" s="14"/>
+      <c r="AB17" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="n">
@@ -2788,7 +2796,9 @@
       <c r="G22" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8" t="n">
@@ -2798,7 +2808,9 @@
       <c r="L22" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="M22" s="14"/>
+      <c r="M22" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="N22" s="8"/>
       <c r="P22" s="8" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$H$13,8)</f>
@@ -2807,7 +2819,9 @@
       <c r="Q22" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R22" s="14"/>
+      <c r="R22" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
       <c r="U22" s="8" t="n">
@@ -2817,7 +2831,9 @@
       <c r="V22" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="W22" s="14"/>
+      <c r="W22" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
@@ -2979,7 +2995,9 @@
       <c r="L27" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="M27" s="14"/>
+      <c r="M27" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8" t="n">
@@ -2989,7 +3007,9 @@
       <c r="Q27" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="R27" s="14"/>
+      <c r="R27" s="14" t="n">
+        <v>4</v>
+      </c>
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
@@ -3093,11 +3113,11 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="17"/>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19" t="s">
+      <c r="C31" s="10"/>
+      <c r="D31" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="19"/>
@@ -3125,17 +3145,17 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="17"/>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
       <c r="K32" s="19"/>
       <c r="L32" s="18"/>
       <c r="M32" s="8"/>
@@ -3155,13 +3175,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="17"/>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="19"/>
@@ -3189,11 +3209,11 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="17"/>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="16" t="s">
         <v>21</v>
       </c>
       <c r="E34" s="19"/>
@@ -3249,20 +3269,20 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="17"/>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
       <c r="L36" s="18"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
@@ -3281,20 +3301,20 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="17"/>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
       <c r="L37" s="18"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
@@ -3313,20 +3333,20 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="17"/>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
       <c r="L38" s="18"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
@@ -3345,20 +3365,20 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="17"/>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
       <c r="L39" s="18"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
@@ -3377,20 +3397,20 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="17"/>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
       <c r="L40" s="18"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
@@ -3409,20 +3429,20 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="17"/>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
       <c r="L41" s="18"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
@@ -3441,20 +3461,20 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="17"/>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
       <c r="L42" s="18"/>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
@@ -3473,17 +3493,17 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="17"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3511,7 +3531,7 @@
     <mergeCell ref="C41:K41"/>
     <mergeCell ref="C42:K42"/>
   </mergeCells>
-  <conditionalFormatting sqref="AA17 V17 V22 Q17 Q22 Q27 L27 L22 L17 G17 G22 B17">
+  <conditionalFormatting sqref="AA17 V17 V22 Q17 Q22 Q27 L27 L22 L17 G17 G22 B17 C33">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -3542,15 +3562,15 @@
   </sheetPr>
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AA20" activeCellId="0" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="29" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="30" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="10" style="29" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="28" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="29" width="3.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="10" style="28" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3570,7 +3590,7 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="29"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -3589,7 +3609,7 @@
       <c r="H2" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I2" s="29"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
@@ -3608,7 +3628,7 @@
       <c r="H3" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I3" s="29"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -3629,7 +3649,7 @@
       <c r="H4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="I4" s="29"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
@@ -3648,7 +3668,7 @@
       <c r="H5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
@@ -3667,7 +3687,7 @@
       <c r="H6" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
@@ -3686,7 +3706,7 @@
       <c r="H7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="29"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
@@ -3709,7 +3729,7 @@
       <c r="H8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="29"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
@@ -3734,7 +3754,7 @@
       <c r="H9" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="I9" s="29"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
@@ -3753,7 +3773,7 @@
       <c r="H10" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
@@ -3774,7 +3794,7 @@
       <c r="H11" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="I11" s="29"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
@@ -3793,7 +3813,7 @@
       <c r="H12" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="I12" s="29"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
@@ -3814,7 +3834,7 @@
       <c r="H13" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="I13" s="29"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9"/>

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="29">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -35,13 +35,13 @@
     <t xml:space="preserve">D</t>
   </si>
   <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">E</t>
@@ -114,13 +114,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="@"/>
+    <numFmt numFmtId="168" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -158,8 +159,37 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF9800"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFBDBDBD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBDBDBD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -205,7 +235,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,14 +256,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF9800"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
-        <bgColor rgb="FF9CCC65"/>
+        <bgColor rgb="FFBDBDBD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFEB3B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF59D"/>
+        <bgColor rgb="FFFFF176"/>
       </patternFill>
     </fill>
     <fill>
@@ -257,13 +305,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF81D4FA"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF59D"/>
-        <bgColor rgb="FFFFF176"/>
+        <bgColor rgb="FFBDBDBD"/>
       </patternFill>
     </fill>
     <fill>
@@ -286,18 +328,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFD7"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -312,8 +348,22 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -343,14 +393,25 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -361,15 +422,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,11 +430,67 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -389,71 +498,71 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -461,12 +570,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -475,8 +584,9 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Gesamtpuffer" xfId="20"/>
     <cellStyle name="Task" xfId="21"/>
+    <cellStyle name="Gantt" xfId="22"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -518,6 +628,19 @@
         <name val="Arial"/>
         <charset val="1"/>
         <family val="2"/>
+        <color rgb="FFFF9800"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9800"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
         <b val="1"/>
         <i val="0"/>
         <color rgb="FFFFFFFF"/>
@@ -546,7 +669,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FFBDBDBD"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FFC9211E"/>
@@ -555,7 +678,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF9CCC65"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFEB3B"/>
@@ -576,10 +699,10 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF9800"/>
       <rgbColor rgb="FFFF5722"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF9CCC65"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -615,7 +738,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800640" y="2976840"/>
+          <a:off x="800640" y="2959200"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -657,7 +780,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2169000" y="2975400"/>
+          <a:off x="2169000" y="2957400"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -699,7 +822,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3524760" y="2975400"/>
+          <a:off x="3524760" y="2957400"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -741,7 +864,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4880880" y="2975400"/>
+          <a:off x="4880880" y="2957400"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -783,7 +906,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6236640" y="2975400"/>
+          <a:off x="6236640" y="2957400"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -825,7 +948,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2169000" y="3787560"/>
+          <a:off x="2169000" y="3769920"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -867,7 +990,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3524760" y="3787560"/>
+          <a:off x="3524760" y="3769920"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -909,7 +1032,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4880880" y="3787560"/>
+          <a:off x="4880880" y="3769920"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -951,7 +1074,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6236640" y="3787560"/>
+          <a:off x="6236640" y="3769920"/>
           <a:ext cx="276840" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -993,7 +1116,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085040" y="3787560"/>
+          <a:off x="1085040" y="3769920"/>
           <a:ext cx="276840" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1035,7 +1158,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2440800" y="4600080"/>
+          <a:off x="2440800" y="4582440"/>
           <a:ext cx="276840" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1077,7 +1200,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4880880" y="4600080"/>
+          <a:off x="4880880" y="4582440"/>
           <a:ext cx="277200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1119,7 +1242,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3524760" y="4600080"/>
+          <a:off x="3524760" y="4582440"/>
           <a:ext cx="548640" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1161,7 +1284,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085040" y="2978640"/>
+          <a:off x="1085040" y="2961000"/>
           <a:ext cx="0" cy="826200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1194,7 +1317,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1203,7 +1326,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2440800" y="3791520"/>
+          <a:off x="2440800" y="3773880"/>
           <a:ext cx="0" cy="825840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1236,7 +1359,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1245,7 +1368,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5151600" y="3791520"/>
+          <a:off x="5151600" y="3773880"/>
           <a:ext cx="0" cy="825840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1287,7 +1410,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6507360" y="2978640"/>
+          <a:off x="6507360" y="2961000"/>
           <a:ext cx="0" cy="826200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2164,13 +2287,13 @@
   </sheetPr>
   <dimension ref="A1:BP43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z28" activeCellId="0" sqref="Z28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="42.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2187,1323 +2310,2242 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BP1" s="2" t="n">
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="n">
+        <v>45020</v>
+      </c>
+      <c r="K1" s="3" t="n">
+        <v>45021</v>
+      </c>
+      <c r="L1" s="3" t="n">
+        <v>45022</v>
+      </c>
+      <c r="M1" s="3" t="n">
+        <v>45023</v>
+      </c>
+      <c r="N1" s="3" t="n">
+        <v>45024</v>
+      </c>
+      <c r="O1" s="3" t="n">
+        <v>45025</v>
+      </c>
+      <c r="P1" s="3" t="n">
+        <v>45026</v>
+      </c>
+      <c r="Q1" s="3" t="n">
+        <v>45027</v>
+      </c>
+      <c r="R1" s="3" t="n">
+        <v>45028</v>
+      </c>
+      <c r="S1" s="3" t="n">
+        <v>45029</v>
+      </c>
+      <c r="T1" s="3" t="n">
+        <v>45030</v>
+      </c>
+      <c r="U1" s="3" t="n">
+        <v>45031</v>
+      </c>
+      <c r="V1" s="3" t="n">
+        <v>45032</v>
+      </c>
+      <c r="W1" s="3" t="n">
+        <v>45033</v>
+      </c>
+      <c r="X1" s="3" t="n">
+        <v>45034</v>
+      </c>
+      <c r="Y1" s="3" t="n">
+        <v>45035</v>
+      </c>
+      <c r="Z1" s="3" t="n">
+        <v>45036</v>
+      </c>
+      <c r="AA1" s="3" t="n">
+        <v>45037</v>
+      </c>
+      <c r="AB1" s="3" t="n">
+        <v>45038</v>
+      </c>
+      <c r="AC1" s="3" t="n">
+        <v>45039</v>
+      </c>
+      <c r="AD1" s="3" t="n">
+        <v>45040</v>
+      </c>
+      <c r="AE1" s="3" t="n">
+        <v>45041</v>
+      </c>
+      <c r="AF1" s="3" t="n">
+        <v>45042</v>
+      </c>
+      <c r="AG1" s="3" t="n">
+        <v>45043</v>
+      </c>
+      <c r="AH1" s="3" t="n">
+        <v>45044</v>
+      </c>
+      <c r="AI1" s="3" t="n">
+        <v>45045</v>
+      </c>
+      <c r="AJ1" s="3" t="n">
+        <v>45046</v>
+      </c>
+      <c r="AK1" s="3" t="n">
+        <v>45047</v>
+      </c>
+      <c r="AL1" s="3" t="n">
+        <v>45048</v>
+      </c>
+      <c r="AM1" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="AN1" s="3" t="n">
+        <v>45050</v>
+      </c>
+      <c r="AO1" s="3" t="n">
+        <v>45051</v>
+      </c>
+      <c r="AP1" s="3" t="n">
+        <v>45052</v>
+      </c>
+      <c r="AQ1" s="3" t="n">
+        <v>45053</v>
+      </c>
+      <c r="AR1" s="3" t="n">
+        <v>45054</v>
+      </c>
+      <c r="AS1" s="3" t="n">
+        <v>45055</v>
+      </c>
+      <c r="AT1" s="3" t="n">
+        <v>45056</v>
+      </c>
+      <c r="AU1" s="3" t="n">
+        <v>45057</v>
+      </c>
+      <c r="AV1" s="3" t="n">
+        <v>45058</v>
+      </c>
+      <c r="AW1" s="3" t="n">
+        <v>45059</v>
+      </c>
+      <c r="AX1" s="3" t="n">
+        <v>45060</v>
+      </c>
+      <c r="AY1" s="3" t="n">
+        <v>45061</v>
+      </c>
+      <c r="AZ1" s="3" t="n">
+        <v>45062</v>
+      </c>
+      <c r="BA1" s="3" t="n">
+        <v>45063</v>
+      </c>
+      <c r="BB1" s="3" t="n">
+        <v>45064</v>
+      </c>
+      <c r="BC1" s="3" t="n">
+        <v>45065</v>
+      </c>
+      <c r="BD1" s="3" t="n">
+        <v>45066</v>
+      </c>
+      <c r="BE1" s="3" t="n">
+        <v>45067</v>
+      </c>
+      <c r="BF1" s="3" t="n">
+        <v>45068</v>
+      </c>
+      <c r="BG1" s="3" t="n">
+        <v>45069</v>
+      </c>
+      <c r="BH1" s="3" t="n">
+        <v>45070</v>
+      </c>
+      <c r="BI1" s="3" t="n">
+        <v>45071</v>
+      </c>
+      <c r="BJ1" s="3" t="n">
+        <v>45072</v>
+      </c>
+      <c r="BK1" s="3" t="n">
+        <v>45073</v>
+      </c>
+      <c r="BL1" s="3" t="n">
+        <v>45074</v>
+      </c>
+      <c r="BM1" s="3" t="n">
+        <v>45075</v>
+      </c>
+      <c r="BN1" s="3" t="n">
+        <v>45076</v>
+      </c>
+      <c r="BO1" s="3" t="n">
         <v>45077</v>
       </c>
+      <c r="BP1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="8" t="n">
+        <f aca="false">SUM(J2:BM2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="13"/>
+      <c r="BK2" s="11"/>
+      <c r="BL2" s="11"/>
+      <c r="BM2" s="11"/>
+      <c r="BN2" s="11"/>
+      <c r="BO2" s="11"/>
+      <c r="BP2" s="14"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <f aca="false">SUM(J3:BM3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="16"/>
+      <c r="BB3" s="17"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="16"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="16"/>
+      <c r="BH3" s="16"/>
+      <c r="BI3" s="16"/>
+      <c r="BJ3" s="19"/>
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="16"/>
+      <c r="BN3" s="16"/>
+      <c r="BO3" s="16"/>
+      <c r="BP3" s="14"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <f aca="false">SUM(J4:BM4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="16"/>
+      <c r="BA4" s="16"/>
+      <c r="BB4" s="17"/>
+      <c r="BC4" s="16"/>
+      <c r="BD4" s="16"/>
+      <c r="BE4" s="16"/>
+      <c r="BF4" s="16"/>
+      <c r="BG4" s="16"/>
+      <c r="BH4" s="16"/>
+      <c r="BI4" s="16"/>
+      <c r="BJ4" s="19"/>
+      <c r="BK4" s="16"/>
+      <c r="BL4" s="16"/>
+      <c r="BM4" s="16"/>
+      <c r="BN4" s="16"/>
+      <c r="BO4" s="16"/>
+      <c r="BP4" s="14"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3" t="n">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <f aca="false">SUM(J5:BM5)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+      <c r="AJ5" s="16"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="16"/>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="17"/>
+      <c r="BC5" s="16"/>
+      <c r="BD5" s="16"/>
+      <c r="BE5" s="16"/>
+      <c r="BF5" s="16"/>
+      <c r="BG5" s="16"/>
+      <c r="BH5" s="16"/>
+      <c r="BI5" s="16"/>
+      <c r="BJ5" s="19"/>
+      <c r="BK5" s="16"/>
+      <c r="BL5" s="16"/>
+      <c r="BM5" s="16"/>
+      <c r="BN5" s="16"/>
+      <c r="BO5" s="16"/>
+      <c r="BP5" s="14"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <f aca="false">SUM(J6:BM6)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
+      <c r="AX6" s="16"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="16"/>
+      <c r="BB6" s="17"/>
+      <c r="BC6" s="16"/>
+      <c r="BD6" s="16"/>
+      <c r="BE6" s="16"/>
+      <c r="BF6" s="16"/>
+      <c r="BG6" s="16"/>
+      <c r="BH6" s="16"/>
+      <c r="BI6" s="16"/>
+      <c r="BJ6" s="19"/>
+      <c r="BK6" s="16"/>
+      <c r="BL6" s="16"/>
+      <c r="BM6" s="16"/>
+      <c r="BN6" s="16"/>
+      <c r="BO6" s="16"/>
+      <c r="BP6" s="14"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <f aca="false">SUM(J7:BM7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="17"/>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="16"/>
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="16"/>
+      <c r="BG7" s="16"/>
+      <c r="BH7" s="16"/>
+      <c r="BI7" s="16"/>
+      <c r="BJ7" s="19"/>
+      <c r="BK7" s="16"/>
+      <c r="BL7" s="16"/>
+      <c r="BM7" s="16"/>
+      <c r="BN7" s="16"/>
+      <c r="BO7" s="16"/>
+      <c r="BP7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <f aca="false">SUM(J8:BM8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+      <c r="AX8" s="16"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="16"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="17"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="16"/>
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="16"/>
+      <c r="BG8" s="16"/>
+      <c r="BH8" s="16"/>
+      <c r="BI8" s="16"/>
+      <c r="BJ8" s="19"/>
+      <c r="BK8" s="16"/>
+      <c r="BL8" s="16"/>
+      <c r="BM8" s="16"/>
+      <c r="BN8" s="16"/>
+      <c r="BO8" s="16"/>
+      <c r="BP8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <f aca="false">SUM(J9:BM9)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="17"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="16"/>
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16"/>
+      <c r="BI9" s="16"/>
+      <c r="BJ9" s="19"/>
+      <c r="BK9" s="16"/>
+      <c r="BL9" s="16"/>
+      <c r="BM9" s="16"/>
+      <c r="BN9" s="16"/>
+      <c r="BO9" s="16"/>
+      <c r="BP9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <f aca="false">SUM(J10:BM10)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="16"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="16"/>
+      <c r="BA10" s="16"/>
+      <c r="BB10" s="17"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="16"/>
+      <c r="BE10" s="16"/>
+      <c r="BF10" s="16"/>
+      <c r="BG10" s="16"/>
+      <c r="BH10" s="16"/>
+      <c r="BI10" s="16"/>
+      <c r="BJ10" s="19"/>
+      <c r="BK10" s="16"/>
+      <c r="BL10" s="16"/>
+      <c r="BM10" s="16"/>
+      <c r="BN10" s="16"/>
+      <c r="BO10" s="16"/>
+      <c r="BP10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <f aca="false">SUM(J11:BM11)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="16"/>
+      <c r="AX11" s="16"/>
+      <c r="AY11" s="16"/>
+      <c r="AZ11" s="16"/>
+      <c r="BA11" s="16"/>
+      <c r="BB11" s="17"/>
+      <c r="BC11" s="16"/>
+      <c r="BD11" s="16"/>
+      <c r="BE11" s="16"/>
+      <c r="BF11" s="16"/>
+      <c r="BG11" s="16"/>
+      <c r="BH11" s="16"/>
+      <c r="BI11" s="16"/>
+      <c r="BJ11" s="19"/>
+      <c r="BK11" s="16"/>
+      <c r="BL11" s="16"/>
+      <c r="BM11" s="16"/>
+      <c r="BN11" s="16"/>
+      <c r="BO11" s="16"/>
+      <c r="BP11" s="14"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="BP2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="I12" s="8" t="n">
+        <f aca="false">SUM(J12:BM12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="20"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="16"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="16"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="17"/>
+      <c r="BC12" s="16"/>
+      <c r="BD12" s="16"/>
+      <c r="BE12" s="16"/>
+      <c r="BF12" s="16"/>
+      <c r="BG12" s="16"/>
+      <c r="BH12" s="16"/>
+      <c r="BI12" s="16"/>
+      <c r="BJ12" s="19"/>
+      <c r="BK12" s="16"/>
+      <c r="BL12" s="16"/>
+      <c r="BM12" s="16"/>
+      <c r="BN12" s="16"/>
+      <c r="BO12" s="16"/>
+      <c r="BP12" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" s="8" t="n">
+        <f aca="false">SUM(J13:BM13)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="16"/>
+      <c r="AX13" s="16"/>
+      <c r="AY13" s="20"/>
+      <c r="AZ13" s="20"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="18"/>
+      <c r="BC13" s="16"/>
+      <c r="BD13" s="16"/>
+      <c r="BE13" s="16"/>
+      <c r="BF13" s="16"/>
+      <c r="BG13" s="16"/>
+      <c r="BH13" s="16"/>
+      <c r="BI13" s="16"/>
+      <c r="BJ13" s="19"/>
+      <c r="BK13" s="16"/>
+      <c r="BL13" s="16"/>
+      <c r="BM13" s="16"/>
+      <c r="BN13" s="16"/>
+      <c r="BO13" s="16"/>
+      <c r="BP13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25" t="n">
+        <v>16</v>
+      </c>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="23" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="25" t="n">
+        <v>21</v>
+      </c>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="23" t="n">
+        <v>21</v>
+      </c>
+      <c r="V15" s="24"/>
+      <c r="W15" s="25" t="n">
+        <v>29</v>
+      </c>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="25" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="5" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="BP3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="n">
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BP4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="BP5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="BP6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="BP7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5" t="s">
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="BP8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="BP9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="BP10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5" t="s">
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="BP11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="BP13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="11" t="n">
-        <v>16</v>
-      </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="9" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="V15" s="10"/>
-      <c r="W15" s="11" t="n">
-        <v>29</v>
-      </c>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="11" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="22" t="n">
         <f aca="false">VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="B17" s="13" t="n">
+      <c r="B17" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="14" t="n">
+      <c r="C17" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="n">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="n">
         <f aca="false">VLOOKUP(F16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="13" t="n">
+      <c r="G17" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="H17" s="14" t="n">
+      <c r="H17" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8" t="n">
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22" t="n">
         <f aca="false">VLOOKUP(K16,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="L17" s="13" t="n">
+      <c r="L17" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="M17" s="14" t="n">
+      <c r="M17" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8" t="n">
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22" t="n">
         <f aca="false">VLOOKUP(P16,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q17" s="13" t="n">
+      <c r="Q17" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="14" t="n">
+      <c r="R17" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8" t="n">
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22" t="n">
         <f aca="false">VLOOKUP(U16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="V17" s="13" t="n">
+      <c r="V17" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="W17" s="14" t="n">
+      <c r="W17" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8" t="n">
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22" t="n">
         <f aca="false">VLOOKUP(Z16,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="AA17" s="13" t="n">
+      <c r="AA17" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="AB17" s="14" t="n">
+      <c r="AB17" s="28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="n">
+      <c r="A18" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="16" t="n">
+      <c r="B18" s="24"/>
+      <c r="C18" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="15" t="n">
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="16" t="n">
+      <c r="G18" s="24"/>
+      <c r="H18" s="30" t="n">
         <v>11</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="15" t="n">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="29" t="n">
         <v>11</v>
       </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="16" t="n">
+      <c r="L18" s="24"/>
+      <c r="M18" s="30" t="n">
         <v>17</v>
       </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="15" t="n">
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="29" t="n">
         <v>17</v>
       </c>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="16" t="n">
+      <c r="Q18" s="24"/>
+      <c r="R18" s="30" t="n">
         <v>22</v>
       </c>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="15" t="n">
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="29" t="n">
         <v>22</v>
       </c>
-      <c r="V18" s="10"/>
-      <c r="W18" s="16" t="n">
+      <c r="V18" s="24"/>
+      <c r="W18" s="30" t="n">
         <v>30</v>
       </c>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="15" t="n">
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="29" t="n">
         <v>30</v>
       </c>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="16" t="n">
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="30" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9" t="n">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11" t="n">
+      <c r="G20" s="24"/>
+      <c r="H20" s="25" t="n">
         <v>11</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="9" t="n">
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="11" t="n">
+      <c r="L20" s="24"/>
+      <c r="M20" s="25" t="n">
         <v>22</v>
       </c>
-      <c r="N20" s="8"/>
-      <c r="P20" s="9" t="n">
+      <c r="N20" s="22"/>
+      <c r="P20" s="23" t="n">
         <v>22</v>
       </c>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="11" t="n">
+      <c r="Q20" s="24"/>
+      <c r="R20" s="25" t="n">
         <v>28</v>
       </c>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="9" t="n">
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="23" t="n">
         <v>28</v>
       </c>
-      <c r="V20" s="10"/>
-      <c r="W20" s="11" t="n">
+      <c r="V20" s="24"/>
+      <c r="W20" s="25" t="n">
         <v>30</v>
       </c>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="12" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="8"/>
-      <c r="P21" s="12" t="s">
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="22"/>
+      <c r="P21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="12" t="s">
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="n">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22" t="n">
         <f aca="false">VLOOKUP(F21,$A$2:$H$13,8)</f>
         <v>9</v>
       </c>
-      <c r="G22" s="13" t="n">
+      <c r="G22" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="H22" s="14" t="n">
+      <c r="H22" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8" t="n">
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$H$13,8)</f>
         <v>11</v>
       </c>
-      <c r="L22" s="13" t="n">
+      <c r="L22" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="M22" s="14" t="n">
+      <c r="M22" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="8"/>
-      <c r="P22" s="8" t="n">
+      <c r="N22" s="22"/>
+      <c r="P22" s="22" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="13" t="n">
+      <c r="Q22" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="R22" s="14" t="n">
+      <c r="R22" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8" t="n">
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="13" t="n">
+      <c r="V22" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="W22" s="14" t="n">
+      <c r="W22" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="15" t="n">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="16" t="n">
+      <c r="G23" s="24"/>
+      <c r="H23" s="30" t="n">
         <v>11</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="15" t="n">
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="29" t="n">
         <v>11</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="16" t="n">
+      <c r="L23" s="24"/>
+      <c r="M23" s="30" t="n">
         <v>22</v>
       </c>
-      <c r="N23" s="8"/>
-      <c r="P23" s="15" t="n">
+      <c r="N23" s="22"/>
+      <c r="P23" s="29" t="n">
         <v>22</v>
       </c>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="16" t="n">
+      <c r="Q23" s="24"/>
+      <c r="R23" s="30" t="n">
         <v>28</v>
       </c>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="15" t="n">
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="29" t="n">
         <v>28</v>
       </c>
-      <c r="V23" s="10"/>
-      <c r="W23" s="16" t="n">
+      <c r="V23" s="24"/>
+      <c r="W23" s="30" t="n">
         <v>30</v>
       </c>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="9" t="n">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="11" t="n">
+      <c r="L25" s="24"/>
+      <c r="M25" s="25" t="n">
         <v>19</v>
       </c>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="9" t="n">
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="23" t="n">
         <v>19</v>
       </c>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="11" t="n">
+      <c r="Q25" s="24"/>
+      <c r="R25" s="25" t="n">
         <v>24</v>
       </c>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="12" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="12" t="s">
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8" t="n">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22" t="n">
         <f aca="false">VLOOKUP(K26,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="L27" s="13" t="n">
+      <c r="L27" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="M27" s="14" t="n">
+      <c r="M27" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8" t="n">
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22" t="n">
         <f aca="false">VLOOKUP(P26,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q27" s="13" t="n">
+      <c r="Q27" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="R27" s="14" t="n">
+      <c r="R27" s="28" t="n">
         <v>4</v>
       </c>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="15" t="n">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="29" t="n">
         <v>15</v>
       </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="16" t="n">
+      <c r="L28" s="24"/>
+      <c r="M28" s="30" t="n">
         <v>23</v>
       </c>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="15" t="n">
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="29" t="n">
         <v>23</v>
       </c>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="16" t="n">
+      <c r="Q28" s="24"/>
+      <c r="R28" s="30" t="n">
         <v>28</v>
       </c>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="24"/>
+      <c r="D31" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17"/>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="31"/>
+      <c r="B33" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17"/>
-      <c r="B34" s="15" t="s">
+      <c r="A34" s="31"/>
+      <c r="B34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="16" t="s">
+      <c r="C34" s="24"/>
+      <c r="D34" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17"/>
-      <c r="B36" s="21" t="s">
+      <c r="A36" s="31"/>
+      <c r="B36" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="8"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17"/>
-      <c r="B37" s="21" t="s">
+      <c r="A37" s="31"/>
+      <c r="B37" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17"/>
-      <c r="B38" s="21" t="s">
+      <c r="A38" s="31"/>
+      <c r="B38" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17"/>
-      <c r="B39" s="21" t="s">
+      <c r="A39" s="31"/>
+      <c r="B39" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17"/>
-      <c r="B40" s="23" t="s">
+      <c r="A40" s="31"/>
+      <c r="B40" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17"/>
-      <c r="B41" s="24" t="s">
+      <c r="A41" s="31"/>
+      <c r="B41" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="8"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17"/>
-      <c r="B42" s="25" t="s">
+      <c r="A42" s="31"/>
+      <c r="B42" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="8"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="8"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -3544,6 +4586,16 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J2:BF13 J1:BO1 BK2:BM13">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:BP13">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3568,9 +4620,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="28" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="29" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="10" style="28" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="42" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="43" width="3.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="10" style="42" width="3.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,479 +4642,479 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="28"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3" t="n">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="I12" s="42"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="25"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="25"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="25"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="5" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="F16" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="K16" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5" t="s">
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="P16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5" t="s">
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="U16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5" t="s">
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="Z16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="28"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="I12" s="28"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I13" s="28"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="11"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="11"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="11"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="11"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="F16" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="K16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="P16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="U16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="Z16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="22" t="n">
         <f aca="false">VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="F17" s="8" t="n">
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="F17" s="22" t="n">
         <f aca="false">VLOOKUP(F16,$A$2:$H$13,8)</f>
         <v>7</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="K17" s="8" t="n">
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="K17" s="22" t="n">
         <f aca="false">VLOOKUP(K16,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="14"/>
-      <c r="P17" s="8" t="n">
+      <c r="L17" s="27"/>
+      <c r="M17" s="28"/>
+      <c r="P17" s="22" t="n">
         <f aca="false">VLOOKUP(P16,$A$2:$H$13,8)</f>
         <v>3</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
-      <c r="U17" s="8" t="n">
+      <c r="Q17" s="27"/>
+      <c r="R17" s="28"/>
+      <c r="U17" s="22" t="n">
         <f aca="false">VLOOKUP(U16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="V17" s="13"/>
-      <c r="W17" s="14"/>
-      <c r="Z17" s="8" t="n">
+      <c r="V17" s="27"/>
+      <c r="W17" s="28"/>
+      <c r="Z17" s="22" t="n">
         <f aca="false">VLOOKUP(Z16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="14"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="28"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="16"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="16"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="16"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="16"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="16"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="16"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="30"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="30"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="30"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="30"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="30"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="11"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="11"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="11"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="25"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="25"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="25"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="K21" s="12" t="s">
+      <c r="F21" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="K21" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="P21" s="12" t="s">
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="P21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="U21" s="12" t="s">
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="U21" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="8" t="n">
+      <c r="F22" s="22" t="n">
         <f aca="false">VLOOKUP(F21,$A$2:$H$13,8)</f>
         <v>7</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-      <c r="K22" s="8" t="n">
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="K22" s="22" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="14"/>
-      <c r="P22" s="8" t="n">
+      <c r="L22" s="27"/>
+      <c r="M22" s="28"/>
+      <c r="P22" s="22" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="14"/>
-      <c r="U22" s="8" t="n">
+      <c r="Q22" s="27"/>
+      <c r="R22" s="28"/>
+      <c r="U22" s="22" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="13"/>
-      <c r="W22" s="14"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="28"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="15"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="16"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="16"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="16"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="16"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="30"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="30"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="30"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="30"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K25" s="9"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="11"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="11"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="25"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="25"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="U26" s="12" t="s">
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="U26" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="8" t="n">
+      <c r="K27" s="22" t="n">
         <f aca="false">VLOOKUP(K26,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="14"/>
-      <c r="U27" s="8" t="n">
+      <c r="L27" s="27"/>
+      <c r="M27" s="28"/>
+      <c r="U27" s="22" t="n">
         <f aca="false">VLOOKUP(U26,$A$2:$H$13,8)</f>
         <v>9</v>
       </c>
-      <c r="V27" s="13"/>
-      <c r="W27" s="14"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="28"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="15"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="16"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="16"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="30"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4082,7 +5134,7 @@
     <mergeCell ref="U26:W26"/>
   </mergeCells>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -2288,7 +2288,9 @@
   <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+      <pane xSplit="9" ySplit="0" topLeftCell="AO1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="AO10" activeCellId="0" sqref="9:10 12:12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.84765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2508,10 +2510,14 @@
       </c>
       <c r="I2" s="8" t="n">
         <f aca="false">SUM(J2:BM2)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="L2" s="9"/>
       <c r="M2" s="10"/>
       <c r="N2" s="11"/>
@@ -2589,24 +2595,40 @@
       </c>
       <c r="I3" s="8" t="n">
         <f aca="false">SUM(J3:BM3)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="L3" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
       <c r="P3" s="18"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
+      <c r="Q3" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
+      <c r="W3" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="Z3" s="16"/>
       <c r="AA3" s="16"/>
       <c r="AB3" s="16"/>
@@ -2672,25 +2694,43 @@
       </c>
       <c r="I4" s="8" t="n">
         <f aca="false">SUM(J4:BM4)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="L4" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="M4" s="17"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="17"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="20"/>
+      <c r="Q4" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="20" t="n">
+        <v>1</v>
+      </c>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
+      <c r="W4" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
@@ -2753,7 +2793,7 @@
       </c>
       <c r="I5" s="8" t="n">
         <f aca="false">SUM(J5:BM5)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
@@ -2771,14 +2811,26 @@
       <c r="W5" s="16"/>
       <c r="X5" s="16"/>
       <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
+      <c r="Z5" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="AB5" s="16"/>
       <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
+      <c r="AD5" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="AH5" s="16"/>
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
@@ -2834,7 +2886,7 @@
       </c>
       <c r="I6" s="8" t="n">
         <f aca="false">SUM(J6:BM6)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
@@ -2853,24 +2905,46 @@
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
-      <c r="AA6" s="21"/>
+      <c r="AA6" s="21" t="n">
+        <v>1</v>
+      </c>
       <c r="AB6" s="16"/>
       <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
+      <c r="AD6" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="AI6" s="16"/>
       <c r="AJ6" s="16"/>
       <c r="AK6" s="17"/>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
+      <c r="AL6" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="AP6" s="16"/>
       <c r="AQ6" s="16"/>
-      <c r="AR6" s="16"/>
+      <c r="AR6" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="AS6" s="16"/>
       <c r="AT6" s="16"/>
       <c r="AU6" s="16"/>
@@ -2915,7 +2989,7 @@
       </c>
       <c r="I7" s="8" t="n">
         <f aca="false">SUM(J7:BM7)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
@@ -2934,19 +3008,35 @@
       <c r="X7" s="16"/>
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
+      <c r="AA7" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="AB7" s="16"/>
       <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16"/>
+      <c r="AD7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="AI7" s="16"/>
       <c r="AJ7" s="16"/>
       <c r="AK7" s="17"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="16"/>
+      <c r="AL7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="AN7" s="16"/>
       <c r="AO7" s="16"/>
       <c r="AP7" s="16"/>
@@ -3000,7 +3090,7 @@
       </c>
       <c r="I8" s="8" t="n">
         <f aca="false">SUM(J8:BM8)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
@@ -3026,14 +3116,24 @@
       <c r="AE8" s="16"/>
       <c r="AF8" s="16"/>
       <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
+      <c r="AH8" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="AI8" s="16"/>
       <c r="AJ8" s="16"/>
       <c r="AK8" s="17"/>
-      <c r="AL8" s="16"/>
-      <c r="AM8" s="16"/>
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="16"/>
+      <c r="AL8" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="AP8" s="16"/>
       <c r="AQ8" s="16"/>
       <c r="AR8" s="16"/>
@@ -3081,7 +3181,7 @@
       </c>
       <c r="I9" s="8" t="n">
         <f aca="false">SUM(J9:BM9)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
@@ -3118,14 +3218,26 @@
       <c r="AP9" s="16"/>
       <c r="AQ9" s="16"/>
       <c r="AR9" s="16"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="16"/>
-      <c r="AU9" s="16"/>
-      <c r="AV9" s="16"/>
+      <c r="AS9" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="AW9" s="16"/>
       <c r="AX9" s="16"/>
-      <c r="AY9" s="16"/>
-      <c r="AZ9" s="16"/>
+      <c r="AY9" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="BA9" s="16"/>
       <c r="BB9" s="17"/>
       <c r="BC9" s="16"/>
@@ -3162,7 +3274,7 @@
       </c>
       <c r="I10" s="8" t="n">
         <f aca="false">SUM(J10:BM10)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -3194,13 +3306,23 @@
       <c r="AK10" s="17"/>
       <c r="AL10" s="16"/>
       <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
+      <c r="AN10" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="AP10" s="16"/>
       <c r="AQ10" s="16"/>
-      <c r="AR10" s="16"/>
-      <c r="AS10" s="16"/>
-      <c r="AT10" s="16"/>
+      <c r="AR10" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="AU10" s="16"/>
       <c r="AV10" s="16"/>
       <c r="AW10" s="16"/>
@@ -3243,7 +3365,7 @@
       </c>
       <c r="I11" s="8" t="n">
         <f aca="false">SUM(J11:BM11)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -3282,19 +3404,35 @@
       <c r="AR11" s="16"/>
       <c r="AS11" s="16"/>
       <c r="AT11" s="16"/>
-      <c r="AU11" s="16"/>
-      <c r="AV11" s="16"/>
+      <c r="AU11" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="AW11" s="16"/>
       <c r="AX11" s="16"/>
-      <c r="AY11" s="16"/>
-      <c r="AZ11" s="16"/>
-      <c r="BA11" s="16"/>
+      <c r="AY11" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="BB11" s="17"/>
-      <c r="BC11" s="16"/>
+      <c r="BC11" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="BD11" s="16"/>
       <c r="BE11" s="16"/>
-      <c r="BF11" s="16"/>
-      <c r="BG11" s="16"/>
+      <c r="BF11" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="BH11" s="16"/>
       <c r="BI11" s="16"/>
       <c r="BJ11" s="19"/>
@@ -3326,7 +3464,7 @@
       </c>
       <c r="I12" s="8" t="n">
         <f aca="false">SUM(J12:BM12)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
@@ -3371,9 +3509,13 @@
       <c r="AX12" s="16"/>
       <c r="AY12" s="16"/>
       <c r="AZ12" s="16"/>
-      <c r="BA12" s="16"/>
+      <c r="BA12" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="BB12" s="17"/>
-      <c r="BC12" s="16"/>
+      <c r="BC12" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="BD12" s="16"/>
       <c r="BE12" s="16"/>
       <c r="BF12" s="16"/>
@@ -3407,7 +3549,7 @@
       </c>
       <c r="I13" s="8" t="n">
         <f aca="false">SUM(J13:BM13)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
@@ -3457,10 +3599,18 @@
       <c r="BC13" s="16"/>
       <c r="BD13" s="16"/>
       <c r="BE13" s="16"/>
-      <c r="BF13" s="16"/>
-      <c r="BG13" s="16"/>
-      <c r="BH13" s="16"/>
-      <c r="BI13" s="16"/>
+      <c r="BF13" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH13" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI13" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="BJ13" s="19"/>
       <c r="BK13" s="16"/>
       <c r="BL13" s="16"/>
@@ -4615,7 +4765,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA20" activeCellId="0" sqref="AA20"/>
+      <selection pane="topLeft" activeCell="AA20" activeCellId="2" sqref="9:10 12:12 AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="40">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -305,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -318,6 +318,55 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -346,7 +395,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -387,6 +436,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -407,6 +460,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -461,6 +530,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -775,17 +852,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:AB67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB6" activeCellId="0" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.42"/>
   </cols>
   <sheetData>
@@ -1036,7 +1113,44 @@
         <v>0</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="U15" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="V15" s="7"/>
+      <c r="W15" s="8" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z15" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="8" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
@@ -1044,25 +1158,362 @@
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="n">
+      <c r="A17" s="11" t="n">
         <f aca="false">VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="F17" s="11" t="n">
+        <f aca="false">VLOOKUP(F16,$A$2:$H$13,8)</f>
+        <v>8</v>
+      </c>
+      <c r="G17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="K17" s="11" t="n">
+        <f aca="false">VLOOKUP(K16,$A$2:$H$13,8)</f>
+        <v>6</v>
+      </c>
+      <c r="L17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="P17" s="11" t="n">
+        <f aca="false">VLOOKUP(P16,$A$2:$H$13,8)</f>
+        <v>5</v>
+      </c>
+      <c r="Q17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="13"/>
+      <c r="U17" s="11" t="n">
+        <f aca="false">VLOOKUP(U16,$A$2:$H$13,8)</f>
+        <v>8</v>
+      </c>
+      <c r="V17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="13"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="11" t="n">
+        <f aca="false">VLOOKUP(Z16,$A$2:$H$13,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AA17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
+      <c r="A18" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="K18" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="P18" s="14" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="U18" s="14" t="n">
+        <v>21</v>
+      </c>
+      <c r="V18" s="7"/>
+      <c r="W18" s="15" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="15" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="17"/>
+      <c r="Y19" s="17"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="17"/>
+      <c r="Y20" s="17"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="17"/>
+      <c r="F21" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K21" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="P21" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="U21" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="V21" s="7"/>
+      <c r="W21" s="8" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y21" s="17"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="17"/>
+      <c r="F22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="Y22" s="17"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="16"/>
+      <c r="F23" s="11" t="n">
+        <f aca="false">VLOOKUP(F22,$A$2:$H$13,8)</f>
+        <v>8</v>
+      </c>
+      <c r="G23" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="K23" s="11" t="n">
+        <f aca="false">VLOOKUP(K22,$A$2:$H$13,8)</f>
+        <v>8</v>
+      </c>
+      <c r="L23" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" s="13"/>
+      <c r="P23" s="11" t="n">
+        <f aca="false">VLOOKUP(P22,$A$2:$H$13,8)</f>
+        <v>6</v>
+      </c>
+      <c r="Q23" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" s="13"/>
+      <c r="U23" s="11" t="n">
+        <f aca="false">VLOOKUP(U22,$A$2:$H$13,8)</f>
+        <v>2</v>
+      </c>
+      <c r="V23" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="W23" s="13"/>
+      <c r="X23" s="16"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="P24" s="14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="15" t="n">
+        <v>27</v>
+      </c>
+      <c r="S24" s="18"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="14" t="n">
+        <v>27</v>
+      </c>
+      <c r="V24" s="7"/>
+      <c r="W24" s="15" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J25" s="17"/>
+      <c r="S25" s="18"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="17"/>
+      <c r="S26" s="18"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J27" s="17"/>
+      <c r="K27" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="P27" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="S27" s="18"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J28" s="19"/>
+      <c r="K28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="18"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K29" s="11" t="n">
+        <f aca="false">VLOOKUP(K28,$A$2:$H$13,8)</f>
+        <v>8</v>
+      </c>
+      <c r="L29" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" s="13"/>
+      <c r="P29" s="11" t="n">
+        <f aca="false">VLOOKUP(P28,$A$2:$H$13,8)</f>
+        <v>5</v>
+      </c>
+      <c r="Q29" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" s="13"/>
+      <c r="S29" s="16"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K30" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="L30" s="7"/>
+      <c r="M30" s="15" t="n">
+        <v>22</v>
+      </c>
+      <c r="P30" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="15" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="21" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1074,20 +1525,20 @@
       <c r="C36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="18" t="s">
+      <c r="H36" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
@@ -1095,257 +1546,268 @@
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="7"/>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="19"/>
-      <c r="B55" s="21" t="s">
+      <c r="A55" s="24"/>
+      <c r="B55" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21" t="s">
+      <c r="C55" s="26"/>
+      <c r="D55" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19"/>
-      <c r="B56" s="22" t="s">
+      <c r="A56" s="24"/>
+      <c r="B56" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="23" t="s">
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19"/>
-      <c r="B57" s="24" t="s">
+      <c r="A57" s="24"/>
+      <c r="B57" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="19"/>
-      <c r="B58" s="21" t="s">
+      <c r="A58" s="24"/>
+      <c r="B58" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21" t="s">
+      <c r="C58" s="26"/>
+      <c r="D58" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="19"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="19"/>
-      <c r="B60" s="26" t="s">
+      <c r="A60" s="24"/>
+      <c r="B60" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="19"/>
-      <c r="B61" s="26" t="s">
+      <c r="A61" s="24"/>
+      <c r="B61" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="19"/>
-      <c r="B62" s="26" t="s">
+      <c r="A62" s="24"/>
+      <c r="B62" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="19"/>
-      <c r="B63" s="26" t="s">
+      <c r="A63" s="24"/>
+      <c r="B63" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="19"/>
-      <c r="B64" s="24" t="s">
+      <c r="A64" s="24"/>
+      <c r="B64" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="19"/>
-      <c r="B65" s="25" t="s">
+      <c r="A65" s="24"/>
+      <c r="B65" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="19"/>
-      <c r="B66" s="27" t="s">
+      <c r="A66" s="24"/>
+      <c r="B66" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="20">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="P28:R28"/>
     <mergeCell ref="H36:P36"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="H37:P37"/>
@@ -1358,7 +1820,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
+  <conditionalFormatting sqref="B17 G17 G23 L17 L23 L29 Q17 Q23 Q29 V17 V23 AA17">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
@@ -1378,10 +1840,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T23" activeCellId="0" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1535,7 +1997,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="28" t="n">
+      <c r="H8" s="33" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1566,7 +2028,9 @@
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1580,7 +2044,37 @@
         <v>0</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="U12" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="V12" s="7"/>
+      <c r="W12" s="8" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
@@ -1588,27 +2082,288 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="n">
+      <c r="A14" s="11" t="n">
         <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="F14" s="11" t="n">
+        <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="G14" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="K14" s="11" t="n">
+        <f aca="false">VLOOKUP(K13,$A$2:$H$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="L14" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="P14" s="11" t="n">
+        <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
+        <v>3</v>
+      </c>
+      <c r="Q14" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" s="13"/>
+      <c r="U14" s="11" t="n">
+        <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
+        <v>2</v>
+      </c>
+      <c r="V14" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="K15" s="14" t="n">
+        <v>17</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="P15" s="14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="15" t="n">
+        <v>24</v>
+      </c>
+      <c r="T15" s="34"/>
+      <c r="U15" s="14" t="n">
+        <v>24</v>
+      </c>
+      <c r="V15" s="7"/>
+      <c r="W15" s="15" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="17"/>
+      <c r="T16" s="17"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="17"/>
+      <c r="T17" s="17"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="17"/>
+      <c r="F18" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8" t="n">
+        <v>13</v>
+      </c>
+      <c r="K18" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8" t="n">
+        <v>17</v>
+      </c>
+      <c r="P18" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="T18" s="17"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="19"/>
+      <c r="F19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="17"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="11" t="n">
+        <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="G20" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="K20" s="11" t="n">
+        <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="L20" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="13"/>
+      <c r="P20" s="11" t="n">
+        <f aca="false">VLOOKUP(P19,$A$2:$H$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="Q20" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="O21" s="34"/>
+      <c r="P21" s="14" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="15" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J22" s="17"/>
+      <c r="O22" s="17"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="17"/>
+      <c r="O23" s="17"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="17"/>
+      <c r="K24" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8" t="n">
+        <v>18</v>
+      </c>
+      <c r="O24" s="17"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J25" s="19"/>
+      <c r="K25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="35"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K26" s="11" t="n">
+        <f aca="false">VLOOKUP(K25,$A$2:$H$10,8)</f>
+        <v>5</v>
+      </c>
+      <c r="L26" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K27" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="15" t="n">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="11">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="K25:M25"/>
   </mergeCells>
-  <conditionalFormatting sqref="B14">
+  <conditionalFormatting sqref="B14 G14 G20 L14 L20 L26 Q20 Q14 V14">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>0</formula>
     </cfRule>
@@ -1635,7 +2390,7 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1813,16 +2568,16 @@
       <c r="H9" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="P9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
@@ -1857,17 +2612,17 @@
       <c r="C13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="n">
+      <c r="A14" s="11" t="n">
         <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1898,7 +2653,7 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P21" activeCellId="0" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -2148,17 +2903,17 @@
       <c r="C15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="n">
+      <c r="A16" s="11" t="n">
         <f aca="false">VLOOKUP(A15,$A$2:$H$12,8)</f>
         <v>4</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="14"/>
+      <c r="C17" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Übung3" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Übung2" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Übung2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Übung3" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="Übung 4" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="FeiertageMV" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
@@ -214,7 +214,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -261,6 +261,13 @@
       <b val="true"/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -451,17 +458,17 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right/>
-      <top style="medium"/>
-      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -534,32 +541,36 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -567,183 +578,187 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -756,99 +771,9 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="43">
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -1056,6 +981,87 @@
           <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1399,1250 +1405,1271 @@
   </sheetPr>
   <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="0" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="3.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="4.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="4.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="32" style="0" width="4.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="1" max="9" min="8" style="0" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="10" min="10" style="1" width="5.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="4.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="32" style="1" width="4.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J2" s="7" t="n">
+      <c r="G2" s="6"/>
+      <c r="H2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="I2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="n">
         <f aca="false">ROUNDUP(H2/(I2*J2),0)</f>
         <v>1</v>
       </c>
-      <c r="L2" s="8" t="n">
+      <c r="L2" s="9" t="n">
         <f aca="false">SUM($M2:$BN2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="n">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <f aca="false">ROUNDUP(H3/(I3*J3),0)</f>
+        <v>6</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <f aca="false">SUM($M3:$BN3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" s="7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <f aca="false">ROUNDUP(H3/(I3*J3),0)</f>
-        <v>6</v>
-      </c>
-      <c r="L3" s="8" t="n">
-        <f aca="false">SUM($M3:$BN3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <f aca="false">ROUNDUP(H4/(I4*J4),0)</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <f aca="false">SUM($M4:$BN4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <f aca="false">ROUNDUP(H5/(I5*J5),0)</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <f aca="false">SUM($M5:$BN5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" s="7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <f aca="false">ROUNDUP(H4/(I4*J4),0)</f>
-        <v>6</v>
-      </c>
-      <c r="L4" s="8" t="n">
-        <f aca="false">SUM($M4:$BN4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" s="6" t="n">
+      <c r="I6" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="7" t="n">
+      <c r="J6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="3" t="n">
-        <f aca="false">ROUNDUP(H5/(I5*J5),0)</f>
-        <v>6</v>
-      </c>
-      <c r="L5" s="8" t="n">
-        <f aca="false">SUM($M5:$BN5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7" t="n">
-        <f aca="false">(100%+(100%-$J$5))/I6</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="4" t="n">
         <f aca="false">ROUNDUP(H6/(I6*J6),0)</f>
         <v>8</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6" s="9" t="n">
         <f aca="false">SUM($M6:$BN6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="n">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" s="7" t="n">
+      <c r="J7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="4" t="n">
         <f aca="false">ROUNDUP(H7/(I7*J7),0)</f>
         <v>8</v>
       </c>
-      <c r="L7" s="8" t="n">
+      <c r="L7" s="9" t="n">
         <f aca="false">SUM($M7:$BN7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3" t="n">
+      <c r="G8" s="6"/>
+      <c r="H8" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="J8" s="7" t="n">
+      <c r="J8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="4" t="n">
         <f aca="false">ROUNDUP(H8/(I8*J8),0)</f>
         <v>5</v>
       </c>
-      <c r="L8" s="8" t="n">
+      <c r="L8" s="9" t="n">
         <f aca="false">SUM($M8:$BN8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="I9" s="6" t="n">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="J9" s="7" t="n">
-        <f aca="false">(100%+(100%-$J$5))/I9</f>
+      <c r="J9" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="K9" s="4" t="n">
         <f aca="false">ROUNDUP(H9/(I9*J9),0)</f>
         <v>6</v>
       </c>
-      <c r="L9" s="8" t="n">
+      <c r="L9" s="9" t="n">
         <f aca="false">SUM($M9:$BN9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="n">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I10" s="6" t="n">
+      <c r="I10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="4" t="n">
         <f aca="false">ROUNDUP(H10/(I10*J10),0)</f>
         <v>5</v>
       </c>
-      <c r="L10" s="8" t="n">
+      <c r="L10" s="9" t="n">
         <f aca="false">SUM($M10:$BN10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" s="7" t="n">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="J11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4" t="n">
         <f aca="false">ROUNDUP(H11/(I11*J11),0)</f>
         <v>4</v>
       </c>
-      <c r="L11" s="8" t="n">
+      <c r="L11" s="9" t="n">
         <f aca="false">SUM($M11:$BN11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3" t="n">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I12" s="6" t="n">
+      <c r="I12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="J12" s="7" t="n">
+      <c r="J12" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="K12" s="4" t="n">
         <f aca="false">ROUNDUP(H12/(I12*J12),0)</f>
         <v>2</v>
       </c>
-      <c r="L12" s="8" t="n">
+      <c r="L12" s="9" t="n">
         <f aca="false">SUM($M12:$BN12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" s="7" t="n">
+      <c r="D13" s="10"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K13" s="3" t="n">
+      <c r="J13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4" t="n">
         <f aca="false">ROUNDUP(H13/(I13*J13),0)</f>
         <v>2</v>
       </c>
-      <c r="L13" s="8" t="n">
+      <c r="L13" s="9" t="n">
         <f aca="false">SUM($M13:$BN13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12" t="n">
+      <c r="A15" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13" t="n">
         <f aca="false">A15+A17</f>
         <v>1</v>
       </c>
-      <c r="F15" s="10" t="n">
+      <c r="F15" s="11" t="n">
         <f aca="false">C15</f>
         <v>1</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12" t="n">
+      <c r="G15" s="12"/>
+      <c r="H15" s="13" t="n">
         <f aca="false">F15+F17</f>
         <v>7</v>
       </c>
-      <c r="K15" s="10" t="n">
+      <c r="K15" s="11" t="n">
         <f aca="false">H15</f>
         <v>7</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12" t="n">
+      <c r="L15" s="12"/>
+      <c r="M15" s="13" t="n">
         <f aca="false">K15+K17</f>
         <v>13</v>
       </c>
-      <c r="P15" s="10" t="n">
+      <c r="P15" s="11" t="n">
         <f aca="false">M15</f>
         <v>13</v>
       </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12" t="n">
+      <c r="Q15" s="12"/>
+      <c r="R15" s="13" t="n">
         <f aca="false">P15+P17</f>
         <v>18</v>
       </c>
-      <c r="U15" s="10" t="n">
+      <c r="U15" s="11" t="n">
         <f aca="false">R15</f>
         <v>18</v>
       </c>
-      <c r="V15" s="11"/>
-      <c r="W15" s="12" t="n">
+      <c r="V15" s="12"/>
+      <c r="W15" s="13" t="n">
         <f aca="false">U15+U17</f>
         <v>22</v>
       </c>
-      <c r="Z15" s="10" t="n">
+      <c r="Z15" s="11" t="n">
         <f aca="false">MAX(W15,W20)</f>
         <v>23</v>
       </c>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="12" t="n">
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="13" t="n">
         <f aca="false">Z15+Z17</f>
         <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="13" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="13" t="s">
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="13" t="s">
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="13" t="s">
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="n">
+      <c r="A17" s="17" t="n">
         <f aca="false">VLOOKUP(A16,$A$2:$K$13,11)</f>
         <v>1</v>
       </c>
-      <c r="B17" s="17" t="n">
+      <c r="B17" s="18" t="n">
         <f aca="false">C18-C15</f>
         <v>0</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="F17" s="16" t="n">
+      <c r="C17" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="F17" s="17" t="n">
         <f aca="false">VLOOKUP(F16,$A$2:$K$13,11)</f>
         <v>6</v>
       </c>
-      <c r="G17" s="17" t="n">
+      <c r="G17" s="18" t="n">
         <f aca="false">H18-H15</f>
         <v>1</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="K17" s="16" t="n">
+      <c r="H17" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="17" t="n">
         <f aca="false">VLOOKUP(K16,$A$2:$K$13,11)</f>
         <v>6</v>
       </c>
-      <c r="L17" s="17" t="n">
+      <c r="L17" s="18" t="n">
         <f aca="false">M18-M15</f>
         <v>1</v>
       </c>
-      <c r="M17" s="18"/>
-      <c r="P17" s="16" t="n">
+      <c r="M17" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="17" t="n">
         <f aca="false">VLOOKUP(P16,$A$2:$K$13,11)</f>
         <v>5</v>
       </c>
-      <c r="Q17" s="17" t="n">
+      <c r="Q17" s="18" t="n">
         <f aca="false">R18-R15</f>
         <v>1</v>
       </c>
-      <c r="R17" s="18"/>
-      <c r="U17" s="16" t="n">
+      <c r="R17" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="17" t="n">
         <f aca="false">VLOOKUP(U16,$A$2:$K$13,11)</f>
         <v>4</v>
       </c>
-      <c r="V17" s="17" t="n">
+      <c r="V17" s="18" t="n">
         <f aca="false">W18-W15</f>
         <v>1</v>
       </c>
-      <c r="W17" s="18"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="16" t="n">
+      <c r="W17" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="17" t="n">
         <f aca="false">VLOOKUP(Z16,$A$2:$K$13,11)</f>
         <v>2</v>
       </c>
-      <c r="AA17" s="17" t="n">
+      <c r="AA17" s="18" t="n">
         <f aca="false">AB18-AB15</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="18"/>
-      <c r="AD17" s="21" t="s">
+      <c r="AB17" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="n">
+      <c r="A18" s="23" t="n">
         <f aca="false">C18-A17</f>
         <v>0</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="23" t="n">
+      <c r="B18" s="12"/>
+      <c r="C18" s="24" t="n">
         <f aca="false">MIN(F18,F23)</f>
         <v>1</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="F18" s="22" t="n">
+      <c r="D18" s="25"/>
+      <c r="F18" s="23" t="n">
         <f aca="false">H18-F17</f>
         <v>2</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="23" t="n">
+      <c r="G18" s="12"/>
+      <c r="H18" s="24" t="n">
         <f aca="false">K18</f>
         <v>8</v>
       </c>
-      <c r="K18" s="22" t="n">
+      <c r="K18" s="23" t="n">
         <f aca="false">M18-K17</f>
         <v>8</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="23" t="n">
+      <c r="L18" s="12"/>
+      <c r="M18" s="24" t="n">
         <f aca="false">P18</f>
         <v>14</v>
       </c>
-      <c r="P18" s="22" t="n">
+      <c r="P18" s="23" t="n">
         <f aca="false">R18-P17</f>
         <v>14</v>
       </c>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="23" t="n">
+      <c r="Q18" s="12"/>
+      <c r="R18" s="24" t="n">
         <f aca="false">U18</f>
         <v>19</v>
       </c>
-      <c r="U18" s="22" t="n">
+      <c r="U18" s="23" t="n">
         <f aca="false">W18-U17</f>
         <v>19</v>
       </c>
-      <c r="V18" s="11"/>
-      <c r="W18" s="23" t="n">
+      <c r="V18" s="12"/>
+      <c r="W18" s="24" t="n">
         <f aca="false">Z18</f>
         <v>23</v>
       </c>
-      <c r="X18" s="25"/>
-      <c r="Z18" s="22" t="n">
+      <c r="X18" s="26"/>
+      <c r="Z18" s="23" t="n">
         <f aca="false">AB18-Z17</f>
         <v>23</v>
       </c>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="23" t="n">
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="24" t="n">
         <f aca="false">AB15</f>
         <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="25"/>
-      <c r="X19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="X19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="25"/>
-      <c r="F20" s="10" t="n">
+      <c r="D20" s="26"/>
+      <c r="F20" s="11" t="n">
         <f aca="false">C15</f>
         <v>1</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12" t="n">
+      <c r="G20" s="12"/>
+      <c r="H20" s="13" t="n">
         <f aca="false">F20+F22</f>
         <v>7</v>
       </c>
-      <c r="K20" s="10" t="n">
+      <c r="K20" s="11" t="n">
         <f aca="false">H20</f>
         <v>7</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="12" t="n">
+      <c r="L20" s="12"/>
+      <c r="M20" s="13" t="n">
         <f aca="false">K20+K22</f>
         <v>15</v>
       </c>
-      <c r="P20" s="10" t="n">
+      <c r="P20" s="11" t="n">
         <f aca="false">M20</f>
         <v>15</v>
       </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="12" t="n">
+      <c r="Q20" s="12"/>
+      <c r="R20" s="13" t="n">
         <f aca="false">P20+P22</f>
         <v>21</v>
       </c>
-      <c r="U20" s="10" t="n">
+      <c r="U20" s="11" t="n">
         <f aca="false">MAX(R20,R25)</f>
         <v>21</v>
       </c>
-      <c r="V20" s="11"/>
-      <c r="W20" s="12" t="n">
+      <c r="V20" s="12"/>
+      <c r="W20" s="13" t="n">
         <f aca="false">U20+U22</f>
         <v>23</v>
       </c>
-      <c r="X20" s="25"/>
+      <c r="X20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="13" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="13" t="s">
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="13" t="s">
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="13" t="s">
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="27"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="16" t="n">
+      <c r="F22" s="17" t="n">
         <f aca="false">VLOOKUP(F21,$A$2:$K$13,11)</f>
         <v>6</v>
       </c>
-      <c r="G22" s="17" t="n">
+      <c r="G22" s="18" t="n">
         <f aca="false">H23-H20</f>
         <v>0</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="K22" s="16" t="n">
+      <c r="H22" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="K22" s="17" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$K$13,11)</f>
         <v>8</v>
       </c>
-      <c r="L22" s="17" t="n">
+      <c r="L22" s="18" t="n">
         <f aca="false">M23-M20</f>
         <v>0</v>
       </c>
-      <c r="M22" s="18"/>
-      <c r="P22" s="16" t="n">
+      <c r="M22" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="17" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$K$13,11)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="17" t="n">
+      <c r="Q22" s="18" t="n">
         <f aca="false">R23-R20</f>
         <v>0</v>
       </c>
-      <c r="R22" s="18"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="16" t="n">
+      <c r="R22" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" s="16"/>
+      <c r="U22" s="17" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$K$13,11)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="17" t="n">
+      <c r="V22" s="18" t="n">
         <f aca="false">W23-W20</f>
         <v>0</v>
       </c>
-      <c r="W22" s="18"/>
+      <c r="W22" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="22" t="n">
+      <c r="F23" s="23" t="n">
         <f aca="false">H23-F22</f>
         <v>1</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="23" t="n">
+      <c r="G23" s="12"/>
+      <c r="H23" s="24" t="n">
         <f aca="false">MIN(K23,K28)</f>
         <v>7</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="K23" s="22" t="n">
+      <c r="I23" s="25"/>
+      <c r="K23" s="23" t="n">
         <f aca="false">M23-K22</f>
         <v>7</v>
       </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="23" t="n">
+      <c r="L23" s="12"/>
+      <c r="M23" s="24" t="n">
         <f aca="false">P23</f>
         <v>15</v>
       </c>
-      <c r="P23" s="22" t="n">
+      <c r="P23" s="23" t="n">
         <f aca="false">R23-P22</f>
         <v>15</v>
       </c>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="23" t="n">
+      <c r="Q23" s="12"/>
+      <c r="R23" s="24" t="n">
         <f aca="false">U23</f>
         <v>21</v>
       </c>
-      <c r="S23" s="25"/>
-      <c r="U23" s="22" t="n">
+      <c r="S23" s="26"/>
+      <c r="U23" s="23" t="n">
         <f aca="false">W23-U22</f>
         <v>21</v>
       </c>
-      <c r="V23" s="11"/>
-      <c r="W23" s="23" t="n">
+      <c r="V23" s="12"/>
+      <c r="W23" s="24" t="n">
         <f aca="false">Z18</f>
         <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="25"/>
-      <c r="S24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="S24" s="26"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="25"/>
-      <c r="K25" s="10" t="n">
+      <c r="I25" s="26"/>
+      <c r="K25" s="11" t="n">
         <f aca="false">H20</f>
         <v>7</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="12" t="n">
+      <c r="L25" s="12"/>
+      <c r="M25" s="13" t="n">
         <f aca="false">K25+K27</f>
         <v>15</v>
       </c>
-      <c r="P25" s="10" t="n">
+      <c r="P25" s="11" t="n">
         <f aca="false">M25</f>
         <v>15</v>
       </c>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="12" t="n">
+      <c r="Q25" s="12"/>
+      <c r="R25" s="13" t="n">
         <f aca="false">P25+P27</f>
         <v>20</v>
       </c>
-      <c r="S25" s="25"/>
+      <c r="S25" s="26"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="13" t="s">
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="13" t="s">
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="27"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="16" t="n">
+      <c r="K27" s="17" t="n">
         <f aca="false">VLOOKUP(K26,$A$2:$K$13,11)</f>
         <v>8</v>
       </c>
-      <c r="L27" s="17" t="n">
+      <c r="L27" s="18" t="n">
         <f aca="false">M28-M25</f>
         <v>1</v>
       </c>
-      <c r="M27" s="18"/>
-      <c r="P27" s="16" t="n">
+      <c r="M27" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="17" t="n">
         <f aca="false">VLOOKUP(P26,$A$2:$K$13,11)</f>
         <v>5</v>
       </c>
-      <c r="Q27" s="17" t="n">
+      <c r="Q27" s="18" t="n">
         <f aca="false">R28-R25</f>
         <v>1</v>
       </c>
-      <c r="R27" s="18"/>
+      <c r="R27" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="22" t="n">
+      <c r="K28" s="23" t="n">
         <f aca="false">M28-K27</f>
         <v>8</v>
       </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="23" t="n">
+      <c r="L28" s="12"/>
+      <c r="M28" s="24" t="n">
         <f aca="false">P28</f>
         <v>16</v>
       </c>
-      <c r="P28" s="22" t="n">
+      <c r="P28" s="23" t="n">
         <f aca="false">R28-P27</f>
         <v>16</v>
       </c>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="23" t="n">
+      <c r="Q28" s="12"/>
+      <c r="R28" s="24" t="n">
         <f aca="false">U23</f>
         <v>21</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12" t="s">
+      <c r="B36" s="12"/>
+      <c r="C36" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="H36" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="H37" s="30" t="s">
+      <c r="A37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="H37" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="31" t="s">
+      <c r="A38" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="23" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="30" t="s">
+      <c r="H39" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J42" s="33"/>
-      <c r="K42" s="32"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="34"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J43" s="34"/>
-      <c r="K43" s="32"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="34"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J44" s="33"/>
-      <c r="K44" s="32"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="34"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J45" s="33"/>
-      <c r="K45" s="32"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="34"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J46" s="33"/>
-      <c r="K46" s="32"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="34"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J47" s="33"/>
-      <c r="K47" s="32"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="34"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J48" s="33"/>
-      <c r="K48" s="32"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="34"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J49" s="33"/>
-      <c r="K49" s="32"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="34"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J50" s="33"/>
-      <c r="K50" s="32"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="34"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J51" s="33"/>
-      <c r="K51" s="32"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="34"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J52" s="33"/>
-      <c r="K52" s="32"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="34"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="35"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="35"/>
-      <c r="B55" s="33" t="s">
+      <c r="A55" s="37"/>
+      <c r="B55" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33" t="s">
+      <c r="C55" s="35"/>
+      <c r="D55" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="35"/>
-      <c r="B56" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34" t="s">
+      <c r="A56" s="37"/>
+      <c r="B56" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="35"/>
-      <c r="B57" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="38" t="s">
+      <c r="A57" s="37"/>
+      <c r="B57" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="37" t="s">
+      <c r="D57" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="35"/>
-      <c r="B58" s="33" t="s">
+      <c r="A58" s="37"/>
+      <c r="B58" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33" t="s">
+      <c r="C58" s="35"/>
+      <c r="D58" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="35"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="35"/>
-      <c r="B60" s="39" t="s">
+      <c r="A60" s="37"/>
+      <c r="B60" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="33" t="s">
+      <c r="C60" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="35"/>
-      <c r="B61" s="39" t="s">
+      <c r="A61" s="37"/>
+      <c r="B61" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="35"/>
-      <c r="B62" s="39" t="s">
+      <c r="A62" s="37"/>
+      <c r="B62" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="35"/>
-      <c r="B63" s="39" t="s">
+      <c r="A63" s="37"/>
+      <c r="B63" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C63" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="35"/>
-      <c r="B64" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="33" t="s">
+      <c r="A64" s="37"/>
+      <c r="B64" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="35"/>
-      <c r="B65" s="38" t="s">
+      <c r="A65" s="37"/>
+      <c r="B65" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C65" s="33" t="s">
+      <c r="C65" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="35"/>
-      <c r="B66" s="40" t="s">
+      <c r="A66" s="37"/>
+      <c r="B66" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="35"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2669,7 +2696,7 @@
   </mergeCells>
   <conditionalFormatting sqref="L2:L13">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>K2</formula>
+      <formula>K3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
@@ -2747,695 +2774,577 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="W14" activeCellId="0" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="3.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="n">
+      <c r="G2" s="6"/>
+      <c r="H2" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="K12" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="P12" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="U12" s="11" t="n">
+        <v>24</v>
+      </c>
+      <c r="V12" s="12"/>
+      <c r="W12" s="13" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="n">
+        <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="B14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="20"/>
+      <c r="F14" s="17" t="n">
+        <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="G14" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="K14" s="17" t="n">
+        <f aca="false">VLOOKUP(K13,$A$2:$H$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="L14" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" s="33"/>
+      <c r="P14" s="17" t="n">
+        <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
+        <v>3</v>
+      </c>
+      <c r="Q14" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" s="33"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="17" t="n">
+        <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
+        <v>2</v>
+      </c>
+      <c r="V14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="33"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="24" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="F15" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="5" t="s">
+      <c r="G15" s="12"/>
+      <c r="H15" s="24" t="n">
+        <v>17</v>
+      </c>
+      <c r="K15" s="23" t="n">
+        <v>17</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="24" t="n">
+        <v>21</v>
+      </c>
+      <c r="P15" s="23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="24" t="n">
+        <v>24</v>
+      </c>
+      <c r="S15" s="26"/>
+      <c r="U15" s="23" t="n">
+        <v>24</v>
+      </c>
+      <c r="V15" s="12"/>
+      <c r="W15" s="24" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="26"/>
+      <c r="S16" s="26"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="26"/>
+      <c r="S17" s="26"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="26"/>
+      <c r="F18" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="K18" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="P18" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="S18" s="26"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="n">
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="5" t="s">
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="28"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="17" t="n">
+        <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="G20" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="20"/>
+      <c r="K20" s="17" t="n">
+        <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="L20" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="33"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="17" t="n">
+        <f aca="false">VLOOKUP(P19,$A$2:$H$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="Q20" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="33"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="23" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="24" t="n">
+        <v>13</v>
+      </c>
+      <c r="I21" s="25"/>
+      <c r="K21" s="23" t="n">
+        <v>14</v>
+      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" s="24" t="n">
+        <v>18</v>
+      </c>
+      <c r="N21" s="26"/>
+      <c r="P21" s="23" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="24" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="26"/>
+      <c r="N22" s="26"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="26"/>
+      <c r="N23" s="26"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="26"/>
+      <c r="K24" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="L24" s="12"/>
+      <c r="M24" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="N24" s="26"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="28"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K26" s="17" t="n">
+        <f aca="false">VLOOKUP(K25,$A$2:$H$10,8)</f>
+        <v>5</v>
+      </c>
+      <c r="L26" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="33"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K27" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="P9" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="n">
-        <f aca="false">A12+A14</f>
-        <v>15</v>
-      </c>
-      <c r="F12" s="10" t="n">
-        <f aca="false">C12</f>
-        <v>15</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12" t="n">
-        <f aca="false">F12+F14</f>
-        <v>21</v>
-      </c>
-      <c r="P12" s="10" t="n">
-        <f aca="false">H12</f>
-        <v>21</v>
-      </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="12" t="n">
-        <f aca="false">P12+P14</f>
-        <v>28</v>
-      </c>
-      <c r="U12" s="10" t="n">
-        <f aca="false">MAX(R12,R18)</f>
-        <v>59</v>
-      </c>
-      <c r="V12" s="11"/>
-      <c r="W12" s="12" t="n">
-        <f aca="false">U12+U14</f>
-        <v>63</v>
-      </c>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="12" t="n">
-        <f aca="false">Z12+Z14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="n">
-        <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
-        <v>15</v>
-      </c>
-      <c r="B14" s="17" t="n">
-        <f aca="false">C15-C12</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="18" t="n">
-        <f aca="false">MIN(F12,F18,F24)-C12</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="F14" s="16" t="n">
-        <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
-        <v>6</v>
-      </c>
-      <c r="G14" s="17" t="n">
-        <f aca="false">H15-H12</f>
-        <v>31</v>
-      </c>
-      <c r="H14" s="18" t="n">
-        <f aca="false">P12-H12</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="16" t="n">
-        <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
-        <v>7</v>
-      </c>
-      <c r="Q14" s="17" t="n">
-        <f aca="false">R15-R12</f>
-        <v>31</v>
-      </c>
-      <c r="R14" s="18" t="n">
-        <f aca="false">U12-R12</f>
-        <v>31</v>
-      </c>
-      <c r="S14" s="42"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="16" t="n">
-        <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
-        <v>4</v>
-      </c>
-      <c r="V14" s="17" t="n">
-        <f aca="false">W15-W12</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="17" t="n">
-        <f aca="false">AB15-AB12</f>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="n">
-        <f aca="false">C15-A14</f>
-        <v>0</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="23" t="n">
-        <f aca="false">MIN(F15,F21,F27)</f>
-        <v>15</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="F15" s="22" t="n">
-        <f aca="false">H15-F14</f>
-        <v>46</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="23" t="n">
-        <f aca="false">P15</f>
-        <v>52</v>
-      </c>
-      <c r="P15" s="22" t="n">
-        <f aca="false">R15-P14</f>
-        <v>52</v>
-      </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="23" t="n">
-        <f aca="false">U15</f>
-        <v>59</v>
-      </c>
-      <c r="S15" s="25"/>
-      <c r="U15" s="22" t="n">
-        <f aca="false">W15-U14</f>
-        <v>59</v>
-      </c>
-      <c r="V15" s="11"/>
-      <c r="W15" s="23" t="n">
-        <f aca="false">W12</f>
-        <v>63</v>
-      </c>
-      <c r="Z15" s="22" t="n">
-        <f aca="false">AB15-Z14</f>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="23"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="43"/>
-      <c r="D16" s="25"/>
-      <c r="S16" s="25"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="S17" s="25"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="F18" s="10" t="n">
-        <f aca="false">C12</f>
-        <v>15</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12" t="n">
-        <f aca="false">F18+F20</f>
-        <v>29</v>
-      </c>
-      <c r="K18" s="10" t="n">
-        <f aca="false">H18</f>
-        <v>29</v>
-      </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="12" t="n">
-        <f aca="false">K18+K20</f>
-        <v>44</v>
-      </c>
-      <c r="P18" s="10" t="n">
-        <f aca="false">MAX(M18,M24)</f>
-        <v>44</v>
-      </c>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="12" t="n">
-        <f aca="false">P18+P20</f>
-        <v>59</v>
-      </c>
-      <c r="S18" s="25"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="27"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="25"/>
-      <c r="F20" s="16" t="n">
-        <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
-        <v>14</v>
-      </c>
-      <c r="G20" s="17" t="n">
-        <f aca="false">H21-H18</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="18" t="n">
-        <f aca="false">K18-H18</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="42"/>
-      <c r="K20" s="16" t="n">
-        <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
-        <v>15</v>
-      </c>
-      <c r="L20" s="17" t="n">
-        <f aca="false">M21-M18</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="18" t="n">
-        <f aca="false">P18-M18</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="20"/>
-      <c r="P20" s="16" t="n">
-        <f aca="false">VLOOKUP(P19,$A$2:$H$10,8)</f>
-        <v>15</v>
-      </c>
-      <c r="Q20" s="17" t="n">
-        <f aca="false">R21-R18</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="18" t="n">
-        <f aca="false">U12-R18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="25"/>
-      <c r="F21" s="22" t="n">
-        <f aca="false">H21-F20</f>
-        <v>15</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="23" t="n">
-        <f aca="false">K21</f>
-        <v>29</v>
-      </c>
-      <c r="K21" s="22" t="n">
-        <f aca="false">M21-K20</f>
-        <v>29</v>
-      </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="23" t="n">
-        <f aca="false">P21</f>
-        <v>44</v>
-      </c>
-      <c r="N21" s="25"/>
-      <c r="P21" s="22" t="n">
-        <f aca="false">R21-P20</f>
-        <v>44</v>
-      </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="23" t="n">
-        <f aca="false">U15</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="25"/>
-      <c r="N22" s="25"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="25"/>
-      <c r="N23" s="25"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="25"/>
-      <c r="F24" s="10" t="n">
-        <f aca="false">C12</f>
-        <v>15</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12" t="n">
-        <f aca="false">F24+F26</f>
-        <v>21</v>
-      </c>
-      <c r="K24" s="10" t="n">
-        <f aca="false">H24</f>
-        <v>21</v>
-      </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="12" t="n">
-        <f aca="false">K24+K26</f>
-        <v>35</v>
-      </c>
-      <c r="N24" s="25"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="25"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="27"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="16" t="n">
-        <f aca="false">VLOOKUP(F25,$A$2:$H$10,8)</f>
-        <v>6</v>
-      </c>
-      <c r="G26" s="17" t="n">
-        <f aca="false">H27-H24</f>
-        <v>9</v>
-      </c>
-      <c r="H26" s="18" t="n">
-        <f aca="false">K24-H24</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="16" t="n">
-        <f aca="false">VLOOKUP(K25,$A$2:$H$10,8)</f>
-        <v>14</v>
-      </c>
-      <c r="L26" s="17" t="n">
-        <f aca="false">M27-M24</f>
-        <v>9</v>
-      </c>
-      <c r="M26" s="18" t="n">
-        <f aca="false">P18-M24</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="22" t="n">
-        <f aca="false">H27-F26</f>
-        <v>24</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="23" t="n">
-        <f aca="false">K27</f>
-        <v>30</v>
-      </c>
-      <c r="K27" s="22" t="n">
-        <f aca="false">M27-K26</f>
-        <v>30</v>
-      </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="23" t="n">
-        <f aca="false">P21</f>
-        <v>44</v>
+      <c r="L27" s="12"/>
+      <c r="M27" s="24" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="11">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="P9:W9"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="F13:H13"/>
+    <mergeCell ref="K13:M13"/>
     <mergeCell ref="P13:R13"/>
     <mergeCell ref="U13:W13"/>
-    <mergeCell ref="Z13:AB13"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="P19:R19"/>
-    <mergeCell ref="F25:H25"/>
     <mergeCell ref="K25:M25"/>
   </mergeCells>
-  <conditionalFormatting sqref="AA14">
+  <conditionalFormatting sqref="L26">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V14">
+  <conditionalFormatting sqref="Q20">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q20">
+  <conditionalFormatting sqref="L20">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
+  <conditionalFormatting sqref="G20">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
+  <conditionalFormatting sqref="B14">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
+  <conditionalFormatting sqref="G14">
     <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="L14">
     <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="Q14">
     <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+  <conditionalFormatting sqref="V14">
     <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
+  <conditionalFormatting sqref="H8">
     <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
       <formula>0</formula>
     </cfRule>
@@ -3455,550 +3364,637 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="3.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3" t="n">
-        <v>6</v>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="n">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="4" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="0"/>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
+      <c r="AB10" s="0"/>
+      <c r="AC10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="n">
+        <f aca="false">A12+A14</f>
+        <v>15</v>
+      </c>
+      <c r="F12" s="11" t="n">
+        <f aca="false">C12</f>
+        <v>15</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13" t="n">
+        <f aca="false">F12+F14</f>
+        <v>21</v>
+      </c>
+      <c r="P12" s="11" t="n">
+        <f aca="false">H12</f>
+        <v>21</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="13" t="n">
+        <f aca="false">P12+P14</f>
+        <v>28</v>
+      </c>
+      <c r="U12" s="11" t="n">
+        <f aca="false">MAX(R12,R18)</f>
+        <v>59</v>
+      </c>
+      <c r="V12" s="12"/>
+      <c r="W12" s="13" t="n">
+        <f aca="false">U12+U14</f>
+        <v>63</v>
+      </c>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="Y13" s="0"/>
+      <c r="Z13" s="0"/>
+      <c r="AA13" s="0"/>
+      <c r="AB13" s="0"/>
+      <c r="AC13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="n">
+        <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
+        <v>15</v>
+      </c>
+      <c r="B14" s="18" t="n">
+        <f aca="false">C15-C12</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="20"/>
+      <c r="F14" s="17" t="n">
+        <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="G14" s="18" t="n">
+        <f aca="false">H15-H12</f>
+        <v>31</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="P14" s="17" t="n">
+        <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="Q14" s="18" t="n">
+        <f aca="false">R15-R12</f>
+        <v>31</v>
+      </c>
+      <c r="R14" s="33"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="17" t="n">
+        <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="V14" s="18" t="n">
+        <f aca="false">W15-W12</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="33"/>
+      <c r="Y14" s="0"/>
+      <c r="Z14" s="0"/>
+      <c r="AA14" s="0"/>
+      <c r="AB14" s="0"/>
+      <c r="AC14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="23" t="n">
+        <f aca="false">C15-A14</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="24" t="n">
+        <f aca="false">MIN(F15,F21,F27)</f>
+        <v>15</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="F15" s="23" t="n">
+        <f aca="false">H15-F14</f>
+        <v>46</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="24" t="n">
+        <f aca="false">P15</f>
+        <v>52</v>
+      </c>
+      <c r="P15" s="23" t="n">
+        <f aca="false">R15-P14</f>
+        <v>52</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="24" t="n">
+        <f aca="false">U15</f>
+        <v>59</v>
+      </c>
+      <c r="S15" s="26"/>
+      <c r="U15" s="23" t="n">
+        <f aca="false">W15-U14</f>
+        <v>59</v>
+      </c>
+      <c r="V15" s="12"/>
+      <c r="W15" s="24" t="n">
+        <f aca="false">W12</f>
+        <v>63</v>
+      </c>
+      <c r="Y15" s="0"/>
+      <c r="Z15" s="0"/>
+      <c r="AA15" s="0"/>
+      <c r="AB15" s="0"/>
+      <c r="AC15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="46"/>
+      <c r="D16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="0"/>
+      <c r="AA16" s="0"/>
+      <c r="AB16" s="0"/>
+      <c r="AC16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="S17" s="26"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="F18" s="11" t="n">
+        <f aca="false">C12</f>
+        <v>15</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13" t="n">
+        <f aca="false">F18+F20</f>
+        <v>29</v>
+      </c>
+      <c r="K18" s="11" t="n">
+        <f aca="false">H18</f>
+        <v>29</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="13" t="n">
+        <f aca="false">K18+K20</f>
+        <v>44</v>
+      </c>
+      <c r="P18" s="11" t="n">
+        <f aca="false">MAX(M18,M24)</f>
+        <v>44</v>
+      </c>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="13" t="n">
+        <f aca="false">P18+P20</f>
+        <v>59</v>
+      </c>
+      <c r="S18" s="26"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="5" t="s">
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="28"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="26"/>
+      <c r="F20" s="17" t="n">
+        <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
+        <v>14</v>
+      </c>
+      <c r="G20" s="18" t="n">
+        <f aca="false">H21-H18</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="44"/>
+      <c r="K20" s="17" t="n">
+        <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
+        <v>15</v>
+      </c>
+      <c r="L20" s="18" t="n">
+        <f aca="false">M21-M18</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="33"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="17" t="n">
+        <f aca="false">VLOOKUP(P19,$A$2:$H$10,8)</f>
+        <v>15</v>
+      </c>
+      <c r="Q20" s="18" t="n">
+        <f aca="false">R21-R18</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="33"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="26"/>
+      <c r="F21" s="23" t="n">
+        <f aca="false">H21-F20</f>
+        <v>15</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="24" t="n">
+        <f aca="false">K21</f>
+        <v>29</v>
+      </c>
+      <c r="K21" s="23" t="n">
+        <f aca="false">M21-K20</f>
+        <v>29</v>
+      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" s="24" t="n">
+        <f aca="false">P21</f>
+        <v>44</v>
+      </c>
+      <c r="N21" s="26"/>
+      <c r="P21" s="23" t="n">
+        <f aca="false">R21-P20</f>
+        <v>44</v>
+      </c>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="24" t="n">
+        <f aca="false">U15</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="26"/>
+      <c r="N22" s="26"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="26"/>
+      <c r="N23" s="26"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="26"/>
+      <c r="F24" s="11" t="n">
+        <f aca="false">C12</f>
+        <v>15</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13" t="n">
+        <f aca="false">F24+F26</f>
+        <v>21</v>
+      </c>
+      <c r="K24" s="11" t="n">
+        <f aca="false">H24</f>
+        <v>21</v>
+      </c>
+      <c r="L24" s="12"/>
+      <c r="M24" s="13" t="n">
+        <f aca="false">K24+K26</f>
+        <v>35</v>
+      </c>
+      <c r="N24" s="26"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="26"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="28"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="17" t="n">
+        <f aca="false">VLOOKUP(F25,$A$2:$H$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="G26" s="18" t="n">
+        <f aca="false">H27-H24</f>
         <v>9</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="5" t="s">
+      <c r="H26" s="33"/>
+      <c r="K26" s="17" t="n">
+        <f aca="false">VLOOKUP(K25,$A$2:$H$10,8)</f>
         <v>14</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="47" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12" t="n">
-        <v>13</v>
-      </c>
-      <c r="K12" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="12" t="n">
-        <v>17</v>
-      </c>
-      <c r="P12" s="10" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="12" t="n">
-        <v>20</v>
-      </c>
-      <c r="U12" s="10" t="n">
+      <c r="L26" s="18" t="n">
+        <f aca="false">M27-M24</f>
+        <v>9</v>
+      </c>
+      <c r="M26" s="33"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="23" t="n">
+        <f aca="false">H27-F26</f>
         <v>24</v>
       </c>
-      <c r="V12" s="11"/>
-      <c r="W12" s="12" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="n">
-        <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
-        <v>6</v>
-      </c>
-      <c r="B14" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="F14" s="16" t="n">
-        <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
-        <v>7</v>
-      </c>
-      <c r="G14" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="16" t="n">
-        <f aca="false">VLOOKUP(K13,$A$2:$H$10,8)</f>
-        <v>4</v>
-      </c>
-      <c r="L14" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="M14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="16" t="n">
-        <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
-        <v>3</v>
-      </c>
-      <c r="Q14" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" s="42"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="16" t="n">
-        <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
-        <v>2</v>
-      </c>
-      <c r="V14" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="23" t="n">
-        <v>6</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="F15" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="23" t="n">
-        <v>17</v>
-      </c>
-      <c r="K15" s="22" t="n">
-        <v>17</v>
-      </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="23" t="n">
-        <v>21</v>
-      </c>
-      <c r="P15" s="22" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="23" t="n">
-        <v>24</v>
-      </c>
-      <c r="S15" s="25"/>
-      <c r="U15" s="22" t="n">
-        <v>24</v>
-      </c>
-      <c r="V15" s="11"/>
-      <c r="W15" s="23" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="25"/>
-      <c r="S16" s="25"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="25"/>
-      <c r="S17" s="25"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="25"/>
-      <c r="F18" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12" t="n">
-        <v>13</v>
-      </c>
-      <c r="K18" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="12" t="n">
-        <v>17</v>
-      </c>
-      <c r="P18" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="12" t="n">
-        <v>24</v>
-      </c>
-      <c r="S18" s="25"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="27"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="16" t="n">
-        <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
-        <v>7</v>
-      </c>
-      <c r="G20" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="19"/>
-      <c r="K20" s="16" t="n">
-        <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
-        <v>4</v>
-      </c>
-      <c r="L20" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="20"/>
-      <c r="P20" s="16" t="n">
-        <f aca="false">VLOOKUP(P19,$A$2:$H$10,8)</f>
-        <v>6</v>
-      </c>
-      <c r="Q20" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="23" t="n">
-        <v>13</v>
-      </c>
-      <c r="I21" s="24"/>
-      <c r="K21" s="22" t="n">
-        <v>14</v>
-      </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="23" t="n">
-        <v>18</v>
-      </c>
-      <c r="N21" s="25"/>
-      <c r="P21" s="22" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="23" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="25"/>
-      <c r="N22" s="25"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="25"/>
-      <c r="N23" s="25"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="25"/>
-      <c r="K24" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="12" t="n">
-        <v>18</v>
-      </c>
-      <c r="N24" s="25"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="27"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="16" t="n">
-        <f aca="false">VLOOKUP(K25,$A$2:$H$10,8)</f>
-        <v>5</v>
-      </c>
-      <c r="L26" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="22" t="n">
-        <v>13</v>
-      </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="23" t="n">
-        <v>18</v>
+      <c r="G27" s="12"/>
+      <c r="H27" s="24" t="n">
+        <f aca="false">K27</f>
+        <v>30</v>
+      </c>
+      <c r="K27" s="23" t="n">
+        <f aca="false">M27-K26</f>
+        <v>30</v>
+      </c>
+      <c r="L27" s="12"/>
+      <c r="M27" s="24" t="n">
+        <f aca="false">P21</f>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="P9:W9"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="K13:M13"/>
     <mergeCell ref="P13:R13"/>
     <mergeCell ref="U13:W13"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="P19:R19"/>
+    <mergeCell ref="F25:H25"/>
     <mergeCell ref="K25:M25"/>
   </mergeCells>
-  <conditionalFormatting sqref="L26">
+  <conditionalFormatting sqref="V14">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
       <formula>0</formula>
     </cfRule>
@@ -4008,43 +4004,38 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
+  <conditionalFormatting sqref="Q14">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="L26">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
+  <conditionalFormatting sqref="L20">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+  <conditionalFormatting sqref="G26">
     <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14">
+  <conditionalFormatting sqref="G20">
     <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
+  <conditionalFormatting sqref="G14">
     <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V14">
+  <conditionalFormatting sqref="B14">
     <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4065,706 +4056,706 @@
   </sheetPr>
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="3.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="n">
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="n">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="n">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="n">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="n">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="5" t="s">
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="n">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3" t="n">
+      <c r="G8" s="6"/>
+      <c r="H8" s="4" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="n">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="n">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3" t="n">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="4" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3" t="n">
+      <c r="D12" s="10"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12" t="n">
+      <c r="A14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13" t="n">
         <f aca="false">A14+A16</f>
         <v>4</v>
       </c>
-      <c r="F14" s="10" t="n">
+      <c r="F14" s="11" t="n">
         <f aca="false">C14</f>
         <v>4</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12" t="n">
+      <c r="G14" s="12"/>
+      <c r="H14" s="13" t="n">
         <f aca="false">F14+F16</f>
         <v>13</v>
       </c>
-      <c r="P14" s="10" t="n">
+      <c r="P14" s="11" t="n">
         <f aca="false">H14</f>
         <v>13</v>
       </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12" t="n">
+      <c r="Q14" s="12"/>
+      <c r="R14" s="13" t="n">
         <f aca="false">P14+P16</f>
         <v>24</v>
       </c>
-      <c r="U14" s="10" t="n">
+      <c r="U14" s="11" t="n">
         <f aca="false">R14</f>
         <v>24</v>
       </c>
-      <c r="V14" s="11"/>
-      <c r="W14" s="12" t="n">
+      <c r="V14" s="12"/>
+      <c r="W14" s="13" t="n">
         <f aca="false">U14+U16</f>
         <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="13" t="s">
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="13" t="s">
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="n">
+      <c r="A16" s="17" t="n">
         <f aca="false">VLOOKUP(A15,$A$2:$H$12,8)</f>
         <v>4</v>
       </c>
-      <c r="B16" s="17" t="n">
+      <c r="B16" s="18" t="n">
         <f aca="false">C17-C14</f>
         <v>0</v>
       </c>
-      <c r="C16" s="18" t="n">
+      <c r="C16" s="33" t="n">
         <f aca="false">MIN(F14,F20,F26)-C14</f>
         <v>0</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="F16" s="16" t="n">
+      <c r="D16" s="20"/>
+      <c r="F16" s="17" t="n">
         <f aca="false">VLOOKUP(F15,$A$2:$H$12,8)</f>
         <v>9</v>
       </c>
-      <c r="G16" s="17" t="n">
+      <c r="G16" s="18" t="n">
         <f aca="false">H17-H14</f>
         <v>15</v>
       </c>
-      <c r="H16" s="18" t="n">
+      <c r="H16" s="33" t="n">
         <f aca="false">P14-H14</f>
         <v>0</v>
       </c>
-      <c r="P16" s="16" t="n">
+      <c r="P16" s="17" t="n">
         <f aca="false">VLOOKUP(P15,$A$2:$H$12,8)</f>
         <v>11</v>
       </c>
-      <c r="Q16" s="17" t="n">
+      <c r="Q16" s="18" t="n">
         <f aca="false">R17-R14</f>
         <v>15</v>
       </c>
-      <c r="R16" s="18" t="n">
+      <c r="R16" s="33" t="n">
         <f aca="false">U14-R14</f>
         <v>0</v>
       </c>
-      <c r="S16" s="42"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="16" t="n">
+      <c r="S16" s="44"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="17" t="n">
         <f aca="false">VLOOKUP(U15,$A$2:$H$12,8)</f>
         <v>10</v>
       </c>
-      <c r="V16" s="17" t="n">
+      <c r="V16" s="18" t="n">
         <f aca="false">W17-W14</f>
         <v>15</v>
       </c>
-      <c r="W16" s="18" t="n">
+      <c r="W16" s="33" t="n">
         <f aca="false">Z17-W14</f>
         <v>15</v>
       </c>
-      <c r="X16" s="49"/>
+      <c r="X16" s="51"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="n">
+      <c r="A17" s="23" t="n">
         <f aca="false">C17-A16</f>
         <v>0</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="23" t="n">
+      <c r="B17" s="12"/>
+      <c r="C17" s="24" t="n">
         <f aca="false">MIN(F17,F23,F29)</f>
         <v>4</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="F17" s="22" t="n">
+      <c r="D17" s="25"/>
+      <c r="F17" s="23" t="n">
         <f aca="false">H17-F16</f>
         <v>19</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="23" t="n">
+      <c r="G17" s="12"/>
+      <c r="H17" s="24" t="n">
         <f aca="false">P17</f>
         <v>28</v>
       </c>
-      <c r="P17" s="22" t="n">
+      <c r="P17" s="23" t="n">
         <f aca="false">R17-P16</f>
         <v>28</v>
       </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="50" t="n">
+      <c r="Q17" s="12"/>
+      <c r="R17" s="52" t="n">
         <f aca="false">U17</f>
         <v>39</v>
       </c>
-      <c r="U17" s="22" t="n">
+      <c r="U17" s="23" t="n">
         <f aca="false">W17-U16</f>
         <v>39</v>
       </c>
-      <c r="V17" s="11"/>
-      <c r="W17" s="23" t="n">
+      <c r="V17" s="12"/>
+      <c r="W17" s="24" t="n">
         <f aca="false">Z20</f>
         <v>49</v>
       </c>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="10" t="n">
+      <c r="X17" s="53"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="11" t="n">
         <f aca="false">MAX(W14,W20)</f>
         <v>49</v>
       </c>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="12" t="n">
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="13" t="n">
         <f aca="false">Z17+Z19</f>
         <v>53</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="43"/>
-      <c r="D18" s="25"/>
-      <c r="Z18" s="13" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="26"/>
+      <c r="Z18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="16" t="n">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="17" t="n">
         <f aca="false">VLOOKUP(Z18,$A$2:$H$12,8)</f>
         <v>4</v>
       </c>
-      <c r="AA19" s="17" t="n">
+      <c r="AA19" s="18" t="n">
         <f aca="false">AB20-AB17</f>
         <v>0</v>
       </c>
-      <c r="AB19" s="18" t="n">
+      <c r="AB19" s="33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="F20" s="10" t="n">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="F20" s="11" t="n">
         <f aca="false">C14</f>
         <v>4</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12" t="n">
+      <c r="G20" s="12"/>
+      <c r="H20" s="13" t="n">
         <f aca="false">F20+F22</f>
         <v>11</v>
       </c>
-      <c r="K20" s="10" t="n">
+      <c r="K20" s="11" t="n">
         <f aca="false">H20</f>
         <v>11</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="12" t="n">
+      <c r="L20" s="12"/>
+      <c r="M20" s="13" t="n">
         <f aca="false">K20+K22</f>
         <v>26</v>
       </c>
-      <c r="P20" s="10" t="n">
+      <c r="P20" s="11" t="n">
         <f aca="false">MAX(M20,M26)</f>
         <v>32</v>
       </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="12" t="n">
+      <c r="Q20" s="12"/>
+      <c r="R20" s="13" t="n">
         <f aca="false">P20+P22</f>
         <v>39</v>
       </c>
-      <c r="U20" s="10" t="n">
+      <c r="U20" s="11" t="n">
         <f aca="false">R20</f>
         <v>39</v>
       </c>
-      <c r="V20" s="11"/>
-      <c r="W20" s="12" t="n">
+      <c r="V20" s="12"/>
+      <c r="W20" s="13" t="n">
         <f aca="false">U20+U22</f>
         <v>49</v>
       </c>
-      <c r="X20" s="51"/>
-      <c r="Z20" s="22" t="n">
+      <c r="X20" s="53"/>
+      <c r="Z20" s="23" t="n">
         <f aca="false">AB20-Z19</f>
         <v>49</v>
       </c>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="23" t="n">
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="24" t="n">
         <f aca="false">AB17</f>
         <v>53</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="13" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="13" t="s">
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="45" t="s">
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="46" t="s">
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="27"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="25"/>
-      <c r="F22" s="16" t="n">
+      <c r="C22" s="26"/>
+      <c r="F22" s="17" t="n">
         <f aca="false">VLOOKUP(F21,$A$2:$H$12,8)</f>
         <v>7</v>
       </c>
-      <c r="G22" s="17" t="n">
+      <c r="G22" s="18" t="n">
         <f aca="false">H23-H20</f>
         <v>6</v>
       </c>
-      <c r="H22" s="18" t="n">
+      <c r="H22" s="33" t="n">
         <f aca="false">K20-H20</f>
         <v>0</v>
       </c>
-      <c r="I22" s="42"/>
-      <c r="K22" s="16" t="n">
+      <c r="I22" s="44"/>
+      <c r="K22" s="17" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$H$12,8)</f>
         <v>15</v>
       </c>
-      <c r="L22" s="17" t="n">
+      <c r="L22" s="18" t="n">
         <f aca="false">M23-M20</f>
         <v>6</v>
       </c>
-      <c r="M22" s="18" t="n">
+      <c r="M22" s="33" t="n">
         <f aca="false">P20-M20</f>
         <v>6</v>
       </c>
-      <c r="O22" s="20"/>
-      <c r="P22" s="16" t="n">
+      <c r="O22" s="21"/>
+      <c r="P22" s="17" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$H$12,8)</f>
         <v>7</v>
       </c>
-      <c r="Q22" s="17" t="n">
+      <c r="Q22" s="18" t="n">
         <f aca="false">R23-R20</f>
         <v>0</v>
       </c>
-      <c r="R22" s="18" t="n">
+      <c r="R22" s="33" t="n">
         <f aca="false">U20-R20</f>
         <v>0</v>
       </c>
-      <c r="U22" s="16" t="n">
+      <c r="U22" s="17" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$H$12,8)</f>
         <v>10</v>
       </c>
-      <c r="V22" s="17" t="n">
+      <c r="V22" s="18" t="n">
         <f aca="false">W23-W20</f>
         <v>0</v>
       </c>
-      <c r="W22" s="18" t="n">
+      <c r="W22" s="33" t="n">
         <f aca="false">Z17-W20</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="25"/>
-      <c r="F23" s="22" t="n">
+      <c r="C23" s="26"/>
+      <c r="F23" s="23" t="n">
         <f aca="false">H23-F22</f>
         <v>10</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="50" t="n">
+      <c r="G23" s="12"/>
+      <c r="H23" s="52" t="n">
         <f aca="false">K23</f>
         <v>17</v>
       </c>
-      <c r="K23" s="22" t="n">
+      <c r="K23" s="23" t="n">
         <f aca="false">M23-K22</f>
         <v>17</v>
       </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="50" t="n">
+      <c r="L23" s="12"/>
+      <c r="M23" s="52" t="n">
         <f aca="false">P23</f>
         <v>32</v>
       </c>
-      <c r="N23" s="25"/>
-      <c r="P23" s="22" t="n">
+      <c r="N23" s="26"/>
+      <c r="P23" s="23" t="n">
         <f aca="false">R23-P22</f>
         <v>32</v>
       </c>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="50" t="n">
+      <c r="Q23" s="12"/>
+      <c r="R23" s="52" t="n">
         <f aca="false">U23</f>
         <v>39</v>
       </c>
-      <c r="U23" s="22" t="n">
+      <c r="U23" s="23" t="n">
         <f aca="false">W23-U22</f>
         <v>39</v>
       </c>
-      <c r="V23" s="11"/>
-      <c r="W23" s="23" t="n">
+      <c r="V23" s="12"/>
+      <c r="W23" s="24" t="n">
         <f aca="false">Z20</f>
         <v>49</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="25"/>
-      <c r="N24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="N24" s="26"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="25"/>
-      <c r="N25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="N25" s="26"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="25"/>
-      <c r="F26" s="10" t="n">
+      <c r="C26" s="26"/>
+      <c r="F26" s="11" t="n">
         <f aca="false">C14</f>
         <v>4</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12" t="n">
+      <c r="G26" s="12"/>
+      <c r="H26" s="13" t="n">
         <f aca="false">F26+F28</f>
         <v>19</v>
       </c>
-      <c r="K26" s="10" t="n">
+      <c r="K26" s="11" t="n">
         <f aca="false">H26</f>
         <v>19</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="12" t="n">
+      <c r="L26" s="12"/>
+      <c r="M26" s="13" t="n">
         <f aca="false">K26+K28</f>
         <v>32</v>
       </c>
-      <c r="N26" s="25"/>
+      <c r="N26" s="26"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="25"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="46" t="s">
+      <c r="C27" s="26"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="27"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="28"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="16" t="n">
+      <c r="F28" s="17" t="n">
         <f aca="false">VLOOKUP(F27,$A$2:$H$12,8)</f>
         <v>15</v>
       </c>
-      <c r="G28" s="17" t="n">
+      <c r="G28" s="18" t="n">
         <f aca="false">H29-H26</f>
         <v>0</v>
       </c>
-      <c r="H28" s="18" t="n">
+      <c r="H28" s="33" t="n">
         <f aca="false">K26-H26</f>
         <v>0</v>
       </c>
-      <c r="K28" s="16" t="n">
+      <c r="K28" s="17" t="n">
         <f aca="false">VLOOKUP(K27,$A$2:$H$12,8)</f>
         <v>13</v>
       </c>
-      <c r="L28" s="17" t="n">
+      <c r="L28" s="32" t="n">
         <f aca="false">M29-M26</f>
         <v>0</v>
       </c>
-      <c r="M28" s="18" t="n">
+      <c r="M28" s="33" t="n">
         <f aca="false">P20-M26</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="22" t="n">
+      <c r="F29" s="23" t="n">
         <f aca="false">H29-F28</f>
         <v>4</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="50" t="n">
+      <c r="G29" s="12"/>
+      <c r="H29" s="52" t="n">
         <f aca="false">K29</f>
         <v>19</v>
       </c>
-      <c r="K29" s="22" t="n">
+      <c r="K29" s="23" t="n">
         <f aca="false">M29-K28</f>
         <v>19</v>
       </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="23" t="n">
+      <c r="L29" s="12"/>
+      <c r="M29" s="24" t="n">
         <f aca="false">P23</f>
         <v>32</v>
       </c>
@@ -4786,57 +4777,57 @@
     <mergeCell ref="K27:M27"/>
   </mergeCells>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4863,118 +4854,118 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="52" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="54" width="25.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="52" t="n">
+      <c r="A2" s="54" t="n">
         <v>44927</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="n">
+      <c r="A3" s="54" t="n">
         <v>45022</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="n">
+      <c r="A4" s="54" t="n">
         <v>45023</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="n">
+      <c r="A5" s="54" t="n">
         <v>45025</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="n">
+      <c r="A6" s="54" t="n">
         <v>45026</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="n">
+      <c r="A7" s="54" t="n">
         <v>45047</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52" t="n">
+      <c r="A8" s="54" t="n">
         <v>45071</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="52" t="n">
+      <c r="A9" s="54" t="n">
         <v>45081</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="52" t="n">
+      <c r="A10" s="54" t="n">
         <v>45082</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="52" t="n">
+      <c r="A11" s="54" t="n">
         <v>45202</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="52" t="n">
+      <c r="A12" s="54" t="n">
         <v>45230</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="52" t="n">
+      <c r="A13" s="54" t="n">
         <v>45285</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="52" t="n">
+      <c r="A14" s="54" t="n">
         <v>45286</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="22" t="s">
         <v>58</v>
       </c>
     </row>

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="68">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -59,25 +59,52 @@
     <t xml:space="preserve">C</t>
   </si>
   <si>
+    <t xml:space="preserve">Frühester Anfangszeitpunkt (FAZ) = größte FEZ der Vorgänger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frühester Endzeitpunkt (FEZ) = FAZ + D</t>
+  </si>
+  <si>
     <t xml:space="preserve">E</t>
   </si>
   <si>
     <t xml:space="preserve">F</t>
   </si>
   <si>
+    <t xml:space="preserve">Dauer (D) =aus Tabelle</t>
+  </si>
+  <si>
     <t xml:space="preserve">G</t>
   </si>
   <si>
+    <t xml:space="preserve">Spätester Anfangszeitpunkt (SAZ) = SEZ - D</t>
+  </si>
+  <si>
     <t xml:space="preserve">H</t>
   </si>
   <si>
+    <t xml:space="preserve">Spätester Endzeitpunkt (SEZ) = kleinste SAZ der Nachfolger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dauer = Aufwand (PT) / (Anzahl Personen * Kapazität (%))</t>
+  </si>
+  <si>
     <t xml:space="preserve">I</t>
   </si>
   <si>
+    <t xml:space="preserve">Gesamtpuffer (GP) = SAZ – FAZ = SEZ – FEZ</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freier Puffer (FP) = kleinste FAZ der Nachfolger – FEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personentage (PT) = Wie lange braucht eine Person</t>
   </si>
   <si>
     <t xml:space="preserve">L</t>
@@ -214,7 +241,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -246,6 +273,55 @@
     <font>
       <sz val="10"/>
       <color rgb="FFB2B2B2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF729FCF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF8000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3465A4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF443205"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF127622"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFAFD095"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -309,7 +385,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
-        <bgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FFAFD095"/>
       </patternFill>
     </fill>
     <fill>
@@ -321,7 +397,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor rgb="FF666699"/>
+        <bgColor rgb="FF3465A4"/>
       </patternFill>
     </fill>
     <fill>
@@ -333,7 +409,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFF8000"/>
       </patternFill>
     </fill>
     <fill>
@@ -351,7 +427,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.3999"/>
-        <bgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FFAFD095"/>
       </patternFill>
     </fill>
     <fill>
@@ -541,7 +617,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -582,23 +658,59 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -610,15 +722,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -634,11 +746,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -670,43 +782,43 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -734,11 +846,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -750,7 +862,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1174,21 +1286,21 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF127622"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF548235"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1201,7 +1313,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FFA9D18E"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
@@ -1209,14 +1321,14 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFED7D31"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF3465A4"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF203864"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF443205"/>
       <rgbColor rgb="FF843C0B"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
@@ -1403,10 +1515,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD67"/>
+  <dimension ref="A1:AE67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -1481,89 +1593,143 @@
         <f aca="false">SUM($M2:$BN2)</f>
         <v>0</v>
       </c>
+      <c r="O2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I3" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="K3" s="4" t="n">
         <f aca="false">ROUNDUP(H3/(I3*J3),0)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L3" s="9" t="n">
         <f aca="false">SUM($M3:$BN3)</f>
         <v>0</v>
       </c>
+      <c r="O3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="K4" s="4" t="n">
         <f aca="false">ROUNDUP(H4/(I4*J4),0)</f>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L4" s="9" t="n">
         <f aca="false">SUM($M4:$BN4)</f>
         <v>0</v>
       </c>
+      <c r="O4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7" t="n">
         <v>1</v>
@@ -1573,29 +1739,47 @@
       </c>
       <c r="K5" s="4" t="n">
         <f aca="false">ROUNDUP(H5/(I5*J5),0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L5" s="9" t="n">
         <f aca="false">SUM($M5:$BN5)</f>
         <v>0</v>
       </c>
+      <c r="O5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7" t="n">
         <v>1</v>
@@ -1605,24 +1789,45 @@
       </c>
       <c r="K6" s="4" t="n">
         <f aca="false">ROUNDUP(H6/(I6*J6),0)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L6" s="9" t="n">
         <f aca="false">SUM($M6:$BN6)</f>
         <v>0</v>
       </c>
+      <c r="O6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1643,23 +1848,41 @@
         <f aca="false">SUM($M7:$BN7)</f>
         <v>0</v>
       </c>
+      <c r="O7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="10"/>
+      <c r="C8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12"/>
       <c r="E8" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="4" t="n">
@@ -1679,16 +1902,34 @@
         <f aca="false">SUM($M8:$BN8)</f>
         <v>0</v>
       </c>
+      <c r="O8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1714,13 +1955,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
@@ -1743,18 +1984,21 @@
         <f aca="false">SUM($M10:$BN10)</f>
         <v>0</v>
       </c>
+      <c r="O10" s="17" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1780,15 +2024,15 @@
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="10"/>
+      <c r="B12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="12"/>
       <c r="E12" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1812,15 +2056,15 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1843,833 +2087,809 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13" t="n">
+      <c r="A15" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22" t="n">
         <f aca="false">A15+A17</f>
         <v>1</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="20" t="n">
         <f aca="false">C15</f>
         <v>1</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13" t="n">
+      <c r="G15" s="21"/>
+      <c r="H15" s="22" t="n">
         <f aca="false">F15+F17</f>
-        <v>7</v>
-      </c>
-      <c r="K15" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="K15" s="20" t="n">
         <f aca="false">H15</f>
-        <v>7</v>
-      </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22" t="n">
         <f aca="false">K15+K17</f>
-        <v>13</v>
-      </c>
-      <c r="P15" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="P15" s="20" t="n">
         <f aca="false">M15</f>
-        <v>13</v>
-      </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="22" t="n">
         <f aca="false">P15+P17</f>
-        <v>18</v>
-      </c>
-      <c r="U15" s="11" t="n">
+        <v>28</v>
+      </c>
+      <c r="U15" s="20" t="n">
         <f aca="false">R15</f>
-        <v>18</v>
-      </c>
-      <c r="V15" s="12"/>
-      <c r="W15" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="V15" s="21"/>
+      <c r="W15" s="22" t="n">
         <f aca="false">U15+U17</f>
-        <v>22</v>
-      </c>
-      <c r="Z15" s="11" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z15" s="20" t="n">
         <f aca="false">MAX(W15,W20)</f>
-        <v>23</v>
-      </c>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="22" t="n">
         <f aca="false">Z15+Z17</f>
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="14" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="14" t="s">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="n">
+      <c r="A17" s="26" t="n">
         <f aca="false">VLOOKUP(A16,$A$2:$K$13,11)</f>
         <v>1</v>
       </c>
-      <c r="B17" s="18" t="n">
+      <c r="B17" s="27" t="n">
         <f aca="false">C18-C15</f>
         <v>0</v>
       </c>
-      <c r="C17" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="F17" s="17" t="n">
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="F17" s="26" t="n">
         <f aca="false">VLOOKUP(F16,$A$2:$K$13,11)</f>
-        <v>6</v>
-      </c>
-      <c r="G17" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="G17" s="27" t="n">
         <f aca="false">H18-H15</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="28"/>
+      <c r="K17" s="26" t="n">
         <f aca="false">VLOOKUP(K16,$A$2:$K$13,11)</f>
-        <v>6</v>
-      </c>
-      <c r="L17" s="18" t="n">
+        <v>9</v>
+      </c>
+      <c r="L17" s="27" t="n">
         <f aca="false">M18-M15</f>
-        <v>1</v>
-      </c>
-      <c r="M17" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="28"/>
+      <c r="P17" s="26" t="n">
         <f aca="false">VLOOKUP(P16,$A$2:$K$13,11)</f>
         <v>5</v>
       </c>
-      <c r="Q17" s="18" t="n">
+      <c r="Q17" s="27" t="n">
         <f aca="false">R18-R15</f>
-        <v>1</v>
-      </c>
-      <c r="R17" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="28"/>
+      <c r="U17" s="26" t="n">
         <f aca="false">VLOOKUP(U16,$A$2:$K$13,11)</f>
         <v>4</v>
       </c>
-      <c r="V17" s="18" t="n">
+      <c r="V17" s="27" t="n">
         <f aca="false">W18-W15</f>
-        <v>1</v>
-      </c>
-      <c r="W17" s="19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="28"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="26" t="n">
         <f aca="false">VLOOKUP(Z16,$A$2:$K$13,11)</f>
         <v>2</v>
       </c>
-      <c r="AA17" s="18" t="n">
+      <c r="AA17" s="27" t="n">
         <f aca="false">AB18-AB15</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="22" t="s">
-        <v>19</v>
+      <c r="AB17" s="28"/>
+      <c r="AD17" s="31" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="n">
+      <c r="A18" s="32" t="n">
         <f aca="false">C18-A17</f>
         <v>0</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="24" t="n">
+      <c r="B18" s="21"/>
+      <c r="C18" s="33" t="n">
         <f aca="false">MIN(F18,F23)</f>
         <v>1</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="F18" s="23" t="n">
+      <c r="D18" s="34"/>
+      <c r="F18" s="32" t="n">
         <f aca="false">H18-F17</f>
-        <v>2</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="33" t="n">
         <f aca="false">K18</f>
-        <v>8</v>
-      </c>
-      <c r="K18" s="23" t="n">
+        <v>14</v>
+      </c>
+      <c r="K18" s="32" t="n">
         <f aca="false">M18-K17</f>
-        <v>8</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="24" t="n">
+        <v>14</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="33" t="n">
         <f aca="false">P18</f>
-        <v>14</v>
-      </c>
-      <c r="P18" s="23" t="n">
+        <v>23</v>
+      </c>
+      <c r="P18" s="32" t="n">
         <f aca="false">R18-P17</f>
-        <v>14</v>
-      </c>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="24" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="33" t="n">
         <f aca="false">U18</f>
-        <v>19</v>
-      </c>
-      <c r="U18" s="23" t="n">
+        <v>28</v>
+      </c>
+      <c r="U18" s="32" t="n">
         <f aca="false">W18-U17</f>
-        <v>19</v>
-      </c>
-      <c r="V18" s="12"/>
-      <c r="W18" s="24" t="n">
+        <v>28</v>
+      </c>
+      <c r="V18" s="21"/>
+      <c r="W18" s="33" t="n">
         <f aca="false">Z18</f>
-        <v>23</v>
-      </c>
-      <c r="X18" s="26"/>
-      <c r="Z18" s="23" t="n">
+        <v>32</v>
+      </c>
+      <c r="X18" s="35"/>
+      <c r="Z18" s="32" t="n">
         <f aca="false">AB18-Z17</f>
-        <v>23</v>
-      </c>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="33" t="n">
         <f aca="false">AB15</f>
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="26"/>
-      <c r="X19" s="26"/>
+      <c r="D19" s="35"/>
+      <c r="X19" s="35"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="26"/>
-      <c r="F20" s="11" t="n">
+      <c r="D20" s="35"/>
+      <c r="F20" s="20" t="n">
         <f aca="false">C15</f>
         <v>1</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13" t="n">
+      <c r="G20" s="21"/>
+      <c r="H20" s="22" t="n">
         <f aca="false">F20+F22</f>
+        <v>16</v>
+      </c>
+      <c r="K20" s="20" t="n">
+        <f aca="false">H20</f>
+        <v>16</v>
+      </c>
+      <c r="L20" s="21"/>
+      <c r="M20" s="22" t="n">
+        <f aca="false">K20+K22</f>
+        <v>21</v>
+      </c>
+      <c r="P20" s="20" t="n">
+        <f aca="false">M20</f>
+        <v>21</v>
+      </c>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="22" t="n">
+        <f aca="false">P20+P22</f>
+        <v>27</v>
+      </c>
+      <c r="U20" s="20" t="n">
+        <f aca="false">MAX(R20,R25)</f>
+        <v>29</v>
+      </c>
+      <c r="V20" s="21"/>
+      <c r="W20" s="22" t="n">
+        <f aca="false">U20+U22</f>
+        <v>31</v>
+      </c>
+      <c r="X20" s="35"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="11" t="n">
-        <f aca="false">H20</f>
-        <v>7</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="13" t="n">
-        <f aca="false">K20+K22</f>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="37"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="26" t="n">
+        <f aca="false">VLOOKUP(F21,$A$2:$K$13,11)</f>
         <v>15</v>
       </c>
-      <c r="P20" s="11" t="n">
-        <f aca="false">M20</f>
-        <v>15</v>
-      </c>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="13" t="n">
-        <f aca="false">P20+P22</f>
-        <v>21</v>
-      </c>
-      <c r="U20" s="11" t="n">
-        <f aca="false">MAX(R20,R25)</f>
-        <v>21</v>
-      </c>
-      <c r="V20" s="12"/>
-      <c r="W20" s="13" t="n">
-        <f aca="false">U20+U22</f>
-        <v>23</v>
-      </c>
-      <c r="X20" s="26"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="28"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="17" t="n">
-        <f aca="false">VLOOKUP(F21,$A$2:$K$13,11)</f>
-        <v>6</v>
-      </c>
-      <c r="G22" s="18" t="n">
+      <c r="G22" s="27" t="n">
         <f aca="false">H23-H20</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="20"/>
-      <c r="K22" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
+      <c r="K22" s="26" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$K$13,11)</f>
-        <v>8</v>
-      </c>
-      <c r="L22" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="L22" s="27" t="n">
         <f aca="false">M23-M20</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" s="28"/>
+      <c r="P22" s="26" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$K$13,11)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="18" t="n">
+      <c r="Q22" s="27" t="n">
         <f aca="false">R23-R20</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" s="16"/>
-      <c r="U22" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" s="28"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="26" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$K$13,11)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="18" t="n">
+      <c r="V22" s="27" t="n">
         <f aca="false">W23-W20</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="W22" s="28"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="23" t="n">
+      <c r="F23" s="32" t="n">
         <f aca="false">H23-F22</f>
-        <v>1</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="33" t="n">
         <f aca="false">MIN(K23,K28)</f>
-        <v>7</v>
-      </c>
-      <c r="I23" s="25"/>
-      <c r="K23" s="23" t="n">
+        <v>17</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="K23" s="32" t="n">
         <f aca="false">M23-K22</f>
-        <v>7</v>
-      </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="24" t="n">
+        <v>19</v>
+      </c>
+      <c r="L23" s="21"/>
+      <c r="M23" s="33" t="n">
         <f aca="false">P23</f>
-        <v>15</v>
-      </c>
-      <c r="P23" s="23" t="n">
+        <v>24</v>
+      </c>
+      <c r="P23" s="32" t="n">
         <f aca="false">R23-P22</f>
-        <v>15</v>
-      </c>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="24" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="33" t="n">
         <f aca="false">U23</f>
+        <v>30</v>
+      </c>
+      <c r="S23" s="35"/>
+      <c r="U23" s="32" t="n">
+        <f aca="false">W23-U22</f>
+        <v>30</v>
+      </c>
+      <c r="V23" s="21"/>
+      <c r="W23" s="33" t="n">
+        <f aca="false">Z18</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="35"/>
+      <c r="S24" s="35"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I25" s="35"/>
+      <c r="K25" s="20" t="n">
+        <f aca="false">H20</f>
+        <v>16</v>
+      </c>
+      <c r="L25" s="21"/>
+      <c r="M25" s="22" t="n">
+        <f aca="false">K25+K27</f>
+        <v>24</v>
+      </c>
+      <c r="P25" s="20" t="n">
+        <f aca="false">M25</f>
+        <v>24</v>
+      </c>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="22" t="n">
+        <f aca="false">P25+P27</f>
+        <v>29</v>
+      </c>
+      <c r="S25" s="35"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="S23" s="26"/>
-      <c r="U23" s="23" t="n">
-        <f aca="false">W23-U22</f>
-        <v>21</v>
-      </c>
-      <c r="V23" s="12"/>
-      <c r="W23" s="24" t="n">
-        <f aca="false">Z18</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="26"/>
-      <c r="S24" s="26"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="26"/>
-      <c r="K25" s="11" t="n">
-        <f aca="false">H20</f>
-        <v>7</v>
-      </c>
-      <c r="L25" s="12"/>
-      <c r="M25" s="13" t="n">
-        <f aca="false">K25+K27</f>
-        <v>15</v>
-      </c>
-      <c r="P25" s="11" t="n">
-        <f aca="false">M25</f>
-        <v>15</v>
-      </c>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="13" t="n">
-        <f aca="false">P25+P27</f>
-        <v>20</v>
-      </c>
-      <c r="S25" s="26"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="28"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="37"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="17" t="n">
+      <c r="K27" s="26" t="n">
         <f aca="false">VLOOKUP(K26,$A$2:$K$13,11)</f>
         <v>8</v>
       </c>
-      <c r="L27" s="18" t="n">
+      <c r="L27" s="27" t="n">
         <f aca="false">M28-M25</f>
         <v>1</v>
       </c>
-      <c r="M27" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" s="17" t="n">
+      <c r="M27" s="28"/>
+      <c r="P27" s="26" t="n">
         <f aca="false">VLOOKUP(P26,$A$2:$K$13,11)</f>
         <v>5</v>
       </c>
-      <c r="Q27" s="18" t="n">
+      <c r="Q27" s="27" t="n">
         <f aca="false">R28-R25</f>
         <v>1</v>
       </c>
-      <c r="R27" s="19" t="n">
-        <v>1</v>
-      </c>
+      <c r="R27" s="28"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="23" t="n">
+      <c r="K28" s="32" t="n">
         <f aca="false">M28-K27</f>
-        <v>8</v>
-      </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="24" t="n">
+        <v>17</v>
+      </c>
+      <c r="L28" s="21"/>
+      <c r="M28" s="33" t="n">
         <f aca="false">P28</f>
-        <v>16</v>
-      </c>
-      <c r="P28" s="23" t="n">
+        <v>25</v>
+      </c>
+      <c r="P28" s="32" t="n">
         <f aca="false">R28-P27</f>
-        <v>16</v>
-      </c>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="24" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="33" t="n">
         <f aca="false">U23</f>
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>21</v>
+      <c r="A35" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
+      <c r="A36" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="H37" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
+      <c r="A37" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="H37" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
+      <c r="B38" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="21"/>
+      <c r="C39" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J42" s="44"/>
+      <c r="K42" s="43"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J43" s="45"/>
+      <c r="K43" s="43"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J44" s="44"/>
+      <c r="K44" s="43"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J45" s="44"/>
+      <c r="K45" s="43"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J46" s="44"/>
+      <c r="K46" s="43"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J47" s="44"/>
+      <c r="K47" s="43"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J48" s="44"/>
+      <c r="K48" s="43"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J49" s="44"/>
+      <c r="K49" s="43"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J50" s="44"/>
+      <c r="K50" s="43"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J51" s="44"/>
+      <c r="K51" s="43"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J52" s="44"/>
+      <c r="K52" s="43"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="46"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="46"/>
+      <c r="B55" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="24" t="s">
+      <c r="C55" s="44"/>
+      <c r="D55" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J42" s="35"/>
-      <c r="K42" s="34"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J43" s="36"/>
-      <c r="K43" s="34"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J44" s="35"/>
-      <c r="K44" s="34"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J45" s="35"/>
-      <c r="K45" s="34"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J46" s="35"/>
-      <c r="K46" s="34"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J47" s="35"/>
-      <c r="K47" s="34"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J48" s="35"/>
-      <c r="K48" s="34"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J49" s="35"/>
-      <c r="K49" s="34"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J50" s="35"/>
-      <c r="K50" s="34"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J51" s="35"/>
-      <c r="K51" s="34"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J52" s="35"/>
-      <c r="K52" s="34"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="37"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="37"/>
-      <c r="B55" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="37"/>
-      <c r="B56" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="37"/>
-      <c r="B57" s="39" t="s">
+      <c r="A57" s="46"/>
+      <c r="B57" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
+      <c r="C57" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="37"/>
-      <c r="B58" s="35" t="s">
+      <c r="A58" s="46"/>
+      <c r="B58" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="46"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="46"/>
+      <c r="B60" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35" t="s">
+      <c r="C60" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="46"/>
+      <c r="B61" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="46"/>
+      <c r="B62" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="37"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="37"/>
-      <c r="B60" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" s="35" t="s">
+      <c r="C62" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="46"/>
+      <c r="B63" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="46"/>
+      <c r="B64" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="46"/>
+      <c r="B65" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="37"/>
-      <c r="B61" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" s="35" t="s">
+      <c r="C65" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="46"/>
+      <c r="B66" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="37"/>
-      <c r="B62" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="37"/>
-      <c r="B63" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="37"/>
-      <c r="B64" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="37"/>
-      <c r="B65" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="37"/>
-      <c r="B66" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
+      <c r="C66" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="37"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2825,11 +3045,11 @@
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
@@ -2843,16 +3063,16 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="4" t="n">
@@ -2863,13 +3083,13 @@
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -2879,15 +3099,15 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -2897,15 +3117,15 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -2915,39 +3135,39 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="10"/>
+      <c r="C8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12"/>
       <c r="E8" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="43" t="n">
+      <c r="H8" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -2957,13 +3177,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2972,316 +3192,316 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="n">
+      <c r="A12" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="F12" s="11" t="n">
+      <c r="F12" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13" t="n">
+      <c r="G12" s="21"/>
+      <c r="H12" s="22" t="n">
         <v>13</v>
       </c>
-      <c r="K12" s="11" t="n">
+      <c r="K12" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13" t="n">
+      <c r="L12" s="21"/>
+      <c r="M12" s="22" t="n">
         <v>17</v>
       </c>
-      <c r="P12" s="11" t="n">
+      <c r="P12" s="20" t="n">
         <v>17</v>
       </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="13" t="n">
+      <c r="Q12" s="21"/>
+      <c r="R12" s="22" t="n">
         <v>20</v>
       </c>
-      <c r="U12" s="11" t="n">
+      <c r="U12" s="20" t="n">
         <v>24</v>
       </c>
-      <c r="V12" s="12"/>
-      <c r="W12" s="13" t="n">
+      <c r="V12" s="21"/>
+      <c r="W12" s="22" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="14" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="14" t="s">
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="n">
+      <c r="A14" s="26" t="n">
         <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="B14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="20"/>
-      <c r="F14" s="17" t="n">
+      <c r="B14" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="29"/>
+      <c r="F14" s="26" t="n">
         <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="G14" s="18" t="n">
+      <c r="G14" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="K14" s="17" t="n">
+      <c r="H14" s="42"/>
+      <c r="K14" s="26" t="n">
         <f aca="false">VLOOKUP(K13,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="L14" s="18" t="n">
+      <c r="L14" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="M14" s="33"/>
-      <c r="P14" s="17" t="n">
+      <c r="M14" s="42"/>
+      <c r="P14" s="26" t="n">
         <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
         <v>3</v>
       </c>
-      <c r="Q14" s="18" t="n">
+      <c r="Q14" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="R14" s="33"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="17" t="n">
+      <c r="R14" s="42"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="26" t="n">
         <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
         <v>2</v>
       </c>
-      <c r="V14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="33"/>
+      <c r="V14" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="42"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="24" t="n">
+      <c r="A15" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="33" t="n">
         <v>6</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="F15" s="23" t="n">
+      <c r="D15" s="34"/>
+      <c r="F15" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="24" t="n">
+      <c r="G15" s="21"/>
+      <c r="H15" s="33" t="n">
         <v>17</v>
       </c>
-      <c r="K15" s="23" t="n">
+      <c r="K15" s="32" t="n">
         <v>17</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="24" t="n">
+      <c r="L15" s="21"/>
+      <c r="M15" s="33" t="n">
         <v>21</v>
       </c>
-      <c r="P15" s="23" t="n">
+      <c r="P15" s="32" t="n">
         <v>21</v>
       </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="24" t="n">
+      <c r="Q15" s="21"/>
+      <c r="R15" s="33" t="n">
         <v>24</v>
       </c>
-      <c r="S15" s="26"/>
-      <c r="U15" s="23" t="n">
+      <c r="S15" s="35"/>
+      <c r="U15" s="32" t="n">
         <v>24</v>
       </c>
-      <c r="V15" s="12"/>
-      <c r="W15" s="24" t="n">
+      <c r="V15" s="21"/>
+      <c r="W15" s="33" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="26"/>
-      <c r="S16" s="26"/>
+      <c r="D16" s="35"/>
+      <c r="S16" s="35"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="26"/>
-      <c r="S17" s="26"/>
+      <c r="D17" s="35"/>
+      <c r="S17" s="35"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="26"/>
-      <c r="F18" s="11" t="n">
+      <c r="D18" s="35"/>
+      <c r="F18" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13" t="n">
+      <c r="G18" s="21"/>
+      <c r="H18" s="22" t="n">
         <v>13</v>
       </c>
-      <c r="K18" s="11" t="n">
+      <c r="K18" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="13" t="n">
+      <c r="L18" s="21"/>
+      <c r="M18" s="22" t="n">
         <v>17</v>
       </c>
-      <c r="P18" s="11" t="n">
+      <c r="P18" s="20" t="n">
         <v>18</v>
       </c>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="13" t="n">
+      <c r="Q18" s="21"/>
+      <c r="R18" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="S18" s="26"/>
+      <c r="S18" s="35"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="14" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="28"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="37"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="17" t="n">
+      <c r="F20" s="26" t="n">
         <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="G20" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="20"/>
-      <c r="K20" s="17" t="n">
+      <c r="G20" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="42"/>
+      <c r="I20" s="29"/>
+      <c r="K20" s="26" t="n">
         <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="L20" s="18" t="n">
+      <c r="L20" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="M20" s="33"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="17" t="n">
+      <c r="M20" s="42"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="26" t="n">
         <f aca="false">VLOOKUP(P19,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="Q20" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="33"/>
+      <c r="Q20" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="42"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="23" t="n">
+      <c r="F21" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="24" t="n">
+      <c r="G21" s="21"/>
+      <c r="H21" s="33" t="n">
         <v>13</v>
       </c>
-      <c r="I21" s="25"/>
-      <c r="K21" s="23" t="n">
+      <c r="I21" s="34"/>
+      <c r="K21" s="32" t="n">
         <v>14</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="24" t="n">
+      <c r="L21" s="21"/>
+      <c r="M21" s="33" t="n">
         <v>18</v>
       </c>
-      <c r="N21" s="26"/>
-      <c r="P21" s="23" t="n">
+      <c r="N21" s="35"/>
+      <c r="P21" s="32" t="n">
         <v>18</v>
       </c>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="24" t="n">
+      <c r="Q21" s="21"/>
+      <c r="R21" s="33" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="26"/>
-      <c r="N22" s="26"/>
+      <c r="I22" s="35"/>
+      <c r="N22" s="35"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="26"/>
-      <c r="N23" s="26"/>
+      <c r="I23" s="35"/>
+      <c r="N23" s="35"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="26"/>
-      <c r="K24" s="11" t="n">
+      <c r="I24" s="35"/>
+      <c r="K24" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="13" t="n">
+      <c r="L24" s="21"/>
+      <c r="M24" s="22" t="n">
         <v>18</v>
       </c>
-      <c r="N24" s="26"/>
+      <c r="N24" s="35"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="26"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="28"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="37"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="17" t="n">
+      <c r="K26" s="26" t="n">
         <f aca="false">VLOOKUP(K25,$A$2:$H$10,8)</f>
         <v>5</v>
       </c>
-      <c r="L26" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="33"/>
+      <c r="L26" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="42"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="23" t="n">
+      <c r="K27" s="32" t="n">
         <v>13</v>
       </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="24" t="n">
+      <c r="L27" s="21"/>
+      <c r="M27" s="33" t="n">
         <v>18</v>
       </c>
     </row>
@@ -3417,13 +3637,13 @@
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -3435,13 +3655,13 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3453,13 +3673,13 @@
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -3469,15 +3689,15 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3487,15 +3707,15 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -3505,20 +3725,20 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="10"/>
+      <c r="C8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12"/>
       <c r="E8" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="4" t="n">
@@ -3527,45 +3747,45 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="P9" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
+      <c r="P9" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -3586,38 +3806,38 @@
       <c r="AC11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="n">
+      <c r="A12" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22" t="n">
         <f aca="false">A12+A14</f>
         <v>15</v>
       </c>
-      <c r="F12" s="11" t="n">
+      <c r="F12" s="20" t="n">
         <f aca="false">C12</f>
         <v>15</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13" t="n">
+      <c r="G12" s="21"/>
+      <c r="H12" s="22" t="n">
         <f aca="false">F12+F14</f>
         <v>21</v>
       </c>
-      <c r="P12" s="11" t="n">
+      <c r="P12" s="20" t="n">
         <f aca="false">H12</f>
         <v>21</v>
       </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="13" t="n">
+      <c r="Q12" s="21"/>
+      <c r="R12" s="22" t="n">
         <f aca="false">P12+P14</f>
         <v>28</v>
       </c>
-      <c r="U12" s="11" t="n">
+      <c r="U12" s="20" t="n">
         <f aca="false">MAX(R12,R18)</f>
         <v>59</v>
       </c>
-      <c r="V12" s="12"/>
-      <c r="W12" s="13" t="n">
+      <c r="V12" s="21"/>
+      <c r="W12" s="22" t="n">
         <f aca="false">U12+U14</f>
         <v>63</v>
       </c>
@@ -3628,37 +3848,37 @@
       <c r="AC12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="14" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
       <c r="Y13" s="0"/>
       <c r="Z13" s="0"/>
       <c r="AA13" s="0"/>
@@ -3666,45 +3886,45 @@
       <c r="AC13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="n">
+      <c r="A14" s="26" t="n">
         <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="B14" s="18" t="n">
+      <c r="B14" s="27" t="n">
         <f aca="false">C15-C12</f>
         <v>0</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="20"/>
-      <c r="F14" s="17" t="n">
+      <c r="C14" s="42"/>
+      <c r="D14" s="29"/>
+      <c r="F14" s="26" t="n">
         <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="G14" s="18" t="n">
+      <c r="G14" s="27" t="n">
         <f aca="false">H15-H12</f>
         <v>31</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="P14" s="17" t="n">
+      <c r="H14" s="42"/>
+      <c r="P14" s="26" t="n">
         <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="Q14" s="18" t="n">
+      <c r="Q14" s="27" t="n">
         <f aca="false">R15-R12</f>
         <v>31</v>
       </c>
-      <c r="R14" s="33"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="17" t="n">
+      <c r="R14" s="42"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="26" t="n">
         <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="V14" s="18" t="n">
+      <c r="V14" s="27" t="n">
         <f aca="false">W15-W12</f>
         <v>0</v>
       </c>
-      <c r="W14" s="33"/>
+      <c r="W14" s="42"/>
       <c r="Y14" s="0"/>
       <c r="Z14" s="0"/>
       <c r="AA14" s="0"/>
@@ -3712,41 +3932,41 @@
       <c r="AC14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="n">
+      <c r="A15" s="32" t="n">
         <f aca="false">C15-A14</f>
         <v>0</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="24" t="n">
+      <c r="B15" s="21"/>
+      <c r="C15" s="33" t="n">
         <f aca="false">MIN(F15,F21,F27)</f>
         <v>15</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="F15" s="23" t="n">
+      <c r="D15" s="34"/>
+      <c r="F15" s="32" t="n">
         <f aca="false">H15-F14</f>
         <v>46</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="24" t="n">
+      <c r="G15" s="21"/>
+      <c r="H15" s="33" t="n">
         <f aca="false">P15</f>
         <v>52</v>
       </c>
-      <c r="P15" s="23" t="n">
+      <c r="P15" s="32" t="n">
         <f aca="false">R15-P14</f>
         <v>52</v>
       </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="24" t="n">
+      <c r="Q15" s="21"/>
+      <c r="R15" s="33" t="n">
         <f aca="false">U15</f>
         <v>59</v>
       </c>
-      <c r="S15" s="26"/>
-      <c r="U15" s="23" t="n">
+      <c r="S15" s="35"/>
+      <c r="U15" s="32" t="n">
         <f aca="false">W15-U14</f>
         <v>59</v>
       </c>
-      <c r="V15" s="12"/>
-      <c r="W15" s="24" t="n">
+      <c r="V15" s="21"/>
+      <c r="W15" s="33" t="n">
         <f aca="false">W12</f>
         <v>63</v>
       </c>
@@ -3757,9 +3977,9 @@
       <c r="AC15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="46"/>
-      <c r="D16" s="26"/>
-      <c r="S16" s="26"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="35"/>
+      <c r="S16" s="35"/>
       <c r="Y16" s="0"/>
       <c r="Z16" s="0"/>
       <c r="AA16" s="0"/>
@@ -3767,214 +3987,214 @@
       <c r="AC16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="S17" s="26"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="S17" s="35"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="F18" s="11" t="n">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="F18" s="20" t="n">
         <f aca="false">C12</f>
         <v>15</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13" t="n">
+      <c r="G18" s="21"/>
+      <c r="H18" s="22" t="n">
         <f aca="false">F18+F20</f>
         <v>29</v>
       </c>
-      <c r="K18" s="11" t="n">
+      <c r="K18" s="20" t="n">
         <f aca="false">H18</f>
         <v>29</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="13" t="n">
+      <c r="L18" s="21"/>
+      <c r="M18" s="22" t="n">
         <f aca="false">K18+K20</f>
         <v>44</v>
       </c>
-      <c r="P18" s="11" t="n">
+      <c r="P18" s="20" t="n">
         <f aca="false">MAX(M18,M24)</f>
         <v>44</v>
       </c>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="13" t="n">
+      <c r="Q18" s="21"/>
+      <c r="R18" s="22" t="n">
         <f aca="false">P18+P20</f>
         <v>59</v>
       </c>
-      <c r="S18" s="26"/>
+      <c r="S18" s="35"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="14" t="s">
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="28"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="37"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="26"/>
-      <c r="F20" s="17" t="n">
+      <c r="C20" s="35"/>
+      <c r="F20" s="26" t="n">
         <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
         <v>14</v>
       </c>
-      <c r="G20" s="18" t="n">
+      <c r="G20" s="27" t="n">
         <f aca="false">H21-H18</f>
         <v>0</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="44"/>
-      <c r="K20" s="17" t="n">
+      <c r="H20" s="42"/>
+      <c r="I20" s="53"/>
+      <c r="K20" s="26" t="n">
         <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="L20" s="18" t="n">
+      <c r="L20" s="27" t="n">
         <f aca="false">M21-M18</f>
         <v>0</v>
       </c>
-      <c r="M20" s="33"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="17" t="n">
+      <c r="M20" s="42"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="26" t="n">
         <f aca="false">VLOOKUP(P19,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="Q20" s="18" t="n">
+      <c r="Q20" s="27" t="n">
         <f aca="false">R21-R18</f>
         <v>0</v>
       </c>
-      <c r="R20" s="33"/>
+      <c r="R20" s="42"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="26"/>
-      <c r="F21" s="23" t="n">
+      <c r="C21" s="35"/>
+      <c r="F21" s="32" t="n">
         <f aca="false">H21-F20</f>
         <v>15</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="24" t="n">
+      <c r="G21" s="21"/>
+      <c r="H21" s="33" t="n">
         <f aca="false">K21</f>
         <v>29</v>
       </c>
-      <c r="K21" s="23" t="n">
+      <c r="K21" s="32" t="n">
         <f aca="false">M21-K20</f>
         <v>29</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="24" t="n">
+      <c r="L21" s="21"/>
+      <c r="M21" s="33" t="n">
         <f aca="false">P21</f>
         <v>44</v>
       </c>
-      <c r="N21" s="26"/>
-      <c r="P21" s="23" t="n">
+      <c r="N21" s="35"/>
+      <c r="P21" s="32" t="n">
         <f aca="false">R21-P20</f>
         <v>44</v>
       </c>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="24" t="n">
+      <c r="Q21" s="21"/>
+      <c r="R21" s="33" t="n">
         <f aca="false">U15</f>
         <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="26"/>
-      <c r="N22" s="26"/>
+      <c r="C22" s="35"/>
+      <c r="N22" s="35"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="26"/>
-      <c r="N23" s="26"/>
+      <c r="C23" s="35"/>
+      <c r="N23" s="35"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="26"/>
-      <c r="F24" s="11" t="n">
+      <c r="C24" s="35"/>
+      <c r="F24" s="20" t="n">
         <f aca="false">C12</f>
         <v>15</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13" t="n">
+      <c r="G24" s="21"/>
+      <c r="H24" s="22" t="n">
         <f aca="false">F24+F26</f>
         <v>21</v>
       </c>
-      <c r="K24" s="11" t="n">
+      <c r="K24" s="20" t="n">
         <f aca="false">H24</f>
         <v>21</v>
       </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="13" t="n">
+      <c r="L24" s="21"/>
+      <c r="M24" s="22" t="n">
         <f aca="false">K24+K26</f>
         <v>35</v>
       </c>
-      <c r="N24" s="26"/>
+      <c r="N24" s="35"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="26"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="48" t="s">
+      <c r="C25" s="35"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="28"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="37"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="17" t="n">
+      <c r="F26" s="26" t="n">
         <f aca="false">VLOOKUP(F25,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="G26" s="18" t="n">
+      <c r="G26" s="27" t="n">
         <f aca="false">H27-H24</f>
         <v>9</v>
       </c>
-      <c r="H26" s="33"/>
-      <c r="K26" s="17" t="n">
+      <c r="H26" s="42"/>
+      <c r="K26" s="26" t="n">
         <f aca="false">VLOOKUP(K25,$A$2:$H$10,8)</f>
         <v>14</v>
       </c>
-      <c r="L26" s="18" t="n">
+      <c r="L26" s="27" t="n">
         <f aca="false">M27-M24</f>
         <v>9</v>
       </c>
-      <c r="M26" s="33"/>
+      <c r="M26" s="42"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="23" t="n">
+      <c r="F27" s="32" t="n">
         <f aca="false">H27-F26</f>
         <v>24</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="24" t="n">
+      <c r="G27" s="21"/>
+      <c r="H27" s="33" t="n">
         <f aca="false">K27</f>
         <v>30</v>
       </c>
-      <c r="K27" s="23" t="n">
+      <c r="K27" s="32" t="n">
         <f aca="false">M27-K26</f>
         <v>30</v>
       </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="24" t="n">
+      <c r="L27" s="21"/>
+      <c r="M27" s="33" t="n">
         <f aca="false">P21</f>
         <v>44</v>
       </c>
@@ -4107,11 +4327,11 @@
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
@@ -4125,13 +4345,13 @@
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4143,13 +4363,13 @@
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -4159,15 +4379,15 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4177,15 +4397,15 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -4195,20 +4415,20 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="10"/>
+      <c r="C8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12"/>
       <c r="E8" s="6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="4" t="n">
@@ -4217,17 +4437,17 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -4237,15 +4457,15 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12"/>
       <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
@@ -4257,13 +4477,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="6" t="s">
         <v>7</v>
       </c>
@@ -4277,13 +4497,13 @@
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="10"/>
+      <c r="B12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="12"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -4292,470 +4512,470 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="n">
+      <c r="A14" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22" t="n">
         <f aca="false">A14+A16</f>
         <v>4</v>
       </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="20" t="n">
         <f aca="false">C14</f>
         <v>4</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13" t="n">
+      <c r="G14" s="21"/>
+      <c r="H14" s="22" t="n">
         <f aca="false">F14+F16</f>
         <v>13</v>
       </c>
-      <c r="P14" s="11" t="n">
+      <c r="P14" s="20" t="n">
         <f aca="false">H14</f>
         <v>13</v>
       </c>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="13" t="n">
+      <c r="Q14" s="21"/>
+      <c r="R14" s="22" t="n">
         <f aca="false">P14+P16</f>
         <v>24</v>
       </c>
-      <c r="U14" s="11" t="n">
+      <c r="U14" s="20" t="n">
         <f aca="false">R14</f>
         <v>24</v>
       </c>
-      <c r="V14" s="12"/>
-      <c r="W14" s="13" t="n">
+      <c r="V14" s="21"/>
+      <c r="W14" s="22" t="n">
         <f aca="false">U14+U16</f>
         <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="14" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="15"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="n">
+      <c r="A16" s="26" t="n">
         <f aca="false">VLOOKUP(A15,$A$2:$H$12,8)</f>
         <v>4</v>
       </c>
-      <c r="B16" s="18" t="n">
+      <c r="B16" s="27" t="n">
         <f aca="false">C17-C14</f>
         <v>0</v>
       </c>
-      <c r="C16" s="33" t="n">
+      <c r="C16" s="42" t="n">
         <f aca="false">MIN(F14,F20,F26)-C14</f>
         <v>0</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="F16" s="17" t="n">
+      <c r="D16" s="29"/>
+      <c r="F16" s="26" t="n">
         <f aca="false">VLOOKUP(F15,$A$2:$H$12,8)</f>
         <v>9</v>
       </c>
-      <c r="G16" s="18" t="n">
+      <c r="G16" s="27" t="n">
         <f aca="false">H17-H14</f>
         <v>15</v>
       </c>
-      <c r="H16" s="33" t="n">
+      <c r="H16" s="42" t="n">
         <f aca="false">P14-H14</f>
         <v>0</v>
       </c>
-      <c r="P16" s="17" t="n">
+      <c r="P16" s="26" t="n">
         <f aca="false">VLOOKUP(P15,$A$2:$H$12,8)</f>
         <v>11</v>
       </c>
-      <c r="Q16" s="18" t="n">
+      <c r="Q16" s="27" t="n">
         <f aca="false">R17-R14</f>
         <v>15</v>
       </c>
-      <c r="R16" s="33" t="n">
+      <c r="R16" s="42" t="n">
         <f aca="false">U14-R14</f>
         <v>0</v>
       </c>
-      <c r="S16" s="44"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="17" t="n">
+      <c r="S16" s="53"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="26" t="n">
         <f aca="false">VLOOKUP(U15,$A$2:$H$12,8)</f>
         <v>10</v>
       </c>
-      <c r="V16" s="18" t="n">
+      <c r="V16" s="27" t="n">
         <f aca="false">W17-W14</f>
         <v>15</v>
       </c>
-      <c r="W16" s="33" t="n">
+      <c r="W16" s="42" t="n">
         <f aca="false">Z17-W14</f>
         <v>15</v>
       </c>
-      <c r="X16" s="51"/>
+      <c r="X16" s="60"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="n">
+      <c r="A17" s="32" t="n">
         <f aca="false">C17-A16</f>
         <v>0</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="24" t="n">
+      <c r="B17" s="21"/>
+      <c r="C17" s="33" t="n">
         <f aca="false">MIN(F17,F23,F29)</f>
         <v>4</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="F17" s="23" t="n">
+      <c r="D17" s="34"/>
+      <c r="F17" s="32" t="n">
         <f aca="false">H17-F16</f>
         <v>19</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="24" t="n">
+      <c r="G17" s="21"/>
+      <c r="H17" s="33" t="n">
         <f aca="false">P17</f>
         <v>28</v>
       </c>
-      <c r="P17" s="23" t="n">
+      <c r="P17" s="32" t="n">
         <f aca="false">R17-P16</f>
         <v>28</v>
       </c>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="52" t="n">
+      <c r="Q17" s="21"/>
+      <c r="R17" s="61" t="n">
         <f aca="false">U17</f>
         <v>39</v>
       </c>
-      <c r="U17" s="23" t="n">
+      <c r="U17" s="32" t="n">
         <f aca="false">W17-U16</f>
         <v>39</v>
       </c>
-      <c r="V17" s="12"/>
-      <c r="W17" s="24" t="n">
+      <c r="V17" s="21"/>
+      <c r="W17" s="33" t="n">
         <f aca="false">Z20</f>
         <v>49</v>
       </c>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="11" t="n">
+      <c r="X17" s="62"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="20" t="n">
         <f aca="false">MAX(W14,W20)</f>
         <v>49</v>
       </c>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="13" t="n">
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="22" t="n">
         <f aca="false">Z17+Z19</f>
         <v>53</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="46"/>
-      <c r="D18" s="26"/>
-      <c r="Z18" s="14" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="35"/>
+      <c r="Z18" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="17" t="n">
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="26" t="n">
         <f aca="false">VLOOKUP(Z18,$A$2:$H$12,8)</f>
         <v>4</v>
       </c>
-      <c r="AA19" s="18" t="n">
+      <c r="AA19" s="27" t="n">
         <f aca="false">AB20-AB17</f>
         <v>0</v>
       </c>
-      <c r="AB19" s="33" t="n">
+      <c r="AB19" s="42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="F20" s="11" t="n">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="F20" s="20" t="n">
         <f aca="false">C14</f>
         <v>4</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13" t="n">
+      <c r="G20" s="21"/>
+      <c r="H20" s="22" t="n">
         <f aca="false">F20+F22</f>
         <v>11</v>
       </c>
-      <c r="K20" s="11" t="n">
+      <c r="K20" s="20" t="n">
         <f aca="false">H20</f>
         <v>11</v>
       </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="13" t="n">
+      <c r="L20" s="21"/>
+      <c r="M20" s="22" t="n">
         <f aca="false">K20+K22</f>
         <v>26</v>
       </c>
-      <c r="P20" s="11" t="n">
+      <c r="P20" s="20" t="n">
         <f aca="false">MAX(M20,M26)</f>
         <v>32</v>
       </c>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="13" t="n">
+      <c r="Q20" s="21"/>
+      <c r="R20" s="22" t="n">
         <f aca="false">P20+P22</f>
         <v>39</v>
       </c>
-      <c r="U20" s="11" t="n">
+      <c r="U20" s="20" t="n">
         <f aca="false">R20</f>
         <v>39</v>
       </c>
-      <c r="V20" s="12"/>
-      <c r="W20" s="13" t="n">
+      <c r="V20" s="21"/>
+      <c r="W20" s="22" t="n">
         <f aca="false">U20+U22</f>
         <v>49</v>
       </c>
-      <c r="X20" s="53"/>
-      <c r="Z20" s="23" t="n">
+      <c r="X20" s="62"/>
+      <c r="Z20" s="32" t="n">
         <f aca="false">AB20-Z19</f>
         <v>49</v>
       </c>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="24" t="n">
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="33" t="n">
         <f aca="false">AB17</f>
         <v>53</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="14" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="28"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="37"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="26"/>
-      <c r="F22" s="17" t="n">
+      <c r="C22" s="35"/>
+      <c r="F22" s="26" t="n">
         <f aca="false">VLOOKUP(F21,$A$2:$H$12,8)</f>
         <v>7</v>
       </c>
-      <c r="G22" s="18" t="n">
+      <c r="G22" s="27" t="n">
         <f aca="false">H23-H20</f>
         <v>6</v>
       </c>
-      <c r="H22" s="33" t="n">
+      <c r="H22" s="42" t="n">
         <f aca="false">K20-H20</f>
         <v>0</v>
       </c>
-      <c r="I22" s="44"/>
-      <c r="K22" s="17" t="n">
+      <c r="I22" s="53"/>
+      <c r="K22" s="26" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$H$12,8)</f>
         <v>15</v>
       </c>
-      <c r="L22" s="18" t="n">
+      <c r="L22" s="27" t="n">
         <f aca="false">M23-M20</f>
         <v>6</v>
       </c>
-      <c r="M22" s="33" t="n">
+      <c r="M22" s="42" t="n">
         <f aca="false">P20-M20</f>
         <v>6</v>
       </c>
-      <c r="O22" s="21"/>
-      <c r="P22" s="17" t="n">
+      <c r="O22" s="30"/>
+      <c r="P22" s="26" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$H$12,8)</f>
         <v>7</v>
       </c>
-      <c r="Q22" s="18" t="n">
+      <c r="Q22" s="27" t="n">
         <f aca="false">R23-R20</f>
         <v>0</v>
       </c>
-      <c r="R22" s="33" t="n">
+      <c r="R22" s="42" t="n">
         <f aca="false">U20-R20</f>
         <v>0</v>
       </c>
-      <c r="U22" s="17" t="n">
+      <c r="U22" s="26" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$H$12,8)</f>
         <v>10</v>
       </c>
-      <c r="V22" s="18" t="n">
+      <c r="V22" s="27" t="n">
         <f aca="false">W23-W20</f>
         <v>0</v>
       </c>
-      <c r="W22" s="33" t="n">
+      <c r="W22" s="42" t="n">
         <f aca="false">Z17-W20</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="26"/>
-      <c r="F23" s="23" t="n">
+      <c r="C23" s="35"/>
+      <c r="F23" s="32" t="n">
         <f aca="false">H23-F22</f>
         <v>10</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="52" t="n">
+      <c r="G23" s="21"/>
+      <c r="H23" s="61" t="n">
         <f aca="false">K23</f>
         <v>17</v>
       </c>
-      <c r="K23" s="23" t="n">
+      <c r="K23" s="32" t="n">
         <f aca="false">M23-K22</f>
         <v>17</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="52" t="n">
+      <c r="L23" s="21"/>
+      <c r="M23" s="61" t="n">
         <f aca="false">P23</f>
         <v>32</v>
       </c>
-      <c r="N23" s="26"/>
-      <c r="P23" s="23" t="n">
+      <c r="N23" s="35"/>
+      <c r="P23" s="32" t="n">
         <f aca="false">R23-P22</f>
         <v>32</v>
       </c>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="52" t="n">
+      <c r="Q23" s="21"/>
+      <c r="R23" s="61" t="n">
         <f aca="false">U23</f>
         <v>39</v>
       </c>
-      <c r="U23" s="23" t="n">
+      <c r="U23" s="32" t="n">
         <f aca="false">W23-U22</f>
         <v>39</v>
       </c>
-      <c r="V23" s="12"/>
-      <c r="W23" s="24" t="n">
+      <c r="V23" s="21"/>
+      <c r="W23" s="33" t="n">
         <f aca="false">Z20</f>
         <v>49</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="26"/>
-      <c r="N24" s="26"/>
+      <c r="C24" s="35"/>
+      <c r="N24" s="35"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="26"/>
-      <c r="N25" s="26"/>
+      <c r="C25" s="35"/>
+      <c r="N25" s="35"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="26"/>
-      <c r="F26" s="11" t="n">
+      <c r="C26" s="35"/>
+      <c r="F26" s="20" t="n">
         <f aca="false">C14</f>
         <v>4</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13" t="n">
+      <c r="G26" s="21"/>
+      <c r="H26" s="22" t="n">
         <f aca="false">F26+F28</f>
         <v>19</v>
       </c>
-      <c r="K26" s="11" t="n">
+      <c r="K26" s="20" t="n">
         <f aca="false">H26</f>
         <v>19</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="13" t="n">
+      <c r="L26" s="21"/>
+      <c r="M26" s="22" t="n">
         <f aca="false">K26+K28</f>
         <v>32</v>
       </c>
-      <c r="N26" s="26"/>
+      <c r="N26" s="35"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="26"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="48" t="s">
+      <c r="C27" s="35"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="28"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="37"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="17" t="n">
+      <c r="F28" s="26" t="n">
         <f aca="false">VLOOKUP(F27,$A$2:$H$12,8)</f>
         <v>15</v>
       </c>
-      <c r="G28" s="18" t="n">
+      <c r="G28" s="27" t="n">
         <f aca="false">H29-H26</f>
         <v>0</v>
       </c>
-      <c r="H28" s="33" t="n">
+      <c r="H28" s="42" t="n">
         <f aca="false">K26-H26</f>
         <v>0</v>
       </c>
-      <c r="K28" s="17" t="n">
+      <c r="K28" s="26" t="n">
         <f aca="false">VLOOKUP(K27,$A$2:$H$12,8)</f>
         <v>13</v>
       </c>
-      <c r="L28" s="32" t="n">
+      <c r="L28" s="41" t="n">
         <f aca="false">M29-M26</f>
         <v>0</v>
       </c>
-      <c r="M28" s="33" t="n">
+      <c r="M28" s="42" t="n">
         <f aca="false">P20-M26</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="23" t="n">
+      <c r="F29" s="32" t="n">
         <f aca="false">H29-F28</f>
         <v>4</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="52" t="n">
+      <c r="G29" s="21"/>
+      <c r="H29" s="61" t="n">
         <f aca="false">K29</f>
         <v>19</v>
       </c>
-      <c r="K29" s="23" t="n">
+      <c r="K29" s="32" t="n">
         <f aca="false">M29-K28</f>
         <v>19</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="24" t="n">
+      <c r="L29" s="21"/>
+      <c r="M29" s="33" t="n">
         <f aca="false">P23</f>
         <v>32</v>
       </c>
@@ -4854,119 +5074,119 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="54" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="63" width="25.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>45</v>
+      <c r="A1" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="54" t="n">
+      <c r="A2" s="63" t="n">
         <v>44927</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>46</v>
+      <c r="B2" s="31" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="54" t="n">
+      <c r="A3" s="63" t="n">
         <v>45022</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>47</v>
+      <c r="B3" s="31" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="54" t="n">
+      <c r="A4" s="63" t="n">
         <v>45023</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>48</v>
+      <c r="B4" s="31" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="54" t="n">
+      <c r="A5" s="63" t="n">
         <v>45025</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>49</v>
+      <c r="B5" s="31" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="54" t="n">
+      <c r="A6" s="63" t="n">
         <v>45026</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>50</v>
+      <c r="B6" s="31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="54" t="n">
+      <c r="A7" s="63" t="n">
         <v>45047</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>51</v>
+      <c r="B7" s="31" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54" t="n">
+      <c r="A8" s="63" t="n">
         <v>45071</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>52</v>
+      <c r="B8" s="31" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54" t="n">
+      <c r="A9" s="63" t="n">
         <v>45081</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>53</v>
+      <c r="B9" s="31" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54" t="n">
+      <c r="A10" s="63" t="n">
         <v>45082</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>54</v>
+      <c r="B10" s="31" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="54" t="n">
+      <c r="A11" s="63" t="n">
         <v>45202</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>55</v>
+      <c r="B11" s="31" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="54" t="n">
+      <c r="A12" s="63" t="n">
         <v>45230</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>56</v>
+      <c r="B12" s="31" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="54" t="n">
+      <c r="A13" s="63" t="n">
         <v>45285</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>57</v>
+      <c r="B13" s="31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="54" t="n">
+      <c r="A14" s="63" t="n">
         <v>45286</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>58</v>
+      <c r="B14" s="31" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="39">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">Freier Puffer (FAZ-Nachfolger – FEZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FP = kleinste FAZ(Nachfolger)- FEZ</t>
   </si>
 </sst>
 </file>
@@ -395,7 +392,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -546,6 +543,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -862,8 +875,8 @@
   </sheetPr>
   <dimension ref="A1:AB67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB22" activeCellId="0" sqref="AB22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC31" activeCellId="0" sqref="AC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1845,10 +1858,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="P13" activeCellId="0" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2033,7 +2046,9 @@
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -2047,7 +2062,37 @@
         <v>0</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="P12" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="U12" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="V12" s="8"/>
+      <c r="W12" s="9" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
@@ -2055,27 +2100,309 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="n">
         <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13" t="n">
+        <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="G14" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13" t="n">
+        <f aca="false">VLOOKUP(K13,$A$2:$H$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="L14" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13" t="n">
+        <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
+        <v>3</v>
+      </c>
+      <c r="Q14" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="U14" s="13" t="n">
+        <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
+        <v>2</v>
+      </c>
+      <c r="V14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16"/>
+      <c r="A15" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="F15" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="K15" s="16" t="n">
+        <v>17</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="P15" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="S15" s="39"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="V15" s="8"/>
+      <c r="W15" s="17" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="39"/>
+      <c r="S16" s="39"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="39"/>
+      <c r="S17" s="39"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="39"/>
+      <c r="F18" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="P18" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="S18" s="39"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="39"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="41"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="13" t="n">
+        <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="G20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13" t="n">
+        <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="L20" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="13" t="n">
+        <f aca="false">VLOOKUP(P19,$A$2:$H$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="Q20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="I21" s="38"/>
+      <c r="K21" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="N21" s="39"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="39"/>
+      <c r="N22" s="39"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="39"/>
+      <c r="N23" s="39"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="39"/>
+      <c r="K24" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="N24" s="39"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I25" s="39"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="13" t="n">
+        <f aca="false">VLOOKUP(K25,$A$2:$H$10,8)</f>
+        <v>5</v>
+      </c>
+      <c r="L26" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K27" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="17" t="n">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="11">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="K25:M25"/>
   </mergeCells>
-  <conditionalFormatting sqref="B14">
+  <conditionalFormatting sqref="B14 G14 G20 L14 L20 L26 Q14 Q20 V14">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>0</formula>
     </cfRule>
@@ -2103,7 +2430,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2159,7 +2486,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -2280,9 +2607,7 @@
       <c r="H9" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="P9" s="27" t="s">
-        <v>39</v>
-      </c>
+      <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
@@ -2365,8 +2690,8 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P21" activeCellId="0" sqref="P21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X17" activeCellId="0" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2422,7 +2747,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -2551,9 +2876,7 @@
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
         <v>14</v>

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -375,7 +375,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +404,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
         <bgColor rgb="FFA9D18E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -617,7 +623,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -678,6 +684,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -686,7 +696,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -698,6 +712,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -706,11 +724,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -722,15 +740,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -742,18 +760,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -782,15 +796,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -802,11 +816,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -814,15 +836,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -846,11 +860,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -862,7 +876,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1515,21 +1529,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE67"/>
+  <dimension ref="A1:AP67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AN11" activeCellId="0" sqref="AN11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="1" max="9" min="8" style="0" width="3.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="1" max="9" min="8" style="1" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="10" min="10" style="1" width="5.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="4.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="32" style="1" width="4.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,7 +1760,8 @@
         <f aca="false">SUM($M5:$BN5)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="N5" s="15"/>
+      <c r="O5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="11"/>
@@ -1795,7 +1811,7 @@
         <f aca="false">SUM($M6:$BN6)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="17" t="s">
         <v>19</v>
       </c>
       <c r="P6" s="11"/>
@@ -1813,9 +1829,20 @@
       <c r="AB6" s="11"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
-      <c r="AE6" s="17" t="s">
+      <c r="AE6" s="18" t="s">
         <v>20</v>
       </c>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -1848,7 +1875,7 @@
         <f aca="false">SUM($M7:$BN7)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="20" t="s">
         <v>22</v>
       </c>
       <c r="P7" s="11"/>
@@ -1902,7 +1929,7 @@
         <f aca="false">SUM($M8:$BN8)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="21" t="s">
         <v>25</v>
       </c>
       <c r="P8" s="11"/>
@@ -1984,7 +2011,7 @@
         <f aca="false">SUM($M10:$BN10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="22" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2087,809 +2114,809 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22" t="n">
+      <c r="A15" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25" t="n">
         <f aca="false">A15+A17</f>
         <v>1</v>
       </c>
-      <c r="F15" s="20" t="n">
+      <c r="F15" s="23" t="n">
         <f aca="false">C15</f>
         <v>1</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22" t="n">
+      <c r="G15" s="24"/>
+      <c r="H15" s="25" t="n">
         <f aca="false">F15+F17</f>
         <v>14</v>
       </c>
-      <c r="K15" s="20" t="n">
+      <c r="K15" s="23" t="n">
         <f aca="false">H15</f>
         <v>14</v>
       </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="22" t="n">
+      <c r="L15" s="24"/>
+      <c r="M15" s="25" t="n">
         <f aca="false">K15+K17</f>
         <v>23</v>
       </c>
-      <c r="P15" s="20" t="n">
+      <c r="P15" s="23" t="n">
         <f aca="false">M15</f>
         <v>23</v>
       </c>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="22" t="n">
+      <c r="Q15" s="24"/>
+      <c r="R15" s="25" t="n">
         <f aca="false">P15+P17</f>
         <v>28</v>
       </c>
-      <c r="U15" s="20" t="n">
+      <c r="U15" s="23" t="n">
         <f aca="false">R15</f>
         <v>28</v>
       </c>
-      <c r="V15" s="21"/>
-      <c r="W15" s="22" t="n">
+      <c r="V15" s="24"/>
+      <c r="W15" s="25" t="n">
         <f aca="false">U15+U17</f>
         <v>32</v>
       </c>
-      <c r="Z15" s="20" t="n">
+      <c r="Z15" s="23" t="n">
         <f aca="false">MAX(W15,W20)</f>
         <v>32</v>
       </c>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="22" t="n">
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="25" t="n">
         <f aca="false">Z15+Z17</f>
         <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="23" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="23" t="s">
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="23" t="s">
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="23" t="s">
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="23" t="s">
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="n">
+      <c r="A17" s="29" t="n">
         <f aca="false">VLOOKUP(A16,$A$2:$K$13,11)</f>
         <v>1</v>
       </c>
-      <c r="B17" s="27" t="n">
+      <c r="B17" s="30" t="n">
         <f aca="false">C18-C15</f>
         <v>0</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="F17" s="26" t="n">
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="F17" s="29" t="n">
         <f aca="false">VLOOKUP(F16,$A$2:$K$13,11)</f>
         <v>13</v>
       </c>
-      <c r="G17" s="27" t="n">
+      <c r="G17" s="30" t="n">
         <f aca="false">H18-H15</f>
         <v>0</v>
       </c>
-      <c r="H17" s="28"/>
-      <c r="K17" s="26" t="n">
+      <c r="H17" s="31"/>
+      <c r="K17" s="29" t="n">
         <f aca="false">VLOOKUP(K16,$A$2:$K$13,11)</f>
         <v>9</v>
       </c>
-      <c r="L17" s="27" t="n">
+      <c r="L17" s="30" t="n">
         <f aca="false">M18-M15</f>
         <v>0</v>
       </c>
-      <c r="M17" s="28"/>
-      <c r="P17" s="26" t="n">
+      <c r="M17" s="31"/>
+      <c r="P17" s="29" t="n">
         <f aca="false">VLOOKUP(P16,$A$2:$K$13,11)</f>
         <v>5</v>
       </c>
-      <c r="Q17" s="27" t="n">
+      <c r="Q17" s="30" t="n">
         <f aca="false">R18-R15</f>
         <v>0</v>
       </c>
-      <c r="R17" s="28"/>
-      <c r="U17" s="26" t="n">
+      <c r="R17" s="31"/>
+      <c r="U17" s="29" t="n">
         <f aca="false">VLOOKUP(U16,$A$2:$K$13,11)</f>
         <v>4</v>
       </c>
-      <c r="V17" s="27" t="n">
+      <c r="V17" s="30" t="n">
         <f aca="false">W18-W15</f>
         <v>0</v>
       </c>
-      <c r="W17" s="28"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="26" t="n">
+      <c r="W17" s="31"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="29" t="n">
         <f aca="false">VLOOKUP(Z16,$A$2:$K$13,11)</f>
         <v>2</v>
       </c>
-      <c r="AA17" s="27" t="n">
+      <c r="AA17" s="30" t="n">
         <f aca="false">AB18-AB15</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="28"/>
-      <c r="AD17" s="31" t="s">
+      <c r="AB17" s="31"/>
+      <c r="AD17" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32" t="n">
+      <c r="A18" s="34" t="n">
         <f aca="false">C18-A17</f>
         <v>0</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="33" t="n">
+      <c r="B18" s="24"/>
+      <c r="C18" s="35" t="n">
         <f aca="false">MIN(F18,F23)</f>
         <v>1</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="F18" s="32" t="n">
+      <c r="D18" s="36"/>
+      <c r="F18" s="34" t="n">
         <f aca="false">H18-F17</f>
         <v>1</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="33" t="n">
+      <c r="G18" s="24"/>
+      <c r="H18" s="35" t="n">
         <f aca="false">K18</f>
         <v>14</v>
       </c>
-      <c r="K18" s="32" t="n">
+      <c r="K18" s="34" t="n">
         <f aca="false">M18-K17</f>
         <v>14</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="33" t="n">
+      <c r="L18" s="24"/>
+      <c r="M18" s="35" t="n">
         <f aca="false">P18</f>
         <v>23</v>
       </c>
-      <c r="P18" s="32" t="n">
+      <c r="P18" s="34" t="n">
         <f aca="false">R18-P17</f>
         <v>23</v>
       </c>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="33" t="n">
+      <c r="Q18" s="24"/>
+      <c r="R18" s="35" t="n">
         <f aca="false">U18</f>
         <v>28</v>
       </c>
-      <c r="U18" s="32" t="n">
+      <c r="U18" s="34" t="n">
         <f aca="false">W18-U17</f>
         <v>28</v>
       </c>
-      <c r="V18" s="21"/>
-      <c r="W18" s="33" t="n">
+      <c r="V18" s="24"/>
+      <c r="W18" s="35" t="n">
         <f aca="false">Z18</f>
         <v>32</v>
       </c>
-      <c r="X18" s="35"/>
-      <c r="Z18" s="32" t="n">
+      <c r="X18" s="37"/>
+      <c r="Z18" s="34" t="n">
         <f aca="false">AB18-Z17</f>
         <v>32</v>
       </c>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="33" t="n">
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="35" t="n">
         <f aca="false">AB15</f>
         <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="35"/>
-      <c r="X19" s="35"/>
+      <c r="D19" s="37"/>
+      <c r="X19" s="37"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="35"/>
-      <c r="F20" s="20" t="n">
+      <c r="D20" s="37"/>
+      <c r="F20" s="23" t="n">
         <f aca="false">C15</f>
         <v>1</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22" t="n">
+      <c r="G20" s="24"/>
+      <c r="H20" s="25" t="n">
         <f aca="false">F20+F22</f>
         <v>16</v>
       </c>
-      <c r="K20" s="20" t="n">
+      <c r="K20" s="23" t="n">
         <f aca="false">H20</f>
         <v>16</v>
       </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22" t="n">
+      <c r="L20" s="24"/>
+      <c r="M20" s="25" t="n">
         <f aca="false">K20+K22</f>
         <v>21</v>
       </c>
-      <c r="P20" s="20" t="n">
+      <c r="P20" s="23" t="n">
         <f aca="false">M20</f>
         <v>21</v>
       </c>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="22" t="n">
+      <c r="Q20" s="24"/>
+      <c r="R20" s="25" t="n">
         <f aca="false">P20+P22</f>
         <v>27</v>
       </c>
-      <c r="U20" s="20" t="n">
+      <c r="U20" s="23" t="n">
         <f aca="false">MAX(R20,R25)</f>
         <v>29</v>
       </c>
-      <c r="V20" s="21"/>
-      <c r="W20" s="22" t="n">
+      <c r="V20" s="24"/>
+      <c r="W20" s="25" t="n">
         <f aca="false">U20+U22</f>
         <v>31</v>
       </c>
-      <c r="X20" s="35"/>
+      <c r="X20" s="37"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="23" t="s">
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="23" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="23" t="s">
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="23" t="s">
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="37"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="39"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="26" t="n">
+      <c r="F22" s="29" t="n">
         <f aca="false">VLOOKUP(F21,$A$2:$K$13,11)</f>
         <v>15</v>
       </c>
-      <c r="G22" s="27" t="n">
+      <c r="G22" s="30" t="n">
         <f aca="false">H23-H20</f>
         <v>1</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
-      <c r="K22" s="26" t="n">
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
+      <c r="K22" s="29" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$K$13,11)</f>
         <v>5</v>
       </c>
-      <c r="L22" s="27" t="n">
+      <c r="L22" s="30" t="n">
         <f aca="false">M23-M20</f>
         <v>3</v>
       </c>
-      <c r="M22" s="28"/>
-      <c r="P22" s="26" t="n">
+      <c r="M22" s="31"/>
+      <c r="P22" s="29" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$K$13,11)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="27" t="n">
+      <c r="Q22" s="30" t="n">
         <f aca="false">R23-R20</f>
         <v>3</v>
       </c>
-      <c r="R22" s="28"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="26" t="n">
+      <c r="R22" s="31"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="29" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$K$13,11)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="27" t="n">
+      <c r="V22" s="30" t="n">
         <f aca="false">W23-W20</f>
         <v>1</v>
       </c>
-      <c r="W22" s="28"/>
+      <c r="W22" s="31"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="32" t="n">
+      <c r="F23" s="34" t="n">
         <f aca="false">H23-F22</f>
         <v>2</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="33" t="n">
+      <c r="G23" s="24"/>
+      <c r="H23" s="35" t="n">
         <f aca="false">MIN(K23,K28)</f>
         <v>17</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="K23" s="32" t="n">
+      <c r="I23" s="36"/>
+      <c r="K23" s="34" t="n">
         <f aca="false">M23-K22</f>
         <v>19</v>
       </c>
-      <c r="L23" s="21"/>
-      <c r="M23" s="33" t="n">
+      <c r="L23" s="24"/>
+      <c r="M23" s="35" t="n">
         <f aca="false">P23</f>
         <v>24</v>
       </c>
-      <c r="P23" s="32" t="n">
+      <c r="P23" s="34" t="n">
         <f aca="false">R23-P22</f>
         <v>24</v>
       </c>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="33" t="n">
+      <c r="Q23" s="24"/>
+      <c r="R23" s="35" t="n">
         <f aca="false">U23</f>
         <v>30</v>
       </c>
-      <c r="S23" s="35"/>
-      <c r="U23" s="32" t="n">
+      <c r="S23" s="37"/>
+      <c r="U23" s="34" t="n">
         <f aca="false">W23-U22</f>
         <v>30</v>
       </c>
-      <c r="V23" s="21"/>
-      <c r="W23" s="33" t="n">
+      <c r="V23" s="24"/>
+      <c r="W23" s="35" t="n">
         <f aca="false">Z18</f>
         <v>32</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="35"/>
-      <c r="S24" s="35"/>
+      <c r="I24" s="37"/>
+      <c r="S24" s="37"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="35"/>
-      <c r="K25" s="20" t="n">
+      <c r="I25" s="37"/>
+      <c r="K25" s="23" t="n">
         <f aca="false">H20</f>
         <v>16</v>
       </c>
-      <c r="L25" s="21"/>
-      <c r="M25" s="22" t="n">
+      <c r="L25" s="24"/>
+      <c r="M25" s="25" t="n">
         <f aca="false">K25+K27</f>
         <v>24</v>
       </c>
-      <c r="P25" s="20" t="n">
+      <c r="P25" s="23" t="n">
         <f aca="false">M25</f>
         <v>24</v>
       </c>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="22" t="n">
+      <c r="Q25" s="24"/>
+      <c r="R25" s="25" t="n">
         <f aca="false">P25+P27</f>
         <v>29</v>
       </c>
-      <c r="S25" s="35"/>
+      <c r="S25" s="37"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I26" s="35"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="23" t="s">
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="23" t="s">
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="37"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="39"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="26" t="n">
+      <c r="K27" s="29" t="n">
         <f aca="false">VLOOKUP(K26,$A$2:$K$13,11)</f>
         <v>8</v>
       </c>
-      <c r="L27" s="27" t="n">
+      <c r="L27" s="30" t="n">
         <f aca="false">M28-M25</f>
         <v>1</v>
       </c>
-      <c r="M27" s="28"/>
-      <c r="P27" s="26" t="n">
+      <c r="M27" s="31"/>
+      <c r="P27" s="29" t="n">
         <f aca="false">VLOOKUP(P26,$A$2:$K$13,11)</f>
         <v>5</v>
       </c>
-      <c r="Q27" s="27" t="n">
+      <c r="Q27" s="30" t="n">
         <f aca="false">R28-R25</f>
         <v>1</v>
       </c>
-      <c r="R27" s="28"/>
+      <c r="R27" s="31"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="32" t="n">
+      <c r="K28" s="34" t="n">
         <f aca="false">M28-K27</f>
         <v>17</v>
       </c>
-      <c r="L28" s="21"/>
-      <c r="M28" s="33" t="n">
+      <c r="L28" s="24"/>
+      <c r="M28" s="35" t="n">
         <f aca="false">P28</f>
         <v>25</v>
       </c>
-      <c r="P28" s="32" t="n">
+      <c r="P28" s="34" t="n">
         <f aca="false">R28-P27</f>
         <v>25</v>
       </c>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="33" t="n">
+      <c r="Q28" s="24"/>
+      <c r="R28" s="35" t="n">
         <f aca="false">U23</f>
         <v>30</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="41" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="40" t="s">
+      <c r="H36" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="H37" s="40" t="s">
+      <c r="A37" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="H37" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="40" t="s">
+      <c r="H38" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="33" t="s">
+      <c r="B39" s="24"/>
+      <c r="C39" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="40" t="s">
+      <c r="H39" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J42" s="44"/>
-      <c r="K42" s="43"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="45"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J43" s="45"/>
-      <c r="K43" s="43"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="45"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J44" s="44"/>
-      <c r="K44" s="43"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="45"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J45" s="44"/>
-      <c r="K45" s="43"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="45"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J46" s="44"/>
-      <c r="K46" s="43"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="45"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J47" s="44"/>
-      <c r="K47" s="43"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="45"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J48" s="44"/>
-      <c r="K48" s="43"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="45"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J49" s="44"/>
-      <c r="K49" s="43"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="45"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J50" s="44"/>
-      <c r="K50" s="43"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="45"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J51" s="44"/>
-      <c r="K51" s="43"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="45"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J52" s="44"/>
-      <c r="K52" s="43"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="45"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="46"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="46"/>
-      <c r="B55" s="44" t="s">
+      <c r="A55" s="48"/>
+      <c r="B55" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44" t="s">
+      <c r="C55" s="46"/>
+      <c r="D55" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="46"/>
-      <c r="B56" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="45" t="s">
+      <c r="A56" s="48"/>
+      <c r="B56" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="46"/>
-      <c r="B57" s="48" t="s">
+      <c r="A57" s="48"/>
+      <c r="B57" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="48" t="s">
+      <c r="D57" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="46"/>
-      <c r="B58" s="44" t="s">
+      <c r="A58" s="48"/>
+      <c r="B58" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44" t="s">
+      <c r="C58" s="46"/>
+      <c r="D58" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="46"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="46"/>
-      <c r="B60" s="50" t="s">
+      <c r="A60" s="48"/>
+      <c r="B60" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="46"/>
-      <c r="B61" s="50" t="s">
+      <c r="A61" s="48"/>
+      <c r="B61" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="44" t="s">
+      <c r="C61" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="46"/>
-      <c r="B62" s="50" t="s">
+      <c r="A62" s="48"/>
+      <c r="B62" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="44" t="s">
+      <c r="C62" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="46"/>
-      <c r="B63" s="50" t="s">
+      <c r="A63" s="48"/>
+      <c r="B63" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="46"/>
-      <c r="B64" s="48" t="s">
+      <c r="A64" s="48"/>
+      <c r="B64" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="44" t="s">
+      <c r="C64" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="46"/>
-      <c r="B65" s="49" t="s">
+      <c r="A65" s="48"/>
+      <c r="B65" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="44" t="s">
+      <c r="C65" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="46"/>
-      <c r="B66" s="51" t="s">
+      <c r="A66" s="48"/>
+      <c r="B66" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="46"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -3151,7 +3178,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="52" t="n">
+      <c r="H8" s="54" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3192,316 +3219,316 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22" t="n">
+      <c r="A12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25" t="n">
         <v>6</v>
       </c>
-      <c r="F12" s="20" t="n">
+      <c r="F12" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22" t="n">
+      <c r="G12" s="24"/>
+      <c r="H12" s="25" t="n">
         <v>13</v>
       </c>
-      <c r="K12" s="20" t="n">
+      <c r="K12" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="22" t="n">
+      <c r="L12" s="24"/>
+      <c r="M12" s="25" t="n">
         <v>17</v>
       </c>
-      <c r="P12" s="20" t="n">
+      <c r="P12" s="23" t="n">
         <v>17</v>
       </c>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="22" t="n">
+      <c r="Q12" s="24"/>
+      <c r="R12" s="25" t="n">
         <v>20</v>
       </c>
-      <c r="U12" s="20" t="n">
+      <c r="U12" s="23" t="n">
         <v>24</v>
       </c>
-      <c r="V12" s="21"/>
-      <c r="W12" s="22" t="n">
+      <c r="V12" s="24"/>
+      <c r="W12" s="25" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="23" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="23" t="s">
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="23" t="s">
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="23" t="s">
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="n">
+      <c r="A14" s="29" t="n">
         <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="B14" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="29"/>
-      <c r="F14" s="26" t="n">
+      <c r="B14" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="32"/>
+      <c r="F14" s="29" t="n">
         <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="G14" s="27" t="n">
+      <c r="G14" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="K14" s="26" t="n">
+      <c r="H14" s="44"/>
+      <c r="K14" s="29" t="n">
         <f aca="false">VLOOKUP(K13,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="L14" s="27" t="n">
+      <c r="L14" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="M14" s="42"/>
-      <c r="P14" s="26" t="n">
+      <c r="M14" s="44"/>
+      <c r="P14" s="29" t="n">
         <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
         <v>3</v>
       </c>
-      <c r="Q14" s="27" t="n">
+      <c r="Q14" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="R14" s="42"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="26" t="n">
+      <c r="R14" s="44"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="29" t="n">
         <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
         <v>2</v>
       </c>
-      <c r="V14" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="42"/>
+      <c r="V14" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="44"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="33" t="n">
+      <c r="A15" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="35" t="n">
         <v>6</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="F15" s="32" t="n">
+      <c r="D15" s="36"/>
+      <c r="F15" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="33" t="n">
+      <c r="G15" s="24"/>
+      <c r="H15" s="35" t="n">
         <v>17</v>
       </c>
-      <c r="K15" s="32" t="n">
+      <c r="K15" s="34" t="n">
         <v>17</v>
       </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="33" t="n">
+      <c r="L15" s="24"/>
+      <c r="M15" s="35" t="n">
         <v>21</v>
       </c>
-      <c r="P15" s="32" t="n">
+      <c r="P15" s="34" t="n">
         <v>21</v>
       </c>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="33" t="n">
+      <c r="Q15" s="24"/>
+      <c r="R15" s="35" t="n">
         <v>24</v>
       </c>
-      <c r="S15" s="35"/>
-      <c r="U15" s="32" t="n">
+      <c r="S15" s="37"/>
+      <c r="U15" s="34" t="n">
         <v>24</v>
       </c>
-      <c r="V15" s="21"/>
-      <c r="W15" s="33" t="n">
+      <c r="V15" s="24"/>
+      <c r="W15" s="35" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="35"/>
-      <c r="S16" s="35"/>
+      <c r="D16" s="37"/>
+      <c r="S16" s="37"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="35"/>
-      <c r="S17" s="35"/>
+      <c r="D17" s="37"/>
+      <c r="S17" s="37"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="35"/>
-      <c r="F18" s="20" t="n">
+      <c r="D18" s="37"/>
+      <c r="F18" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22" t="n">
+      <c r="G18" s="24"/>
+      <c r="H18" s="25" t="n">
         <v>13</v>
       </c>
-      <c r="K18" s="20" t="n">
+      <c r="K18" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22" t="n">
+      <c r="L18" s="24"/>
+      <c r="M18" s="25" t="n">
         <v>17</v>
       </c>
-      <c r="P18" s="20" t="n">
+      <c r="P18" s="23" t="n">
         <v>18</v>
       </c>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="22" t="n">
+      <c r="Q18" s="24"/>
+      <c r="R18" s="25" t="n">
         <v>24</v>
       </c>
-      <c r="S18" s="35"/>
+      <c r="S18" s="37"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="23" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="23" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="23" t="s">
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="37"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="39"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="26" t="n">
+      <c r="F20" s="29" t="n">
         <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="G20" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="29"/>
-      <c r="K20" s="26" t="n">
+      <c r="G20" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="44"/>
+      <c r="I20" s="32"/>
+      <c r="K20" s="29" t="n">
         <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="L20" s="27" t="n">
+      <c r="L20" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="M20" s="42"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="26" t="n">
+      <c r="M20" s="44"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="29" t="n">
         <f aca="false">VLOOKUP(P19,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="Q20" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="42"/>
+      <c r="Q20" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="44"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="32" t="n">
+      <c r="F21" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="33" t="n">
+      <c r="G21" s="24"/>
+      <c r="H21" s="35" t="n">
         <v>13</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="K21" s="32" t="n">
+      <c r="I21" s="36"/>
+      <c r="K21" s="34" t="n">
         <v>14</v>
       </c>
-      <c r="L21" s="21"/>
-      <c r="M21" s="33" t="n">
+      <c r="L21" s="24"/>
+      <c r="M21" s="35" t="n">
         <v>18</v>
       </c>
-      <c r="N21" s="35"/>
-      <c r="P21" s="32" t="n">
+      <c r="N21" s="37"/>
+      <c r="P21" s="34" t="n">
         <v>18</v>
       </c>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="33" t="n">
+      <c r="Q21" s="24"/>
+      <c r="R21" s="35" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="35"/>
-      <c r="N22" s="35"/>
+      <c r="I22" s="37"/>
+      <c r="N22" s="37"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="35"/>
-      <c r="N23" s="35"/>
+      <c r="I23" s="37"/>
+      <c r="N23" s="37"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="35"/>
-      <c r="K24" s="20" t="n">
+      <c r="I24" s="37"/>
+      <c r="K24" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="L24" s="21"/>
-      <c r="M24" s="22" t="n">
+      <c r="L24" s="24"/>
+      <c r="M24" s="25" t="n">
         <v>18</v>
       </c>
-      <c r="N24" s="35"/>
+      <c r="N24" s="37"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="35"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="23" t="s">
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="37"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="26" t="n">
+      <c r="K26" s="29" t="n">
         <f aca="false">VLOOKUP(K25,$A$2:$H$10,8)</f>
         <v>5</v>
       </c>
-      <c r="L26" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="42"/>
+      <c r="L26" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="44"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="32" t="n">
+      <c r="K27" s="34" t="n">
         <v>13</v>
       </c>
-      <c r="L27" s="21"/>
-      <c r="M27" s="33" t="n">
+      <c r="L27" s="24"/>
+      <c r="M27" s="35" t="n">
         <v>18</v>
       </c>
     </row>
@@ -3584,7 +3611,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
@@ -3764,16 +3791,16 @@
       <c r="H9" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="P9" s="40" t="s">
+      <c r="P9" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -3792,409 +3819,372 @@
       <c r="H10" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="Y10" s="0"/>
-      <c r="Z10" s="0"/>
-      <c r="AA10" s="0"/>
-      <c r="AB10" s="0"/>
-      <c r="AC10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0"/>
-      <c r="AA11" s="0"/>
-      <c r="AB11" s="0"/>
-      <c r="AC11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22" t="n">
+      <c r="A12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25" t="n">
         <f aca="false">A12+A14</f>
         <v>15</v>
       </c>
-      <c r="F12" s="20" t="n">
+      <c r="F12" s="23" t="n">
         <f aca="false">C12</f>
         <v>15</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22" t="n">
+      <c r="G12" s="24"/>
+      <c r="H12" s="25" t="n">
         <f aca="false">F12+F14</f>
         <v>21</v>
       </c>
-      <c r="P12" s="20" t="n">
+      <c r="P12" s="23" t="n">
         <f aca="false">H12</f>
         <v>21</v>
       </c>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="22" t="n">
+      <c r="Q12" s="24"/>
+      <c r="R12" s="25" t="n">
         <f aca="false">P12+P14</f>
         <v>28</v>
       </c>
-      <c r="U12" s="20" t="n">
+      <c r="U12" s="23" t="n">
         <f aca="false">MAX(R12,R18)</f>
         <v>59</v>
       </c>
-      <c r="V12" s="21"/>
-      <c r="W12" s="22" t="n">
+      <c r="V12" s="24"/>
+      <c r="W12" s="25" t="n">
         <f aca="false">U12+U14</f>
         <v>63</v>
       </c>
-      <c r="Y12" s="0"/>
-      <c r="Z12" s="0"/>
-      <c r="AA12" s="0"/>
-      <c r="AB12" s="0"/>
-      <c r="AC12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="23" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="23" t="s">
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="23" t="s">
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="Y13" s="0"/>
-      <c r="Z13" s="0"/>
-      <c r="AA13" s="0"/>
-      <c r="AB13" s="0"/>
-      <c r="AC13" s="0"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="n">
+      <c r="A14" s="29" t="n">
         <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="B14" s="27" t="n">
+      <c r="B14" s="30" t="n">
         <f aca="false">C15-C12</f>
         <v>0</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="29"/>
-      <c r="F14" s="26" t="n">
+      <c r="C14" s="44"/>
+      <c r="D14" s="32"/>
+      <c r="F14" s="29" t="n">
         <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="G14" s="27" t="n">
+      <c r="G14" s="30" t="n">
         <f aca="false">H15-H12</f>
         <v>31</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="P14" s="26" t="n">
+      <c r="H14" s="44"/>
+      <c r="P14" s="29" t="n">
         <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="Q14" s="27" t="n">
+      <c r="Q14" s="30" t="n">
         <f aca="false">R15-R12</f>
         <v>31</v>
       </c>
-      <c r="R14" s="42"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="26" t="n">
+      <c r="R14" s="44"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="29" t="n">
         <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="V14" s="27" t="n">
+      <c r="V14" s="43" t="n">
         <f aca="false">W15-W12</f>
         <v>0</v>
       </c>
-      <c r="W14" s="42"/>
-      <c r="Y14" s="0"/>
-      <c r="Z14" s="0"/>
-      <c r="AA14" s="0"/>
-      <c r="AB14" s="0"/>
-      <c r="AC14" s="0"/>
+      <c r="W14" s="44"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32" t="n">
+      <c r="A15" s="34" t="n">
         <f aca="false">C15-A14</f>
         <v>0</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="33" t="n">
+      <c r="B15" s="24"/>
+      <c r="C15" s="35" t="n">
         <f aca="false">MIN(F15,F21,F27)</f>
         <v>15</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="F15" s="32" t="n">
+      <c r="D15" s="36"/>
+      <c r="F15" s="34" t="n">
         <f aca="false">H15-F14</f>
         <v>46</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="33" t="n">
+      <c r="G15" s="24"/>
+      <c r="H15" s="35" t="n">
         <f aca="false">P15</f>
         <v>52</v>
       </c>
-      <c r="P15" s="32" t="n">
+      <c r="P15" s="34" t="n">
         <f aca="false">R15-P14</f>
         <v>52</v>
       </c>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="33" t="n">
+      <c r="Q15" s="24"/>
+      <c r="R15" s="35" t="n">
         <f aca="false">U15</f>
         <v>59</v>
       </c>
-      <c r="S15" s="35"/>
-      <c r="U15" s="32" t="n">
+      <c r="S15" s="37"/>
+      <c r="U15" s="34" t="n">
         <f aca="false">W15-U14</f>
         <v>59</v>
       </c>
-      <c r="V15" s="21"/>
-      <c r="W15" s="33" t="n">
+      <c r="V15" s="24"/>
+      <c r="W15" s="35" t="n">
         <f aca="false">W12</f>
         <v>63</v>
       </c>
-      <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
-      <c r="AB15" s="0"/>
-      <c r="AC15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="55"/>
-      <c r="D16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="Y16" s="0"/>
-      <c r="Z16" s="0"/>
-      <c r="AA16" s="0"/>
-      <c r="AB16" s="0"/>
-      <c r="AC16" s="0"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="37"/>
+      <c r="S16" s="37"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="S17" s="35"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="S17" s="37"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="F18" s="20" t="n">
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="F18" s="23" t="n">
         <f aca="false">C12</f>
         <v>15</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22" t="n">
+      <c r="G18" s="24"/>
+      <c r="H18" s="25" t="n">
         <f aca="false">F18+F20</f>
         <v>29</v>
       </c>
-      <c r="K18" s="20" t="n">
+      <c r="K18" s="23" t="n">
         <f aca="false">H18</f>
         <v>29</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22" t="n">
+      <c r="L18" s="24"/>
+      <c r="M18" s="25" t="n">
         <f aca="false">K18+K20</f>
         <v>44</v>
       </c>
-      <c r="P18" s="20" t="n">
+      <c r="P18" s="23" t="n">
         <f aca="false">MAX(M18,M24)</f>
         <v>44</v>
       </c>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="22" t="n">
+      <c r="Q18" s="24"/>
+      <c r="R18" s="25" t="n">
         <f aca="false">P18+P20</f>
         <v>59</v>
       </c>
-      <c r="S18" s="35"/>
+      <c r="S18" s="37"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="23" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="23" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="23" t="s">
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="37"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="39"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="35"/>
-      <c r="F20" s="26" t="n">
+      <c r="C20" s="37"/>
+      <c r="F20" s="29" t="n">
         <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
         <v>14</v>
       </c>
-      <c r="G20" s="27" t="n">
+      <c r="G20" s="30" t="n">
         <f aca="false">H21-H18</f>
         <v>0</v>
       </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="53"/>
-      <c r="K20" s="26" t="n">
+      <c r="H20" s="44"/>
+      <c r="I20" s="55"/>
+      <c r="K20" s="29" t="n">
         <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="L20" s="27" t="n">
+      <c r="L20" s="30" t="n">
         <f aca="false">M21-M18</f>
         <v>0</v>
       </c>
-      <c r="M20" s="42"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="26" t="n">
+      <c r="M20" s="44"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="29" t="n">
         <f aca="false">VLOOKUP(P19,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="Q20" s="27" t="n">
+      <c r="Q20" s="30" t="n">
         <f aca="false">R21-R18</f>
         <v>0</v>
       </c>
-      <c r="R20" s="42"/>
+      <c r="R20" s="44"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="35"/>
-      <c r="F21" s="32" t="n">
+      <c r="C21" s="37"/>
+      <c r="F21" s="34" t="n">
         <f aca="false">H21-F20</f>
         <v>15</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="33" t="n">
+      <c r="G21" s="24"/>
+      <c r="H21" s="35" t="n">
         <f aca="false">K21</f>
         <v>29</v>
       </c>
-      <c r="K21" s="32" t="n">
+      <c r="K21" s="34" t="n">
         <f aca="false">M21-K20</f>
         <v>29</v>
       </c>
-      <c r="L21" s="21"/>
-      <c r="M21" s="33" t="n">
+      <c r="L21" s="24"/>
+      <c r="M21" s="35" t="n">
         <f aca="false">P21</f>
         <v>44</v>
       </c>
-      <c r="N21" s="35"/>
-      <c r="P21" s="32" t="n">
+      <c r="N21" s="37"/>
+      <c r="P21" s="34" t="n">
         <f aca="false">R21-P20</f>
         <v>44</v>
       </c>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="33" t="n">
+      <c r="Q21" s="24"/>
+      <c r="R21" s="35" t="n">
         <f aca="false">U15</f>
         <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="35"/>
-      <c r="N22" s="35"/>
+      <c r="C22" s="37"/>
+      <c r="N22" s="37"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="35"/>
-      <c r="N23" s="35"/>
+      <c r="C23" s="37"/>
+      <c r="N23" s="37"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="35"/>
-      <c r="F24" s="20" t="n">
+      <c r="C24" s="37"/>
+      <c r="F24" s="23" t="n">
         <f aca="false">C12</f>
         <v>15</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22" t="n">
+      <c r="G24" s="24"/>
+      <c r="H24" s="25" t="n">
         <f aca="false">F24+F26</f>
         <v>21</v>
       </c>
-      <c r="K24" s="20" t="n">
+      <c r="K24" s="23" t="n">
         <f aca="false">H24</f>
         <v>21</v>
       </c>
-      <c r="L24" s="21"/>
-      <c r="M24" s="22" t="n">
+      <c r="L24" s="24"/>
+      <c r="M24" s="25" t="n">
         <f aca="false">K24+K26</f>
         <v>35</v>
       </c>
-      <c r="N24" s="35"/>
+      <c r="N24" s="37"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="35"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="57" t="s">
+      <c r="C25" s="37"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="58" t="s">
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="37"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="26" t="n">
+      <c r="F26" s="29" t="n">
         <f aca="false">VLOOKUP(F25,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="G26" s="27" t="n">
+      <c r="G26" s="30" t="n">
         <f aca="false">H27-H24</f>
         <v>9</v>
       </c>
-      <c r="H26" s="42"/>
-      <c r="K26" s="26" t="n">
+      <c r="H26" s="44"/>
+      <c r="K26" s="29" t="n">
         <f aca="false">VLOOKUP(K25,$A$2:$H$10,8)</f>
         <v>14</v>
       </c>
-      <c r="L26" s="27" t="n">
+      <c r="L26" s="30" t="n">
         <f aca="false">M27-M24</f>
         <v>9</v>
       </c>
-      <c r="M26" s="42"/>
+      <c r="M26" s="44"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="32" t="n">
+      <c r="F27" s="34" t="n">
         <f aca="false">H27-F26</f>
         <v>24</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="33" t="n">
+      <c r="G27" s="24"/>
+      <c r="H27" s="35" t="n">
         <f aca="false">K27</f>
         <v>30</v>
       </c>
-      <c r="K27" s="32" t="n">
+      <c r="K27" s="34" t="n">
         <f aca="false">M27-K26</f>
         <v>30</v>
       </c>
-      <c r="L27" s="21"/>
-      <c r="M27" s="33" t="n">
+      <c r="L27" s="24"/>
+      <c r="M27" s="35" t="n">
         <f aca="false">P21</f>
         <v>44</v>
       </c>
@@ -4512,470 +4502,470 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22" t="n">
+      <c r="A14" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25" t="n">
         <f aca="false">A14+A16</f>
         <v>4</v>
       </c>
-      <c r="F14" s="20" t="n">
+      <c r="F14" s="23" t="n">
         <f aca="false">C14</f>
         <v>4</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22" t="n">
+      <c r="G14" s="24"/>
+      <c r="H14" s="25" t="n">
         <f aca="false">F14+F16</f>
         <v>13</v>
       </c>
-      <c r="P14" s="20" t="n">
+      <c r="P14" s="23" t="n">
         <f aca="false">H14</f>
         <v>13</v>
       </c>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="22" t="n">
+      <c r="Q14" s="24"/>
+      <c r="R14" s="25" t="n">
         <f aca="false">P14+P16</f>
         <v>24</v>
       </c>
-      <c r="U14" s="20" t="n">
+      <c r="U14" s="23" t="n">
         <f aca="false">R14</f>
         <v>24</v>
       </c>
-      <c r="V14" s="21"/>
-      <c r="W14" s="22" t="n">
+      <c r="V14" s="24"/>
+      <c r="W14" s="25" t="n">
         <f aca="false">U14+U16</f>
         <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="23" t="s">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="23" t="s">
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="23" t="s">
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="24"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="27"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="n">
+      <c r="A16" s="29" t="n">
         <f aca="false">VLOOKUP(A15,$A$2:$H$12,8)</f>
         <v>4</v>
       </c>
-      <c r="B16" s="27" t="n">
+      <c r="B16" s="30" t="n">
         <f aca="false">C17-C14</f>
         <v>0</v>
       </c>
-      <c r="C16" s="42" t="n">
+      <c r="C16" s="44" t="n">
         <f aca="false">MIN(F14,F20,F26)-C14</f>
         <v>0</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="F16" s="26" t="n">
+      <c r="D16" s="32"/>
+      <c r="F16" s="29" t="n">
         <f aca="false">VLOOKUP(F15,$A$2:$H$12,8)</f>
         <v>9</v>
       </c>
-      <c r="G16" s="27" t="n">
+      <c r="G16" s="30" t="n">
         <f aca="false">H17-H14</f>
         <v>15</v>
       </c>
-      <c r="H16" s="42" t="n">
+      <c r="H16" s="44" t="n">
         <f aca="false">P14-H14</f>
         <v>0</v>
       </c>
-      <c r="P16" s="26" t="n">
+      <c r="P16" s="29" t="n">
         <f aca="false">VLOOKUP(P15,$A$2:$H$12,8)</f>
         <v>11</v>
       </c>
-      <c r="Q16" s="27" t="n">
+      <c r="Q16" s="30" t="n">
         <f aca="false">R17-R14</f>
         <v>15</v>
       </c>
-      <c r="R16" s="42" t="n">
+      <c r="R16" s="44" t="n">
         <f aca="false">U14-R14</f>
         <v>0</v>
       </c>
-      <c r="S16" s="53"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="26" t="n">
+      <c r="S16" s="55"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="29" t="n">
         <f aca="false">VLOOKUP(U15,$A$2:$H$12,8)</f>
         <v>10</v>
       </c>
-      <c r="V16" s="27" t="n">
+      <c r="V16" s="30" t="n">
         <f aca="false">W17-W14</f>
         <v>15</v>
       </c>
-      <c r="W16" s="42" t="n">
+      <c r="W16" s="44" t="n">
         <f aca="false">Z17-W14</f>
         <v>15</v>
       </c>
-      <c r="X16" s="60"/>
+      <c r="X16" s="62"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32" t="n">
+      <c r="A17" s="34" t="n">
         <f aca="false">C17-A16</f>
         <v>0</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="33" t="n">
+      <c r="B17" s="24"/>
+      <c r="C17" s="35" t="n">
         <f aca="false">MIN(F17,F23,F29)</f>
         <v>4</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="F17" s="32" t="n">
+      <c r="D17" s="36"/>
+      <c r="F17" s="34" t="n">
         <f aca="false">H17-F16</f>
         <v>19</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="33" t="n">
+      <c r="G17" s="24"/>
+      <c r="H17" s="35" t="n">
         <f aca="false">P17</f>
         <v>28</v>
       </c>
-      <c r="P17" s="32" t="n">
+      <c r="P17" s="34" t="n">
         <f aca="false">R17-P16</f>
         <v>28</v>
       </c>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="61" t="n">
+      <c r="Q17" s="24"/>
+      <c r="R17" s="63" t="n">
         <f aca="false">U17</f>
         <v>39</v>
       </c>
-      <c r="U17" s="32" t="n">
+      <c r="U17" s="34" t="n">
         <f aca="false">W17-U16</f>
         <v>39</v>
       </c>
-      <c r="V17" s="21"/>
-      <c r="W17" s="33" t="n">
+      <c r="V17" s="24"/>
+      <c r="W17" s="35" t="n">
         <f aca="false">Z20</f>
         <v>49</v>
       </c>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="20" t="n">
+      <c r="X17" s="64"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="23" t="n">
         <f aca="false">MAX(W14,W20)</f>
         <v>49</v>
       </c>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="22" t="n">
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="25" t="n">
         <f aca="false">Z17+Z19</f>
         <v>53</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="55"/>
-      <c r="D18" s="35"/>
-      <c r="Z18" s="23" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="37"/>
+      <c r="Z18" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="26" t="n">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="29" t="n">
         <f aca="false">VLOOKUP(Z18,$A$2:$H$12,8)</f>
         <v>4</v>
       </c>
-      <c r="AA19" s="27" t="n">
+      <c r="AA19" s="30" t="n">
         <f aca="false">AB20-AB17</f>
         <v>0</v>
       </c>
-      <c r="AB19" s="42" t="n">
+      <c r="AB19" s="44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="F20" s="20" t="n">
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="F20" s="23" t="n">
         <f aca="false">C14</f>
         <v>4</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22" t="n">
+      <c r="G20" s="24"/>
+      <c r="H20" s="25" t="n">
         <f aca="false">F20+F22</f>
         <v>11</v>
       </c>
-      <c r="K20" s="20" t="n">
+      <c r="K20" s="23" t="n">
         <f aca="false">H20</f>
         <v>11</v>
       </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22" t="n">
+      <c r="L20" s="24"/>
+      <c r="M20" s="25" t="n">
         <f aca="false">K20+K22</f>
         <v>26</v>
       </c>
-      <c r="P20" s="20" t="n">
+      <c r="P20" s="23" t="n">
         <f aca="false">MAX(M20,M26)</f>
         <v>32</v>
       </c>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="22" t="n">
+      <c r="Q20" s="24"/>
+      <c r="R20" s="25" t="n">
         <f aca="false">P20+P22</f>
         <v>39</v>
       </c>
-      <c r="U20" s="20" t="n">
+      <c r="U20" s="23" t="n">
         <f aca="false">R20</f>
         <v>39</v>
       </c>
-      <c r="V20" s="21"/>
-      <c r="W20" s="22" t="n">
+      <c r="V20" s="24"/>
+      <c r="W20" s="25" t="n">
         <f aca="false">U20+U22</f>
         <v>49</v>
       </c>
-      <c r="X20" s="62"/>
-      <c r="Z20" s="32" t="n">
+      <c r="X20" s="64"/>
+      <c r="Z20" s="34" t="n">
         <f aca="false">AB20-Z19</f>
         <v>49</v>
       </c>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="33" t="n">
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="35" t="n">
         <f aca="false">AB17</f>
         <v>53</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="23" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="23" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="57" t="s">
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="58" t="s">
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="37"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
+      <c r="X21" s="39"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="35"/>
-      <c r="F22" s="26" t="n">
+      <c r="C22" s="37"/>
+      <c r="F22" s="29" t="n">
         <f aca="false">VLOOKUP(F21,$A$2:$H$12,8)</f>
         <v>7</v>
       </c>
-      <c r="G22" s="27" t="n">
+      <c r="G22" s="30" t="n">
         <f aca="false">H23-H20</f>
         <v>6</v>
       </c>
-      <c r="H22" s="42" t="n">
+      <c r="H22" s="44" t="n">
         <f aca="false">K20-H20</f>
         <v>0</v>
       </c>
-      <c r="I22" s="53"/>
-      <c r="K22" s="26" t="n">
+      <c r="I22" s="55"/>
+      <c r="K22" s="29" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$H$12,8)</f>
         <v>15</v>
       </c>
-      <c r="L22" s="27" t="n">
+      <c r="L22" s="30" t="n">
         <f aca="false">M23-M20</f>
         <v>6</v>
       </c>
-      <c r="M22" s="42" t="n">
+      <c r="M22" s="44" t="n">
         <f aca="false">P20-M20</f>
         <v>6</v>
       </c>
-      <c r="O22" s="30"/>
-      <c r="P22" s="26" t="n">
+      <c r="O22" s="33"/>
+      <c r="P22" s="29" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$H$12,8)</f>
         <v>7</v>
       </c>
-      <c r="Q22" s="27" t="n">
+      <c r="Q22" s="30" t="n">
         <f aca="false">R23-R20</f>
         <v>0</v>
       </c>
-      <c r="R22" s="42" t="n">
+      <c r="R22" s="44" t="n">
         <f aca="false">U20-R20</f>
         <v>0</v>
       </c>
-      <c r="U22" s="26" t="n">
+      <c r="U22" s="29" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$H$12,8)</f>
         <v>10</v>
       </c>
-      <c r="V22" s="27" t="n">
+      <c r="V22" s="30" t="n">
         <f aca="false">W23-W20</f>
         <v>0</v>
       </c>
-      <c r="W22" s="42" t="n">
+      <c r="W22" s="44" t="n">
         <f aca="false">Z17-W20</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="35"/>
-      <c r="F23" s="32" t="n">
+      <c r="C23" s="37"/>
+      <c r="F23" s="34" t="n">
         <f aca="false">H23-F22</f>
         <v>10</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="61" t="n">
+      <c r="G23" s="24"/>
+      <c r="H23" s="63" t="n">
         <f aca="false">K23</f>
         <v>17</v>
       </c>
-      <c r="K23" s="32" t="n">
+      <c r="K23" s="34" t="n">
         <f aca="false">M23-K22</f>
         <v>17</v>
       </c>
-      <c r="L23" s="21"/>
-      <c r="M23" s="61" t="n">
+      <c r="L23" s="24"/>
+      <c r="M23" s="63" t="n">
         <f aca="false">P23</f>
         <v>32</v>
       </c>
-      <c r="N23" s="35"/>
-      <c r="P23" s="32" t="n">
+      <c r="N23" s="37"/>
+      <c r="P23" s="34" t="n">
         <f aca="false">R23-P22</f>
         <v>32</v>
       </c>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="61" t="n">
+      <c r="Q23" s="24"/>
+      <c r="R23" s="63" t="n">
         <f aca="false">U23</f>
         <v>39</v>
       </c>
-      <c r="U23" s="32" t="n">
+      <c r="U23" s="34" t="n">
         <f aca="false">W23-U22</f>
         <v>39</v>
       </c>
-      <c r="V23" s="21"/>
-      <c r="W23" s="33" t="n">
+      <c r="V23" s="24"/>
+      <c r="W23" s="35" t="n">
         <f aca="false">Z20</f>
         <v>49</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="35"/>
-      <c r="N24" s="35"/>
+      <c r="C24" s="37"/>
+      <c r="N24" s="37"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="35"/>
-      <c r="N25" s="35"/>
+      <c r="C25" s="37"/>
+      <c r="N25" s="37"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="35"/>
-      <c r="F26" s="20" t="n">
+      <c r="C26" s="37"/>
+      <c r="F26" s="23" t="n">
         <f aca="false">C14</f>
         <v>4</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22" t="n">
+      <c r="G26" s="24"/>
+      <c r="H26" s="25" t="n">
         <f aca="false">F26+F28</f>
         <v>19</v>
       </c>
-      <c r="K26" s="20" t="n">
+      <c r="K26" s="23" t="n">
         <f aca="false">H26</f>
         <v>19</v>
       </c>
-      <c r="L26" s="21"/>
-      <c r="M26" s="22" t="n">
+      <c r="L26" s="24"/>
+      <c r="M26" s="25" t="n">
         <f aca="false">K26+K28</f>
         <v>32</v>
       </c>
-      <c r="N26" s="35"/>
+      <c r="N26" s="37"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="35"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="57" t="s">
+      <c r="C27" s="37"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="58" t="s">
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="37"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="39"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="26" t="n">
+      <c r="F28" s="29" t="n">
         <f aca="false">VLOOKUP(F27,$A$2:$H$12,8)</f>
         <v>15</v>
       </c>
-      <c r="G28" s="27" t="n">
+      <c r="G28" s="30" t="n">
         <f aca="false">H29-H26</f>
         <v>0</v>
       </c>
-      <c r="H28" s="42" t="n">
+      <c r="H28" s="44" t="n">
         <f aca="false">K26-H26</f>
         <v>0</v>
       </c>
-      <c r="K28" s="26" t="n">
+      <c r="K28" s="29" t="n">
         <f aca="false">VLOOKUP(K27,$A$2:$H$12,8)</f>
         <v>13</v>
       </c>
-      <c r="L28" s="41" t="n">
+      <c r="L28" s="43" t="n">
         <f aca="false">M29-M26</f>
         <v>0</v>
       </c>
-      <c r="M28" s="42" t="n">
+      <c r="M28" s="44" t="n">
         <f aca="false">P20-M26</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="32" t="n">
+      <c r="F29" s="34" t="n">
         <f aca="false">H29-F28</f>
         <v>4</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="61" t="n">
+      <c r="G29" s="24"/>
+      <c r="H29" s="63" t="n">
         <f aca="false">K29</f>
         <v>19</v>
       </c>
-      <c r="K29" s="32" t="n">
+      <c r="K29" s="34" t="n">
         <f aca="false">M29-K28</f>
         <v>19</v>
       </c>
-      <c r="L29" s="21"/>
-      <c r="M29" s="33" t="n">
+      <c r="L29" s="24"/>
+      <c r="M29" s="35" t="n">
         <f aca="false">P23</f>
         <v>32</v>
       </c>
@@ -5074,118 +5064,118 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="63" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="65" width="25.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="63" t="n">
+      <c r="A2" s="65" t="n">
         <v>44927</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="63" t="n">
+      <c r="A3" s="65" t="n">
         <v>45022</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="63" t="n">
+      <c r="A4" s="65" t="n">
         <v>45023</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="63" t="n">
+      <c r="A5" s="65" t="n">
         <v>45025</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63" t="n">
+      <c r="A6" s="65" t="n">
         <v>45026</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63" t="n">
+      <c r="A7" s="65" t="n">
         <v>45047</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="n">
+      <c r="A8" s="65" t="n">
         <v>45071</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="22" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63" t="n">
+      <c r="A9" s="65" t="n">
         <v>45081</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63" t="n">
+      <c r="A10" s="65" t="n">
         <v>45082</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="22" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="63" t="n">
+      <c r="A11" s="65" t="n">
         <v>45202</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="63" t="n">
+      <c r="A12" s="65" t="n">
         <v>45230</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="63" t="n">
+      <c r="A13" s="65" t="n">
         <v>45285</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="63" t="n">
+      <c r="A14" s="65" t="n">
         <v>45286</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="22" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" state="visible" r:id="rId3"/>
@@ -234,12 +234,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0\ %"/>
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="@"/>
-    <numFmt numFmtId="168" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="169" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -461,7 +462,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -540,6 +541,27 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right/>
       <top style="medium"/>
@@ -623,7 +645,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -684,7 +706,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -700,10 +722,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -840,18 +858,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -860,19 +878,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -880,11 +910,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1531,7 +1561,7 @@
   </sheetPr>
   <dimension ref="A1:AP67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AN11" activeCellId="0" sqref="AN11"/>
     </sheetView>
   </sheetViews>
@@ -1544,7 +1574,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="4.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="32" style="1" width="4.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1836,13 +1866,13 @@
       <c r="AG6" s="18"/>
       <c r="AH6" s="18"/>
       <c r="AI6" s="18"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -1875,7 +1905,7 @@
         <f aca="false">SUM($M7:$BN7)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="19" t="s">
         <v>22</v>
       </c>
       <c r="P7" s="11"/>
@@ -1929,7 +1959,7 @@
         <f aca="false">SUM($M8:$BN8)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="O8" s="20" t="s">
         <v>25</v>
       </c>
       <c r="P8" s="11"/>
@@ -2011,7 +2041,7 @@
         <f aca="false">SUM($M10:$BN10)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2114,809 +2144,809 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="n">
+      <c r="A15" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25" t="n">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24" t="n">
         <f aca="false">A15+A17</f>
         <v>1</v>
       </c>
-      <c r="F15" s="23" t="n">
+      <c r="F15" s="22" t="n">
         <f aca="false">C15</f>
         <v>1</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25" t="n">
+      <c r="G15" s="23"/>
+      <c r="H15" s="24" t="n">
         <f aca="false">F15+F17</f>
         <v>14</v>
       </c>
-      <c r="K15" s="23" t="n">
+      <c r="K15" s="22" t="n">
         <f aca="false">H15</f>
         <v>14</v>
       </c>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25" t="n">
+      <c r="L15" s="23"/>
+      <c r="M15" s="24" t="n">
         <f aca="false">K15+K17</f>
         <v>23</v>
       </c>
-      <c r="P15" s="23" t="n">
+      <c r="P15" s="22" t="n">
         <f aca="false">M15</f>
         <v>23</v>
       </c>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="25" t="n">
+      <c r="Q15" s="23"/>
+      <c r="R15" s="24" t="n">
         <f aca="false">P15+P17</f>
         <v>28</v>
       </c>
-      <c r="U15" s="23" t="n">
+      <c r="U15" s="22" t="n">
         <f aca="false">R15</f>
         <v>28</v>
       </c>
-      <c r="V15" s="24"/>
-      <c r="W15" s="25" t="n">
+      <c r="V15" s="23"/>
+      <c r="W15" s="24" t="n">
         <f aca="false">U15+U17</f>
         <v>32</v>
       </c>
-      <c r="Z15" s="23" t="n">
+      <c r="Z15" s="22" t="n">
         <f aca="false">MAX(W15,W20)</f>
         <v>32</v>
       </c>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="25" t="n">
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="24" t="n">
         <f aca="false">Z15+Z17</f>
         <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="26" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="26" t="s">
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="26" t="s">
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="26" t="s">
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="26" t="s">
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="n">
+      <c r="A17" s="28" t="n">
         <f aca="false">VLOOKUP(A16,$A$2:$K$13,11)</f>
         <v>1</v>
       </c>
-      <c r="B17" s="30" t="n">
+      <c r="B17" s="29" t="n">
         <f aca="false">C18-C15</f>
         <v>0</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="F17" s="29" t="n">
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="F17" s="28" t="n">
         <f aca="false">VLOOKUP(F16,$A$2:$K$13,11)</f>
         <v>13</v>
       </c>
-      <c r="G17" s="30" t="n">
+      <c r="G17" s="29" t="n">
         <f aca="false">H18-H15</f>
         <v>0</v>
       </c>
-      <c r="H17" s="31"/>
-      <c r="K17" s="29" t="n">
+      <c r="H17" s="30"/>
+      <c r="K17" s="28" t="n">
         <f aca="false">VLOOKUP(K16,$A$2:$K$13,11)</f>
         <v>9</v>
       </c>
-      <c r="L17" s="30" t="n">
+      <c r="L17" s="29" t="n">
         <f aca="false">M18-M15</f>
         <v>0</v>
       </c>
-      <c r="M17" s="31"/>
-      <c r="P17" s="29" t="n">
+      <c r="M17" s="30"/>
+      <c r="P17" s="28" t="n">
         <f aca="false">VLOOKUP(P16,$A$2:$K$13,11)</f>
         <v>5</v>
       </c>
-      <c r="Q17" s="30" t="n">
+      <c r="Q17" s="29" t="n">
         <f aca="false">R18-R15</f>
         <v>0</v>
       </c>
-      <c r="R17" s="31"/>
-      <c r="U17" s="29" t="n">
+      <c r="R17" s="30"/>
+      <c r="U17" s="28" t="n">
         <f aca="false">VLOOKUP(U16,$A$2:$K$13,11)</f>
         <v>4</v>
       </c>
-      <c r="V17" s="30" t="n">
+      <c r="V17" s="29" t="n">
         <f aca="false">W18-W15</f>
         <v>0</v>
       </c>
-      <c r="W17" s="31"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="29" t="n">
+      <c r="W17" s="30"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="28" t="n">
         <f aca="false">VLOOKUP(Z16,$A$2:$K$13,11)</f>
         <v>2</v>
       </c>
-      <c r="AA17" s="30" t="n">
+      <c r="AA17" s="29" t="n">
         <f aca="false">AB18-AB15</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="31"/>
-      <c r="AD17" s="22" t="s">
+      <c r="AB17" s="30"/>
+      <c r="AD17" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34" t="n">
+      <c r="A18" s="33" t="n">
         <f aca="false">C18-A17</f>
         <v>0</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="35" t="n">
+      <c r="B18" s="23"/>
+      <c r="C18" s="34" t="n">
         <f aca="false">MIN(F18,F23)</f>
         <v>1</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="F18" s="34" t="n">
+      <c r="D18" s="35"/>
+      <c r="F18" s="33" t="n">
         <f aca="false">H18-F17</f>
         <v>1</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="35" t="n">
+      <c r="G18" s="23"/>
+      <c r="H18" s="34" t="n">
         <f aca="false">K18</f>
         <v>14</v>
       </c>
-      <c r="K18" s="34" t="n">
+      <c r="K18" s="33" t="n">
         <f aca="false">M18-K17</f>
         <v>14</v>
       </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="35" t="n">
+      <c r="L18" s="23"/>
+      <c r="M18" s="34" t="n">
         <f aca="false">P18</f>
         <v>23</v>
       </c>
-      <c r="P18" s="34" t="n">
+      <c r="P18" s="33" t="n">
         <f aca="false">R18-P17</f>
         <v>23</v>
       </c>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="35" t="n">
+      <c r="Q18" s="23"/>
+      <c r="R18" s="34" t="n">
         <f aca="false">U18</f>
         <v>28</v>
       </c>
-      <c r="U18" s="34" t="n">
+      <c r="U18" s="33" t="n">
         <f aca="false">W18-U17</f>
         <v>28</v>
       </c>
-      <c r="V18" s="24"/>
-      <c r="W18" s="35" t="n">
+      <c r="V18" s="23"/>
+      <c r="W18" s="34" t="n">
         <f aca="false">Z18</f>
         <v>32</v>
       </c>
-      <c r="X18" s="37"/>
-      <c r="Z18" s="34" t="n">
+      <c r="X18" s="36"/>
+      <c r="Z18" s="33" t="n">
         <f aca="false">AB18-Z17</f>
         <v>32</v>
       </c>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="35" t="n">
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="34" t="n">
         <f aca="false">AB15</f>
         <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="37"/>
-      <c r="X19" s="37"/>
+      <c r="D19" s="36"/>
+      <c r="X19" s="36"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="37"/>
-      <c r="F20" s="23" t="n">
+      <c r="D20" s="36"/>
+      <c r="F20" s="22" t="n">
         <f aca="false">C15</f>
         <v>1</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25" t="n">
+      <c r="G20" s="23"/>
+      <c r="H20" s="24" t="n">
         <f aca="false">F20+F22</f>
         <v>16</v>
       </c>
-      <c r="K20" s="23" t="n">
+      <c r="K20" s="22" t="n">
         <f aca="false">H20</f>
         <v>16</v>
       </c>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25" t="n">
+      <c r="L20" s="23"/>
+      <c r="M20" s="24" t="n">
         <f aca="false">K20+K22</f>
         <v>21</v>
       </c>
-      <c r="P20" s="23" t="n">
+      <c r="P20" s="22" t="n">
         <f aca="false">M20</f>
         <v>21</v>
       </c>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="25" t="n">
+      <c r="Q20" s="23"/>
+      <c r="R20" s="24" t="n">
         <f aca="false">P20+P22</f>
         <v>27</v>
       </c>
-      <c r="U20" s="23" t="n">
+      <c r="U20" s="22" t="n">
         <f aca="false">MAX(R20,R25)</f>
         <v>29</v>
       </c>
-      <c r="V20" s="24"/>
-      <c r="W20" s="25" t="n">
+      <c r="V20" s="23"/>
+      <c r="W20" s="24" t="n">
         <f aca="false">U20+U22</f>
         <v>31</v>
       </c>
-      <c r="X20" s="37"/>
+      <c r="X20" s="36"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="26" t="s">
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="26" t="s">
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="26" t="s">
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="26" t="s">
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="39"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="38"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="29" t="n">
+      <c r="F22" s="28" t="n">
         <f aca="false">VLOOKUP(F21,$A$2:$K$13,11)</f>
         <v>15</v>
       </c>
-      <c r="G22" s="30" t="n">
+      <c r="G22" s="29" t="n">
         <f aca="false">H23-H20</f>
         <v>1</v>
       </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
-      <c r="K22" s="29" t="n">
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
+      <c r="K22" s="28" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$K$13,11)</f>
         <v>5</v>
       </c>
-      <c r="L22" s="30" t="n">
+      <c r="L22" s="29" t="n">
         <f aca="false">M23-M20</f>
         <v>3</v>
       </c>
-      <c r="M22" s="31"/>
-      <c r="P22" s="29" t="n">
+      <c r="M22" s="30"/>
+      <c r="P22" s="28" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$K$13,11)</f>
         <v>6</v>
       </c>
-      <c r="Q22" s="30" t="n">
+      <c r="Q22" s="29" t="n">
         <f aca="false">R23-R20</f>
         <v>3</v>
       </c>
-      <c r="R22" s="31"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="29" t="n">
+      <c r="R22" s="30"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="28" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$K$13,11)</f>
         <v>2</v>
       </c>
-      <c r="V22" s="30" t="n">
+      <c r="V22" s="29" t="n">
         <f aca="false">W23-W20</f>
         <v>1</v>
       </c>
-      <c r="W22" s="31"/>
+      <c r="W22" s="30"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="34" t="n">
+      <c r="F23" s="33" t="n">
         <f aca="false">H23-F22</f>
         <v>2</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="35" t="n">
+      <c r="G23" s="23"/>
+      <c r="H23" s="34" t="n">
         <f aca="false">MIN(K23,K28)</f>
         <v>17</v>
       </c>
-      <c r="I23" s="36"/>
-      <c r="K23" s="34" t="n">
+      <c r="I23" s="35"/>
+      <c r="K23" s="33" t="n">
         <f aca="false">M23-K22</f>
         <v>19</v>
       </c>
-      <c r="L23" s="24"/>
-      <c r="M23" s="35" t="n">
+      <c r="L23" s="23"/>
+      <c r="M23" s="34" t="n">
         <f aca="false">P23</f>
         <v>24</v>
       </c>
-      <c r="P23" s="34" t="n">
+      <c r="P23" s="33" t="n">
         <f aca="false">R23-P22</f>
         <v>24</v>
       </c>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="35" t="n">
+      <c r="Q23" s="23"/>
+      <c r="R23" s="34" t="n">
         <f aca="false">U23</f>
         <v>30</v>
       </c>
-      <c r="S23" s="37"/>
-      <c r="U23" s="34" t="n">
+      <c r="S23" s="36"/>
+      <c r="U23" s="33" t="n">
         <f aca="false">W23-U22</f>
         <v>30</v>
       </c>
-      <c r="V23" s="24"/>
-      <c r="W23" s="35" t="n">
+      <c r="V23" s="23"/>
+      <c r="W23" s="34" t="n">
         <f aca="false">Z18</f>
         <v>32</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="37"/>
-      <c r="S24" s="37"/>
+      <c r="I24" s="36"/>
+      <c r="S24" s="36"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="37"/>
-      <c r="K25" s="23" t="n">
+      <c r="I25" s="36"/>
+      <c r="K25" s="22" t="n">
         <f aca="false">H20</f>
         <v>16</v>
       </c>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25" t="n">
+      <c r="L25" s="23"/>
+      <c r="M25" s="24" t="n">
         <f aca="false">K25+K27</f>
         <v>24</v>
       </c>
-      <c r="P25" s="23" t="n">
+      <c r="P25" s="22" t="n">
         <f aca="false">M25</f>
         <v>24</v>
       </c>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="25" t="n">
+      <c r="Q25" s="23"/>
+      <c r="R25" s="24" t="n">
         <f aca="false">P25+P27</f>
         <v>29</v>
       </c>
-      <c r="S25" s="37"/>
+      <c r="S25" s="36"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="26" t="s">
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="26" t="s">
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="39"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="38"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="29" t="n">
+      <c r="K27" s="28" t="n">
         <f aca="false">VLOOKUP(K26,$A$2:$K$13,11)</f>
         <v>8</v>
       </c>
-      <c r="L27" s="30" t="n">
+      <c r="L27" s="29" t="n">
         <f aca="false">M28-M25</f>
         <v>1</v>
       </c>
-      <c r="M27" s="31"/>
-      <c r="P27" s="29" t="n">
+      <c r="M27" s="30"/>
+      <c r="P27" s="28" t="n">
         <f aca="false">VLOOKUP(P26,$A$2:$K$13,11)</f>
         <v>5</v>
       </c>
-      <c r="Q27" s="30" t="n">
+      <c r="Q27" s="29" t="n">
         <f aca="false">R28-R25</f>
         <v>1</v>
       </c>
-      <c r="R27" s="31"/>
+      <c r="R27" s="30"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="34" t="n">
+      <c r="K28" s="33" t="n">
         <f aca="false">M28-K27</f>
         <v>17</v>
       </c>
-      <c r="L28" s="24"/>
-      <c r="M28" s="35" t="n">
+      <c r="L28" s="23"/>
+      <c r="M28" s="34" t="n">
         <f aca="false">P28</f>
         <v>25</v>
       </c>
-      <c r="P28" s="34" t="n">
+      <c r="P28" s="33" t="n">
         <f aca="false">R28-P27</f>
         <v>25</v>
       </c>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="35" t="n">
+      <c r="Q28" s="23"/>
+      <c r="R28" s="34" t="n">
         <f aca="false">U23</f>
         <v>30</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="40" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25" t="s">
+      <c r="B36" s="23"/>
+      <c r="C36" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="42" t="s">
+      <c r="H36" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="H37" s="42" t="s">
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="H37" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H38" s="42" t="s">
+      <c r="H38" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="35" t="s">
+      <c r="B39" s="23"/>
+      <c r="C39" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H39" s="42" t="s">
+      <c r="H39" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J42" s="46"/>
-      <c r="K42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="44"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J43" s="47"/>
-      <c r="K43" s="45"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="44"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J44" s="46"/>
-      <c r="K44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="44"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J45" s="46"/>
-      <c r="K45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="44"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J46" s="46"/>
-      <c r="K46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="44"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J47" s="46"/>
-      <c r="K47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="44"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J48" s="46"/>
-      <c r="K48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="44"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J49" s="46"/>
-      <c r="K49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="44"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J50" s="46"/>
-      <c r="K50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="44"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J51" s="46"/>
-      <c r="K51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="44"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J52" s="46"/>
-      <c r="K52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="44"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="48"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="48"/>
-      <c r="B55" s="46" t="s">
+      <c r="A55" s="47"/>
+      <c r="B55" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46" t="s">
+      <c r="C55" s="45"/>
+      <c r="D55" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="48"/>
-      <c r="B56" s="49" t="s">
+      <c r="A56" s="47"/>
+      <c r="B56" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="47" t="s">
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="48"/>
-      <c r="B57" s="50" t="s">
+      <c r="A57" s="47"/>
+      <c r="B57" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="48"/>
-      <c r="B58" s="46" t="s">
+      <c r="A58" s="47"/>
+      <c r="B58" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46" t="s">
+      <c r="C58" s="45"/>
+      <c r="D58" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-      <c r="I58" s="46"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="48"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-      <c r="I59" s="46"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="48"/>
-      <c r="B60" s="52" t="s">
+      <c r="A60" s="47"/>
+      <c r="B60" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="46" t="s">
+      <c r="C60" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="46"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-      <c r="I60" s="46"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="48"/>
-      <c r="B61" s="52" t="s">
+      <c r="A61" s="47"/>
+      <c r="B61" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="46" t="s">
+      <c r="C61" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="48"/>
-      <c r="B62" s="52" t="s">
+      <c r="A62" s="47"/>
+      <c r="B62" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="46" t="s">
+      <c r="C62" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="48"/>
-      <c r="B63" s="52" t="s">
+      <c r="A63" s="47"/>
+      <c r="B63" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="46" t="s">
+      <c r="C63" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="48"/>
-      <c r="B64" s="50" t="s">
+      <c r="A64" s="47"/>
+      <c r="B64" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C64" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="48"/>
-      <c r="B65" s="51" t="s">
+      <c r="A65" s="47"/>
+      <c r="B65" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="46" t="s">
+      <c r="C65" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="48"/>
-      <c r="B66" s="53" t="s">
+      <c r="A66" s="47"/>
+      <c r="B66" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="45" t="s">
+      <c r="C66" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="45"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="48"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
+      <c r="A67" s="47"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -3021,10 +3051,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:AR27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W14" activeCellId="0" sqref="W14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF12" activeCellId="0" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3032,7 +3062,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="3.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3048,6 +3078,114 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="I1" s="53" t="n">
+        <v>45397</v>
+      </c>
+      <c r="J1" s="53" t="n">
+        <v>45398</v>
+      </c>
+      <c r="K1" s="53" t="n">
+        <v>45399</v>
+      </c>
+      <c r="L1" s="53" t="n">
+        <v>45400</v>
+      </c>
+      <c r="M1" s="53" t="n">
+        <v>45401</v>
+      </c>
+      <c r="N1" s="53" t="n">
+        <v>45402</v>
+      </c>
+      <c r="O1" s="53" t="n">
+        <v>45403</v>
+      </c>
+      <c r="P1" s="53" t="n">
+        <v>45404</v>
+      </c>
+      <c r="Q1" s="53" t="n">
+        <v>45405</v>
+      </c>
+      <c r="R1" s="53" t="n">
+        <v>45406</v>
+      </c>
+      <c r="S1" s="53" t="n">
+        <v>45407</v>
+      </c>
+      <c r="T1" s="53" t="n">
+        <v>45408</v>
+      </c>
+      <c r="U1" s="53" t="n">
+        <v>45409</v>
+      </c>
+      <c r="V1" s="53" t="n">
+        <v>45410</v>
+      </c>
+      <c r="W1" s="53" t="n">
+        <v>45411</v>
+      </c>
+      <c r="X1" s="53" t="n">
+        <v>45412</v>
+      </c>
+      <c r="Y1" s="53" t="n">
+        <v>45413</v>
+      </c>
+      <c r="Z1" s="53" t="n">
+        <v>45414</v>
+      </c>
+      <c r="AA1" s="53" t="n">
+        <v>45415</v>
+      </c>
+      <c r="AB1" s="53" t="n">
+        <v>45416</v>
+      </c>
+      <c r="AC1" s="53" t="n">
+        <v>45417</v>
+      </c>
+      <c r="AD1" s="53" t="n">
+        <v>45418</v>
+      </c>
+      <c r="AE1" s="53" t="n">
+        <v>45419</v>
+      </c>
+      <c r="AF1" s="53" t="n">
+        <v>45420</v>
+      </c>
+      <c r="AG1" s="53" t="n">
+        <v>45421</v>
+      </c>
+      <c r="AH1" s="53" t="n">
+        <v>45422</v>
+      </c>
+      <c r="AI1" s="53" t="n">
+        <v>45423</v>
+      </c>
+      <c r="AJ1" s="53" t="n">
+        <v>45424</v>
+      </c>
+      <c r="AK1" s="53" t="n">
+        <v>45425</v>
+      </c>
+      <c r="AL1" s="53" t="n">
+        <v>45426</v>
+      </c>
+      <c r="AM1" s="53" t="n">
+        <v>45427</v>
+      </c>
+      <c r="AN1" s="53" t="n">
+        <v>45428</v>
+      </c>
+      <c r="AO1" s="53" t="n">
+        <v>45429</v>
+      </c>
+      <c r="AP1" s="53" t="n">
+        <v>45430</v>
+      </c>
+      <c r="AQ1" s="53" t="n">
+        <v>45431</v>
+      </c>
+      <c r="AR1" s="53" t="n">
+        <v>45432</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3067,6 +3205,42 @@
       <c r="H2" s="4" t="n">
         <v>6</v>
       </c>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -3085,6 +3259,42 @@
       <c r="H3" s="4" t="n">
         <v>7</v>
       </c>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -3105,6 +3315,42 @@
       <c r="H4" s="4" t="n">
         <v>7</v>
       </c>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -3123,6 +3369,42 @@
       <c r="H5" s="4" t="n">
         <v>4</v>
       </c>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="54"/>
+      <c r="AN5" s="54"/>
+      <c r="AO5" s="54"/>
+      <c r="AP5" s="54"/>
+      <c r="AQ5" s="54"/>
+      <c r="AR5" s="54"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -3141,6 +3423,42 @@
       <c r="H6" s="4" t="n">
         <v>4</v>
       </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="54"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="54"/>
+      <c r="AP6" s="54"/>
+      <c r="AQ6" s="54"/>
+      <c r="AR6" s="54"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -3159,6 +3477,42 @@
       <c r="H7" s="4" t="n">
         <v>5</v>
       </c>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="54"/>
+      <c r="AL7" s="54"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="54"/>
+      <c r="AP7" s="54"/>
+      <c r="AQ7" s="54"/>
+      <c r="AR7" s="54"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -3178,9 +3532,45 @@
         <v>23</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="54" t="n">
+      <c r="H8" s="55" t="n">
         <v>3</v>
       </c>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="54"/>
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="54"/>
+      <c r="AP8" s="54"/>
+      <c r="AQ8" s="54"/>
+      <c r="AR8" s="54"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -3201,6 +3591,42 @@
       <c r="H9" s="4" t="n">
         <v>6</v>
       </c>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="54"/>
+      <c r="AN9" s="54"/>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="54"/>
+      <c r="AQ9" s="54"/>
+      <c r="AR9" s="54"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -3217,318 +3643,354 @@
       <c r="H10" s="4" t="n">
         <v>2</v>
       </c>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="56"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="n">
+      <c r="A12" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25" t="n">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="F12" s="23" t="n">
+      <c r="F12" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25" t="n">
+      <c r="G12" s="23"/>
+      <c r="H12" s="24" t="n">
         <v>13</v>
       </c>
-      <c r="K12" s="23" t="n">
+      <c r="K12" s="22" t="n">
         <v>13</v>
       </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25" t="n">
+      <c r="L12" s="23"/>
+      <c r="M12" s="24" t="n">
         <v>17</v>
       </c>
-      <c r="P12" s="23" t="n">
+      <c r="P12" s="22" t="n">
         <v>17</v>
       </c>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="25" t="n">
+      <c r="Q12" s="23"/>
+      <c r="R12" s="24" t="n">
         <v>20</v>
       </c>
-      <c r="U12" s="23" t="n">
+      <c r="U12" s="22" t="n">
         <v>24</v>
       </c>
-      <c r="V12" s="24"/>
-      <c r="W12" s="25" t="n">
+      <c r="V12" s="23"/>
+      <c r="W12" s="24" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="26" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="26" t="s">
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="26" t="s">
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="26" t="s">
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="n">
+      <c r="A14" s="28" t="n">
         <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="B14" s="30" t="n">
+      <c r="B14" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="32"/>
-      <c r="F14" s="29" t="n">
+      <c r="C14" s="43"/>
+      <c r="D14" s="31"/>
+      <c r="F14" s="28" t="n">
         <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="G14" s="30" t="n">
+      <c r="G14" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="K14" s="29" t="n">
+      <c r="H14" s="43"/>
+      <c r="K14" s="28" t="n">
         <f aca="false">VLOOKUP(K13,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="L14" s="30" t="n">
+      <c r="L14" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="M14" s="44"/>
-      <c r="P14" s="29" t="n">
+      <c r="M14" s="43"/>
+      <c r="P14" s="28" t="n">
         <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
         <v>3</v>
       </c>
-      <c r="Q14" s="30" t="n">
+      <c r="Q14" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="R14" s="44"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="29" t="n">
+      <c r="R14" s="43"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="28" t="n">
         <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
         <v>2</v>
       </c>
-      <c r="V14" s="30" t="n">
+      <c r="V14" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="W14" s="44"/>
+      <c r="W14" s="43"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="n">
+      <c r="A15" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="35" t="n">
+      <c r="B15" s="23"/>
+      <c r="C15" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="F15" s="34" t="n">
+      <c r="D15" s="35"/>
+      <c r="F15" s="33" t="n">
         <v>10</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="35" t="n">
+      <c r="G15" s="23"/>
+      <c r="H15" s="34" t="n">
         <v>17</v>
       </c>
-      <c r="K15" s="34" t="n">
+      <c r="K15" s="33" t="n">
         <v>17</v>
       </c>
-      <c r="L15" s="24"/>
-      <c r="M15" s="35" t="n">
+      <c r="L15" s="23"/>
+      <c r="M15" s="34" t="n">
         <v>21</v>
       </c>
-      <c r="P15" s="34" t="n">
+      <c r="P15" s="33" t="n">
         <v>21</v>
       </c>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="35" t="n">
+      <c r="Q15" s="23"/>
+      <c r="R15" s="34" t="n">
         <v>24</v>
       </c>
-      <c r="S15" s="37"/>
-      <c r="U15" s="34" t="n">
+      <c r="S15" s="36"/>
+      <c r="U15" s="33" t="n">
         <v>24</v>
       </c>
-      <c r="V15" s="24"/>
-      <c r="W15" s="35" t="n">
+      <c r="V15" s="23"/>
+      <c r="W15" s="34" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="37"/>
-      <c r="S16" s="37"/>
+      <c r="D16" s="36"/>
+      <c r="S16" s="36"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="37"/>
-      <c r="S17" s="37"/>
+      <c r="D17" s="36"/>
+      <c r="S17" s="36"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="37"/>
-      <c r="F18" s="23" t="n">
+      <c r="D18" s="36"/>
+      <c r="F18" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25" t="n">
+      <c r="G18" s="23"/>
+      <c r="H18" s="24" t="n">
         <v>13</v>
       </c>
-      <c r="K18" s="23" t="n">
+      <c r="K18" s="22" t="n">
         <v>13</v>
       </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25" t="n">
+      <c r="L18" s="23"/>
+      <c r="M18" s="24" t="n">
         <v>17</v>
       </c>
-      <c r="P18" s="23" t="n">
+      <c r="P18" s="22" t="n">
         <v>18</v>
       </c>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="25" t="n">
+      <c r="Q18" s="23"/>
+      <c r="R18" s="24" t="n">
         <v>24</v>
       </c>
-      <c r="S18" s="37"/>
+      <c r="S18" s="36"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="26" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="26" t="s">
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="26" t="s">
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="39"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="38"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="29" t="n">
+      <c r="F20" s="28" t="n">
         <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="G20" s="30" t="n">
+      <c r="G20" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="32"/>
-      <c r="K20" s="29" t="n">
+      <c r="H20" s="43"/>
+      <c r="I20" s="31"/>
+      <c r="K20" s="28" t="n">
         <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="L20" s="30" t="n">
+      <c r="L20" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M20" s="44"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="29" t="n">
+      <c r="M20" s="43"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="28" t="n">
         <f aca="false">VLOOKUP(P19,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="Q20" s="30" t="n">
+      <c r="Q20" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="R20" s="44"/>
+      <c r="R20" s="43"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="34" t="n">
+      <c r="F21" s="33" t="n">
         <v>6</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="35" t="n">
+      <c r="G21" s="23"/>
+      <c r="H21" s="34" t="n">
         <v>13</v>
       </c>
-      <c r="I21" s="36"/>
-      <c r="K21" s="34" t="n">
+      <c r="I21" s="35"/>
+      <c r="K21" s="33" t="n">
         <v>14</v>
       </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="35" t="n">
+      <c r="L21" s="23"/>
+      <c r="M21" s="34" t="n">
         <v>18</v>
       </c>
-      <c r="N21" s="37"/>
-      <c r="P21" s="34" t="n">
+      <c r="N21" s="36"/>
+      <c r="P21" s="33" t="n">
         <v>18</v>
       </c>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="35" t="n">
+      <c r="Q21" s="23"/>
+      <c r="R21" s="34" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="37"/>
-      <c r="N22" s="37"/>
+      <c r="I22" s="36"/>
+      <c r="N22" s="36"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="37"/>
-      <c r="N23" s="37"/>
+      <c r="I23" s="36"/>
+      <c r="N23" s="36"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="37"/>
-      <c r="K24" s="23" t="n">
+      <c r="I24" s="36"/>
+      <c r="K24" s="22" t="n">
         <v>13</v>
       </c>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25" t="n">
+      <c r="L24" s="23"/>
+      <c r="M24" s="24" t="n">
         <v>18</v>
       </c>
-      <c r="N24" s="37"/>
+      <c r="N24" s="36"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="26" t="s">
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="39"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="38"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K26" s="29" t="n">
+      <c r="K26" s="28" t="n">
         <f aca="false">VLOOKUP(K25,$A$2:$H$10,8)</f>
         <v>5</v>
       </c>
-      <c r="L26" s="43" t="n">
+      <c r="L26" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="M26" s="44"/>
+      <c r="M26" s="43"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K27" s="34" t="n">
+      <c r="K27" s="33" t="n">
         <v>13</v>
       </c>
-      <c r="L27" s="24"/>
-      <c r="M27" s="35" t="n">
+      <c r="L27" s="23"/>
+      <c r="M27" s="34" t="n">
         <v>18</v>
       </c>
     </row>
@@ -3596,6 +4058,11 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I1:AR1">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3791,16 +4258,16 @@
       <c r="H9" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="P9" s="42" t="s">
+      <c r="P9" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -3821,370 +4288,370 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="n">
+      <c r="A12" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25" t="n">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24" t="n">
         <f aca="false">A12+A14</f>
         <v>15</v>
       </c>
-      <c r="F12" s="23" t="n">
+      <c r="F12" s="22" t="n">
         <f aca="false">C12</f>
         <v>15</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25" t="n">
+      <c r="G12" s="23"/>
+      <c r="H12" s="24" t="n">
         <f aca="false">F12+F14</f>
         <v>21</v>
       </c>
-      <c r="P12" s="23" t="n">
+      <c r="P12" s="22" t="n">
         <f aca="false">H12</f>
         <v>21</v>
       </c>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="25" t="n">
+      <c r="Q12" s="23"/>
+      <c r="R12" s="24" t="n">
         <f aca="false">P12+P14</f>
         <v>28</v>
       </c>
-      <c r="U12" s="23" t="n">
+      <c r="U12" s="22" t="n">
         <f aca="false">MAX(R12,R18)</f>
         <v>59</v>
       </c>
-      <c r="V12" s="24"/>
-      <c r="W12" s="25" t="n">
+      <c r="V12" s="23"/>
+      <c r="W12" s="24" t="n">
         <f aca="false">U12+U14</f>
         <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="26" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="26" t="s">
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="26" t="s">
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="n">
+      <c r="A14" s="28" t="n">
         <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="B14" s="30" t="n">
+      <c r="B14" s="29" t="n">
         <f aca="false">C15-C12</f>
         <v>0</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="32"/>
-      <c r="F14" s="29" t="n">
+      <c r="C14" s="43"/>
+      <c r="D14" s="31"/>
+      <c r="F14" s="28" t="n">
         <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="G14" s="30" t="n">
+      <c r="G14" s="29" t="n">
         <f aca="false">H15-H12</f>
         <v>31</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="P14" s="29" t="n">
+      <c r="H14" s="43"/>
+      <c r="P14" s="28" t="n">
         <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="Q14" s="30" t="n">
+      <c r="Q14" s="29" t="n">
         <f aca="false">R15-R12</f>
         <v>31</v>
       </c>
-      <c r="R14" s="44"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="29" t="n">
+      <c r="R14" s="43"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="28" t="n">
         <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="V14" s="43" t="n">
+      <c r="V14" s="42" t="n">
         <f aca="false">W15-W12</f>
         <v>0</v>
       </c>
-      <c r="W14" s="44"/>
+      <c r="W14" s="43"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="n">
+      <c r="A15" s="33" t="n">
         <f aca="false">C15-A14</f>
         <v>0</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="35" t="n">
+      <c r="B15" s="23"/>
+      <c r="C15" s="34" t="n">
         <f aca="false">MIN(F15,F21,F27)</f>
         <v>15</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="F15" s="34" t="n">
+      <c r="D15" s="35"/>
+      <c r="F15" s="33" t="n">
         <f aca="false">H15-F14</f>
         <v>46</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="35" t="n">
+      <c r="G15" s="23"/>
+      <c r="H15" s="34" t="n">
         <f aca="false">P15</f>
         <v>52</v>
       </c>
-      <c r="P15" s="34" t="n">
+      <c r="P15" s="33" t="n">
         <f aca="false">R15-P14</f>
         <v>52</v>
       </c>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="35" t="n">
+      <c r="Q15" s="23"/>
+      <c r="R15" s="34" t="n">
         <f aca="false">U15</f>
         <v>59</v>
       </c>
-      <c r="S15" s="37"/>
-      <c r="U15" s="34" t="n">
+      <c r="S15" s="36"/>
+      <c r="U15" s="33" t="n">
         <f aca="false">W15-U14</f>
         <v>59</v>
       </c>
-      <c r="V15" s="24"/>
-      <c r="W15" s="35" t="n">
+      <c r="V15" s="23"/>
+      <c r="W15" s="34" t="n">
         <f aca="false">W12</f>
         <v>63</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="57"/>
-      <c r="D16" s="37"/>
-      <c r="S16" s="37"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="36"/>
+      <c r="S16" s="36"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="S17" s="37"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="S17" s="36"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="F18" s="23" t="n">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="F18" s="22" t="n">
         <f aca="false">C12</f>
         <v>15</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25" t="n">
+      <c r="G18" s="23"/>
+      <c r="H18" s="24" t="n">
         <f aca="false">F18+F20</f>
         <v>29</v>
       </c>
-      <c r="K18" s="23" t="n">
+      <c r="K18" s="22" t="n">
         <f aca="false">H18</f>
         <v>29</v>
       </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25" t="n">
+      <c r="L18" s="23"/>
+      <c r="M18" s="24" t="n">
         <f aca="false">K18+K20</f>
         <v>44</v>
       </c>
-      <c r="P18" s="23" t="n">
+      <c r="P18" s="22" t="n">
         <f aca="false">MAX(M18,M24)</f>
         <v>44</v>
       </c>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="25" t="n">
+      <c r="Q18" s="23"/>
+      <c r="R18" s="24" t="n">
         <f aca="false">P18+P20</f>
         <v>59</v>
       </c>
-      <c r="S18" s="37"/>
+      <c r="S18" s="36"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="26" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="26" t="s">
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="26" t="s">
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="39"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="38"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="37"/>
-      <c r="F20" s="29" t="n">
+      <c r="C20" s="36"/>
+      <c r="F20" s="28" t="n">
         <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
         <v>14</v>
       </c>
-      <c r="G20" s="30" t="n">
+      <c r="G20" s="29" t="n">
         <f aca="false">H21-H18</f>
         <v>0</v>
       </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="55"/>
-      <c r="K20" s="29" t="n">
+      <c r="H20" s="43"/>
+      <c r="I20" s="57"/>
+      <c r="K20" s="28" t="n">
         <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="L20" s="30" t="n">
+      <c r="L20" s="29" t="n">
         <f aca="false">M21-M18</f>
         <v>0</v>
       </c>
-      <c r="M20" s="44"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="29" t="n">
+      <c r="M20" s="43"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="28" t="n">
         <f aca="false">VLOOKUP(P19,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="Q20" s="30" t="n">
+      <c r="Q20" s="29" t="n">
         <f aca="false">R21-R18</f>
         <v>0</v>
       </c>
-      <c r="R20" s="44"/>
+      <c r="R20" s="43"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="37"/>
-      <c r="F21" s="34" t="n">
+      <c r="C21" s="36"/>
+      <c r="F21" s="33" t="n">
         <f aca="false">H21-F20</f>
         <v>15</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="35" t="n">
+      <c r="G21" s="23"/>
+      <c r="H21" s="34" t="n">
         <f aca="false">K21</f>
         <v>29</v>
       </c>
-      <c r="K21" s="34" t="n">
+      <c r="K21" s="33" t="n">
         <f aca="false">M21-K20</f>
         <v>29</v>
       </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="35" t="n">
+      <c r="L21" s="23"/>
+      <c r="M21" s="34" t="n">
         <f aca="false">P21</f>
         <v>44</v>
       </c>
-      <c r="N21" s="37"/>
-      <c r="P21" s="34" t="n">
+      <c r="N21" s="36"/>
+      <c r="P21" s="33" t="n">
         <f aca="false">R21-P20</f>
         <v>44</v>
       </c>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="35" t="n">
+      <c r="Q21" s="23"/>
+      <c r="R21" s="34" t="n">
         <f aca="false">U15</f>
         <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="37"/>
-      <c r="N22" s="37"/>
+      <c r="C22" s="36"/>
+      <c r="N22" s="36"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="37"/>
-      <c r="N23" s="37"/>
+      <c r="C23" s="36"/>
+      <c r="N23" s="36"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="37"/>
-      <c r="F24" s="23" t="n">
+      <c r="C24" s="36"/>
+      <c r="F24" s="22" t="n">
         <f aca="false">C12</f>
         <v>15</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25" t="n">
+      <c r="G24" s="23"/>
+      <c r="H24" s="24" t="n">
         <f aca="false">F24+F26</f>
         <v>21</v>
       </c>
-      <c r="K24" s="23" t="n">
+      <c r="K24" s="22" t="n">
         <f aca="false">H24</f>
         <v>21</v>
       </c>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25" t="n">
+      <c r="L24" s="23"/>
+      <c r="M24" s="24" t="n">
         <f aca="false">K24+K26</f>
         <v>35</v>
       </c>
-      <c r="N24" s="37"/>
+      <c r="N24" s="36"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="37"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="59" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="60" t="s">
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="39"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="38"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="29" t="n">
+      <c r="F26" s="28" t="n">
         <f aca="false">VLOOKUP(F25,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="G26" s="30" t="n">
+      <c r="G26" s="29" t="n">
         <f aca="false">H27-H24</f>
         <v>9</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="K26" s="29" t="n">
+      <c r="H26" s="43"/>
+      <c r="K26" s="28" t="n">
         <f aca="false">VLOOKUP(K25,$A$2:$H$10,8)</f>
         <v>14</v>
       </c>
-      <c r="L26" s="30" t="n">
+      <c r="L26" s="29" t="n">
         <f aca="false">M27-M24</f>
         <v>9</v>
       </c>
-      <c r="M26" s="44"/>
+      <c r="M26" s="43"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="34" t="n">
+      <c r="F27" s="33" t="n">
         <f aca="false">H27-F26</f>
         <v>24</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="35" t="n">
+      <c r="G27" s="23"/>
+      <c r="H27" s="34" t="n">
         <f aca="false">K27</f>
         <v>30</v>
       </c>
-      <c r="K27" s="34" t="n">
+      <c r="K27" s="33" t="n">
         <f aca="false">M27-K26</f>
         <v>30</v>
       </c>
-      <c r="L27" s="24"/>
-      <c r="M27" s="35" t="n">
+      <c r="L27" s="23"/>
+      <c r="M27" s="34" t="n">
         <f aca="false">P21</f>
         <v>44</v>
       </c>
@@ -4502,470 +4969,470 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="n">
+      <c r="A14" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25" t="n">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24" t="n">
         <f aca="false">A14+A16</f>
         <v>4</v>
       </c>
-      <c r="F14" s="23" t="n">
+      <c r="F14" s="22" t="n">
         <f aca="false">C14</f>
         <v>4</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25" t="n">
+      <c r="G14" s="23"/>
+      <c r="H14" s="24" t="n">
         <f aca="false">F14+F16</f>
         <v>13</v>
       </c>
-      <c r="P14" s="23" t="n">
+      <c r="P14" s="22" t="n">
         <f aca="false">H14</f>
         <v>13</v>
       </c>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="25" t="n">
+      <c r="Q14" s="23"/>
+      <c r="R14" s="24" t="n">
         <f aca="false">P14+P16</f>
         <v>24</v>
       </c>
-      <c r="U14" s="23" t="n">
+      <c r="U14" s="22" t="n">
         <f aca="false">R14</f>
         <v>24</v>
       </c>
-      <c r="V14" s="24"/>
-      <c r="W14" s="25" t="n">
+      <c r="V14" s="23"/>
+      <c r="W14" s="24" t="n">
         <f aca="false">U14+U16</f>
         <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="26" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="26" t="s">
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="26" t="s">
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="27"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="26"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29" t="n">
+      <c r="A16" s="28" t="n">
         <f aca="false">VLOOKUP(A15,$A$2:$H$12,8)</f>
         <v>4</v>
       </c>
-      <c r="B16" s="30" t="n">
+      <c r="B16" s="29" t="n">
         <f aca="false">C17-C14</f>
         <v>0</v>
       </c>
-      <c r="C16" s="44" t="n">
+      <c r="C16" s="43" t="n">
         <f aca="false">MIN(F14,F20,F26)-C14</f>
         <v>0</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="F16" s="29" t="n">
+      <c r="D16" s="31"/>
+      <c r="F16" s="28" t="n">
         <f aca="false">VLOOKUP(F15,$A$2:$H$12,8)</f>
         <v>9</v>
       </c>
-      <c r="G16" s="30" t="n">
+      <c r="G16" s="29" t="n">
         <f aca="false">H17-H14</f>
         <v>15</v>
       </c>
-      <c r="H16" s="44" t="n">
+      <c r="H16" s="43" t="n">
         <f aca="false">P14-H14</f>
         <v>0</v>
       </c>
-      <c r="P16" s="29" t="n">
+      <c r="P16" s="28" t="n">
         <f aca="false">VLOOKUP(P15,$A$2:$H$12,8)</f>
         <v>11</v>
       </c>
-      <c r="Q16" s="30" t="n">
+      <c r="Q16" s="29" t="n">
         <f aca="false">R17-R14</f>
         <v>15</v>
       </c>
-      <c r="R16" s="44" t="n">
+      <c r="R16" s="43" t="n">
         <f aca="false">U14-R14</f>
         <v>0</v>
       </c>
-      <c r="S16" s="55"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="29" t="n">
+      <c r="S16" s="57"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="28" t="n">
         <f aca="false">VLOOKUP(U15,$A$2:$H$12,8)</f>
         <v>10</v>
       </c>
-      <c r="V16" s="30" t="n">
+      <c r="V16" s="29" t="n">
         <f aca="false">W17-W14</f>
         <v>15</v>
       </c>
-      <c r="W16" s="44" t="n">
+      <c r="W16" s="43" t="n">
         <f aca="false">Z17-W14</f>
         <v>15</v>
       </c>
-      <c r="X16" s="62"/>
+      <c r="X16" s="64"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="n">
+      <c r="A17" s="33" t="n">
         <f aca="false">C17-A16</f>
         <v>0</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="35" t="n">
+      <c r="B17" s="23"/>
+      <c r="C17" s="34" t="n">
         <f aca="false">MIN(F17,F23,F29)</f>
         <v>4</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="F17" s="34" t="n">
+      <c r="D17" s="35"/>
+      <c r="F17" s="33" t="n">
         <f aca="false">H17-F16</f>
         <v>19</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="35" t="n">
+      <c r="G17" s="23"/>
+      <c r="H17" s="34" t="n">
         <f aca="false">P17</f>
         <v>28</v>
       </c>
-      <c r="P17" s="34" t="n">
+      <c r="P17" s="33" t="n">
         <f aca="false">R17-P16</f>
         <v>28</v>
       </c>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="63" t="n">
+      <c r="Q17" s="23"/>
+      <c r="R17" s="65" t="n">
         <f aca="false">U17</f>
         <v>39</v>
       </c>
-      <c r="U17" s="34" t="n">
+      <c r="U17" s="33" t="n">
         <f aca="false">W17-U16</f>
         <v>39</v>
       </c>
-      <c r="V17" s="24"/>
-      <c r="W17" s="35" t="n">
+      <c r="V17" s="23"/>
+      <c r="W17" s="34" t="n">
         <f aca="false">Z20</f>
         <v>49</v>
       </c>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="23" t="n">
+      <c r="X17" s="66"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="22" t="n">
         <f aca="false">MAX(W14,W20)</f>
         <v>49</v>
       </c>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="25" t="n">
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="24" t="n">
         <f aca="false">Z17+Z19</f>
         <v>53</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="57"/>
-      <c r="D18" s="37"/>
-      <c r="Z18" s="26" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="36"/>
+      <c r="Z18" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="29" t="n">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="28" t="n">
         <f aca="false">VLOOKUP(Z18,$A$2:$H$12,8)</f>
         <v>4</v>
       </c>
-      <c r="AA19" s="30" t="n">
+      <c r="AA19" s="29" t="n">
         <f aca="false">AB20-AB17</f>
         <v>0</v>
       </c>
-      <c r="AB19" s="44" t="n">
+      <c r="AB19" s="43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="F20" s="23" t="n">
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="F20" s="22" t="n">
         <f aca="false">C14</f>
         <v>4</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25" t="n">
+      <c r="G20" s="23"/>
+      <c r="H20" s="24" t="n">
         <f aca="false">F20+F22</f>
         <v>11</v>
       </c>
-      <c r="K20" s="23" t="n">
+      <c r="K20" s="22" t="n">
         <f aca="false">H20</f>
         <v>11</v>
       </c>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25" t="n">
+      <c r="L20" s="23"/>
+      <c r="M20" s="24" t="n">
         <f aca="false">K20+K22</f>
         <v>26</v>
       </c>
-      <c r="P20" s="23" t="n">
+      <c r="P20" s="22" t="n">
         <f aca="false">MAX(M20,M26)</f>
         <v>32</v>
       </c>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="25" t="n">
+      <c r="Q20" s="23"/>
+      <c r="R20" s="24" t="n">
         <f aca="false">P20+P22</f>
         <v>39</v>
       </c>
-      <c r="U20" s="23" t="n">
+      <c r="U20" s="22" t="n">
         <f aca="false">R20</f>
         <v>39</v>
       </c>
-      <c r="V20" s="24"/>
-      <c r="W20" s="25" t="n">
+      <c r="V20" s="23"/>
+      <c r="W20" s="24" t="n">
         <f aca="false">U20+U22</f>
         <v>49</v>
       </c>
-      <c r="X20" s="64"/>
-      <c r="Z20" s="34" t="n">
+      <c r="X20" s="66"/>
+      <c r="Z20" s="33" t="n">
         <f aca="false">AB20-Z19</f>
         <v>49</v>
       </c>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="35" t="n">
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="34" t="n">
         <f aca="false">AB17</f>
         <v>53</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="26" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="26" t="s">
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="59" t="s">
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="60" t="s">
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="39"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="38"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="37"/>
-      <c r="F22" s="29" t="n">
+      <c r="C22" s="36"/>
+      <c r="F22" s="28" t="n">
         <f aca="false">VLOOKUP(F21,$A$2:$H$12,8)</f>
         <v>7</v>
       </c>
-      <c r="G22" s="30" t="n">
+      <c r="G22" s="29" t="n">
         <f aca="false">H23-H20</f>
         <v>6</v>
       </c>
-      <c r="H22" s="44" t="n">
+      <c r="H22" s="43" t="n">
         <f aca="false">K20-H20</f>
         <v>0</v>
       </c>
-      <c r="I22" s="55"/>
-      <c r="K22" s="29" t="n">
+      <c r="I22" s="57"/>
+      <c r="K22" s="28" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$H$12,8)</f>
         <v>15</v>
       </c>
-      <c r="L22" s="30" t="n">
+      <c r="L22" s="29" t="n">
         <f aca="false">M23-M20</f>
         <v>6</v>
       </c>
-      <c r="M22" s="44" t="n">
+      <c r="M22" s="43" t="n">
         <f aca="false">P20-M20</f>
         <v>6</v>
       </c>
-      <c r="O22" s="33"/>
-      <c r="P22" s="29" t="n">
+      <c r="O22" s="32"/>
+      <c r="P22" s="28" t="n">
         <f aca="false">VLOOKUP(P21,$A$2:$H$12,8)</f>
         <v>7</v>
       </c>
-      <c r="Q22" s="30" t="n">
+      <c r="Q22" s="29" t="n">
         <f aca="false">R23-R20</f>
         <v>0</v>
       </c>
-      <c r="R22" s="44" t="n">
+      <c r="R22" s="43" t="n">
         <f aca="false">U20-R20</f>
         <v>0</v>
       </c>
-      <c r="U22" s="29" t="n">
+      <c r="U22" s="28" t="n">
         <f aca="false">VLOOKUP(U21,$A$2:$H$12,8)</f>
         <v>10</v>
       </c>
-      <c r="V22" s="30" t="n">
+      <c r="V22" s="29" t="n">
         <f aca="false">W23-W20</f>
         <v>0</v>
       </c>
-      <c r="W22" s="44" t="n">
+      <c r="W22" s="43" t="n">
         <f aca="false">Z17-W20</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="37"/>
-      <c r="F23" s="34" t="n">
+      <c r="C23" s="36"/>
+      <c r="F23" s="33" t="n">
         <f aca="false">H23-F22</f>
         <v>10</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="63" t="n">
+      <c r="G23" s="23"/>
+      <c r="H23" s="65" t="n">
         <f aca="false">K23</f>
         <v>17</v>
       </c>
-      <c r="K23" s="34" t="n">
+      <c r="K23" s="33" t="n">
         <f aca="false">M23-K22</f>
         <v>17</v>
       </c>
-      <c r="L23" s="24"/>
-      <c r="M23" s="63" t="n">
+      <c r="L23" s="23"/>
+      <c r="M23" s="65" t="n">
         <f aca="false">P23</f>
         <v>32</v>
       </c>
-      <c r="N23" s="37"/>
-      <c r="P23" s="34" t="n">
+      <c r="N23" s="36"/>
+      <c r="P23" s="33" t="n">
         <f aca="false">R23-P22</f>
         <v>32</v>
       </c>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="63" t="n">
+      <c r="Q23" s="23"/>
+      <c r="R23" s="65" t="n">
         <f aca="false">U23</f>
         <v>39</v>
       </c>
-      <c r="U23" s="34" t="n">
+      <c r="U23" s="33" t="n">
         <f aca="false">W23-U22</f>
         <v>39</v>
       </c>
-      <c r="V23" s="24"/>
-      <c r="W23" s="35" t="n">
+      <c r="V23" s="23"/>
+      <c r="W23" s="34" t="n">
         <f aca="false">Z20</f>
         <v>49</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="37"/>
-      <c r="N24" s="37"/>
+      <c r="C24" s="36"/>
+      <c r="N24" s="36"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="37"/>
-      <c r="N25" s="37"/>
+      <c r="C25" s="36"/>
+      <c r="N25" s="36"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="37"/>
-      <c r="F26" s="23" t="n">
+      <c r="C26" s="36"/>
+      <c r="F26" s="22" t="n">
         <f aca="false">C14</f>
         <v>4</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25" t="n">
+      <c r="G26" s="23"/>
+      <c r="H26" s="24" t="n">
         <f aca="false">F26+F28</f>
         <v>19</v>
       </c>
-      <c r="K26" s="23" t="n">
+      <c r="K26" s="22" t="n">
         <f aca="false">H26</f>
         <v>19</v>
       </c>
-      <c r="L26" s="24"/>
-      <c r="M26" s="25" t="n">
+      <c r="L26" s="23"/>
+      <c r="M26" s="24" t="n">
         <f aca="false">K26+K28</f>
         <v>32</v>
       </c>
-      <c r="N26" s="37"/>
+      <c r="N26" s="36"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="37"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="59" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="60" t="s">
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="39"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="38"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="29" t="n">
+      <c r="F28" s="28" t="n">
         <f aca="false">VLOOKUP(F27,$A$2:$H$12,8)</f>
         <v>15</v>
       </c>
-      <c r="G28" s="30" t="n">
+      <c r="G28" s="29" t="n">
         <f aca="false">H29-H26</f>
         <v>0</v>
       </c>
-      <c r="H28" s="44" t="n">
+      <c r="H28" s="43" t="n">
         <f aca="false">K26-H26</f>
         <v>0</v>
       </c>
-      <c r="K28" s="29" t="n">
+      <c r="K28" s="28" t="n">
         <f aca="false">VLOOKUP(K27,$A$2:$H$12,8)</f>
         <v>13</v>
       </c>
-      <c r="L28" s="43" t="n">
+      <c r="L28" s="42" t="n">
         <f aca="false">M29-M26</f>
         <v>0</v>
       </c>
-      <c r="M28" s="44" t="n">
+      <c r="M28" s="43" t="n">
         <f aca="false">P20-M26</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="34" t="n">
+      <c r="F29" s="33" t="n">
         <f aca="false">H29-F28</f>
         <v>4</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="63" t="n">
+      <c r="G29" s="23"/>
+      <c r="H29" s="65" t="n">
         <f aca="false">K29</f>
         <v>19</v>
       </c>
-      <c r="K29" s="34" t="n">
+      <c r="K29" s="33" t="n">
         <f aca="false">M29-K28</f>
         <v>19</v>
       </c>
-      <c r="L29" s="24"/>
-      <c r="M29" s="35" t="n">
+      <c r="L29" s="23"/>
+      <c r="M29" s="34" t="n">
         <f aca="false">P23</f>
         <v>32</v>
       </c>
@@ -5064,118 +5531,118 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="65" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="25.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="65" t="n">
+      <c r="A2" s="67" t="n">
         <v>44927</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="65" t="n">
+      <c r="A3" s="67" t="n">
         <v>45022</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="65" t="n">
+      <c r="A4" s="67" t="n">
         <v>45023</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="65" t="n">
+      <c r="A5" s="67" t="n">
         <v>45025</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="65" t="n">
+      <c r="A6" s="67" t="n">
         <v>45026</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="65" t="n">
+      <c r="A7" s="67" t="n">
         <v>45047</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="65" t="n">
+      <c r="A8" s="67" t="n">
         <v>45071</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="65" t="n">
+      <c r="A9" s="67" t="n">
         <v>45081</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="65" t="n">
+      <c r="A10" s="67" t="n">
         <v>45082</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="65" t="n">
+      <c r="A11" s="67" t="n">
         <v>45202</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="65" t="n">
+      <c r="A12" s="67" t="n">
         <v>45230</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="65" t="n">
+      <c r="A13" s="67" t="n">
         <v>45285</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="65" t="n">
+      <c r="A14" s="67" t="n">
         <v>45286</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" state="visible" r:id="rId3"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="67">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -180,9 +180,6 @@
   </si>
   <si>
     <t xml:space="preserve">Freier Puffer (FAZ-Nachfolger – FEZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FP = kleinste FAZ(Nachfolger)- FEZ</t>
   </si>
   <si>
     <t xml:space="preserve">Datum</t>
@@ -376,7 +373,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,7 +383,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
-        <bgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
     <fill>
@@ -422,13 +419,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.5"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.25"/>
-        <bgColor rgb="FF339966"/>
+        <bgColor rgb="FF666666"/>
       </patternFill>
     </fill>
     <fill>
@@ -459,6 +456,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFED7D31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666666"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FFB2B2B2"/>
       </patternFill>
     </fill>
   </fills>
@@ -645,7 +660,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="80">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -862,6 +877,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -874,10 +897,34 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -896,6 +943,22 @@
     </xf>
     <xf numFmtId="167" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1343,7 +1406,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF3465A4"/>
       <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -1367,8 +1430,8 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFED7D31"/>
-      <rgbColor rgb="FF3465A4"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF666666"/>
+      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF203864"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -3051,10 +3114,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR27"/>
+  <dimension ref="A1:AX27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF12" activeCellId="0" sqref="AF12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3187,6 +3250,24 @@
       <c r="AR1" s="53" t="n">
         <v>45432</v>
       </c>
+      <c r="AS1" s="53" t="n">
+        <v>45433</v>
+      </c>
+      <c r="AT1" s="53" t="n">
+        <v>45434</v>
+      </c>
+      <c r="AU1" s="53" t="n">
+        <v>45435</v>
+      </c>
+      <c r="AV1" s="53" t="n">
+        <v>45436</v>
+      </c>
+      <c r="AW1" s="53" t="n">
+        <v>45437</v>
+      </c>
+      <c r="AX1" s="53" t="n">
+        <v>45438</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -3210,37 +3291,43 @@
       <c r="K2" s="54"/>
       <c r="L2" s="54"/>
       <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
       <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -3259,42 +3346,48 @@
       <c r="H3" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="56"/>
       <c r="Q3" s="54"/>
       <c r="R3" s="54"/>
       <c r="S3" s="54"/>
       <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
       <c r="W3" s="54"/>
       <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
+      <c r="Y3" s="55"/>
       <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="54"/>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="54"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="55"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -3315,42 +3408,48 @@
       <c r="H4" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="56"/>
       <c r="Q4" s="54"/>
       <c r="R4" s="54"/>
       <c r="S4" s="54"/>
       <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
       <c r="W4" s="54"/>
       <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
+      <c r="Y4" s="55"/>
       <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="56"/>
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="56"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -3369,42 +3468,48 @@
       <c r="H5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="56"/>
       <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
       <c r="AD5" s="54"/>
       <c r="AE5" s="54"/>
       <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="54"/>
-      <c r="AJ5" s="54"/>
-      <c r="AK5" s="54"/>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="54"/>
-      <c r="AN5" s="54"/>
-      <c r="AO5" s="54"/>
-      <c r="AP5" s="54"/>
-      <c r="AQ5" s="54"/>
-      <c r="AR5" s="54"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="55"/>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="55"/>
+      <c r="AX5" s="55"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -3423,42 +3528,48 @@
       <c r="H6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="56"/>
       <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
       <c r="AD6" s="54"/>
       <c r="AE6" s="54"/>
       <c r="AF6" s="54"/>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="54"/>
-      <c r="AI6" s="54"/>
-      <c r="AJ6" s="54"/>
-      <c r="AK6" s="54"/>
-      <c r="AL6" s="54"/>
-      <c r="AM6" s="54"/>
-      <c r="AN6" s="54"/>
-      <c r="AO6" s="54"/>
-      <c r="AP6" s="54"/>
-      <c r="AQ6" s="54"/>
-      <c r="AR6" s="54"/>
+      <c r="AG6" s="56"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="56"/>
+      <c r="AO6" s="56"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="55"/>
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="56"/>
+      <c r="AW6" s="55"/>
+      <c r="AX6" s="55"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -3477,42 +3588,48 @@
       <c r="H7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="56"/>
       <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
       <c r="AD7" s="54"/>
       <c r="AE7" s="54"/>
       <c r="AF7" s="54"/>
       <c r="AG7" s="54"/>
-      <c r="AH7" s="54"/>
-      <c r="AI7" s="54"/>
-      <c r="AJ7" s="54"/>
-      <c r="AK7" s="54"/>
-      <c r="AL7" s="54"/>
-      <c r="AM7" s="54"/>
-      <c r="AN7" s="54"/>
-      <c r="AO7" s="54"/>
-      <c r="AP7" s="54"/>
-      <c r="AQ7" s="54"/>
-      <c r="AR7" s="54"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="55"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+      <c r="AN7" s="56"/>
+      <c r="AO7" s="56"/>
+      <c r="AP7" s="55"/>
+      <c r="AQ7" s="55"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="56"/>
+      <c r="AW7" s="55"/>
+      <c r="AX7" s="55"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -3532,45 +3649,51 @@
         <v>23</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="55" t="n">
+      <c r="H8" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
       <c r="AG8" s="54"/>
       <c r="AH8" s="54"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="54"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
       <c r="AK8" s="54"/>
-      <c r="AL8" s="54"/>
-      <c r="AM8" s="54"/>
-      <c r="AN8" s="54"/>
-      <c r="AO8" s="54"/>
-      <c r="AP8" s="54"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="54"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="55"/>
+      <c r="AQ8" s="55"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="56"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="56"/>
+      <c r="AV8" s="56"/>
+      <c r="AW8" s="55"/>
+      <c r="AX8" s="55"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -3591,42 +3714,48 @@
       <c r="H9" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
       <c r="AH9" s="54"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="54"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="55"/>
       <c r="AK9" s="54"/>
       <c r="AL9" s="54"/>
       <c r="AM9" s="54"/>
       <c r="AN9" s="54"/>
       <c r="AO9" s="54"/>
-      <c r="AP9" s="54"/>
-      <c r="AQ9" s="54"/>
-      <c r="AR9" s="54"/>
+      <c r="AP9" s="55"/>
+      <c r="AQ9" s="55"/>
+      <c r="AR9" s="56"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="56"/>
+      <c r="AW9" s="55"/>
+      <c r="AX9" s="55"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -3643,42 +3772,48 @@
       <c r="H10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="56"/>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="56"/>
-      <c r="AK10" s="56"/>
-      <c r="AL10" s="56"/>
-      <c r="AM10" s="56"/>
-      <c r="AN10" s="56"/>
-      <c r="AO10" s="56"/>
-      <c r="AP10" s="56"/>
-      <c r="AQ10" s="56"/>
-      <c r="AR10" s="56"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="58"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="59"/>
+      <c r="AK10" s="58"/>
+      <c r="AL10" s="58"/>
+      <c r="AM10" s="58"/>
+      <c r="AN10" s="58"/>
+      <c r="AO10" s="58"/>
+      <c r="AP10" s="59"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="60"/>
+      <c r="AS10" s="60"/>
+      <c r="AT10" s="61"/>
+      <c r="AU10" s="61"/>
+      <c r="AV10" s="61"/>
+      <c r="AW10" s="59"/>
+      <c r="AX10" s="59"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="n">
@@ -3786,7 +3921,7 @@
         <v>4</v>
       </c>
       <c r="R14" s="43"/>
-      <c r="S14" s="57"/>
+      <c r="S14" s="62"/>
       <c r="T14" s="32"/>
       <c r="U14" s="28" t="n">
         <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
@@ -4058,7 +4193,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:AR1">
+  <conditionalFormatting sqref="I1:AX1">
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
     </cfRule>
@@ -4078,18 +4213,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:CU27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="0" topLeftCell="BB1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="CH10" activeCellId="0" sqref="CH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="1" style="1" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="44" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="65" style="0" width="3.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4105,6 +4244,279 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="I1" s="53" t="n">
+        <v>45397</v>
+      </c>
+      <c r="J1" s="53" t="n">
+        <v>45398</v>
+      </c>
+      <c r="K1" s="53" t="n">
+        <v>45399</v>
+      </c>
+      <c r="L1" s="53" t="n">
+        <v>45400</v>
+      </c>
+      <c r="M1" s="53" t="n">
+        <v>45401</v>
+      </c>
+      <c r="N1" s="53" t="n">
+        <v>45402</v>
+      </c>
+      <c r="O1" s="53" t="n">
+        <v>45403</v>
+      </c>
+      <c r="P1" s="53" t="n">
+        <v>45404</v>
+      </c>
+      <c r="Q1" s="53" t="n">
+        <v>45405</v>
+      </c>
+      <c r="R1" s="53" t="n">
+        <v>45406</v>
+      </c>
+      <c r="S1" s="53" t="n">
+        <v>45407</v>
+      </c>
+      <c r="T1" s="53" t="n">
+        <v>45408</v>
+      </c>
+      <c r="U1" s="53" t="n">
+        <v>45409</v>
+      </c>
+      <c r="V1" s="53" t="n">
+        <v>45410</v>
+      </c>
+      <c r="W1" s="53" t="n">
+        <v>45411</v>
+      </c>
+      <c r="X1" s="53" t="n">
+        <v>45412</v>
+      </c>
+      <c r="Y1" s="53" t="n">
+        <v>45413</v>
+      </c>
+      <c r="Z1" s="53" t="n">
+        <v>45414</v>
+      </c>
+      <c r="AA1" s="53" t="n">
+        <v>45415</v>
+      </c>
+      <c r="AB1" s="53" t="n">
+        <v>45416</v>
+      </c>
+      <c r="AC1" s="53" t="n">
+        <v>45417</v>
+      </c>
+      <c r="AD1" s="53" t="n">
+        <v>45418</v>
+      </c>
+      <c r="AE1" s="53" t="n">
+        <v>45419</v>
+      </c>
+      <c r="AF1" s="53" t="n">
+        <v>45420</v>
+      </c>
+      <c r="AG1" s="53" t="n">
+        <v>45421</v>
+      </c>
+      <c r="AH1" s="53" t="n">
+        <v>45422</v>
+      </c>
+      <c r="AI1" s="53" t="n">
+        <v>45423</v>
+      </c>
+      <c r="AJ1" s="53" t="n">
+        <v>45424</v>
+      </c>
+      <c r="AK1" s="53" t="n">
+        <v>45425</v>
+      </c>
+      <c r="AL1" s="53" t="n">
+        <v>45426</v>
+      </c>
+      <c r="AM1" s="53" t="n">
+        <v>45427</v>
+      </c>
+      <c r="AN1" s="53" t="n">
+        <v>45428</v>
+      </c>
+      <c r="AO1" s="53" t="n">
+        <v>45429</v>
+      </c>
+      <c r="AP1" s="53" t="n">
+        <v>45430</v>
+      </c>
+      <c r="AQ1" s="53" t="n">
+        <v>45431</v>
+      </c>
+      <c r="AR1" s="53" t="n">
+        <v>45432</v>
+      </c>
+      <c r="AS1" s="53" t="n">
+        <v>45433</v>
+      </c>
+      <c r="AT1" s="53" t="n">
+        <v>45434</v>
+      </c>
+      <c r="AU1" s="53" t="n">
+        <v>45435</v>
+      </c>
+      <c r="AV1" s="53" t="n">
+        <v>45436</v>
+      </c>
+      <c r="AW1" s="53" t="n">
+        <v>45437</v>
+      </c>
+      <c r="AX1" s="53" t="n">
+        <v>45438</v>
+      </c>
+      <c r="AY1" s="53" t="n">
+        <v>45439</v>
+      </c>
+      <c r="AZ1" s="53" t="n">
+        <v>45440</v>
+      </c>
+      <c r="BA1" s="53" t="n">
+        <v>45441</v>
+      </c>
+      <c r="BB1" s="53" t="n">
+        <v>45442</v>
+      </c>
+      <c r="BC1" s="53" t="n">
+        <v>45443</v>
+      </c>
+      <c r="BD1" s="53" t="n">
+        <v>45444</v>
+      </c>
+      <c r="BE1" s="53" t="n">
+        <v>45445</v>
+      </c>
+      <c r="BF1" s="53" t="n">
+        <v>45446</v>
+      </c>
+      <c r="BG1" s="53" t="n">
+        <v>45447</v>
+      </c>
+      <c r="BH1" s="53" t="n">
+        <v>45448</v>
+      </c>
+      <c r="BI1" s="53" t="n">
+        <v>45449</v>
+      </c>
+      <c r="BJ1" s="53" t="n">
+        <v>45450</v>
+      </c>
+      <c r="BK1" s="53" t="n">
+        <v>45451</v>
+      </c>
+      <c r="BL1" s="53" t="n">
+        <v>45452</v>
+      </c>
+      <c r="BM1" s="53" t="n">
+        <v>45453</v>
+      </c>
+      <c r="BN1" s="53" t="n">
+        <v>45454</v>
+      </c>
+      <c r="BO1" s="53" t="n">
+        <v>45455</v>
+      </c>
+      <c r="BP1" s="53" t="n">
+        <v>45456</v>
+      </c>
+      <c r="BQ1" s="53" t="n">
+        <v>45457</v>
+      </c>
+      <c r="BR1" s="53" t="n">
+        <v>45458</v>
+      </c>
+      <c r="BS1" s="53" t="n">
+        <v>45459</v>
+      </c>
+      <c r="BT1" s="53" t="n">
+        <v>45460</v>
+      </c>
+      <c r="BU1" s="53" t="n">
+        <v>45461</v>
+      </c>
+      <c r="BV1" s="53" t="n">
+        <v>45462</v>
+      </c>
+      <c r="BW1" s="53" t="n">
+        <v>45463</v>
+      </c>
+      <c r="BX1" s="53" t="n">
+        <v>45464</v>
+      </c>
+      <c r="BY1" s="53" t="n">
+        <v>45465</v>
+      </c>
+      <c r="BZ1" s="53" t="n">
+        <v>45466</v>
+      </c>
+      <c r="CA1" s="53" t="n">
+        <v>45467</v>
+      </c>
+      <c r="CB1" s="53" t="n">
+        <v>45468</v>
+      </c>
+      <c r="CC1" s="53" t="n">
+        <v>45469</v>
+      </c>
+      <c r="CD1" s="53" t="n">
+        <v>45470</v>
+      </c>
+      <c r="CE1" s="53" t="n">
+        <v>45471</v>
+      </c>
+      <c r="CF1" s="53" t="n">
+        <v>45472</v>
+      </c>
+      <c r="CG1" s="53" t="n">
+        <v>45473</v>
+      </c>
+      <c r="CH1" s="53" t="n">
+        <v>45474</v>
+      </c>
+      <c r="CI1" s="53" t="n">
+        <v>45475</v>
+      </c>
+      <c r="CJ1" s="53" t="n">
+        <v>45476</v>
+      </c>
+      <c r="CK1" s="53" t="n">
+        <v>45477</v>
+      </c>
+      <c r="CL1" s="53" t="n">
+        <v>45478</v>
+      </c>
+      <c r="CM1" s="53" t="n">
+        <v>45479</v>
+      </c>
+      <c r="CN1" s="53" t="n">
+        <v>45480</v>
+      </c>
+      <c r="CO1" s="53" t="n">
+        <v>45481</v>
+      </c>
+      <c r="CP1" s="53" t="n">
+        <v>45482</v>
+      </c>
+      <c r="CQ1" s="53" t="n">
+        <v>45483</v>
+      </c>
+      <c r="CR1" s="53" t="n">
+        <v>45484</v>
+      </c>
+      <c r="CS1" s="53" t="n">
+        <v>45485</v>
+      </c>
+      <c r="CT1" s="53" t="n">
+        <v>45486</v>
+      </c>
+      <c r="CU1" s="53" t="n">
+        <v>45487</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4126,6 +4538,97 @@
       <c r="H2" s="4" t="n">
         <v>15</v>
       </c>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="55"/>
+      <c r="BE2" s="55"/>
+      <c r="BF2" s="56"/>
+      <c r="BG2" s="63"/>
+      <c r="BH2" s="56"/>
+      <c r="BI2" s="56"/>
+      <c r="BJ2" s="56"/>
+      <c r="BK2" s="55"/>
+      <c r="BL2" s="55"/>
+      <c r="BM2" s="56"/>
+      <c r="BN2" s="56"/>
+      <c r="BO2" s="56"/>
+      <c r="BP2" s="56"/>
+      <c r="BQ2" s="56"/>
+      <c r="BR2" s="55"/>
+      <c r="BS2" s="55"/>
+      <c r="BT2" s="56"/>
+      <c r="BU2" s="56"/>
+      <c r="BV2" s="56"/>
+      <c r="BW2" s="56"/>
+      <c r="BX2" s="56"/>
+      <c r="BY2" s="55"/>
+      <c r="BZ2" s="55"/>
+      <c r="CA2" s="56"/>
+      <c r="CB2" s="56"/>
+      <c r="CC2" s="56"/>
+      <c r="CD2" s="56"/>
+      <c r="CE2" s="56"/>
+      <c r="CF2" s="55"/>
+      <c r="CG2" s="55"/>
+      <c r="CH2" s="56"/>
+      <c r="CI2" s="56"/>
+      <c r="CJ2" s="56"/>
+      <c r="CK2" s="56"/>
+      <c r="CL2" s="56"/>
+      <c r="CM2" s="55"/>
+      <c r="CN2" s="55"/>
+      <c r="CO2" s="56"/>
+      <c r="CP2" s="56"/>
+      <c r="CQ2" s="56"/>
+      <c r="CR2" s="56"/>
+      <c r="CS2" s="56"/>
+      <c r="CT2" s="55"/>
+      <c r="CU2" s="55"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -4144,6 +4647,97 @@
       <c r="H3" s="4" t="n">
         <v>6</v>
       </c>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="55"/>
+      <c r="AX3" s="55"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="56"/>
+      <c r="BD3" s="55"/>
+      <c r="BE3" s="55"/>
+      <c r="BF3" s="56"/>
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="56"/>
+      <c r="BI3" s="56"/>
+      <c r="BJ3" s="56"/>
+      <c r="BK3" s="55"/>
+      <c r="BL3" s="55"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="56"/>
+      <c r="BO3" s="56"/>
+      <c r="BP3" s="56"/>
+      <c r="BQ3" s="56"/>
+      <c r="BR3" s="55"/>
+      <c r="BS3" s="55"/>
+      <c r="BT3" s="56"/>
+      <c r="BU3" s="56"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="56"/>
+      <c r="BX3" s="56"/>
+      <c r="BY3" s="55"/>
+      <c r="BZ3" s="55"/>
+      <c r="CA3" s="56"/>
+      <c r="CB3" s="56"/>
+      <c r="CC3" s="56"/>
+      <c r="CD3" s="56"/>
+      <c r="CE3" s="56"/>
+      <c r="CF3" s="55"/>
+      <c r="CG3" s="55"/>
+      <c r="CH3" s="56"/>
+      <c r="CI3" s="56"/>
+      <c r="CJ3" s="56"/>
+      <c r="CK3" s="56"/>
+      <c r="CL3" s="56"/>
+      <c r="CM3" s="55"/>
+      <c r="CN3" s="55"/>
+      <c r="CO3" s="56"/>
+      <c r="CP3" s="56"/>
+      <c r="CQ3" s="56"/>
+      <c r="CR3" s="56"/>
+      <c r="CS3" s="56"/>
+      <c r="CT3" s="55"/>
+      <c r="CU3" s="55"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -4162,6 +4756,97 @@
       <c r="H4" s="4" t="n">
         <v>14</v>
       </c>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="54"/>
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="54"/>
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="56"/>
+      <c r="BC4" s="56"/>
+      <c r="BD4" s="55"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="56"/>
+      <c r="BG4" s="63"/>
+      <c r="BH4" s="56"/>
+      <c r="BI4" s="56"/>
+      <c r="BJ4" s="56"/>
+      <c r="BK4" s="55"/>
+      <c r="BL4" s="55"/>
+      <c r="BM4" s="56"/>
+      <c r="BN4" s="56"/>
+      <c r="BO4" s="56"/>
+      <c r="BP4" s="56"/>
+      <c r="BQ4" s="56"/>
+      <c r="BR4" s="55"/>
+      <c r="BS4" s="55"/>
+      <c r="BT4" s="56"/>
+      <c r="BU4" s="56"/>
+      <c r="BV4" s="56"/>
+      <c r="BW4" s="56"/>
+      <c r="BX4" s="56"/>
+      <c r="BY4" s="55"/>
+      <c r="BZ4" s="55"/>
+      <c r="CA4" s="56"/>
+      <c r="CB4" s="56"/>
+      <c r="CC4" s="56"/>
+      <c r="CD4" s="56"/>
+      <c r="CE4" s="56"/>
+      <c r="CF4" s="55"/>
+      <c r="CG4" s="55"/>
+      <c r="CH4" s="56"/>
+      <c r="CI4" s="56"/>
+      <c r="CJ4" s="56"/>
+      <c r="CK4" s="56"/>
+      <c r="CL4" s="56"/>
+      <c r="CM4" s="55"/>
+      <c r="CN4" s="55"/>
+      <c r="CO4" s="56"/>
+      <c r="CP4" s="56"/>
+      <c r="CQ4" s="56"/>
+      <c r="CR4" s="56"/>
+      <c r="CS4" s="56"/>
+      <c r="CT4" s="55"/>
+      <c r="CU4" s="55"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -4180,6 +4865,97 @@
       <c r="H5" s="4" t="n">
         <v>6</v>
       </c>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="55"/>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="55"/>
+      <c r="AX5" s="55"/>
+      <c r="AY5" s="56"/>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="56"/>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="56"/>
+      <c r="BD5" s="55"/>
+      <c r="BE5" s="55"/>
+      <c r="BF5" s="56"/>
+      <c r="BG5" s="63"/>
+      <c r="BH5" s="56"/>
+      <c r="BI5" s="56"/>
+      <c r="BJ5" s="56"/>
+      <c r="BK5" s="55"/>
+      <c r="BL5" s="55"/>
+      <c r="BM5" s="56"/>
+      <c r="BN5" s="56"/>
+      <c r="BO5" s="56"/>
+      <c r="BP5" s="56"/>
+      <c r="BQ5" s="56"/>
+      <c r="BR5" s="55"/>
+      <c r="BS5" s="55"/>
+      <c r="BT5" s="56"/>
+      <c r="BU5" s="56"/>
+      <c r="BV5" s="56"/>
+      <c r="BW5" s="56"/>
+      <c r="BX5" s="56"/>
+      <c r="BY5" s="55"/>
+      <c r="BZ5" s="55"/>
+      <c r="CA5" s="56"/>
+      <c r="CB5" s="56"/>
+      <c r="CC5" s="56"/>
+      <c r="CD5" s="56"/>
+      <c r="CE5" s="56"/>
+      <c r="CF5" s="55"/>
+      <c r="CG5" s="55"/>
+      <c r="CH5" s="56"/>
+      <c r="CI5" s="56"/>
+      <c r="CJ5" s="56"/>
+      <c r="CK5" s="56"/>
+      <c r="CL5" s="56"/>
+      <c r="CM5" s="55"/>
+      <c r="CN5" s="55"/>
+      <c r="CO5" s="56"/>
+      <c r="CP5" s="56"/>
+      <c r="CQ5" s="56"/>
+      <c r="CR5" s="56"/>
+      <c r="CS5" s="56"/>
+      <c r="CT5" s="55"/>
+      <c r="CU5" s="55"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -4198,6 +4974,97 @@
       <c r="H6" s="4" t="n">
         <v>15</v>
       </c>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="56"/>
+      <c r="AO6" s="56"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="55"/>
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="56"/>
+      <c r="AW6" s="55"/>
+      <c r="AX6" s="55"/>
+      <c r="AY6" s="54"/>
+      <c r="AZ6" s="54"/>
+      <c r="BA6" s="54"/>
+      <c r="BB6" s="54"/>
+      <c r="BC6" s="54"/>
+      <c r="BD6" s="55"/>
+      <c r="BE6" s="55"/>
+      <c r="BF6" s="54"/>
+      <c r="BG6" s="63"/>
+      <c r="BH6" s="54"/>
+      <c r="BI6" s="54"/>
+      <c r="BJ6" s="54"/>
+      <c r="BK6" s="55"/>
+      <c r="BL6" s="55"/>
+      <c r="BM6" s="54"/>
+      <c r="BN6" s="54"/>
+      <c r="BO6" s="54"/>
+      <c r="BP6" s="54"/>
+      <c r="BQ6" s="54"/>
+      <c r="BR6" s="55"/>
+      <c r="BS6" s="55"/>
+      <c r="BT6" s="54"/>
+      <c r="BU6" s="56"/>
+      <c r="BV6" s="56"/>
+      <c r="BW6" s="56"/>
+      <c r="BX6" s="56"/>
+      <c r="BY6" s="55"/>
+      <c r="BZ6" s="55"/>
+      <c r="CA6" s="56"/>
+      <c r="CB6" s="56"/>
+      <c r="CC6" s="56"/>
+      <c r="CD6" s="56"/>
+      <c r="CE6" s="56"/>
+      <c r="CF6" s="55"/>
+      <c r="CG6" s="55"/>
+      <c r="CH6" s="56"/>
+      <c r="CI6" s="56"/>
+      <c r="CJ6" s="56"/>
+      <c r="CK6" s="56"/>
+      <c r="CL6" s="56"/>
+      <c r="CM6" s="55"/>
+      <c r="CN6" s="55"/>
+      <c r="CO6" s="56"/>
+      <c r="CP6" s="56"/>
+      <c r="CQ6" s="56"/>
+      <c r="CR6" s="56"/>
+      <c r="CS6" s="56"/>
+      <c r="CT6" s="55"/>
+      <c r="CU6" s="55"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -4216,6 +5083,97 @@
       <c r="H7" s="4" t="n">
         <v>14</v>
       </c>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="55"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="64"/>
+      <c r="AL7" s="64"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="54"/>
+      <c r="AP7" s="55"/>
+      <c r="AQ7" s="55"/>
+      <c r="AR7" s="54"/>
+      <c r="AS7" s="54"/>
+      <c r="AT7" s="54"/>
+      <c r="AU7" s="54"/>
+      <c r="AV7" s="54"/>
+      <c r="AW7" s="55"/>
+      <c r="AX7" s="55"/>
+      <c r="AY7" s="54"/>
+      <c r="AZ7" s="54"/>
+      <c r="BA7" s="54"/>
+      <c r="BB7" s="54"/>
+      <c r="BC7" s="54"/>
+      <c r="BD7" s="55"/>
+      <c r="BE7" s="55"/>
+      <c r="BF7" s="54"/>
+      <c r="BG7" s="63"/>
+      <c r="BH7" s="56"/>
+      <c r="BI7" s="56"/>
+      <c r="BJ7" s="56"/>
+      <c r="BK7" s="55"/>
+      <c r="BL7" s="55"/>
+      <c r="BM7" s="56"/>
+      <c r="BN7" s="56"/>
+      <c r="BO7" s="56"/>
+      <c r="BP7" s="56"/>
+      <c r="BQ7" s="56"/>
+      <c r="BR7" s="55"/>
+      <c r="BS7" s="55"/>
+      <c r="BT7" s="56"/>
+      <c r="BU7" s="56"/>
+      <c r="BV7" s="56"/>
+      <c r="BW7" s="56"/>
+      <c r="BX7" s="56"/>
+      <c r="BY7" s="55"/>
+      <c r="BZ7" s="55"/>
+      <c r="CA7" s="56"/>
+      <c r="CB7" s="56"/>
+      <c r="CC7" s="56"/>
+      <c r="CD7" s="56"/>
+      <c r="CE7" s="56"/>
+      <c r="CF7" s="55"/>
+      <c r="CG7" s="55"/>
+      <c r="CH7" s="56"/>
+      <c r="CI7" s="56"/>
+      <c r="CJ7" s="56"/>
+      <c r="CK7" s="56"/>
+      <c r="CL7" s="56"/>
+      <c r="CM7" s="55"/>
+      <c r="CN7" s="55"/>
+      <c r="CO7" s="56"/>
+      <c r="CP7" s="56"/>
+      <c r="CQ7" s="56"/>
+      <c r="CR7" s="56"/>
+      <c r="CS7" s="56"/>
+      <c r="CT7" s="55"/>
+      <c r="CU7" s="55"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -4238,6 +5196,97 @@
       <c r="H8" s="4" t="n">
         <v>7</v>
       </c>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="64"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="64"/>
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="54"/>
+      <c r="AP8" s="55"/>
+      <c r="AQ8" s="55"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="54"/>
+      <c r="AT8" s="54"/>
+      <c r="AU8" s="54"/>
+      <c r="AV8" s="56"/>
+      <c r="AW8" s="55"/>
+      <c r="AX8" s="55"/>
+      <c r="AY8" s="56"/>
+      <c r="AZ8" s="56"/>
+      <c r="BA8" s="56"/>
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="56"/>
+      <c r="BD8" s="55"/>
+      <c r="BE8" s="55"/>
+      <c r="BF8" s="56"/>
+      <c r="BG8" s="63"/>
+      <c r="BH8" s="56"/>
+      <c r="BI8" s="56"/>
+      <c r="BJ8" s="56"/>
+      <c r="BK8" s="55"/>
+      <c r="BL8" s="55"/>
+      <c r="BM8" s="56"/>
+      <c r="BN8" s="56"/>
+      <c r="BO8" s="56"/>
+      <c r="BP8" s="56"/>
+      <c r="BQ8" s="56"/>
+      <c r="BR8" s="55"/>
+      <c r="BS8" s="55"/>
+      <c r="BT8" s="56"/>
+      <c r="BU8" s="56"/>
+      <c r="BV8" s="56"/>
+      <c r="BW8" s="56"/>
+      <c r="BX8" s="56"/>
+      <c r="BY8" s="55"/>
+      <c r="BZ8" s="55"/>
+      <c r="CA8" s="56"/>
+      <c r="CB8" s="56"/>
+      <c r="CC8" s="56"/>
+      <c r="CD8" s="56"/>
+      <c r="CE8" s="56"/>
+      <c r="CF8" s="55"/>
+      <c r="CG8" s="55"/>
+      <c r="CH8" s="56"/>
+      <c r="CI8" s="56"/>
+      <c r="CJ8" s="56"/>
+      <c r="CK8" s="56"/>
+      <c r="CL8" s="56"/>
+      <c r="CM8" s="55"/>
+      <c r="CN8" s="55"/>
+      <c r="CO8" s="56"/>
+      <c r="CP8" s="56"/>
+      <c r="CQ8" s="56"/>
+      <c r="CR8" s="56"/>
+      <c r="CS8" s="56"/>
+      <c r="CT8" s="55"/>
+      <c r="CU8" s="55"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -4258,16 +5307,97 @@
       <c r="H9" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="P9" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="64"/>
+      <c r="AF9" s="64"/>
+      <c r="AG9" s="64"/>
+      <c r="AH9" s="64"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="64"/>
+      <c r="AL9" s="64"/>
+      <c r="AM9" s="64"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="55"/>
+      <c r="AQ9" s="55"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="56"/>
+      <c r="AW9" s="55"/>
+      <c r="AX9" s="55"/>
+      <c r="AY9" s="64"/>
+      <c r="AZ9" s="64"/>
+      <c r="BA9" s="56"/>
+      <c r="BB9" s="56"/>
+      <c r="BC9" s="56"/>
+      <c r="BD9" s="55"/>
+      <c r="BE9" s="55"/>
+      <c r="BF9" s="64"/>
+      <c r="BG9" s="63"/>
+      <c r="BH9" s="54"/>
+      <c r="BI9" s="54"/>
+      <c r="BJ9" s="54"/>
+      <c r="BK9" s="55"/>
+      <c r="BL9" s="55"/>
+      <c r="BM9" s="54"/>
+      <c r="BN9" s="54"/>
+      <c r="BO9" s="54"/>
+      <c r="BP9" s="54"/>
+      <c r="BQ9" s="54"/>
+      <c r="BR9" s="55"/>
+      <c r="BS9" s="55"/>
+      <c r="BT9" s="54"/>
+      <c r="BU9" s="54"/>
+      <c r="BV9" s="54"/>
+      <c r="BW9" s="54"/>
+      <c r="BX9" s="54"/>
+      <c r="BY9" s="55"/>
+      <c r="BZ9" s="55"/>
+      <c r="CA9" s="54"/>
+      <c r="CB9" s="54"/>
+      <c r="CC9" s="56"/>
+      <c r="CD9" s="56"/>
+      <c r="CE9" s="56"/>
+      <c r="CF9" s="55"/>
+      <c r="CG9" s="55"/>
+      <c r="CH9" s="64"/>
+      <c r="CI9" s="64"/>
+      <c r="CJ9" s="56"/>
+      <c r="CK9" s="56"/>
+      <c r="CL9" s="56"/>
+      <c r="CM9" s="55"/>
+      <c r="CN9" s="55"/>
+      <c r="CO9" s="64"/>
+      <c r="CP9" s="64"/>
+      <c r="CQ9" s="56"/>
+      <c r="CR9" s="56"/>
+      <c r="CS9" s="56"/>
+      <c r="CT9" s="55"/>
+      <c r="CU9" s="55"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -4286,6 +5416,96 @@
       <c r="H10" s="4" t="n">
         <v>4</v>
       </c>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="59"/>
+      <c r="AK10" s="61"/>
+      <c r="AL10" s="61"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="61"/>
+      <c r="AO10" s="61"/>
+      <c r="AP10" s="59"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="61"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="61"/>
+      <c r="AU10" s="61"/>
+      <c r="AV10" s="61"/>
+      <c r="AW10" s="59"/>
+      <c r="AX10" s="59"/>
+      <c r="AY10" s="61"/>
+      <c r="AZ10" s="61"/>
+      <c r="BA10" s="61"/>
+      <c r="BB10" s="61"/>
+      <c r="BC10" s="61"/>
+      <c r="BD10" s="59"/>
+      <c r="BE10" s="59"/>
+      <c r="BF10" s="61"/>
+      <c r="BG10" s="65"/>
+      <c r="BH10" s="61"/>
+      <c r="BI10" s="61"/>
+      <c r="BJ10" s="61"/>
+      <c r="BK10" s="59"/>
+      <c r="BL10" s="59"/>
+      <c r="BM10" s="61"/>
+      <c r="BN10" s="61"/>
+      <c r="BO10" s="61"/>
+      <c r="BP10" s="61"/>
+      <c r="BQ10" s="61"/>
+      <c r="BR10" s="59"/>
+      <c r="BS10" s="59"/>
+      <c r="BT10" s="61"/>
+      <c r="BU10" s="61"/>
+      <c r="BV10" s="61"/>
+      <c r="BW10" s="61"/>
+      <c r="BX10" s="61"/>
+      <c r="BY10" s="59"/>
+      <c r="BZ10" s="59"/>
+      <c r="CA10" s="61"/>
+      <c r="CC10" s="60"/>
+      <c r="CD10" s="60"/>
+      <c r="CE10" s="60"/>
+      <c r="CF10" s="59"/>
+      <c r="CG10" s="59"/>
+      <c r="CH10" s="60"/>
+      <c r="CI10" s="61"/>
+      <c r="CJ10" s="61"/>
+      <c r="CK10" s="61"/>
+      <c r="CL10" s="61"/>
+      <c r="CM10" s="59"/>
+      <c r="CN10" s="59"/>
+      <c r="CO10" s="61"/>
+      <c r="CP10" s="61"/>
+      <c r="CQ10" s="61"/>
+      <c r="CR10" s="61"/>
+      <c r="CS10" s="61"/>
+      <c r="CT10" s="59"/>
+      <c r="CU10" s="59"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="n">
@@ -4340,7 +5560,7 @@
       <c r="I13" s="26"/>
       <c r="J13" s="27"/>
       <c r="K13" s="26"/>
-      <c r="L13" s="58"/>
+      <c r="L13" s="66"/>
       <c r="M13" s="27"/>
       <c r="N13" s="26"/>
       <c r="O13" s="27"/>
@@ -4386,7 +5606,7 @@
         <v>31</v>
       </c>
       <c r="R14" s="43"/>
-      <c r="S14" s="57"/>
+      <c r="S14" s="62"/>
       <c r="T14" s="32"/>
       <c r="U14" s="28" t="n">
         <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
@@ -4439,7 +5659,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="59"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="36"/>
       <c r="S16" s="36"/>
     </row>
@@ -4516,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="43"/>
-      <c r="I20" s="57"/>
+      <c r="I20" s="62"/>
       <c r="K20" s="28" t="n">
         <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
         <v>15</v>
@@ -4600,20 +5820,20 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="36"/>
-      <c r="D25" s="60"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="27"/>
-      <c r="F25" s="61" t="s">
+      <c r="F25" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="62" t="s">
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="38"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4657,10 +5877,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="P9:W9"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="P13:R13"/>
@@ -4716,6 +5935,16 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I1:AW1 AY1:CU1">
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX1 BE1 BL1 BS1 BZ1 CG1 CN1 CU1">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>IF(OR(WEEKDAY(AX$1)=7,WEEKDAY(AX$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4731,18 +5960,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB29"/>
+  <dimension ref="A1:CT29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="0" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="BX15" activeCellId="0" sqref="BX15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="9" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="65" style="0" width="3.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4758,6 +5991,276 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="I1" s="53" t="n">
+        <v>45397</v>
+      </c>
+      <c r="J1" s="53" t="n">
+        <v>45398</v>
+      </c>
+      <c r="K1" s="53" t="n">
+        <v>45399</v>
+      </c>
+      <c r="L1" s="53" t="n">
+        <v>45400</v>
+      </c>
+      <c r="M1" s="53" t="n">
+        <v>45401</v>
+      </c>
+      <c r="N1" s="53" t="n">
+        <v>45402</v>
+      </c>
+      <c r="O1" s="53" t="n">
+        <v>45403</v>
+      </c>
+      <c r="P1" s="53" t="n">
+        <v>45404</v>
+      </c>
+      <c r="Q1" s="53" t="n">
+        <v>45405</v>
+      </c>
+      <c r="R1" s="53" t="n">
+        <v>45406</v>
+      </c>
+      <c r="S1" s="53" t="n">
+        <v>45407</v>
+      </c>
+      <c r="T1" s="53" t="n">
+        <v>45408</v>
+      </c>
+      <c r="U1" s="53" t="n">
+        <v>45409</v>
+      </c>
+      <c r="V1" s="53" t="n">
+        <v>45410</v>
+      </c>
+      <c r="W1" s="53" t="n">
+        <v>45411</v>
+      </c>
+      <c r="X1" s="53" t="n">
+        <v>45412</v>
+      </c>
+      <c r="Y1" s="53" t="n">
+        <v>45413</v>
+      </c>
+      <c r="Z1" s="53" t="n">
+        <v>45414</v>
+      </c>
+      <c r="AA1" s="53" t="n">
+        <v>45415</v>
+      </c>
+      <c r="AB1" s="53" t="n">
+        <v>45416</v>
+      </c>
+      <c r="AC1" s="53" t="n">
+        <v>45417</v>
+      </c>
+      <c r="AD1" s="53" t="n">
+        <v>45418</v>
+      </c>
+      <c r="AE1" s="53" t="n">
+        <v>45419</v>
+      </c>
+      <c r="AF1" s="53" t="n">
+        <v>45420</v>
+      </c>
+      <c r="AG1" s="53" t="n">
+        <v>45421</v>
+      </c>
+      <c r="AH1" s="53" t="n">
+        <v>45422</v>
+      </c>
+      <c r="AI1" s="53" t="n">
+        <v>45423</v>
+      </c>
+      <c r="AJ1" s="53" t="n">
+        <v>45424</v>
+      </c>
+      <c r="AK1" s="53" t="n">
+        <v>45425</v>
+      </c>
+      <c r="AL1" s="53" t="n">
+        <v>45426</v>
+      </c>
+      <c r="AM1" s="53" t="n">
+        <v>45427</v>
+      </c>
+      <c r="AN1" s="53" t="n">
+        <v>45428</v>
+      </c>
+      <c r="AO1" s="53" t="n">
+        <v>45429</v>
+      </c>
+      <c r="AP1" s="53" t="n">
+        <v>45430</v>
+      </c>
+      <c r="AQ1" s="53" t="n">
+        <v>45431</v>
+      </c>
+      <c r="AR1" s="53" t="n">
+        <v>45432</v>
+      </c>
+      <c r="AS1" s="53" t="n">
+        <v>45433</v>
+      </c>
+      <c r="AT1" s="53" t="n">
+        <v>45434</v>
+      </c>
+      <c r="AU1" s="53" t="n">
+        <v>45435</v>
+      </c>
+      <c r="AV1" s="53" t="n">
+        <v>45436</v>
+      </c>
+      <c r="AW1" s="53" t="n">
+        <v>45437</v>
+      </c>
+      <c r="AX1" s="53" t="n">
+        <v>45438</v>
+      </c>
+      <c r="AY1" s="53" t="n">
+        <v>45439</v>
+      </c>
+      <c r="AZ1" s="53" t="n">
+        <v>45440</v>
+      </c>
+      <c r="BA1" s="53" t="n">
+        <v>45441</v>
+      </c>
+      <c r="BB1" s="53" t="n">
+        <v>45442</v>
+      </c>
+      <c r="BC1" s="53" t="n">
+        <v>45443</v>
+      </c>
+      <c r="BD1" s="53" t="n">
+        <v>45444</v>
+      </c>
+      <c r="BE1" s="53" t="n">
+        <v>45445</v>
+      </c>
+      <c r="BF1" s="53" t="n">
+        <v>45446</v>
+      </c>
+      <c r="BG1" s="53" t="n">
+        <v>45447</v>
+      </c>
+      <c r="BH1" s="53" t="n">
+        <v>45448</v>
+      </c>
+      <c r="BI1" s="53" t="n">
+        <v>45449</v>
+      </c>
+      <c r="BJ1" s="53" t="n">
+        <v>45450</v>
+      </c>
+      <c r="BK1" s="53" t="n">
+        <v>45451</v>
+      </c>
+      <c r="BL1" s="53" t="n">
+        <v>45452</v>
+      </c>
+      <c r="BM1" s="53" t="n">
+        <v>45453</v>
+      </c>
+      <c r="BN1" s="53" t="n">
+        <v>45454</v>
+      </c>
+      <c r="BO1" s="53" t="n">
+        <v>45455</v>
+      </c>
+      <c r="BP1" s="53" t="n">
+        <v>45456</v>
+      </c>
+      <c r="BQ1" s="53" t="n">
+        <v>45457</v>
+      </c>
+      <c r="BR1" s="53" t="n">
+        <v>45458</v>
+      </c>
+      <c r="BS1" s="53" t="n">
+        <v>45459</v>
+      </c>
+      <c r="BT1" s="53" t="n">
+        <v>45460</v>
+      </c>
+      <c r="BU1" s="53" t="n">
+        <v>45461</v>
+      </c>
+      <c r="BV1" s="53" t="n">
+        <v>45462</v>
+      </c>
+      <c r="BW1" s="53" t="n">
+        <v>45463</v>
+      </c>
+      <c r="BX1" s="53" t="n">
+        <v>45464</v>
+      </c>
+      <c r="BY1" s="53" t="n">
+        <v>45465</v>
+      </c>
+      <c r="BZ1" s="53" t="n">
+        <v>45466</v>
+      </c>
+      <c r="CA1" s="53" t="n">
+        <v>45467</v>
+      </c>
+      <c r="CB1" s="53" t="n">
+        <v>45468</v>
+      </c>
+      <c r="CC1" s="53" t="n">
+        <v>45469</v>
+      </c>
+      <c r="CD1" s="53" t="n">
+        <v>45470</v>
+      </c>
+      <c r="CE1" s="53" t="n">
+        <v>45471</v>
+      </c>
+      <c r="CF1" s="53" t="n">
+        <v>45472</v>
+      </c>
+      <c r="CG1" s="53" t="n">
+        <v>45473</v>
+      </c>
+      <c r="CH1" s="53" t="n">
+        <v>45474</v>
+      </c>
+      <c r="CI1" s="53" t="n">
+        <v>45475</v>
+      </c>
+      <c r="CJ1" s="53" t="n">
+        <v>45476</v>
+      </c>
+      <c r="CK1" s="53" t="n">
+        <v>45477</v>
+      </c>
+      <c r="CL1" s="53" t="n">
+        <v>45478</v>
+      </c>
+      <c r="CM1" s="53" t="n">
+        <v>45479</v>
+      </c>
+      <c r="CN1" s="53" t="n">
+        <v>45480</v>
+      </c>
+      <c r="CO1" s="53" t="n">
+        <v>45481</v>
+      </c>
+      <c r="CP1" s="53" t="n">
+        <v>45482</v>
+      </c>
+      <c r="CQ1" s="53" t="n">
+        <v>45483</v>
+      </c>
+      <c r="CR1" s="53" t="n">
+        <v>45484</v>
+      </c>
+      <c r="CS1" s="53" t="n">
+        <v>45485</v>
+      </c>
+      <c r="CT1" s="53" t="n">
+        <v>45486</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4779,6 +6282,61 @@
       <c r="H2" s="4" t="n">
         <v>4</v>
       </c>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="BD2" s="72"/>
+      <c r="BE2" s="72"/>
+      <c r="BG2" s="73"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="72"/>
+      <c r="BS2" s="72"/>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="72"/>
+      <c r="BZ2" s="72"/>
+      <c r="CA2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1"/>
+      <c r="CD2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CF2" s="72"/>
+      <c r="CG2" s="72"/>
+      <c r="CH2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="1"/>
+      <c r="CL2" s="1"/>
+      <c r="CM2" s="72"/>
+      <c r="CN2" s="72"/>
+      <c r="CO2" s="1"/>
+      <c r="CP2" s="1"/>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="1"/>
+      <c r="CS2" s="1"/>
+      <c r="CT2" s="72"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -4797,6 +6355,67 @@
       <c r="H3" s="4" t="n">
         <v>9</v>
       </c>
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="73"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BG3" s="73"/>
+      <c r="BK3" s="72"/>
+      <c r="BL3" s="72"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="72"/>
+      <c r="BS3" s="72"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="72"/>
+      <c r="BZ3" s="72"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="72"/>
+      <c r="CG3" s="72"/>
+      <c r="CH3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="1"/>
+      <c r="CL3" s="1"/>
+      <c r="CM3" s="72"/>
+      <c r="CN3" s="72"/>
+      <c r="CO3" s="1"/>
+      <c r="CP3" s="1"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1"/>
+      <c r="CT3" s="72"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -4815,6 +6434,65 @@
       <c r="H4" s="4" t="n">
         <v>7</v>
       </c>
+      <c r="M4" s="71"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="71"/>
+      <c r="Z4" s="73"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AP4" s="72"/>
+      <c r="AQ4" s="72"/>
+      <c r="AW4" s="72"/>
+      <c r="AX4" s="72"/>
+      <c r="BD4" s="72"/>
+      <c r="BE4" s="72"/>
+      <c r="BG4" s="73"/>
+      <c r="BK4" s="72"/>
+      <c r="BL4" s="72"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="72"/>
+      <c r="BS4" s="72"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BY4" s="72"/>
+      <c r="BZ4" s="72"/>
+      <c r="CA4" s="1"/>
+      <c r="CB4" s="1"/>
+      <c r="CC4" s="1"/>
+      <c r="CD4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CF4" s="72"/>
+      <c r="CG4" s="72"/>
+      <c r="CH4" s="1"/>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="1"/>
+      <c r="CK4" s="1"/>
+      <c r="CL4" s="1"/>
+      <c r="CM4" s="72"/>
+      <c r="CN4" s="72"/>
+      <c r="CO4" s="1"/>
+      <c r="CP4" s="1"/>
+      <c r="CQ4" s="1"/>
+      <c r="CR4" s="1"/>
+      <c r="CS4" s="1"/>
+      <c r="CT4" s="72"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -4833,6 +6511,73 @@
       <c r="H5" s="4" t="n">
         <v>15</v>
       </c>
+      <c r="M5" s="71"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="71"/>
+      <c r="AE5" s="71"/>
+      <c r="AF5" s="71"/>
+      <c r="AG5" s="71"/>
+      <c r="AH5" s="71"/>
+      <c r="AI5" s="72"/>
+      <c r="AJ5" s="72"/>
+      <c r="AP5" s="72"/>
+      <c r="AQ5" s="72"/>
+      <c r="AW5" s="72"/>
+      <c r="AX5" s="72"/>
+      <c r="BD5" s="72"/>
+      <c r="BE5" s="72"/>
+      <c r="BG5" s="73"/>
+      <c r="BK5" s="72"/>
+      <c r="BL5" s="72"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="72"/>
+      <c r="BS5" s="72"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="72"/>
+      <c r="BZ5" s="72"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="72"/>
+      <c r="CG5" s="72"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="1"/>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="72"/>
+      <c r="CN5" s="72"/>
+      <c r="CO5" s="1"/>
+      <c r="CP5" s="1"/>
+      <c r="CQ5" s="1"/>
+      <c r="CR5" s="1"/>
+      <c r="CS5" s="1"/>
+      <c r="CT5" s="72"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -4851,6 +6596,72 @@
       <c r="H6" s="4" t="n">
         <v>15</v>
       </c>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="72"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="71"/>
+      <c r="AL6" s="71"/>
+      <c r="AM6" s="71"/>
+      <c r="AN6" s="71"/>
+      <c r="AO6" s="71"/>
+      <c r="AP6" s="72"/>
+      <c r="AQ6" s="72"/>
+      <c r="AR6" s="71"/>
+      <c r="AW6" s="72"/>
+      <c r="AX6" s="72"/>
+      <c r="BD6" s="72"/>
+      <c r="BE6" s="72"/>
+      <c r="BG6" s="73"/>
+      <c r="BK6" s="72"/>
+      <c r="BL6" s="72"/>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
+      <c r="BO6" s="1"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="1"/>
+      <c r="BR6" s="72"/>
+      <c r="BS6" s="72"/>
+      <c r="BT6" s="1"/>
+      <c r="BU6" s="1"/>
+      <c r="BV6" s="1"/>
+      <c r="BW6" s="1"/>
+      <c r="BX6" s="1"/>
+      <c r="BY6" s="72"/>
+      <c r="BZ6" s="72"/>
+      <c r="CA6" s="1"/>
+      <c r="CB6" s="1"/>
+      <c r="CC6" s="1"/>
+      <c r="CD6" s="1"/>
+      <c r="CE6" s="1"/>
+      <c r="CF6" s="72"/>
+      <c r="CG6" s="72"/>
+      <c r="CH6" s="1"/>
+      <c r="CI6" s="1"/>
+      <c r="CJ6" s="1"/>
+      <c r="CK6" s="1"/>
+      <c r="CL6" s="1"/>
+      <c r="CM6" s="72"/>
+      <c r="CN6" s="72"/>
+      <c r="CO6" s="1"/>
+      <c r="CP6" s="1"/>
+      <c r="CQ6" s="1"/>
+      <c r="CR6" s="1"/>
+      <c r="CS6" s="1"/>
+      <c r="CT6" s="72"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -4869,6 +6680,72 @@
       <c r="H7" s="4" t="n">
         <v>13</v>
       </c>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="Z7" s="73"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="71"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="71"/>
+      <c r="AN7" s="71"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="72"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="71"/>
+      <c r="AS7" s="71"/>
+      <c r="AT7" s="71"/>
+      <c r="AU7" s="71"/>
+      <c r="AV7" s="71"/>
+      <c r="AW7" s="72"/>
+      <c r="AX7" s="72"/>
+      <c r="AY7" s="71"/>
+      <c r="AZ7" s="71"/>
+      <c r="BA7" s="71"/>
+      <c r="BD7" s="72"/>
+      <c r="BE7" s="72"/>
+      <c r="BG7" s="73"/>
+      <c r="BK7" s="72"/>
+      <c r="BL7" s="72"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="72"/>
+      <c r="BS7" s="72"/>
+      <c r="BT7" s="1"/>
+      <c r="BU7" s="1"/>
+      <c r="BV7" s="1"/>
+      <c r="BW7" s="1"/>
+      <c r="BX7" s="1"/>
+      <c r="BY7" s="72"/>
+      <c r="BZ7" s="72"/>
+      <c r="CA7" s="1"/>
+      <c r="CB7" s="1"/>
+      <c r="CC7" s="1"/>
+      <c r="CD7" s="1"/>
+      <c r="CE7" s="1"/>
+      <c r="CF7" s="72"/>
+      <c r="CG7" s="72"/>
+      <c r="CH7" s="1"/>
+      <c r="CI7" s="1"/>
+      <c r="CJ7" s="1"/>
+      <c r="CK7" s="1"/>
+      <c r="CL7" s="1"/>
+      <c r="CM7" s="72"/>
+      <c r="CN7" s="72"/>
+      <c r="CO7" s="1"/>
+      <c r="CP7" s="1"/>
+      <c r="CQ7" s="1"/>
+      <c r="CR7" s="1"/>
+      <c r="CS7" s="1"/>
+      <c r="CT7" s="72"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -4891,6 +6768,69 @@
       <c r="H8" s="4" t="n">
         <v>11</v>
       </c>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AW8" s="72"/>
+      <c r="AX8" s="72"/>
+      <c r="BD8" s="72"/>
+      <c r="BE8" s="72"/>
+      <c r="BG8" s="73"/>
+      <c r="BK8" s="72"/>
+      <c r="BL8" s="72"/>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="1"/>
+      <c r="BP8" s="1"/>
+      <c r="BQ8" s="1"/>
+      <c r="BR8" s="72"/>
+      <c r="BS8" s="72"/>
+      <c r="BT8" s="1"/>
+      <c r="BU8" s="1"/>
+      <c r="BV8" s="1"/>
+      <c r="BW8" s="1"/>
+      <c r="BX8" s="1"/>
+      <c r="BY8" s="72"/>
+      <c r="BZ8" s="72"/>
+      <c r="CA8" s="1"/>
+      <c r="CB8" s="1"/>
+      <c r="CC8" s="1"/>
+      <c r="CD8" s="1"/>
+      <c r="CE8" s="1"/>
+      <c r="CF8" s="72"/>
+      <c r="CG8" s="72"/>
+      <c r="CH8" s="1"/>
+      <c r="CI8" s="1"/>
+      <c r="CJ8" s="1"/>
+      <c r="CK8" s="1"/>
+      <c r="CL8" s="1"/>
+      <c r="CM8" s="72"/>
+      <c r="CN8" s="72"/>
+      <c r="CO8" s="1"/>
+      <c r="CP8" s="1"/>
+      <c r="CQ8" s="1"/>
+      <c r="CR8" s="1"/>
+      <c r="CS8" s="1"/>
+      <c r="CT8" s="72"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -4911,6 +6851,65 @@
       <c r="H9" s="4" t="n">
         <v>7</v>
       </c>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="Z9" s="73"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AI9" s="72"/>
+      <c r="AJ9" s="72"/>
+      <c r="AP9" s="72"/>
+      <c r="AQ9" s="72"/>
+      <c r="AW9" s="72"/>
+      <c r="AX9" s="72"/>
+      <c r="BA9" s="74"/>
+      <c r="BB9" s="71"/>
+      <c r="BC9" s="71"/>
+      <c r="BD9" s="72"/>
+      <c r="BE9" s="72"/>
+      <c r="BF9" s="71"/>
+      <c r="BG9" s="73"/>
+      <c r="BH9" s="71"/>
+      <c r="BI9" s="71"/>
+      <c r="BJ9" s="71"/>
+      <c r="BK9" s="72"/>
+      <c r="BL9" s="72"/>
+      <c r="BM9" s="1"/>
+      <c r="BN9" s="1"/>
+      <c r="BO9" s="1"/>
+      <c r="BP9" s="1"/>
+      <c r="BQ9" s="1"/>
+      <c r="BR9" s="72"/>
+      <c r="BS9" s="72"/>
+      <c r="BT9" s="1"/>
+      <c r="BU9" s="1"/>
+      <c r="BV9" s="1"/>
+      <c r="BW9" s="1"/>
+      <c r="BX9" s="1"/>
+      <c r="BY9" s="72"/>
+      <c r="BZ9" s="72"/>
+      <c r="CA9" s="1"/>
+      <c r="CB9" s="1"/>
+      <c r="CC9" s="1"/>
+      <c r="CD9" s="1"/>
+      <c r="CE9" s="1"/>
+      <c r="CF9" s="72"/>
+      <c r="CG9" s="72"/>
+      <c r="CH9" s="1"/>
+      <c r="CI9" s="1"/>
+      <c r="CJ9" s="1"/>
+      <c r="CK9" s="1"/>
+      <c r="CL9" s="1"/>
+      <c r="CM9" s="72"/>
+      <c r="CN9" s="72"/>
+      <c r="CO9" s="1"/>
+      <c r="CP9" s="1"/>
+      <c r="CQ9" s="1"/>
+      <c r="CR9" s="1"/>
+      <c r="CS9" s="1"/>
+      <c r="CT9" s="72"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -4919,9 +6918,7 @@
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="6" t="s">
         <v>7</v>
@@ -4931,6 +6928,61 @@
       <c r="H10" s="4" t="n">
         <v>10</v>
       </c>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="Z10" s="73"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="72"/>
+      <c r="AO10" s="0"/>
+      <c r="AP10" s="72"/>
+      <c r="AQ10" s="72"/>
+      <c r="AR10" s="71"/>
+      <c r="AS10" s="71"/>
+      <c r="AT10" s="71"/>
+      <c r="AU10" s="71"/>
+      <c r="AV10" s="71"/>
+      <c r="AW10" s="72"/>
+      <c r="AX10" s="72"/>
+      <c r="AY10" s="71"/>
+      <c r="AZ10" s="71"/>
+      <c r="BA10" s="71"/>
+      <c r="BB10" s="71"/>
+      <c r="BC10" s="71"/>
+      <c r="BD10" s="72"/>
+      <c r="BE10" s="72"/>
+      <c r="BG10" s="73"/>
+      <c r="BJ10" s="0"/>
+      <c r="BK10" s="72"/>
+      <c r="BL10" s="72"/>
+      <c r="BR10" s="72"/>
+      <c r="BS10" s="72"/>
+      <c r="BX10" s="1"/>
+      <c r="BY10" s="72"/>
+      <c r="BZ10" s="72"/>
+      <c r="CA10" s="1"/>
+      <c r="CB10" s="1"/>
+      <c r="CC10" s="1"/>
+      <c r="CD10" s="1"/>
+      <c r="CE10" s="1"/>
+      <c r="CF10" s="72"/>
+      <c r="CG10" s="72"/>
+      <c r="CH10" s="1"/>
+      <c r="CI10" s="1"/>
+      <c r="CJ10" s="1"/>
+      <c r="CK10" s="1"/>
+      <c r="CL10" s="1"/>
+      <c r="CM10" s="72"/>
+      <c r="CN10" s="72"/>
+      <c r="CO10" s="1"/>
+      <c r="CP10" s="1"/>
+      <c r="CQ10" s="1"/>
+      <c r="CR10" s="1"/>
+      <c r="CS10" s="1"/>
+      <c r="CT10" s="72"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
@@ -4949,6 +7001,59 @@
       <c r="H11" s="4" t="n">
         <v>10</v>
       </c>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="Z11" s="73"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AI11" s="72"/>
+      <c r="AJ11" s="72"/>
+      <c r="AP11" s="72"/>
+      <c r="AQ11" s="72"/>
+      <c r="AW11" s="72"/>
+      <c r="AX11" s="72"/>
+      <c r="BD11" s="72"/>
+      <c r="BE11" s="72"/>
+      <c r="BG11" s="73"/>
+      <c r="BJ11" s="74"/>
+      <c r="BK11" s="72"/>
+      <c r="BL11" s="72"/>
+      <c r="BM11" s="71"/>
+      <c r="BN11" s="71"/>
+      <c r="BO11" s="71"/>
+      <c r="BP11" s="71"/>
+      <c r="BQ11" s="71"/>
+      <c r="BR11" s="72"/>
+      <c r="BS11" s="72"/>
+      <c r="BT11" s="71"/>
+      <c r="BU11" s="71"/>
+      <c r="BV11" s="71"/>
+      <c r="BW11" s="71"/>
+      <c r="BX11" s="71"/>
+      <c r="BY11" s="72"/>
+      <c r="BZ11" s="72"/>
+      <c r="CA11" s="1"/>
+      <c r="CB11" s="1"/>
+      <c r="CC11" s="1"/>
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="1"/>
+      <c r="CF11" s="72"/>
+      <c r="CG11" s="72"/>
+      <c r="CH11" s="1"/>
+      <c r="CI11" s="1"/>
+      <c r="CJ11" s="1"/>
+      <c r="CK11" s="1"/>
+      <c r="CL11" s="1"/>
+      <c r="CM11" s="72"/>
+      <c r="CN11" s="72"/>
+      <c r="CO11" s="1"/>
+      <c r="CP11" s="1"/>
+      <c r="CQ11" s="1"/>
+      <c r="CR11" s="1"/>
+      <c r="CS11" s="1"/>
+      <c r="CT11" s="72"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
@@ -4967,6 +7072,57 @@
       <c r="H12" s="4" t="n">
         <v>4</v>
       </c>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="Z12" s="73"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="72"/>
+      <c r="AP12" s="72"/>
+      <c r="AQ12" s="72"/>
+      <c r="AW12" s="72"/>
+      <c r="AX12" s="72"/>
+      <c r="BD12" s="72"/>
+      <c r="BE12" s="72"/>
+      <c r="BG12" s="73"/>
+      <c r="BK12" s="72"/>
+      <c r="BL12" s="72"/>
+      <c r="BM12" s="1"/>
+      <c r="BN12" s="1"/>
+      <c r="BO12" s="1"/>
+      <c r="BP12" s="1"/>
+      <c r="BQ12" s="1"/>
+      <c r="BR12" s="72"/>
+      <c r="BS12" s="72"/>
+      <c r="BT12" s="1"/>
+      <c r="BU12" s="1"/>
+      <c r="BV12" s="1"/>
+      <c r="BW12" s="1"/>
+      <c r="BY12" s="72"/>
+      <c r="BZ12" s="72"/>
+      <c r="CA12" s="71"/>
+      <c r="CB12" s="71"/>
+      <c r="CC12" s="71"/>
+      <c r="CD12" s="71"/>
+      <c r="CE12" s="1"/>
+      <c r="CF12" s="72"/>
+      <c r="CG12" s="72"/>
+      <c r="CH12" s="1"/>
+      <c r="CI12" s="1"/>
+      <c r="CJ12" s="1"/>
+      <c r="CK12" s="1"/>
+      <c r="CL12" s="1"/>
+      <c r="CM12" s="72"/>
+      <c r="CN12" s="72"/>
+      <c r="CO12" s="1"/>
+      <c r="CP12" s="1"/>
+      <c r="CQ12" s="1"/>
+      <c r="CR12" s="1"/>
+      <c r="CS12" s="1"/>
+      <c r="CT12" s="72"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="n">
@@ -5021,7 +7177,7 @@
       <c r="I15" s="26"/>
       <c r="J15" s="27"/>
       <c r="K15" s="26"/>
-      <c r="L15" s="58"/>
+      <c r="L15" s="66"/>
       <c r="M15" s="27"/>
       <c r="N15" s="26"/>
       <c r="O15" s="27"/>
@@ -5077,8 +7233,8 @@
         <f aca="false">U14-R14</f>
         <v>0</v>
       </c>
-      <c r="S16" s="57"/>
-      <c r="T16" s="63"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="75"/>
       <c r="U16" s="28" t="n">
         <f aca="false">VLOOKUP(U15,$A$2:$H$12,8)</f>
         <v>10</v>
@@ -5091,7 +7247,7 @@
         <f aca="false">Z17-W14</f>
         <v>15</v>
       </c>
-      <c r="X16" s="64"/>
+      <c r="X16" s="76"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="33" t="n">
@@ -5118,7 +7274,7 @@
         <v>28</v>
       </c>
       <c r="Q17" s="23"/>
-      <c r="R17" s="65" t="n">
+      <c r="R17" s="77" t="n">
         <f aca="false">U17</f>
         <v>39</v>
       </c>
@@ -5131,7 +7287,7 @@
         <f aca="false">Z20</f>
         <v>49</v>
       </c>
-      <c r="X17" s="66"/>
+      <c r="X17" s="78"/>
       <c r="Y17" s="37"/>
       <c r="Z17" s="22" t="n">
         <f aca="false">MAX(W14,W20)</f>
@@ -5144,7 +7300,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="59"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="36"/>
       <c r="Z18" s="25" t="s">
         <v>7</v>
@@ -5207,7 +7363,7 @@
         <f aca="false">U20+U22</f>
         <v>49</v>
       </c>
-      <c r="X20" s="66"/>
+      <c r="X20" s="78"/>
       <c r="Z20" s="33" t="n">
         <f aca="false">AB20-Z19</f>
         <v>49</v>
@@ -5236,18 +7392,18 @@
       <c r="M21" s="25"/>
       <c r="N21" s="26"/>
       <c r="O21" s="27"/>
-      <c r="P21" s="61" t="s">
+      <c r="P21" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="62" t="s">
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
       <c r="X21" s="38"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5264,7 +7420,7 @@
         <f aca="false">K20-H20</f>
         <v>0</v>
       </c>
-      <c r="I22" s="57"/>
+      <c r="I22" s="62"/>
       <c r="K22" s="28" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$H$12,8)</f>
         <v>15</v>
@@ -5310,7 +7466,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="23"/>
-      <c r="H23" s="65" t="n">
+      <c r="H23" s="77" t="n">
         <f aca="false">K23</f>
         <v>17</v>
       </c>
@@ -5319,7 +7475,7 @@
         <v>17</v>
       </c>
       <c r="L23" s="23"/>
-      <c r="M23" s="65" t="n">
+      <c r="M23" s="77" t="n">
         <f aca="false">P23</f>
         <v>32</v>
       </c>
@@ -5329,7 +7485,7 @@
         <v>32</v>
       </c>
       <c r="Q23" s="23"/>
-      <c r="R23" s="65" t="n">
+      <c r="R23" s="77" t="n">
         <f aca="false">U23</f>
         <v>39</v>
       </c>
@@ -5375,20 +7531,20 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="36"/>
-      <c r="D27" s="60"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="27"/>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="62" t="s">
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
       <c r="N27" s="38"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5423,7 +7579,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="23"/>
-      <c r="H29" s="65" t="n">
+      <c r="H29" s="77" t="n">
         <f aca="false">K29</f>
         <v>19</v>
       </c>
@@ -5508,6 +7664,11 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I1:CT1">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5531,119 +7692,119 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="79" width="25.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="21" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="79" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="67" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B2" s="21" t="s">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="79" t="n">
+        <v>45022</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="67" t="n">
-        <v>45022</v>
-      </c>
-      <c r="B3" s="21" t="s">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="79" t="n">
+        <v>45023</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="67" t="n">
-        <v>45023</v>
-      </c>
-      <c r="B4" s="21" t="s">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="79" t="n">
+        <v>45025</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="67" t="n">
-        <v>45025</v>
-      </c>
-      <c r="B5" s="21" t="s">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="79" t="n">
+        <v>45026</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="67" t="n">
-        <v>45026</v>
-      </c>
-      <c r="B6" s="21" t="s">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="79" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="67" t="n">
-        <v>45047</v>
-      </c>
-      <c r="B7" s="21" t="s">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="79" t="n">
+        <v>45071</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="67" t="n">
-        <v>45071</v>
-      </c>
-      <c r="B8" s="21" t="s">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="79" t="n">
+        <v>45081</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="67" t="n">
-        <v>45081</v>
-      </c>
-      <c r="B9" s="21" t="s">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="79" t="n">
+        <v>45082</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="67" t="n">
-        <v>45082</v>
-      </c>
-      <c r="B10" s="21" t="s">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="79" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="67" t="n">
-        <v>45202</v>
-      </c>
-      <c r="B11" s="21" t="s">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="79" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="67" t="n">
-        <v>45230</v>
-      </c>
-      <c r="B12" s="21" t="s">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="79" t="n">
+        <v>45285</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="67" t="n">
-        <v>45285</v>
-      </c>
-      <c r="B13" s="21" t="s">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="79" t="n">
+        <v>45286</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="67" t="n">
-        <v>45286</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Übung2" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Übung3" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Übung 4" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Übung 4" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Übung3" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="FeiertageMV" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -457,7 +457,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,13 +503,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.5"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FF8E86AE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.25"/>
-        <bgColor rgb="FF339966"/>
+        <bgColor rgb="FF666666"/>
       </patternFill>
     </fill>
     <fill>
@@ -540,6 +540,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFED7D31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E86AE"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6B5E9B"/>
+        <bgColor rgb="FF666666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666666"/>
+        <bgColor rgb="FF6B5E9B"/>
       </patternFill>
     </fill>
   </fills>
@@ -658,27 +682,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium"/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right style="hair"/>
       <top style="medium"/>
       <bottom/>
@@ -696,6 +699,27 @@
       <right style="medium"/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -726,7 +750,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="84">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -943,10 +967,30 @@
       <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -955,10 +999,42 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -971,32 +1047,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="168" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1436,7 +1512,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF3465A4"/>
       <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -1460,10 +1536,10 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFED7D31"/>
-      <rgbColor rgb="FF3465A4"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF6B5E9B"/>
+      <rgbColor rgb="FF8E86AE"/>
       <rgbColor rgb="FF203864"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF443205"/>
       <rgbColor rgb="FF843C0B"/>
@@ -3147,7 +3223,9 @@
   <dimension ref="A1:AX27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <pane xSplit="8" ySplit="0" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="Y12" activeCellId="0" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3321,43 +3399,43 @@
       <c r="K2" s="54"/>
       <c r="L2" s="54"/>
       <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
       <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -3376,48 +3454,48 @@
       <c r="H3" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="56"/>
       <c r="Q3" s="54"/>
       <c r="R3" s="54"/>
       <c r="S3" s="54"/>
       <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
       <c r="W3" s="54"/>
       <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
+      <c r="Y3" s="57"/>
       <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="54"/>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="54"/>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="59"/>
+      <c r="AX3" s="59"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -3438,48 +3516,48 @@
       <c r="H4" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="56"/>
       <c r="Q4" s="54"/>
       <c r="R4" s="54"/>
       <c r="S4" s="54"/>
       <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
       <c r="W4" s="54"/>
       <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
+      <c r="Y4" s="57"/>
       <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="54"/>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="54"/>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="56"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -3498,48 +3576,48 @@
       <c r="H5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="56"/>
       <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
       <c r="AD5" s="54"/>
       <c r="AE5" s="54"/>
       <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="54"/>
-      <c r="AJ5" s="54"/>
-      <c r="AK5" s="54"/>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="54"/>
-      <c r="AN5" s="54"/>
-      <c r="AO5" s="54"/>
-      <c r="AP5" s="54"/>
-      <c r="AQ5" s="54"/>
-      <c r="AR5" s="54"/>
-      <c r="AS5" s="54"/>
-      <c r="AT5" s="54"/>
-      <c r="AU5" s="54"/>
-      <c r="AV5" s="54"/>
-      <c r="AW5" s="54"/>
-      <c r="AX5" s="54"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="58"/>
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="59"/>
+      <c r="AX5" s="59"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -3558,48 +3636,48 @@
       <c r="H6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="56"/>
       <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
       <c r="AD6" s="54"/>
       <c r="AE6" s="54"/>
       <c r="AF6" s="54"/>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="54"/>
-      <c r="AI6" s="54"/>
-      <c r="AJ6" s="54"/>
-      <c r="AK6" s="54"/>
-      <c r="AL6" s="54"/>
-      <c r="AM6" s="54"/>
-      <c r="AN6" s="54"/>
-      <c r="AO6" s="54"/>
-      <c r="AP6" s="54"/>
-      <c r="AQ6" s="54"/>
-      <c r="AR6" s="54"/>
-      <c r="AS6" s="54"/>
-      <c r="AT6" s="54"/>
-      <c r="AU6" s="54"/>
-      <c r="AV6" s="54"/>
-      <c r="AW6" s="54"/>
-      <c r="AX6" s="54"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="56"/>
+      <c r="AO6" s="56"/>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="58"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="56"/>
+      <c r="AW6" s="59"/>
+      <c r="AX6" s="59"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -3618,48 +3696,48 @@
       <c r="H7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="56"/>
       <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
       <c r="AD7" s="54"/>
       <c r="AE7" s="54"/>
       <c r="AF7" s="54"/>
-      <c r="AG7" s="54"/>
+      <c r="AG7" s="58"/>
       <c r="AH7" s="54"/>
-      <c r="AI7" s="54"/>
-      <c r="AJ7" s="54"/>
-      <c r="AK7" s="54"/>
-      <c r="AL7" s="54"/>
-      <c r="AM7" s="54"/>
-      <c r="AN7" s="54"/>
-      <c r="AO7" s="54"/>
-      <c r="AP7" s="54"/>
-      <c r="AQ7" s="54"/>
-      <c r="AR7" s="54"/>
-      <c r="AS7" s="54"/>
-      <c r="AT7" s="54"/>
-      <c r="AU7" s="54"/>
-      <c r="AV7" s="54"/>
-      <c r="AW7" s="54"/>
-      <c r="AX7" s="54"/>
+      <c r="AI7" s="55"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+      <c r="AN7" s="56"/>
+      <c r="AO7" s="56"/>
+      <c r="AP7" s="59"/>
+      <c r="AQ7" s="59"/>
+      <c r="AR7" s="58"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="56"/>
+      <c r="AW7" s="59"/>
+      <c r="AX7" s="59"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -3679,51 +3757,51 @@
         <v>23</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="55" t="n">
+      <c r="H8" s="60" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="58"/>
       <c r="AH8" s="54"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="54"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
       <c r="AK8" s="54"/>
       <c r="AL8" s="54"/>
-      <c r="AM8" s="54"/>
-      <c r="AN8" s="54"/>
-      <c r="AO8" s="54"/>
-      <c r="AP8" s="54"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
-      <c r="AT8" s="54"/>
-      <c r="AU8" s="54"/>
-      <c r="AV8" s="54"/>
-      <c r="AW8" s="54"/>
-      <c r="AX8" s="54"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="59"/>
+      <c r="AQ8" s="59"/>
+      <c r="AR8" s="58"/>
+      <c r="AS8" s="56"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="56"/>
+      <c r="AV8" s="56"/>
+      <c r="AW8" s="59"/>
+      <c r="AX8" s="59"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -3744,48 +3822,48 @@
       <c r="H9" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="54"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="55"/>
       <c r="AK9" s="54"/>
       <c r="AL9" s="54"/>
       <c r="AM9" s="54"/>
       <c r="AN9" s="54"/>
       <c r="AO9" s="54"/>
-      <c r="AP9" s="54"/>
-      <c r="AQ9" s="54"/>
-      <c r="AR9" s="54"/>
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="59"/>
+      <c r="AR9" s="58"/>
       <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="56"/>
+      <c r="AW9" s="59"/>
+      <c r="AX9" s="59"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -3802,48 +3880,48 @@
       <c r="H10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="56"/>
-      <c r="AH10" s="56"/>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="56"/>
-      <c r="AK10" s="56"/>
-      <c r="AL10" s="56"/>
-      <c r="AM10" s="56"/>
-      <c r="AN10" s="56"/>
-      <c r="AO10" s="56"/>
-      <c r="AP10" s="56"/>
-      <c r="AQ10" s="56"/>
-      <c r="AR10" s="56"/>
-      <c r="AS10" s="56"/>
-      <c r="AT10" s="56"/>
-      <c r="AU10" s="56"/>
-      <c r="AV10" s="56"/>
-      <c r="AW10" s="56"/>
-      <c r="AX10" s="56"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="62"/>
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="61"/>
+      <c r="AL10" s="61"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="61"/>
+      <c r="AO10" s="61"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="66"/>
+      <c r="AV10" s="61"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="n">
@@ -3951,7 +4029,7 @@
         <v>4</v>
       </c>
       <c r="R14" s="43"/>
-      <c r="S14" s="57"/>
+      <c r="S14" s="67"/>
       <c r="T14" s="32"/>
       <c r="U14" s="28" t="n">
         <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
@@ -4223,8 +4301,13 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:AX1">
+  <conditionalFormatting sqref="K1:AX1">
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>IF(OR(WEEKDAY(K$1)=7,WEEKDAY(K$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:J1">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4243,21 +4326,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CU27"/>
+  <dimension ref="A1:CT29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="0" topLeftCell="BT1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="0" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topRight" activeCell="BE13" activeCellId="0" sqref="BE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="1" style="1" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="44" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="9" style="1" width="3.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4543,9 +4626,6 @@
       </c>
       <c r="CT1" s="53" t="n">
         <v>45486</v>
-      </c>
-      <c r="CU1" s="53" t="n">
-        <v>45487</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4565,99 +4645,98 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I2" s="54"/>
       <c r="J2" s="54"/>
       <c r="K2" s="54"/>
       <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="54"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="54"/>
-      <c r="BB2" s="54"/>
-      <c r="BC2" s="54"/>
-      <c r="BD2" s="54"/>
-      <c r="BE2" s="54"/>
-      <c r="BF2" s="54"/>
-      <c r="BG2" s="54"/>
-      <c r="BH2" s="54"/>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="54"/>
-      <c r="BK2" s="54"/>
-      <c r="BL2" s="54"/>
-      <c r="BM2" s="54"/>
-      <c r="BN2" s="54"/>
-      <c r="BO2" s="54"/>
-      <c r="BP2" s="54"/>
-      <c r="BQ2" s="54"/>
-      <c r="BR2" s="54"/>
-      <c r="BS2" s="54"/>
-      <c r="BT2" s="54"/>
-      <c r="BU2" s="54"/>
-      <c r="BV2" s="54"/>
-      <c r="BW2" s="54"/>
-      <c r="BX2" s="54"/>
-      <c r="BY2" s="54"/>
-      <c r="BZ2" s="54"/>
-      <c r="CA2" s="54"/>
-      <c r="CB2" s="54"/>
-      <c r="CC2" s="54"/>
-      <c r="CD2" s="54"/>
-      <c r="CE2" s="54"/>
-      <c r="CF2" s="54"/>
-      <c r="CG2" s="54"/>
-      <c r="CH2" s="54"/>
-      <c r="CI2" s="54"/>
-      <c r="CJ2" s="54"/>
-      <c r="CK2" s="54"/>
-      <c r="CL2" s="54"/>
-      <c r="CM2" s="54"/>
-      <c r="CN2" s="54"/>
-      <c r="CO2" s="54"/>
-      <c r="CP2" s="54"/>
-      <c r="CQ2" s="54"/>
-      <c r="CR2" s="54"/>
-      <c r="CS2" s="54"/>
-      <c r="CT2" s="54"/>
-      <c r="CU2" s="54"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="69"/>
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="69"/>
+      <c r="BJ2" s="69"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="69"/>
+      <c r="BP2" s="69"/>
+      <c r="BQ2" s="69"/>
+      <c r="BR2" s="70"/>
+      <c r="BS2" s="70"/>
+      <c r="BT2" s="69"/>
+      <c r="BU2" s="69"/>
+      <c r="BV2" s="69"/>
+      <c r="BW2" s="69"/>
+      <c r="BX2" s="69"/>
+      <c r="BY2" s="70"/>
+      <c r="BZ2" s="70"/>
+      <c r="CA2" s="69"/>
+      <c r="CB2" s="69"/>
+      <c r="CC2" s="69"/>
+      <c r="CD2" s="69"/>
+      <c r="CE2" s="69"/>
+      <c r="CF2" s="70"/>
+      <c r="CG2" s="70"/>
+      <c r="CH2" s="69"/>
+      <c r="CI2" s="69"/>
+      <c r="CJ2" s="69"/>
+      <c r="CK2" s="69"/>
+      <c r="CL2" s="69"/>
+      <c r="CM2" s="70"/>
+      <c r="CN2" s="70"/>
+      <c r="CO2" s="69"/>
+      <c r="CP2" s="69"/>
+      <c r="CQ2" s="69"/>
+      <c r="CR2" s="69"/>
+      <c r="CS2" s="69"/>
+      <c r="CT2" s="70"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -4669,104 +4748,103 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
+        <v>9</v>
+      </c>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
       <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
       <c r="P3" s="54"/>
       <c r="Q3" s="54"/>
       <c r="R3" s="54"/>
       <c r="S3" s="54"/>
       <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
       <c r="W3" s="54"/>
       <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
+      <c r="Y3" s="57"/>
       <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="54"/>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="54"/>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="54"/>
-      <c r="AZ3" s="54"/>
-      <c r="BA3" s="54"/>
-      <c r="BB3" s="54"/>
-      <c r="BC3" s="54"/>
-      <c r="BD3" s="54"/>
-      <c r="BE3" s="54"/>
-      <c r="BF3" s="54"/>
-      <c r="BG3" s="54"/>
-      <c r="BH3" s="54"/>
-      <c r="BI3" s="54"/>
-      <c r="BJ3" s="54"/>
-      <c r="BK3" s="54"/>
-      <c r="BL3" s="54"/>
-      <c r="BM3" s="54"/>
-      <c r="BN3" s="54"/>
-      <c r="BO3" s="54"/>
-      <c r="BP3" s="54"/>
-      <c r="BQ3" s="54"/>
-      <c r="BR3" s="54"/>
-      <c r="BS3" s="54"/>
-      <c r="BT3" s="54"/>
-      <c r="BU3" s="54"/>
-      <c r="BV3" s="54"/>
-      <c r="BW3" s="54"/>
-      <c r="BX3" s="54"/>
-      <c r="BY3" s="54"/>
-      <c r="BZ3" s="54"/>
-      <c r="CA3" s="54"/>
-      <c r="CB3" s="54"/>
-      <c r="CC3" s="54"/>
-      <c r="CD3" s="54"/>
-      <c r="CE3" s="54"/>
-      <c r="CF3" s="54"/>
-      <c r="CG3" s="54"/>
-      <c r="CH3" s="54"/>
-      <c r="CI3" s="54"/>
-      <c r="CJ3" s="54"/>
-      <c r="CK3" s="54"/>
-      <c r="CL3" s="54"/>
-      <c r="CM3" s="54"/>
-      <c r="CN3" s="54"/>
-      <c r="CO3" s="54"/>
-      <c r="CP3" s="54"/>
-      <c r="CQ3" s="54"/>
-      <c r="CR3" s="54"/>
-      <c r="CS3" s="54"/>
-      <c r="CT3" s="54"/>
-      <c r="CU3" s="54"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="59"/>
+      <c r="AX3" s="59"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="56"/>
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="59"/>
+      <c r="BF3" s="56"/>
+      <c r="BG3" s="56"/>
+      <c r="BH3" s="56"/>
+      <c r="BI3" s="56"/>
+      <c r="BJ3" s="56"/>
+      <c r="BK3" s="59"/>
+      <c r="BL3" s="59"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="56"/>
+      <c r="BO3" s="56"/>
+      <c r="BP3" s="56"/>
+      <c r="BQ3" s="56"/>
+      <c r="BR3" s="59"/>
+      <c r="BS3" s="59"/>
+      <c r="BT3" s="56"/>
+      <c r="BU3" s="56"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="56"/>
+      <c r="BX3" s="56"/>
+      <c r="BY3" s="59"/>
+      <c r="BZ3" s="59"/>
+      <c r="CA3" s="56"/>
+      <c r="CB3" s="56"/>
+      <c r="CC3" s="56"/>
+      <c r="CD3" s="56"/>
+      <c r="CE3" s="56"/>
+      <c r="CF3" s="59"/>
+      <c r="CG3" s="59"/>
+      <c r="CH3" s="56"/>
+      <c r="CI3" s="56"/>
+      <c r="CJ3" s="56"/>
+      <c r="CK3" s="56"/>
+      <c r="CL3" s="56"/>
+      <c r="CM3" s="59"/>
+      <c r="CN3" s="59"/>
+      <c r="CO3" s="56"/>
+      <c r="CP3" s="56"/>
+      <c r="CQ3" s="56"/>
+      <c r="CR3" s="56"/>
+      <c r="CS3" s="56"/>
+      <c r="CT3" s="59"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -4783,99 +4861,98 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+        <v>7</v>
+      </c>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
       <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
       <c r="P4" s="54"/>
       <c r="Q4" s="54"/>
       <c r="R4" s="54"/>
       <c r="S4" s="54"/>
       <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
       <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="54"/>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="54"/>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="54"/>
-      <c r="AZ4" s="54"/>
-      <c r="BA4" s="54"/>
-      <c r="BB4" s="54"/>
-      <c r="BC4" s="54"/>
-      <c r="BD4" s="54"/>
-      <c r="BE4" s="54"/>
-      <c r="BF4" s="54"/>
-      <c r="BG4" s="54"/>
-      <c r="BH4" s="54"/>
-      <c r="BI4" s="54"/>
-      <c r="BJ4" s="54"/>
-      <c r="BK4" s="54"/>
-      <c r="BL4" s="54"/>
-      <c r="BM4" s="54"/>
-      <c r="BN4" s="54"/>
-      <c r="BO4" s="54"/>
-      <c r="BP4" s="54"/>
-      <c r="BQ4" s="54"/>
-      <c r="BR4" s="54"/>
-      <c r="BS4" s="54"/>
-      <c r="BT4" s="54"/>
-      <c r="BU4" s="54"/>
-      <c r="BV4" s="54"/>
-      <c r="BW4" s="54"/>
-      <c r="BX4" s="54"/>
-      <c r="BY4" s="54"/>
-      <c r="BZ4" s="54"/>
-      <c r="CA4" s="54"/>
-      <c r="CB4" s="54"/>
-      <c r="CC4" s="54"/>
-      <c r="CD4" s="54"/>
-      <c r="CE4" s="54"/>
-      <c r="CF4" s="54"/>
-      <c r="CG4" s="54"/>
-      <c r="CH4" s="54"/>
-      <c r="CI4" s="54"/>
-      <c r="CJ4" s="54"/>
-      <c r="CK4" s="54"/>
-      <c r="CL4" s="54"/>
-      <c r="CM4" s="54"/>
-      <c r="CN4" s="54"/>
-      <c r="CO4" s="54"/>
-      <c r="CP4" s="54"/>
-      <c r="CQ4" s="54"/>
-      <c r="CR4" s="54"/>
-      <c r="CS4" s="54"/>
-      <c r="CT4" s="54"/>
-      <c r="CU4" s="54"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="56"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="56"/>
+      <c r="BC4" s="56"/>
+      <c r="BD4" s="59"/>
+      <c r="BE4" s="59"/>
+      <c r="BF4" s="56"/>
+      <c r="BG4" s="56"/>
+      <c r="BH4" s="56"/>
+      <c r="BI4" s="56"/>
+      <c r="BJ4" s="56"/>
+      <c r="BK4" s="59"/>
+      <c r="BL4" s="59"/>
+      <c r="BM4" s="56"/>
+      <c r="BN4" s="56"/>
+      <c r="BO4" s="56"/>
+      <c r="BP4" s="56"/>
+      <c r="BQ4" s="56"/>
+      <c r="BR4" s="59"/>
+      <c r="BS4" s="59"/>
+      <c r="BT4" s="56"/>
+      <c r="BU4" s="56"/>
+      <c r="BV4" s="56"/>
+      <c r="BW4" s="56"/>
+      <c r="BX4" s="56"/>
+      <c r="BY4" s="59"/>
+      <c r="BZ4" s="59"/>
+      <c r="CA4" s="56"/>
+      <c r="CB4" s="56"/>
+      <c r="CC4" s="56"/>
+      <c r="CD4" s="56"/>
+      <c r="CE4" s="56"/>
+      <c r="CF4" s="59"/>
+      <c r="CG4" s="59"/>
+      <c r="CH4" s="56"/>
+      <c r="CI4" s="56"/>
+      <c r="CJ4" s="56"/>
+      <c r="CK4" s="56"/>
+      <c r="CL4" s="56"/>
+      <c r="CM4" s="59"/>
+      <c r="CN4" s="59"/>
+      <c r="CO4" s="56"/>
+      <c r="CP4" s="56"/>
+      <c r="CQ4" s="56"/>
+      <c r="CR4" s="56"/>
+      <c r="CS4" s="56"/>
+      <c r="CT4" s="59"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -4892,99 +4969,98 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
+        <v>15</v>
+      </c>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
       <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
       <c r="P5" s="54"/>
       <c r="Q5" s="54"/>
       <c r="R5" s="54"/>
       <c r="S5" s="54"/>
       <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
       <c r="W5" s="54"/>
       <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
+      <c r="Y5" s="57"/>
       <c r="Z5" s="54"/>
       <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
       <c r="AD5" s="54"/>
       <c r="AE5" s="54"/>
       <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
+      <c r="AG5" s="58"/>
       <c r="AH5" s="54"/>
-      <c r="AI5" s="54"/>
-      <c r="AJ5" s="54"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
       <c r="AK5" s="54"/>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="54"/>
-      <c r="AN5" s="54"/>
-      <c r="AO5" s="54"/>
-      <c r="AP5" s="54"/>
-      <c r="AQ5" s="54"/>
-      <c r="AR5" s="54"/>
-      <c r="AS5" s="54"/>
-      <c r="AT5" s="54"/>
-      <c r="AU5" s="54"/>
-      <c r="AV5" s="54"/>
-      <c r="AW5" s="54"/>
-      <c r="AX5" s="54"/>
-      <c r="AY5" s="54"/>
-      <c r="AZ5" s="54"/>
-      <c r="BA5" s="54"/>
-      <c r="BB5" s="54"/>
-      <c r="BC5" s="54"/>
-      <c r="BD5" s="54"/>
-      <c r="BE5" s="54"/>
-      <c r="BF5" s="54"/>
-      <c r="BG5" s="54"/>
-      <c r="BH5" s="54"/>
-      <c r="BI5" s="54"/>
-      <c r="BJ5" s="54"/>
-      <c r="BK5" s="54"/>
-      <c r="BL5" s="54"/>
-      <c r="BM5" s="54"/>
-      <c r="BN5" s="54"/>
-      <c r="BO5" s="54"/>
-      <c r="BP5" s="54"/>
-      <c r="BQ5" s="54"/>
-      <c r="BR5" s="54"/>
-      <c r="BS5" s="54"/>
-      <c r="BT5" s="54"/>
-      <c r="BU5" s="54"/>
-      <c r="BV5" s="54"/>
-      <c r="BW5" s="54"/>
-      <c r="BX5" s="54"/>
-      <c r="BY5" s="54"/>
-      <c r="BZ5" s="54"/>
-      <c r="CA5" s="54"/>
-      <c r="CB5" s="54"/>
-      <c r="CC5" s="54"/>
-      <c r="CD5" s="54"/>
-      <c r="CE5" s="54"/>
-      <c r="CF5" s="54"/>
-      <c r="CG5" s="54"/>
-      <c r="CH5" s="54"/>
-      <c r="CI5" s="54"/>
-      <c r="CJ5" s="54"/>
-      <c r="CK5" s="54"/>
-      <c r="CL5" s="54"/>
-      <c r="CM5" s="54"/>
-      <c r="CN5" s="54"/>
-      <c r="CO5" s="54"/>
-      <c r="CP5" s="54"/>
-      <c r="CQ5" s="54"/>
-      <c r="CR5" s="54"/>
-      <c r="CS5" s="54"/>
-      <c r="CT5" s="54"/>
-      <c r="CU5" s="54"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="58"/>
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="59"/>
+      <c r="AX5" s="59"/>
+      <c r="AY5" s="56"/>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="56"/>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="56"/>
+      <c r="BD5" s="59"/>
+      <c r="BE5" s="59"/>
+      <c r="BF5" s="56"/>
+      <c r="BG5" s="56"/>
+      <c r="BH5" s="56"/>
+      <c r="BI5" s="56"/>
+      <c r="BJ5" s="56"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59"/>
+      <c r="BM5" s="56"/>
+      <c r="BN5" s="56"/>
+      <c r="BO5" s="56"/>
+      <c r="BP5" s="56"/>
+      <c r="BQ5" s="56"/>
+      <c r="BR5" s="59"/>
+      <c r="BS5" s="59"/>
+      <c r="BT5" s="56"/>
+      <c r="BU5" s="56"/>
+      <c r="BV5" s="56"/>
+      <c r="BW5" s="56"/>
+      <c r="BX5" s="56"/>
+      <c r="BY5" s="59"/>
+      <c r="BZ5" s="59"/>
+      <c r="CA5" s="56"/>
+      <c r="CB5" s="56"/>
+      <c r="CC5" s="56"/>
+      <c r="CD5" s="56"/>
+      <c r="CE5" s="56"/>
+      <c r="CF5" s="59"/>
+      <c r="CG5" s="59"/>
+      <c r="CH5" s="56"/>
+      <c r="CI5" s="56"/>
+      <c r="CJ5" s="56"/>
+      <c r="CK5" s="56"/>
+      <c r="CL5" s="56"/>
+      <c r="CM5" s="59"/>
+      <c r="CN5" s="59"/>
+      <c r="CO5" s="56"/>
+      <c r="CP5" s="56"/>
+      <c r="CQ5" s="56"/>
+      <c r="CR5" s="56"/>
+      <c r="CS5" s="56"/>
+      <c r="CT5" s="59"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -5003,97 +5079,96 @@
       <c r="H6" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="56"/>
       <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
+      <c r="Y6" s="57"/>
       <c r="Z6" s="54"/>
       <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
       <c r="AD6" s="54"/>
       <c r="AE6" s="54"/>
       <c r="AF6" s="54"/>
-      <c r="AG6" s="54"/>
+      <c r="AG6" s="58"/>
       <c r="AH6" s="54"/>
-      <c r="AI6" s="54"/>
-      <c r="AJ6" s="54"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
       <c r="AK6" s="54"/>
       <c r="AL6" s="54"/>
       <c r="AM6" s="54"/>
       <c r="AN6" s="54"/>
       <c r="AO6" s="54"/>
-      <c r="AP6" s="54"/>
-      <c r="AQ6" s="54"/>
-      <c r="AR6" s="54"/>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="58"/>
       <c r="AS6" s="54"/>
       <c r="AT6" s="54"/>
       <c r="AU6" s="54"/>
-      <c r="AV6" s="54"/>
-      <c r="AW6" s="54"/>
-      <c r="AX6" s="54"/>
-      <c r="AY6" s="54"/>
-      <c r="AZ6" s="54"/>
-      <c r="BA6" s="54"/>
-      <c r="BB6" s="54"/>
-      <c r="BC6" s="54"/>
-      <c r="BD6" s="54"/>
-      <c r="BE6" s="54"/>
-      <c r="BF6" s="54"/>
-      <c r="BG6" s="54"/>
-      <c r="BH6" s="54"/>
-      <c r="BI6" s="54"/>
-      <c r="BJ6" s="54"/>
-      <c r="BK6" s="54"/>
-      <c r="BL6" s="54"/>
-      <c r="BM6" s="54"/>
-      <c r="BN6" s="54"/>
-      <c r="BO6" s="54"/>
-      <c r="BP6" s="54"/>
-      <c r="BQ6" s="54"/>
-      <c r="BR6" s="54"/>
-      <c r="BS6" s="54"/>
-      <c r="BT6" s="54"/>
-      <c r="BU6" s="54"/>
-      <c r="BV6" s="54"/>
-      <c r="BW6" s="54"/>
-      <c r="BX6" s="54"/>
-      <c r="BY6" s="54"/>
-      <c r="BZ6" s="54"/>
-      <c r="CA6" s="54"/>
-      <c r="CB6" s="54"/>
-      <c r="CC6" s="54"/>
-      <c r="CD6" s="54"/>
-      <c r="CE6" s="54"/>
-      <c r="CF6" s="54"/>
-      <c r="CG6" s="54"/>
-      <c r="CH6" s="54"/>
-      <c r="CI6" s="54"/>
-      <c r="CJ6" s="54"/>
-      <c r="CK6" s="54"/>
-      <c r="CL6" s="54"/>
-      <c r="CM6" s="54"/>
-      <c r="CN6" s="54"/>
-      <c r="CO6" s="54"/>
-      <c r="CP6" s="54"/>
-      <c r="CQ6" s="54"/>
-      <c r="CR6" s="54"/>
-      <c r="CS6" s="54"/>
-      <c r="CT6" s="54"/>
-      <c r="CU6" s="54"/>
+      <c r="AV6" s="56"/>
+      <c r="AW6" s="59"/>
+      <c r="AX6" s="59"/>
+      <c r="AY6" s="56"/>
+      <c r="AZ6" s="56"/>
+      <c r="BA6" s="56"/>
+      <c r="BB6" s="56"/>
+      <c r="BC6" s="56"/>
+      <c r="BD6" s="59"/>
+      <c r="BE6" s="59"/>
+      <c r="BF6" s="56"/>
+      <c r="BG6" s="56"/>
+      <c r="BH6" s="56"/>
+      <c r="BI6" s="56"/>
+      <c r="BJ6" s="56"/>
+      <c r="BK6" s="59"/>
+      <c r="BL6" s="59"/>
+      <c r="BM6" s="56"/>
+      <c r="BN6" s="56"/>
+      <c r="BO6" s="56"/>
+      <c r="BP6" s="56"/>
+      <c r="BQ6" s="56"/>
+      <c r="BR6" s="59"/>
+      <c r="BS6" s="59"/>
+      <c r="BT6" s="56"/>
+      <c r="BU6" s="56"/>
+      <c r="BV6" s="56"/>
+      <c r="BW6" s="56"/>
+      <c r="BX6" s="56"/>
+      <c r="BY6" s="59"/>
+      <c r="BZ6" s="59"/>
+      <c r="CA6" s="56"/>
+      <c r="CB6" s="56"/>
+      <c r="CC6" s="56"/>
+      <c r="CD6" s="56"/>
+      <c r="CE6" s="56"/>
+      <c r="CF6" s="59"/>
+      <c r="CG6" s="59"/>
+      <c r="CH6" s="56"/>
+      <c r="CI6" s="56"/>
+      <c r="CJ6" s="56"/>
+      <c r="CK6" s="56"/>
+      <c r="CL6" s="56"/>
+      <c r="CM6" s="59"/>
+      <c r="CN6" s="59"/>
+      <c r="CO6" s="56"/>
+      <c r="CP6" s="56"/>
+      <c r="CQ6" s="56"/>
+      <c r="CR6" s="56"/>
+      <c r="CS6" s="56"/>
+      <c r="CT6" s="59"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -5110,99 +5185,98 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="54"/>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="54"/>
-      <c r="AI7" s="54"/>
-      <c r="AJ7" s="54"/>
-      <c r="AK7" s="54"/>
+        <v>13</v>
+      </c>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="55"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="56"/>
       <c r="AL7" s="54"/>
       <c r="AM7" s="54"/>
       <c r="AN7" s="54"/>
       <c r="AO7" s="54"/>
-      <c r="AP7" s="54"/>
-      <c r="AQ7" s="54"/>
-      <c r="AR7" s="54"/>
+      <c r="AP7" s="59"/>
+      <c r="AQ7" s="59"/>
+      <c r="AR7" s="58"/>
       <c r="AS7" s="54"/>
       <c r="AT7" s="54"/>
       <c r="AU7" s="54"/>
       <c r="AV7" s="54"/>
-      <c r="AW7" s="54"/>
-      <c r="AX7" s="54"/>
+      <c r="AW7" s="59"/>
+      <c r="AX7" s="59"/>
       <c r="AY7" s="54"/>
       <c r="AZ7" s="54"/>
       <c r="BA7" s="54"/>
       <c r="BB7" s="54"/>
       <c r="BC7" s="54"/>
-      <c r="BD7" s="54"/>
-      <c r="BE7" s="54"/>
-      <c r="BF7" s="54"/>
-      <c r="BG7" s="54"/>
-      <c r="BH7" s="54"/>
-      <c r="BI7" s="54"/>
-      <c r="BJ7" s="54"/>
-      <c r="BK7" s="54"/>
-      <c r="BL7" s="54"/>
-      <c r="BM7" s="54"/>
-      <c r="BN7" s="54"/>
-      <c r="BO7" s="54"/>
-      <c r="BP7" s="54"/>
-      <c r="BQ7" s="54"/>
-      <c r="BR7" s="54"/>
-      <c r="BS7" s="54"/>
-      <c r="BT7" s="54"/>
-      <c r="BU7" s="54"/>
-      <c r="BV7" s="54"/>
-      <c r="BW7" s="54"/>
-      <c r="BX7" s="54"/>
-      <c r="BY7" s="54"/>
-      <c r="BZ7" s="54"/>
-      <c r="CA7" s="54"/>
-      <c r="CB7" s="54"/>
-      <c r="CC7" s="54"/>
-      <c r="CD7" s="54"/>
-      <c r="CE7" s="54"/>
-      <c r="CF7" s="54"/>
-      <c r="CG7" s="54"/>
-      <c r="CH7" s="54"/>
-      <c r="CI7" s="54"/>
-      <c r="CJ7" s="54"/>
-      <c r="CK7" s="54"/>
-      <c r="CL7" s="54"/>
-      <c r="CM7" s="54"/>
-      <c r="CN7" s="54"/>
-      <c r="CO7" s="54"/>
-      <c r="CP7" s="54"/>
-      <c r="CQ7" s="54"/>
-      <c r="CR7" s="54"/>
-      <c r="CS7" s="54"/>
-      <c r="CT7" s="54"/>
-      <c r="CU7" s="54"/>
+      <c r="BD7" s="59"/>
+      <c r="BE7" s="59"/>
+      <c r="BF7" s="56"/>
+      <c r="BG7" s="56"/>
+      <c r="BH7" s="56"/>
+      <c r="BI7" s="56"/>
+      <c r="BJ7" s="56"/>
+      <c r="BK7" s="59"/>
+      <c r="BL7" s="59"/>
+      <c r="BM7" s="56"/>
+      <c r="BN7" s="56"/>
+      <c r="BO7" s="56"/>
+      <c r="BP7" s="56"/>
+      <c r="BQ7" s="56"/>
+      <c r="BR7" s="59"/>
+      <c r="BS7" s="59"/>
+      <c r="BT7" s="56"/>
+      <c r="BU7" s="56"/>
+      <c r="BV7" s="56"/>
+      <c r="BW7" s="56"/>
+      <c r="BX7" s="56"/>
+      <c r="BY7" s="59"/>
+      <c r="BZ7" s="59"/>
+      <c r="CA7" s="56"/>
+      <c r="CB7" s="56"/>
+      <c r="CC7" s="56"/>
+      <c r="CD7" s="56"/>
+      <c r="CE7" s="56"/>
+      <c r="CF7" s="59"/>
+      <c r="CG7" s="59"/>
+      <c r="CH7" s="56"/>
+      <c r="CI7" s="56"/>
+      <c r="CJ7" s="56"/>
+      <c r="CK7" s="56"/>
+      <c r="CL7" s="56"/>
+      <c r="CM7" s="59"/>
+      <c r="CN7" s="59"/>
+      <c r="CO7" s="56"/>
+      <c r="CP7" s="56"/>
+      <c r="CQ7" s="56"/>
+      <c r="CR7" s="56"/>
+      <c r="CS7" s="56"/>
+      <c r="CT7" s="59"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -5223,99 +5297,98 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
+        <v>11</v>
+      </c>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="56"/>
       <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
       <c r="AD8" s="54"/>
       <c r="AE8" s="54"/>
       <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
+      <c r="AG8" s="58"/>
       <c r="AH8" s="54"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="54"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
       <c r="AK8" s="54"/>
       <c r="AL8" s="54"/>
       <c r="AM8" s="54"/>
       <c r="AN8" s="54"/>
       <c r="AO8" s="54"/>
-      <c r="AP8" s="54"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="54"/>
+      <c r="AP8" s="59"/>
+      <c r="AQ8" s="59"/>
+      <c r="AR8" s="58"/>
       <c r="AS8" s="54"/>
-      <c r="AT8" s="54"/>
-      <c r="AU8" s="54"/>
-      <c r="AV8" s="54"/>
-      <c r="AW8" s="54"/>
-      <c r="AX8" s="54"/>
-      <c r="AY8" s="54"/>
-      <c r="AZ8" s="54"/>
-      <c r="BA8" s="54"/>
-      <c r="BB8" s="54"/>
-      <c r="BC8" s="54"/>
-      <c r="BD8" s="54"/>
-      <c r="BE8" s="54"/>
-      <c r="BF8" s="54"/>
-      <c r="BG8" s="54"/>
-      <c r="BH8" s="54"/>
-      <c r="BI8" s="54"/>
-      <c r="BJ8" s="54"/>
-      <c r="BK8" s="54"/>
-      <c r="BL8" s="54"/>
-      <c r="BM8" s="54"/>
-      <c r="BN8" s="54"/>
-      <c r="BO8" s="54"/>
-      <c r="BP8" s="54"/>
-      <c r="BQ8" s="54"/>
-      <c r="BR8" s="54"/>
-      <c r="BS8" s="54"/>
-      <c r="BT8" s="54"/>
-      <c r="BU8" s="54"/>
-      <c r="BV8" s="54"/>
-      <c r="BW8" s="54"/>
-      <c r="BX8" s="54"/>
-      <c r="BY8" s="54"/>
-      <c r="BZ8" s="54"/>
-      <c r="CA8" s="54"/>
-      <c r="CB8" s="54"/>
-      <c r="CC8" s="54"/>
-      <c r="CD8" s="54"/>
-      <c r="CE8" s="54"/>
-      <c r="CF8" s="54"/>
-      <c r="CG8" s="54"/>
-      <c r="CH8" s="54"/>
-      <c r="CI8" s="54"/>
-      <c r="CJ8" s="54"/>
-      <c r="CK8" s="54"/>
-      <c r="CL8" s="54"/>
-      <c r="CM8" s="54"/>
-      <c r="CN8" s="54"/>
-      <c r="CO8" s="54"/>
-      <c r="CP8" s="54"/>
-      <c r="CQ8" s="54"/>
-      <c r="CR8" s="54"/>
-      <c r="CS8" s="54"/>
-      <c r="CT8" s="54"/>
-      <c r="CU8" s="54"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="56"/>
+      <c r="AV8" s="56"/>
+      <c r="AW8" s="59"/>
+      <c r="AX8" s="59"/>
+      <c r="AY8" s="56"/>
+      <c r="AZ8" s="56"/>
+      <c r="BA8" s="56"/>
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="56"/>
+      <c r="BD8" s="59"/>
+      <c r="BE8" s="59"/>
+      <c r="BF8" s="56"/>
+      <c r="BG8" s="56"/>
+      <c r="BH8" s="56"/>
+      <c r="BI8" s="56"/>
+      <c r="BJ8" s="56"/>
+      <c r="BK8" s="59"/>
+      <c r="BL8" s="59"/>
+      <c r="BM8" s="56"/>
+      <c r="BN8" s="56"/>
+      <c r="BO8" s="56"/>
+      <c r="BP8" s="56"/>
+      <c r="BQ8" s="56"/>
+      <c r="BR8" s="59"/>
+      <c r="BS8" s="59"/>
+      <c r="BT8" s="56"/>
+      <c r="BU8" s="56"/>
+      <c r="BV8" s="56"/>
+      <c r="BW8" s="56"/>
+      <c r="BX8" s="56"/>
+      <c r="BY8" s="59"/>
+      <c r="BZ8" s="59"/>
+      <c r="CA8" s="56"/>
+      <c r="CB8" s="56"/>
+      <c r="CC8" s="56"/>
+      <c r="CD8" s="56"/>
+      <c r="CE8" s="56"/>
+      <c r="CF8" s="59"/>
+      <c r="CG8" s="59"/>
+      <c r="CH8" s="56"/>
+      <c r="CI8" s="56"/>
+      <c r="CJ8" s="56"/>
+      <c r="CK8" s="56"/>
+      <c r="CL8" s="56"/>
+      <c r="CM8" s="59"/>
+      <c r="CN8" s="59"/>
+      <c r="CO8" s="56"/>
+      <c r="CP8" s="56"/>
+      <c r="CQ8" s="56"/>
+      <c r="CR8" s="56"/>
+      <c r="CS8" s="56"/>
+      <c r="CT8" s="59"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -5329,104 +5402,103 @@
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="54"/>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="54"/>
-      <c r="AM9" s="54"/>
-      <c r="AN9" s="54"/>
-      <c r="AO9" s="54"/>
-      <c r="AP9" s="54"/>
-      <c r="AQ9" s="54"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="54"/>
-      <c r="AZ9" s="54"/>
-      <c r="BA9" s="54"/>
-      <c r="BB9" s="54"/>
-      <c r="BC9" s="54"/>
-      <c r="BD9" s="54"/>
-      <c r="BE9" s="54"/>
+        <v>7</v>
+      </c>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="59"/>
+      <c r="AR9" s="58"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="56"/>
+      <c r="AW9" s="59"/>
+      <c r="AX9" s="59"/>
+      <c r="AY9" s="56"/>
+      <c r="AZ9" s="56"/>
+      <c r="BA9" s="56"/>
+      <c r="BB9" s="56"/>
+      <c r="BC9" s="56"/>
+      <c r="BD9" s="59"/>
+      <c r="BE9" s="59"/>
       <c r="BF9" s="54"/>
       <c r="BG9" s="54"/>
       <c r="BH9" s="54"/>
       <c r="BI9" s="54"/>
       <c r="BJ9" s="54"/>
-      <c r="BK9" s="54"/>
-      <c r="BL9" s="54"/>
+      <c r="BK9" s="59"/>
+      <c r="BL9" s="59"/>
       <c r="BM9" s="54"/>
       <c r="BN9" s="54"/>
-      <c r="BO9" s="54"/>
-      <c r="BP9" s="54"/>
-      <c r="BQ9" s="54"/>
-      <c r="BR9" s="54"/>
-      <c r="BS9" s="54"/>
-      <c r="BT9" s="54"/>
-      <c r="BU9" s="54"/>
-      <c r="BV9" s="54"/>
-      <c r="BW9" s="54"/>
-      <c r="BX9" s="54"/>
-      <c r="BY9" s="54"/>
-      <c r="BZ9" s="54"/>
-      <c r="CA9" s="54"/>
-      <c r="CB9" s="54"/>
-      <c r="CC9" s="54"/>
-      <c r="CD9" s="54"/>
-      <c r="CE9" s="54"/>
-      <c r="CF9" s="54"/>
-      <c r="CG9" s="54"/>
-      <c r="CH9" s="54"/>
-      <c r="CI9" s="54"/>
-      <c r="CJ9" s="54"/>
-      <c r="CK9" s="54"/>
-      <c r="CL9" s="54"/>
-      <c r="CM9" s="54"/>
-      <c r="CN9" s="54"/>
-      <c r="CO9" s="54"/>
-      <c r="CP9" s="54"/>
-      <c r="CQ9" s="54"/>
-      <c r="CR9" s="54"/>
-      <c r="CS9" s="54"/>
-      <c r="CT9" s="54"/>
-      <c r="CU9" s="54"/>
+      <c r="BO9" s="56"/>
+      <c r="BP9" s="56"/>
+      <c r="BQ9" s="56"/>
+      <c r="BR9" s="59"/>
+      <c r="BS9" s="59"/>
+      <c r="BT9" s="56"/>
+      <c r="BU9" s="56"/>
+      <c r="BV9" s="56"/>
+      <c r="BW9" s="56"/>
+      <c r="BX9" s="56"/>
+      <c r="BY9" s="59"/>
+      <c r="BZ9" s="59"/>
+      <c r="CA9" s="56"/>
+      <c r="CB9" s="56"/>
+      <c r="CC9" s="56"/>
+      <c r="CD9" s="56"/>
+      <c r="CE9" s="56"/>
+      <c r="CF9" s="59"/>
+      <c r="CG9" s="59"/>
+      <c r="CH9" s="56"/>
+      <c r="CI9" s="56"/>
+      <c r="CJ9" s="56"/>
+      <c r="CK9" s="56"/>
+      <c r="CL9" s="56"/>
+      <c r="CM9" s="59"/>
+      <c r="CN9" s="59"/>
+      <c r="CO9" s="56"/>
+      <c r="CP9" s="56"/>
+      <c r="CQ9" s="56"/>
+      <c r="CR9" s="56"/>
+      <c r="CS9" s="56"/>
+      <c r="CT9" s="59"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -5435,544 +5507,866 @@
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I10" s="56"/>
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
       <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
       <c r="P10" s="56"/>
       <c r="Q10" s="56"/>
       <c r="R10" s="56"/>
       <c r="S10" s="56"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
       <c r="W10" s="56"/>
       <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
+      <c r="Y10" s="57"/>
       <c r="Z10" s="56"/>
       <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
       <c r="AD10" s="56"/>
       <c r="AE10" s="56"/>
       <c r="AF10" s="56"/>
-      <c r="AG10" s="56"/>
+      <c r="AG10" s="58"/>
       <c r="AH10" s="56"/>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="56"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
       <c r="AK10" s="56"/>
       <c r="AL10" s="56"/>
       <c r="AM10" s="56"/>
       <c r="AN10" s="56"/>
       <c r="AO10" s="56"/>
-      <c r="AP10" s="56"/>
-      <c r="AQ10" s="56"/>
-      <c r="AR10" s="56"/>
+      <c r="AP10" s="59"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="58"/>
       <c r="AS10" s="56"/>
-      <c r="AT10" s="56"/>
-      <c r="AU10" s="56"/>
-      <c r="AV10" s="56"/>
-      <c r="AW10" s="56"/>
-      <c r="AX10" s="56"/>
-      <c r="AY10" s="56"/>
-      <c r="AZ10" s="56"/>
-      <c r="BA10" s="56"/>
-      <c r="BB10" s="56"/>
-      <c r="BC10" s="56"/>
-      <c r="BD10" s="56"/>
-      <c r="BE10" s="56"/>
-      <c r="BF10" s="56"/>
-      <c r="BG10" s="56"/>
+      <c r="AT10" s="54"/>
+      <c r="AU10" s="54"/>
+      <c r="AV10" s="54"/>
+      <c r="AW10" s="59"/>
+      <c r="AX10" s="59"/>
+      <c r="AY10" s="54"/>
+      <c r="AZ10" s="54"/>
+      <c r="BA10" s="54"/>
+      <c r="BB10" s="54"/>
+      <c r="BC10" s="54"/>
+      <c r="BD10" s="59"/>
+      <c r="BE10" s="59"/>
+      <c r="BF10" s="54"/>
+      <c r="BG10" s="54"/>
       <c r="BH10" s="56"/>
       <c r="BI10" s="56"/>
       <c r="BJ10" s="56"/>
-      <c r="BK10" s="56"/>
-      <c r="BL10" s="56"/>
+      <c r="BK10" s="59"/>
+      <c r="BL10" s="59"/>
       <c r="BM10" s="56"/>
       <c r="BN10" s="56"/>
       <c r="BO10" s="56"/>
       <c r="BP10" s="56"/>
       <c r="BQ10" s="56"/>
-      <c r="BR10" s="56"/>
-      <c r="BS10" s="56"/>
+      <c r="BR10" s="59"/>
+      <c r="BS10" s="59"/>
       <c r="BT10" s="56"/>
       <c r="BU10" s="56"/>
       <c r="BV10" s="56"/>
       <c r="BW10" s="56"/>
       <c r="BX10" s="56"/>
-      <c r="BY10" s="56"/>
-      <c r="BZ10" s="56"/>
+      <c r="BY10" s="59"/>
+      <c r="BZ10" s="59"/>
       <c r="CA10" s="56"/>
       <c r="CB10" s="56"/>
       <c r="CC10" s="56"/>
       <c r="CD10" s="56"/>
       <c r="CE10" s="56"/>
-      <c r="CF10" s="56"/>
-      <c r="CG10" s="56"/>
+      <c r="CF10" s="59"/>
+      <c r="CG10" s="59"/>
       <c r="CH10" s="56"/>
       <c r="CI10" s="56"/>
       <c r="CJ10" s="56"/>
       <c r="CK10" s="56"/>
       <c r="CL10" s="56"/>
-      <c r="CM10" s="56"/>
-      <c r="CN10" s="56"/>
+      <c r="CM10" s="59"/>
+      <c r="CN10" s="59"/>
       <c r="CO10" s="56"/>
       <c r="CP10" s="56"/>
       <c r="CQ10" s="56"/>
       <c r="CR10" s="56"/>
       <c r="CS10" s="56"/>
-      <c r="CT10" s="56"/>
-      <c r="CU10" s="56"/>
+      <c r="CT10" s="59"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="55"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="56"/>
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="56"/>
+      <c r="AP11" s="59"/>
+      <c r="AQ11" s="59"/>
+      <c r="AR11" s="58"/>
+      <c r="AS11" s="56"/>
+      <c r="AT11" s="56"/>
+      <c r="AU11" s="56"/>
+      <c r="AV11" s="56"/>
+      <c r="AW11" s="59"/>
+      <c r="AX11" s="59"/>
+      <c r="AY11" s="56"/>
+      <c r="AZ11" s="56"/>
+      <c r="BA11" s="56"/>
+      <c r="BB11" s="56"/>
+      <c r="BC11" s="56"/>
+      <c r="BD11" s="59"/>
+      <c r="BE11" s="59"/>
+      <c r="BF11" s="56"/>
+      <c r="BG11" s="56"/>
+      <c r="BH11" s="56"/>
+      <c r="BI11" s="56"/>
+      <c r="BJ11" s="56"/>
+      <c r="BK11" s="59"/>
+      <c r="BL11" s="59"/>
+      <c r="BM11" s="56"/>
+      <c r="BN11" s="56"/>
+      <c r="BO11" s="54"/>
+      <c r="BP11" s="54"/>
+      <c r="BQ11" s="54"/>
+      <c r="BR11" s="59"/>
+      <c r="BS11" s="59"/>
+      <c r="BT11" s="54"/>
+      <c r="BU11" s="54"/>
+      <c r="BV11" s="54"/>
+      <c r="BW11" s="54"/>
+      <c r="BX11" s="54"/>
+      <c r="BY11" s="59"/>
+      <c r="BZ11" s="59"/>
+      <c r="CA11" s="54"/>
+      <c r="CB11" s="54"/>
+      <c r="CC11" s="56"/>
+      <c r="CD11" s="56"/>
+      <c r="CE11" s="56"/>
+      <c r="CF11" s="59"/>
+      <c r="CG11" s="59"/>
+      <c r="CH11" s="56"/>
+      <c r="CI11" s="56"/>
+      <c r="CJ11" s="56"/>
+      <c r="CK11" s="56"/>
+      <c r="CL11" s="56"/>
+      <c r="CM11" s="59"/>
+      <c r="CN11" s="59"/>
+      <c r="CO11" s="56"/>
+      <c r="CP11" s="56"/>
+      <c r="CQ11" s="56"/>
+      <c r="CR11" s="56"/>
+      <c r="CS11" s="56"/>
+      <c r="CT11" s="59"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="n">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
+      <c r="AP12" s="59"/>
+      <c r="AQ12" s="59"/>
+      <c r="AR12" s="58"/>
+      <c r="AS12" s="56"/>
+      <c r="AT12" s="56"/>
+      <c r="AU12" s="56"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="59"/>
+      <c r="AX12" s="59"/>
+      <c r="AY12" s="61"/>
+      <c r="AZ12" s="61"/>
+      <c r="BA12" s="61"/>
+      <c r="BB12" s="61"/>
+      <c r="BC12" s="61"/>
+      <c r="BD12" s="65"/>
+      <c r="BE12" s="65"/>
+      <c r="BF12" s="61"/>
+      <c r="BG12" s="61"/>
+      <c r="BH12" s="61"/>
+      <c r="BI12" s="61"/>
+      <c r="BJ12" s="61"/>
+      <c r="BK12" s="65"/>
+      <c r="BL12" s="65"/>
+      <c r="BM12" s="61"/>
+      <c r="BN12" s="61"/>
+      <c r="BO12" s="61"/>
+      <c r="BP12" s="61"/>
+      <c r="BQ12" s="61"/>
+      <c r="BR12" s="65"/>
+      <c r="BS12" s="65"/>
+      <c r="BT12" s="61"/>
+      <c r="BU12" s="61"/>
+      <c r="BV12" s="61"/>
+      <c r="BW12" s="61"/>
+      <c r="BX12" s="61"/>
+      <c r="BY12" s="65"/>
+      <c r="BZ12" s="65"/>
+      <c r="CA12" s="61"/>
+      <c r="CB12" s="61"/>
+      <c r="CC12" s="66"/>
+      <c r="CD12" s="66"/>
+      <c r="CE12" s="66"/>
+      <c r="CF12" s="65"/>
+      <c r="CG12" s="65"/>
+      <c r="CH12" s="66"/>
+      <c r="CI12" s="61"/>
+      <c r="CJ12" s="61"/>
+      <c r="CK12" s="61"/>
+      <c r="CL12" s="61"/>
+      <c r="CM12" s="65"/>
+      <c r="CN12" s="65"/>
+      <c r="CO12" s="61"/>
+      <c r="CP12" s="61"/>
+      <c r="CQ12" s="61"/>
+      <c r="CR12" s="61"/>
+      <c r="CS12" s="61"/>
+      <c r="CT12" s="65"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24" t="n">
-        <f aca="false">A12+A14</f>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24" t="n">
+        <f aca="false">A14+A16</f>
+        <v>4</v>
+      </c>
+      <c r="F14" s="22" t="n">
+        <f aca="false">C14</f>
+        <v>4</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24" t="n">
+        <f aca="false">F14+F16</f>
+        <v>13</v>
+      </c>
+      <c r="P14" s="22" t="n">
+        <f aca="false">H14</f>
+        <v>13</v>
+      </c>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="24" t="n">
+        <f aca="false">P14+P16</f>
+        <v>24</v>
+      </c>
+      <c r="U14" s="22" t="n">
+        <f aca="false">R14</f>
+        <v>24</v>
+      </c>
+      <c r="V14" s="23"/>
+      <c r="W14" s="24" t="n">
+        <f aca="false">U14+U16</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="26"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="28" t="n">
+        <f aca="false">VLOOKUP(A15,$A$2:$H$12,8)</f>
+        <v>4</v>
+      </c>
+      <c r="B16" s="29" t="n">
+        <f aca="false">C17-C14</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="43" t="n">
+        <f aca="false">MIN(F14,F20,F26)-C14</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="F16" s="28" t="n">
+        <f aca="false">VLOOKUP(F15,$A$2:$H$12,8)</f>
+        <v>9</v>
+      </c>
+      <c r="G16" s="29" t="n">
+        <f aca="false">H17-H14</f>
         <v>15</v>
       </c>
-      <c r="F12" s="22" t="n">
-        <f aca="false">C12</f>
+      <c r="H16" s="43" t="n">
+        <f aca="false">P14-H14</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="28" t="n">
+        <f aca="false">VLOOKUP(P15,$A$2:$H$12,8)</f>
+        <v>11</v>
+      </c>
+      <c r="Q16" s="29" t="n">
+        <f aca="false">R17-R14</f>
         <v>15</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24" t="n">
-        <f aca="false">F12+F14</f>
-        <v>21</v>
-      </c>
-      <c r="P12" s="22" t="n">
-        <f aca="false">H12</f>
-        <v>21</v>
-      </c>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="24" t="n">
-        <f aca="false">P12+P14</f>
+      <c r="R16" s="43" t="n">
+        <f aca="false">U14-R14</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="67"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="28" t="n">
+        <f aca="false">VLOOKUP(U15,$A$2:$H$12,8)</f>
+        <v>10</v>
+      </c>
+      <c r="V16" s="29" t="n">
+        <f aca="false">W17-W14</f>
+        <v>15</v>
+      </c>
+      <c r="W16" s="43" t="n">
+        <f aca="false">Z17-W14</f>
+        <v>15</v>
+      </c>
+      <c r="X16" s="73"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="33" t="n">
+        <f aca="false">C17-A16</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="34" t="n">
+        <f aca="false">MIN(F17,F23,F29)</f>
+        <v>4</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="F17" s="33" t="n">
+        <f aca="false">H17-F16</f>
+        <v>19</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="34" t="n">
+        <f aca="false">P17</f>
         <v>28</v>
       </c>
-      <c r="U12" s="22" t="n">
-        <f aca="false">MAX(R12,R18)</f>
-        <v>59</v>
-      </c>
-      <c r="V12" s="23"/>
-      <c r="W12" s="24" t="n">
-        <f aca="false">U12+U14</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="n">
-        <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
-        <v>15</v>
-      </c>
-      <c r="B14" s="29" t="n">
-        <f aca="false">C15-C12</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="31"/>
-      <c r="F14" s="28" t="n">
-        <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
-        <v>6</v>
-      </c>
-      <c r="G14" s="29" t="n">
-        <f aca="false">H15-H12</f>
-        <v>31</v>
-      </c>
-      <c r="H14" s="43"/>
-      <c r="P14" s="28" t="n">
-        <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
+      <c r="P17" s="33" t="n">
+        <f aca="false">R17-P16</f>
+        <v>28</v>
+      </c>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="74" t="n">
+        <f aca="false">U17</f>
+        <v>39</v>
+      </c>
+      <c r="U17" s="33" t="n">
+        <f aca="false">W17-U16</f>
+        <v>39</v>
+      </c>
+      <c r="V17" s="23"/>
+      <c r="W17" s="34" t="n">
+        <f aca="false">Z20</f>
+        <v>49</v>
+      </c>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="22" t="n">
+        <f aca="false">MAX(W14,W20)</f>
+        <v>49</v>
+      </c>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="24" t="n">
+        <f aca="false">Z17+Z19</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="76"/>
+      <c r="D18" s="36"/>
+      <c r="Z18" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Q14" s="29" t="n">
-        <f aca="false">R15-R12</f>
-        <v>31</v>
-      </c>
-      <c r="R14" s="43"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="28" t="n">
-        <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
-        <v>4</v>
-      </c>
-      <c r="V14" s="42" t="n">
-        <f aca="false">W15-W12</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="43"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33" t="n">
-        <f aca="false">C15-A14</f>
-        <v>0</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="34" t="n">
-        <f aca="false">MIN(F15,F21,F27)</f>
-        <v>15</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="F15" s="33" t="n">
-        <f aca="false">H15-F14</f>
-        <v>46</v>
-      </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="34" t="n">
-        <f aca="false">P15</f>
-        <v>52</v>
-      </c>
-      <c r="P15" s="33" t="n">
-        <f aca="false">R15-P14</f>
-        <v>52</v>
-      </c>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="34" t="n">
-        <f aca="false">U15</f>
-        <v>59</v>
-      </c>
-      <c r="S15" s="36"/>
-      <c r="U15" s="33" t="n">
-        <f aca="false">W15-U14</f>
-        <v>59</v>
-      </c>
-      <c r="V15" s="23"/>
-      <c r="W15" s="34" t="n">
-        <f aca="false">W12</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="59"/>
-      <c r="D16" s="36"/>
-      <c r="S16" s="36"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="S17" s="36"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="F18" s="22" t="n">
-        <f aca="false">C12</f>
-        <v>15</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24" t="n">
-        <f aca="false">F18+F20</f>
-        <v>29</v>
-      </c>
-      <c r="K18" s="22" t="n">
-        <f aca="false">H18</f>
-        <v>29</v>
-      </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="24" t="n">
-        <f aca="false">K18+K20</f>
-        <v>44</v>
-      </c>
-      <c r="P18" s="22" t="n">
-        <f aca="false">MAX(M18,M24)</f>
-        <v>44</v>
-      </c>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="24" t="n">
-        <f aca="false">P18+P20</f>
-        <v>59</v>
-      </c>
-      <c r="S18" s="36"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="38"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="28" t="n">
+        <f aca="false">VLOOKUP(Z18,$A$2:$H$12,8)</f>
+        <v>4</v>
+      </c>
+      <c r="AA19" s="29" t="n">
+        <f aca="false">AB20-AB17</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="36"/>
-      <c r="F20" s="28" t="n">
-        <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
-        <v>14</v>
-      </c>
-      <c r="G20" s="29" t="n">
-        <f aca="false">H21-H18</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="57"/>
-      <c r="K20" s="28" t="n">
-        <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
-        <v>15</v>
-      </c>
-      <c r="L20" s="29" t="n">
-        <f aca="false">M21-M18</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="43"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="28" t="n">
-        <f aca="false">VLOOKUP(P19,$A$2:$H$10,8)</f>
-        <v>15</v>
-      </c>
-      <c r="Q20" s="29" t="n">
-        <f aca="false">R21-R18</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="43"/>
+      <c r="D20" s="36"/>
+      <c r="F20" s="22" t="n">
+        <f aca="false">C14</f>
+        <v>4</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24" t="n">
+        <f aca="false">F20+F22</f>
+        <v>11</v>
+      </c>
+      <c r="K20" s="22" t="n">
+        <f aca="false">H20</f>
+        <v>11</v>
+      </c>
+      <c r="L20" s="23"/>
+      <c r="M20" s="24" t="n">
+        <f aca="false">K20+K22</f>
+        <v>26</v>
+      </c>
+      <c r="P20" s="22" t="n">
+        <f aca="false">MAX(M20,M26)</f>
+        <v>32</v>
+      </c>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="24" t="n">
+        <f aca="false">P20+P22</f>
+        <v>39</v>
+      </c>
+      <c r="U20" s="22" t="n">
+        <f aca="false">R20</f>
+        <v>39</v>
+      </c>
+      <c r="V20" s="23"/>
+      <c r="W20" s="24" t="n">
+        <f aca="false">U20+U22</f>
+        <v>49</v>
+      </c>
+      <c r="X20" s="75"/>
+      <c r="Z20" s="33" t="n">
+        <f aca="false">AB20-Z19</f>
+        <v>49</v>
+      </c>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="34" t="n">
+        <f aca="false">AB17</f>
+        <v>53</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="36"/>
-      <c r="F21" s="33" t="n">
-        <f aca="false">H21-F20</f>
-        <v>15</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="34" t="n">
-        <f aca="false">K21</f>
-        <v>29</v>
-      </c>
-      <c r="K21" s="33" t="n">
-        <f aca="false">M21-K20</f>
-        <v>29</v>
-      </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="34" t="n">
-        <f aca="false">P21</f>
-        <v>44</v>
-      </c>
-      <c r="N21" s="36"/>
-      <c r="P21" s="33" t="n">
-        <f aca="false">R21-P20</f>
-        <v>44</v>
-      </c>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="34" t="n">
-        <f aca="false">U15</f>
-        <v>59</v>
-      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="38"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="36"/>
-      <c r="N22" s="36"/>
+      <c r="F22" s="28" t="n">
+        <f aca="false">VLOOKUP(F21,$A$2:$H$12,8)</f>
+        <v>7</v>
+      </c>
+      <c r="G22" s="29" t="n">
+        <f aca="false">H23-H20</f>
+        <v>6</v>
+      </c>
+      <c r="H22" s="43" t="n">
+        <f aca="false">K20-H20</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="67"/>
+      <c r="K22" s="28" t="n">
+        <f aca="false">VLOOKUP(K21,$A$2:$H$12,8)</f>
+        <v>15</v>
+      </c>
+      <c r="L22" s="29" t="n">
+        <f aca="false">M23-M20</f>
+        <v>6</v>
+      </c>
+      <c r="M22" s="43" t="n">
+        <f aca="false">P20-M20</f>
+        <v>6</v>
+      </c>
+      <c r="O22" s="32"/>
+      <c r="P22" s="28" t="n">
+        <f aca="false">VLOOKUP(P21,$A$2:$H$12,8)</f>
+        <v>7</v>
+      </c>
+      <c r="Q22" s="29" t="n">
+        <f aca="false">R23-R20</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="43" t="n">
+        <f aca="false">U20-R20</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="28" t="n">
+        <f aca="false">VLOOKUP(U21,$A$2:$H$12,8)</f>
+        <v>10</v>
+      </c>
+      <c r="V22" s="29" t="n">
+        <f aca="false">W23-W20</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="43" t="n">
+        <f aca="false">Z17-W20</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="36"/>
+      <c r="F23" s="33" t="n">
+        <f aca="false">H23-F22</f>
+        <v>10</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="74" t="n">
+        <f aca="false">K23</f>
+        <v>17</v>
+      </c>
+      <c r="K23" s="33" t="n">
+        <f aca="false">M23-K22</f>
+        <v>17</v>
+      </c>
+      <c r="L23" s="23"/>
+      <c r="M23" s="74" t="n">
+        <f aca="false">P23</f>
+        <v>32</v>
+      </c>
       <c r="N23" s="36"/>
+      <c r="P23" s="33" t="n">
+        <f aca="false">R23-P22</f>
+        <v>32</v>
+      </c>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="74" t="n">
+        <f aca="false">U23</f>
+        <v>39</v>
+      </c>
+      <c r="U23" s="33" t="n">
+        <f aca="false">W23-U22</f>
+        <v>39</v>
+      </c>
+      <c r="V23" s="23"/>
+      <c r="W23" s="34" t="n">
+        <f aca="false">Z20</f>
+        <v>49</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="36"/>
-      <c r="F24" s="22" t="n">
-        <f aca="false">C12</f>
-        <v>15</v>
-      </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24" t="n">
-        <f aca="false">F24+F26</f>
-        <v>21</v>
-      </c>
-      <c r="K24" s="22" t="n">
-        <f aca="false">H24</f>
-        <v>21</v>
-      </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="24" t="n">
-        <f aca="false">K24+K26</f>
-        <v>35</v>
-      </c>
       <c r="N24" s="36"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="36"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="61" t="s">
+      <c r="N25" s="36"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="36"/>
+      <c r="F26" s="22" t="n">
+        <f aca="false">C14</f>
+        <v>4</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24" t="n">
+        <f aca="false">F26+F28</f>
+        <v>19</v>
+      </c>
+      <c r="K26" s="22" t="n">
+        <f aca="false">H26</f>
+        <v>19</v>
+      </c>
+      <c r="L26" s="23"/>
+      <c r="M26" s="24" t="n">
+        <f aca="false">K26+K28</f>
+        <v>32</v>
+      </c>
+      <c r="N26" s="36"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="36"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="62" t="s">
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="38"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="28" t="n">
-        <f aca="false">VLOOKUP(F25,$A$2:$H$10,8)</f>
-        <v>6</v>
-      </c>
-      <c r="G26" s="29" t="n">
-        <f aca="false">H27-H24</f>
-        <v>9</v>
-      </c>
-      <c r="H26" s="43"/>
-      <c r="K26" s="28" t="n">
-        <f aca="false">VLOOKUP(K25,$A$2:$H$10,8)</f>
-        <v>14</v>
-      </c>
-      <c r="L26" s="29" t="n">
-        <f aca="false">M27-M24</f>
-        <v>9</v>
-      </c>
-      <c r="M26" s="43"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="33" t="n">
-        <f aca="false">H27-F26</f>
-        <v>24</v>
-      </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="34" t="n">
-        <f aca="false">K27</f>
-        <v>30</v>
-      </c>
-      <c r="K27" s="33" t="n">
-        <f aca="false">M27-K26</f>
-        <v>30</v>
-      </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="34" t="n">
-        <f aca="false">P21</f>
-        <v>44</v>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="38"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="28" t="n">
+        <f aca="false">VLOOKUP(F27,$A$2:$H$12,8)</f>
+        <v>15</v>
+      </c>
+      <c r="G28" s="29" t="n">
+        <f aca="false">H29-H26</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="43" t="n">
+        <f aca="false">K26-H26</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="28" t="n">
+        <f aca="false">VLOOKUP(K27,$A$2:$H$12,8)</f>
+        <v>13</v>
+      </c>
+      <c r="L28" s="42" t="n">
+        <f aca="false">M29-M26</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="43" t="n">
+        <f aca="false">P20-M26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="33" t="n">
+        <f aca="false">H29-F28</f>
+        <v>4</v>
+      </c>
+      <c r="G29" s="23"/>
+      <c r="H29" s="74" t="n">
+        <f aca="false">K29</f>
+        <v>19</v>
+      </c>
+      <c r="K29" s="33" t="n">
+        <f aca="false">M29-K28</f>
+        <v>19</v>
+      </c>
+      <c r="L29" s="23"/>
+      <c r="M29" s="34" t="n">
+        <f aca="false">P23</f>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="K27:M27"/>
   </mergeCells>
-  <conditionalFormatting sqref="V14">
+  <conditionalFormatting sqref="L28">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q20">
+  <conditionalFormatting sqref="G28">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
+  <conditionalFormatting sqref="G22">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
+  <conditionalFormatting sqref="L22">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
+  <conditionalFormatting sqref="Q22">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="V22">
     <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="AA19">
     <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+  <conditionalFormatting sqref="V16">
     <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
+  <conditionalFormatting sqref="Q16">
     <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:AW1 AY1:CU1">
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX1 BE1 BL1 BS1 BZ1 CG1 CN1 CU1">
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>IF(OR(WEEKDAY(AX$1)=7,WEEKDAY(AX$1)=1),1,0)</formula>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:CT1">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5990,21 +6384,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CT29"/>
+  <dimension ref="A1:CV27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="8" ySplit="0" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="CP10" activeCellId="0" sqref="CP10"/>
+      <selection pane="topRight" activeCell="CV10" activeCellId="0" sqref="CV10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="9" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="1" style="1" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="44" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="0" width="3.91"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6126,7 +6521,7 @@
       <c r="AQ1" s="53" t="n">
         <v>45431</v>
       </c>
-      <c r="AR1" s="53" t="n">
+      <c r="AR1" s="80" t="n">
         <v>45432</v>
       </c>
       <c r="AS1" s="53" t="n">
@@ -6290,6 +6685,12 @@
       </c>
       <c r="CT1" s="53" t="n">
         <v>45486</v>
+      </c>
+      <c r="CU1" s="53" t="n">
+        <v>45487</v>
+      </c>
+      <c r="CV1" s="53" t="n">
+        <v>45488</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,98 +6710,100 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="63"/>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="63"/>
-      <c r="BA2" s="63"/>
-      <c r="BB2" s="63"/>
-      <c r="BC2" s="63"/>
-      <c r="BD2" s="63"/>
-      <c r="BE2" s="63"/>
-      <c r="BF2" s="63"/>
-      <c r="BG2" s="63"/>
-      <c r="BH2" s="63"/>
-      <c r="BI2" s="63"/>
-      <c r="BJ2" s="63"/>
-      <c r="BK2" s="63"/>
-      <c r="BL2" s="63"/>
-      <c r="BM2" s="63"/>
-      <c r="BN2" s="63"/>
-      <c r="BO2" s="63"/>
-      <c r="BP2" s="63"/>
-      <c r="BQ2" s="63"/>
-      <c r="BR2" s="63"/>
-      <c r="BS2" s="63"/>
-      <c r="BT2" s="63"/>
-      <c r="BU2" s="63"/>
-      <c r="BV2" s="63"/>
-      <c r="BW2" s="63"/>
-      <c r="BX2" s="63"/>
-      <c r="BY2" s="63"/>
-      <c r="BZ2" s="63"/>
-      <c r="CA2" s="63"/>
-      <c r="CB2" s="63"/>
-      <c r="CC2" s="63"/>
-      <c r="CD2" s="63"/>
-      <c r="CE2" s="63"/>
-      <c r="CF2" s="63"/>
-      <c r="CG2" s="63"/>
-      <c r="CH2" s="63"/>
-      <c r="CI2" s="63"/>
-      <c r="CJ2" s="63"/>
-      <c r="CK2" s="63"/>
-      <c r="CL2" s="63"/>
-      <c r="CM2" s="63"/>
-      <c r="CN2" s="63"/>
-      <c r="CO2" s="63"/>
-      <c r="CP2" s="63"/>
-      <c r="CQ2" s="63"/>
-      <c r="CR2" s="63"/>
-      <c r="CS2" s="63"/>
-      <c r="CT2" s="63"/>
+        <v>15</v>
+      </c>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="59"/>
+      <c r="BF2" s="56"/>
+      <c r="BG2" s="56"/>
+      <c r="BH2" s="56"/>
+      <c r="BI2" s="56"/>
+      <c r="BJ2" s="56"/>
+      <c r="BK2" s="59"/>
+      <c r="BL2" s="59"/>
+      <c r="BM2" s="56"/>
+      <c r="BN2" s="56"/>
+      <c r="BO2" s="56"/>
+      <c r="BP2" s="56"/>
+      <c r="BQ2" s="56"/>
+      <c r="BR2" s="59"/>
+      <c r="BS2" s="59"/>
+      <c r="BT2" s="56"/>
+      <c r="BU2" s="56"/>
+      <c r="BV2" s="56"/>
+      <c r="BW2" s="56"/>
+      <c r="BX2" s="56"/>
+      <c r="BY2" s="59"/>
+      <c r="BZ2" s="59"/>
+      <c r="CA2" s="56"/>
+      <c r="CB2" s="56"/>
+      <c r="CC2" s="56"/>
+      <c r="CD2" s="56"/>
+      <c r="CE2" s="56"/>
+      <c r="CF2" s="59"/>
+      <c r="CG2" s="59"/>
+      <c r="CH2" s="56"/>
+      <c r="CI2" s="56"/>
+      <c r="CJ2" s="56"/>
+      <c r="CK2" s="56"/>
+      <c r="CL2" s="56"/>
+      <c r="CM2" s="59"/>
+      <c r="CN2" s="59"/>
+      <c r="CO2" s="56"/>
+      <c r="CP2" s="56"/>
+      <c r="CQ2" s="56"/>
+      <c r="CR2" s="56"/>
+      <c r="CS2" s="56"/>
+      <c r="CT2" s="59"/>
+      <c r="CU2" s="59"/>
+      <c r="CV2" s="68"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -6412,103 +6815,105 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
+        <v>6</v>
+      </c>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="56"/>
       <c r="AE3" s="54"/>
       <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
+      <c r="AG3" s="58"/>
       <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
       <c r="AK3" s="54"/>
       <c r="AL3" s="54"/>
       <c r="AM3" s="54"/>
-      <c r="AN3" s="54"/>
-      <c r="AO3" s="54"/>
-      <c r="AP3" s="54"/>
-      <c r="AQ3" s="54"/>
-      <c r="AR3" s="54"/>
-      <c r="AS3" s="54"/>
-      <c r="AT3" s="54"/>
-      <c r="AU3" s="54"/>
-      <c r="AV3" s="54"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="54"/>
-      <c r="AY3" s="54"/>
-      <c r="AZ3" s="54"/>
-      <c r="BA3" s="54"/>
-      <c r="BB3" s="54"/>
-      <c r="BC3" s="54"/>
-      <c r="BD3" s="54"/>
-      <c r="BE3" s="54"/>
-      <c r="BF3" s="54"/>
-      <c r="BG3" s="54"/>
-      <c r="BH3" s="54"/>
-      <c r="BI3" s="54"/>
-      <c r="BJ3" s="54"/>
-      <c r="BK3" s="54"/>
-      <c r="BL3" s="54"/>
-      <c r="BM3" s="54"/>
-      <c r="BN3" s="54"/>
-      <c r="BO3" s="54"/>
-      <c r="BP3" s="54"/>
-      <c r="BQ3" s="54"/>
-      <c r="BR3" s="54"/>
-      <c r="BS3" s="54"/>
-      <c r="BT3" s="54"/>
-      <c r="BU3" s="54"/>
-      <c r="BV3" s="54"/>
-      <c r="BW3" s="54"/>
-      <c r="BX3" s="54"/>
-      <c r="BY3" s="54"/>
-      <c r="BZ3" s="54"/>
-      <c r="CA3" s="54"/>
-      <c r="CB3" s="54"/>
-      <c r="CC3" s="54"/>
-      <c r="CD3" s="54"/>
-      <c r="CE3" s="54"/>
-      <c r="CF3" s="54"/>
-      <c r="CG3" s="54"/>
-      <c r="CH3" s="54"/>
-      <c r="CI3" s="54"/>
-      <c r="CJ3" s="54"/>
-      <c r="CK3" s="54"/>
-      <c r="CL3" s="54"/>
-      <c r="CM3" s="54"/>
-      <c r="CN3" s="54"/>
-      <c r="CO3" s="54"/>
-      <c r="CP3" s="54"/>
-      <c r="CQ3" s="54"/>
-      <c r="CR3" s="54"/>
-      <c r="CS3" s="54"/>
-      <c r="CT3" s="54"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="59"/>
+      <c r="AX3" s="59"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="56"/>
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="59"/>
+      <c r="BF3" s="56"/>
+      <c r="BG3" s="56"/>
+      <c r="BH3" s="56"/>
+      <c r="BI3" s="56"/>
+      <c r="BJ3" s="56"/>
+      <c r="BK3" s="59"/>
+      <c r="BL3" s="59"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="56"/>
+      <c r="BO3" s="56"/>
+      <c r="BP3" s="56"/>
+      <c r="BQ3" s="56"/>
+      <c r="BR3" s="59"/>
+      <c r="BS3" s="59"/>
+      <c r="BT3" s="56"/>
+      <c r="BU3" s="56"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="56"/>
+      <c r="BX3" s="56"/>
+      <c r="BY3" s="59"/>
+      <c r="BZ3" s="59"/>
+      <c r="CA3" s="56"/>
+      <c r="CB3" s="56"/>
+      <c r="CC3" s="56"/>
+      <c r="CD3" s="56"/>
+      <c r="CE3" s="56"/>
+      <c r="CF3" s="59"/>
+      <c r="CG3" s="59"/>
+      <c r="CH3" s="56"/>
+      <c r="CI3" s="56"/>
+      <c r="CJ3" s="56"/>
+      <c r="CK3" s="56"/>
+      <c r="CL3" s="56"/>
+      <c r="CM3" s="59"/>
+      <c r="CN3" s="59"/>
+      <c r="CO3" s="56"/>
+      <c r="CP3" s="56"/>
+      <c r="CQ3" s="56"/>
+      <c r="CR3" s="56"/>
+      <c r="CS3" s="56"/>
+      <c r="CT3" s="59"/>
+      <c r="CU3" s="59"/>
+      <c r="CV3" s="68"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -6525,98 +6930,100 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
+        <v>14</v>
+      </c>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="56"/>
       <c r="AE4" s="54"/>
       <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
+      <c r="AG4" s="58"/>
       <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
       <c r="AK4" s="54"/>
       <c r="AL4" s="54"/>
       <c r="AM4" s="54"/>
       <c r="AN4" s="54"/>
       <c r="AO4" s="54"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="57"/>
       <c r="AS4" s="54"/>
       <c r="AT4" s="54"/>
       <c r="AU4" s="54"/>
       <c r="AV4" s="54"/>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
       <c r="AY4" s="54"/>
       <c r="AZ4" s="54"/>
-      <c r="BA4" s="54"/>
-      <c r="BB4" s="54"/>
-      <c r="BC4" s="54"/>
-      <c r="BD4" s="54"/>
-      <c r="BE4" s="54"/>
-      <c r="BF4" s="54"/>
-      <c r="BG4" s="54"/>
-      <c r="BH4" s="54"/>
-      <c r="BI4" s="54"/>
-      <c r="BJ4" s="54"/>
-      <c r="BK4" s="54"/>
-      <c r="BL4" s="54"/>
-      <c r="BM4" s="54"/>
-      <c r="BN4" s="54"/>
-      <c r="BO4" s="54"/>
-      <c r="BP4" s="54"/>
-      <c r="BQ4" s="54"/>
-      <c r="BR4" s="54"/>
-      <c r="BS4" s="54"/>
-      <c r="BT4" s="54"/>
-      <c r="BU4" s="54"/>
-      <c r="BV4" s="54"/>
-      <c r="BW4" s="54"/>
-      <c r="BX4" s="54"/>
-      <c r="BY4" s="54"/>
-      <c r="BZ4" s="54"/>
-      <c r="CA4" s="54"/>
-      <c r="CB4" s="54"/>
-      <c r="CC4" s="54"/>
-      <c r="CD4" s="54"/>
-      <c r="CE4" s="54"/>
-      <c r="CF4" s="54"/>
-      <c r="CG4" s="54"/>
-      <c r="CH4" s="54"/>
-      <c r="CI4" s="54"/>
-      <c r="CJ4" s="54"/>
-      <c r="CK4" s="54"/>
-      <c r="CL4" s="54"/>
-      <c r="CM4" s="54"/>
-      <c r="CN4" s="54"/>
-      <c r="CO4" s="54"/>
-      <c r="CP4" s="54"/>
-      <c r="CQ4" s="54"/>
-      <c r="CR4" s="54"/>
-      <c r="CS4" s="54"/>
-      <c r="CT4" s="54"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="56"/>
+      <c r="BC4" s="56"/>
+      <c r="BD4" s="59"/>
+      <c r="BE4" s="59"/>
+      <c r="BF4" s="56"/>
+      <c r="BG4" s="56"/>
+      <c r="BH4" s="56"/>
+      <c r="BI4" s="56"/>
+      <c r="BJ4" s="56"/>
+      <c r="BK4" s="59"/>
+      <c r="BL4" s="59"/>
+      <c r="BM4" s="56"/>
+      <c r="BN4" s="56"/>
+      <c r="BO4" s="56"/>
+      <c r="BP4" s="56"/>
+      <c r="BQ4" s="56"/>
+      <c r="BR4" s="59"/>
+      <c r="BS4" s="59"/>
+      <c r="BT4" s="56"/>
+      <c r="BU4" s="56"/>
+      <c r="BV4" s="56"/>
+      <c r="BW4" s="56"/>
+      <c r="BX4" s="56"/>
+      <c r="BY4" s="59"/>
+      <c r="BZ4" s="59"/>
+      <c r="CA4" s="56"/>
+      <c r="CB4" s="56"/>
+      <c r="CC4" s="56"/>
+      <c r="CD4" s="56"/>
+      <c r="CE4" s="56"/>
+      <c r="CF4" s="59"/>
+      <c r="CG4" s="59"/>
+      <c r="CH4" s="56"/>
+      <c r="CI4" s="56"/>
+      <c r="CJ4" s="56"/>
+      <c r="CK4" s="56"/>
+      <c r="CL4" s="56"/>
+      <c r="CM4" s="59"/>
+      <c r="CN4" s="59"/>
+      <c r="CO4" s="56"/>
+      <c r="CP4" s="56"/>
+      <c r="CQ4" s="56"/>
+      <c r="CR4" s="56"/>
+      <c r="CS4" s="56"/>
+      <c r="CT4" s="59"/>
+      <c r="CU4" s="59"/>
+      <c r="CV4" s="68"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -6633,98 +7040,100 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
+        <v>6</v>
+      </c>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="56"/>
       <c r="AE5" s="54"/>
       <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
+      <c r="AG5" s="58"/>
       <c r="AH5" s="54"/>
-      <c r="AI5" s="54"/>
-      <c r="AJ5" s="54"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
       <c r="AK5" s="54"/>
       <c r="AL5" s="54"/>
       <c r="AM5" s="54"/>
-      <c r="AN5" s="54"/>
-      <c r="AO5" s="54"/>
-      <c r="AP5" s="54"/>
-      <c r="AQ5" s="54"/>
-      <c r="AR5" s="54"/>
-      <c r="AS5" s="54"/>
-      <c r="AT5" s="54"/>
-      <c r="AU5" s="54"/>
-      <c r="AV5" s="54"/>
-      <c r="AW5" s="54"/>
-      <c r="AX5" s="54"/>
-      <c r="AY5" s="54"/>
-      <c r="AZ5" s="54"/>
-      <c r="BA5" s="54"/>
-      <c r="BB5" s="54"/>
-      <c r="BC5" s="54"/>
-      <c r="BD5" s="54"/>
-      <c r="BE5" s="54"/>
-      <c r="BF5" s="54"/>
-      <c r="BG5" s="54"/>
-      <c r="BH5" s="54"/>
-      <c r="BI5" s="54"/>
-      <c r="BJ5" s="54"/>
-      <c r="BK5" s="54"/>
-      <c r="BL5" s="54"/>
-      <c r="BM5" s="54"/>
-      <c r="BN5" s="54"/>
-      <c r="BO5" s="54"/>
-      <c r="BP5" s="54"/>
-      <c r="BQ5" s="54"/>
-      <c r="BR5" s="54"/>
-      <c r="BS5" s="54"/>
-      <c r="BT5" s="54"/>
-      <c r="BU5" s="54"/>
-      <c r="BV5" s="54"/>
-      <c r="BW5" s="54"/>
-      <c r="BX5" s="54"/>
-      <c r="BY5" s="54"/>
-      <c r="BZ5" s="54"/>
-      <c r="CA5" s="54"/>
-      <c r="CB5" s="54"/>
-      <c r="CC5" s="54"/>
-      <c r="CD5" s="54"/>
-      <c r="CE5" s="54"/>
-      <c r="CF5" s="54"/>
-      <c r="CG5" s="54"/>
-      <c r="CH5" s="54"/>
-      <c r="CI5" s="54"/>
-      <c r="CJ5" s="54"/>
-      <c r="CK5" s="54"/>
-      <c r="CL5" s="54"/>
-      <c r="CM5" s="54"/>
-      <c r="CN5" s="54"/>
-      <c r="CO5" s="54"/>
-      <c r="CP5" s="54"/>
-      <c r="CQ5" s="54"/>
-      <c r="CR5" s="54"/>
-      <c r="CS5" s="54"/>
-      <c r="CT5" s="54"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="59"/>
+      <c r="AX5" s="59"/>
+      <c r="AY5" s="56"/>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="56"/>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="56"/>
+      <c r="BD5" s="59"/>
+      <c r="BE5" s="59"/>
+      <c r="BF5" s="56"/>
+      <c r="BG5" s="56"/>
+      <c r="BH5" s="56"/>
+      <c r="BI5" s="56"/>
+      <c r="BJ5" s="56"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59"/>
+      <c r="BM5" s="56"/>
+      <c r="BN5" s="56"/>
+      <c r="BO5" s="56"/>
+      <c r="BP5" s="56"/>
+      <c r="BQ5" s="56"/>
+      <c r="BR5" s="59"/>
+      <c r="BS5" s="59"/>
+      <c r="BT5" s="56"/>
+      <c r="BU5" s="56"/>
+      <c r="BV5" s="56"/>
+      <c r="BW5" s="56"/>
+      <c r="BX5" s="56"/>
+      <c r="BY5" s="59"/>
+      <c r="BZ5" s="59"/>
+      <c r="CA5" s="56"/>
+      <c r="CB5" s="56"/>
+      <c r="CC5" s="56"/>
+      <c r="CD5" s="56"/>
+      <c r="CE5" s="56"/>
+      <c r="CF5" s="59"/>
+      <c r="CG5" s="59"/>
+      <c r="CH5" s="56"/>
+      <c r="CI5" s="56"/>
+      <c r="CJ5" s="56"/>
+      <c r="CK5" s="56"/>
+      <c r="CL5" s="56"/>
+      <c r="CM5" s="59"/>
+      <c r="CN5" s="59"/>
+      <c r="CO5" s="56"/>
+      <c r="CP5" s="56"/>
+      <c r="CQ5" s="56"/>
+      <c r="CR5" s="56"/>
+      <c r="CS5" s="56"/>
+      <c r="CT5" s="59"/>
+      <c r="CU5" s="59"/>
+      <c r="CV5" s="68"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -6743,96 +7152,98 @@
       <c r="H6" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="54"/>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="54"/>
-      <c r="AI6" s="54"/>
-      <c r="AJ6" s="54"/>
-      <c r="AK6" s="54"/>
-      <c r="AL6" s="54"/>
-      <c r="AM6" s="54"/>
-      <c r="AN6" s="54"/>
-      <c r="AO6" s="54"/>
-      <c r="AP6" s="54"/>
-      <c r="AQ6" s="54"/>
-      <c r="AR6" s="54"/>
-      <c r="AS6" s="54"/>
-      <c r="AT6" s="54"/>
-      <c r="AU6" s="54"/>
-      <c r="AV6" s="54"/>
-      <c r="AW6" s="54"/>
-      <c r="AX6" s="54"/>
-      <c r="AY6" s="54"/>
-      <c r="AZ6" s="54"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="68"/>
+      <c r="AO6" s="68"/>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="68"/>
+      <c r="AT6" s="68"/>
+      <c r="AU6" s="68"/>
+      <c r="AV6" s="68"/>
+      <c r="AW6" s="59"/>
+      <c r="AX6" s="59"/>
+      <c r="AY6" s="68"/>
+      <c r="AZ6" s="68"/>
       <c r="BA6" s="54"/>
       <c r="BB6" s="54"/>
       <c r="BC6" s="54"/>
-      <c r="BD6" s="54"/>
-      <c r="BE6" s="54"/>
+      <c r="BD6" s="59"/>
+      <c r="BE6" s="59"/>
       <c r="BF6" s="54"/>
       <c r="BG6" s="54"/>
       <c r="BH6" s="54"/>
       <c r="BI6" s="54"/>
       <c r="BJ6" s="54"/>
-      <c r="BK6" s="54"/>
-      <c r="BL6" s="54"/>
+      <c r="BK6" s="59"/>
+      <c r="BL6" s="59"/>
       <c r="BM6" s="54"/>
       <c r="BN6" s="54"/>
       <c r="BO6" s="54"/>
       <c r="BP6" s="54"/>
       <c r="BQ6" s="54"/>
-      <c r="BR6" s="54"/>
-      <c r="BS6" s="54"/>
+      <c r="BR6" s="59"/>
+      <c r="BS6" s="59"/>
       <c r="BT6" s="54"/>
       <c r="BU6" s="54"/>
-      <c r="BV6" s="54"/>
-      <c r="BW6" s="54"/>
-      <c r="BX6" s="54"/>
-      <c r="BY6" s="54"/>
-      <c r="BZ6" s="54"/>
-      <c r="CA6" s="54"/>
-      <c r="CB6" s="54"/>
-      <c r="CC6" s="54"/>
-      <c r="CD6" s="54"/>
-      <c r="CE6" s="54"/>
-      <c r="CF6" s="54"/>
-      <c r="CG6" s="54"/>
-      <c r="CH6" s="54"/>
-      <c r="CI6" s="54"/>
-      <c r="CJ6" s="54"/>
-      <c r="CK6" s="54"/>
-      <c r="CL6" s="54"/>
-      <c r="CM6" s="54"/>
-      <c r="CN6" s="54"/>
-      <c r="CO6" s="54"/>
-      <c r="CP6" s="54"/>
-      <c r="CQ6" s="54"/>
-      <c r="CR6" s="54"/>
-      <c r="CS6" s="54"/>
-      <c r="CT6" s="54"/>
+      <c r="BV6" s="56"/>
+      <c r="BW6" s="56"/>
+      <c r="BX6" s="56"/>
+      <c r="BY6" s="59"/>
+      <c r="BZ6" s="59"/>
+      <c r="CA6" s="56"/>
+      <c r="CB6" s="56"/>
+      <c r="CC6" s="56"/>
+      <c r="CD6" s="56"/>
+      <c r="CE6" s="56"/>
+      <c r="CF6" s="59"/>
+      <c r="CG6" s="59"/>
+      <c r="CH6" s="56"/>
+      <c r="CI6" s="56"/>
+      <c r="CJ6" s="56"/>
+      <c r="CK6" s="56"/>
+      <c r="CL6" s="56"/>
+      <c r="CM6" s="59"/>
+      <c r="CN6" s="59"/>
+      <c r="CO6" s="56"/>
+      <c r="CP6" s="56"/>
+      <c r="CQ6" s="56"/>
+      <c r="CR6" s="56"/>
+      <c r="CS6" s="56"/>
+      <c r="CT6" s="59"/>
+      <c r="CU6" s="59"/>
+      <c r="CV6" s="68"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -6849,98 +7260,100 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="54"/>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="54"/>
-      <c r="AI7" s="54"/>
-      <c r="AJ7" s="54"/>
-      <c r="AK7" s="54"/>
-      <c r="AL7" s="54"/>
-      <c r="AM7" s="54"/>
+        <v>14</v>
+      </c>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="55"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
       <c r="AN7" s="54"/>
       <c r="AO7" s="54"/>
-      <c r="AP7" s="54"/>
-      <c r="AQ7" s="54"/>
-      <c r="AR7" s="54"/>
+      <c r="AP7" s="59"/>
+      <c r="AQ7" s="59"/>
+      <c r="AR7" s="57"/>
       <c r="AS7" s="54"/>
       <c r="AT7" s="54"/>
       <c r="AU7" s="54"/>
       <c r="AV7" s="54"/>
-      <c r="AW7" s="54"/>
-      <c r="AX7" s="54"/>
+      <c r="AW7" s="59"/>
+      <c r="AX7" s="59"/>
       <c r="AY7" s="54"/>
       <c r="AZ7" s="54"/>
       <c r="BA7" s="54"/>
       <c r="BB7" s="54"/>
       <c r="BC7" s="54"/>
-      <c r="BD7" s="54"/>
-      <c r="BE7" s="54"/>
+      <c r="BD7" s="59"/>
+      <c r="BE7" s="59"/>
       <c r="BF7" s="54"/>
       <c r="BG7" s="54"/>
       <c r="BH7" s="54"/>
-      <c r="BI7" s="54"/>
-      <c r="BJ7" s="54"/>
-      <c r="BK7" s="54"/>
-      <c r="BL7" s="54"/>
-      <c r="BM7" s="54"/>
-      <c r="BN7" s="54"/>
-      <c r="BO7" s="54"/>
-      <c r="BP7" s="54"/>
-      <c r="BQ7" s="54"/>
-      <c r="BR7" s="54"/>
-      <c r="BS7" s="54"/>
-      <c r="BT7" s="54"/>
-      <c r="BU7" s="54"/>
-      <c r="BV7" s="54"/>
-      <c r="BW7" s="54"/>
-      <c r="BX7" s="54"/>
-      <c r="BY7" s="54"/>
-      <c r="BZ7" s="54"/>
-      <c r="CA7" s="54"/>
-      <c r="CB7" s="54"/>
-      <c r="CC7" s="54"/>
-      <c r="CD7" s="54"/>
-      <c r="CE7" s="54"/>
-      <c r="CF7" s="54"/>
-      <c r="CG7" s="54"/>
-      <c r="CH7" s="54"/>
-      <c r="CI7" s="54"/>
-      <c r="CJ7" s="54"/>
-      <c r="CK7" s="54"/>
-      <c r="CL7" s="54"/>
-      <c r="CM7" s="54"/>
-      <c r="CN7" s="54"/>
-      <c r="CO7" s="54"/>
-      <c r="CP7" s="54"/>
-      <c r="CQ7" s="54"/>
-      <c r="CR7" s="54"/>
-      <c r="CS7" s="54"/>
-      <c r="CT7" s="54"/>
+      <c r="BI7" s="56"/>
+      <c r="BJ7" s="56"/>
+      <c r="BK7" s="59"/>
+      <c r="BL7" s="59"/>
+      <c r="BM7" s="56"/>
+      <c r="BN7" s="56"/>
+      <c r="BO7" s="56"/>
+      <c r="BP7" s="56"/>
+      <c r="BQ7" s="56"/>
+      <c r="BR7" s="59"/>
+      <c r="BS7" s="59"/>
+      <c r="BT7" s="56"/>
+      <c r="BU7" s="56"/>
+      <c r="BV7" s="56"/>
+      <c r="BW7" s="56"/>
+      <c r="BX7" s="56"/>
+      <c r="BY7" s="59"/>
+      <c r="BZ7" s="59"/>
+      <c r="CA7" s="56"/>
+      <c r="CB7" s="56"/>
+      <c r="CC7" s="56"/>
+      <c r="CD7" s="56"/>
+      <c r="CE7" s="56"/>
+      <c r="CF7" s="59"/>
+      <c r="CG7" s="59"/>
+      <c r="CH7" s="56"/>
+      <c r="CI7" s="56"/>
+      <c r="CJ7" s="56"/>
+      <c r="CK7" s="56"/>
+      <c r="CL7" s="56"/>
+      <c r="CM7" s="59"/>
+      <c r="CN7" s="59"/>
+      <c r="CO7" s="56"/>
+      <c r="CP7" s="56"/>
+      <c r="CQ7" s="56"/>
+      <c r="CR7" s="56"/>
+      <c r="CS7" s="56"/>
+      <c r="CT7" s="59"/>
+      <c r="CU7" s="59"/>
+      <c r="CV7" s="68"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -6961,98 +7374,100 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="54"/>
-      <c r="AM8" s="54"/>
+        <v>7</v>
+      </c>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
       <c r="AN8" s="54"/>
       <c r="AO8" s="54"/>
-      <c r="AP8" s="54"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="54"/>
+      <c r="AP8" s="59"/>
+      <c r="AQ8" s="59"/>
+      <c r="AR8" s="57"/>
       <c r="AS8" s="54"/>
       <c r="AT8" s="54"/>
       <c r="AU8" s="54"/>
       <c r="AV8" s="54"/>
-      <c r="AW8" s="54"/>
-      <c r="AX8" s="54"/>
+      <c r="AW8" s="59"/>
+      <c r="AX8" s="59"/>
       <c r="AY8" s="54"/>
-      <c r="AZ8" s="54"/>
-      <c r="BA8" s="54"/>
-      <c r="BB8" s="54"/>
-      <c r="BC8" s="54"/>
-      <c r="BD8" s="54"/>
-      <c r="BE8" s="54"/>
-      <c r="BF8" s="54"/>
-      <c r="BG8" s="54"/>
-      <c r="BH8" s="54"/>
-      <c r="BI8" s="54"/>
-      <c r="BJ8" s="54"/>
-      <c r="BK8" s="54"/>
-      <c r="BL8" s="54"/>
-      <c r="BM8" s="54"/>
-      <c r="BN8" s="54"/>
-      <c r="BO8" s="54"/>
-      <c r="BP8" s="54"/>
-      <c r="BQ8" s="54"/>
-      <c r="BR8" s="54"/>
-      <c r="BS8" s="54"/>
-      <c r="BT8" s="54"/>
-      <c r="BU8" s="54"/>
-      <c r="BV8" s="54"/>
-      <c r="BW8" s="54"/>
-      <c r="BX8" s="54"/>
-      <c r="BY8" s="54"/>
-      <c r="BZ8" s="54"/>
-      <c r="CA8" s="54"/>
-      <c r="CB8" s="54"/>
-      <c r="CC8" s="54"/>
-      <c r="CD8" s="54"/>
-      <c r="CE8" s="54"/>
-      <c r="CF8" s="54"/>
-      <c r="CG8" s="54"/>
-      <c r="CH8" s="54"/>
-      <c r="CI8" s="54"/>
-      <c r="CJ8" s="54"/>
-      <c r="CK8" s="54"/>
-      <c r="CL8" s="54"/>
-      <c r="CM8" s="54"/>
-      <c r="CN8" s="54"/>
-      <c r="CO8" s="54"/>
-      <c r="CP8" s="54"/>
-      <c r="CQ8" s="54"/>
-      <c r="CR8" s="54"/>
-      <c r="CS8" s="54"/>
-      <c r="CT8" s="54"/>
+      <c r="AZ8" s="56"/>
+      <c r="BA8" s="56"/>
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="56"/>
+      <c r="BD8" s="59"/>
+      <c r="BE8" s="59"/>
+      <c r="BF8" s="56"/>
+      <c r="BG8" s="56"/>
+      <c r="BH8" s="56"/>
+      <c r="BI8" s="56"/>
+      <c r="BJ8" s="56"/>
+      <c r="BK8" s="59"/>
+      <c r="BL8" s="59"/>
+      <c r="BM8" s="56"/>
+      <c r="BN8" s="56"/>
+      <c r="BO8" s="56"/>
+      <c r="BP8" s="56"/>
+      <c r="BQ8" s="56"/>
+      <c r="BR8" s="59"/>
+      <c r="BS8" s="59"/>
+      <c r="BT8" s="56"/>
+      <c r="BU8" s="56"/>
+      <c r="BV8" s="56"/>
+      <c r="BW8" s="56"/>
+      <c r="BX8" s="56"/>
+      <c r="BY8" s="59"/>
+      <c r="BZ8" s="59"/>
+      <c r="CA8" s="56"/>
+      <c r="CB8" s="56"/>
+      <c r="CC8" s="56"/>
+      <c r="CD8" s="56"/>
+      <c r="CE8" s="56"/>
+      <c r="CF8" s="59"/>
+      <c r="CG8" s="59"/>
+      <c r="CH8" s="56"/>
+      <c r="CI8" s="56"/>
+      <c r="CJ8" s="56"/>
+      <c r="CK8" s="56"/>
+      <c r="CL8" s="56"/>
+      <c r="CM8" s="59"/>
+      <c r="CN8" s="59"/>
+      <c r="CO8" s="56"/>
+      <c r="CP8" s="56"/>
+      <c r="CQ8" s="56"/>
+      <c r="CR8" s="56"/>
+      <c r="CS8" s="56"/>
+      <c r="CT8" s="59"/>
+      <c r="CU8" s="59"/>
+      <c r="CV8" s="68"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -7066,103 +7481,105 @@
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="54"/>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="54"/>
-      <c r="AM9" s="54"/>
-      <c r="AN9" s="54"/>
-      <c r="AO9" s="54"/>
-      <c r="AP9" s="54"/>
-      <c r="AQ9" s="54"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="54"/>
-      <c r="AZ9" s="54"/>
-      <c r="BA9" s="54"/>
-      <c r="BB9" s="54"/>
-      <c r="BC9" s="54"/>
-      <c r="BD9" s="54"/>
-      <c r="BE9" s="54"/>
-      <c r="BF9" s="54"/>
-      <c r="BG9" s="54"/>
-      <c r="BH9" s="54"/>
-      <c r="BI9" s="54"/>
-      <c r="BJ9" s="54"/>
-      <c r="BK9" s="54"/>
-      <c r="BL9" s="54"/>
-      <c r="BM9" s="54"/>
-      <c r="BN9" s="54"/>
-      <c r="BO9" s="54"/>
-      <c r="BP9" s="54"/>
-      <c r="BQ9" s="54"/>
-      <c r="BR9" s="54"/>
-      <c r="BS9" s="54"/>
-      <c r="BT9" s="54"/>
-      <c r="BU9" s="54"/>
+        <v>15</v>
+      </c>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="59"/>
+      <c r="AR9" s="57"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="56"/>
+      <c r="AW9" s="59"/>
+      <c r="AX9" s="59"/>
+      <c r="AY9" s="56"/>
+      <c r="AZ9" s="56"/>
+      <c r="BA9" s="56"/>
+      <c r="BB9" s="56"/>
+      <c r="BC9" s="56"/>
+      <c r="BD9" s="59"/>
+      <c r="BE9" s="59"/>
+      <c r="BF9" s="56"/>
+      <c r="BG9" s="56"/>
+      <c r="BH9" s="56"/>
+      <c r="BI9" s="56"/>
+      <c r="BJ9" s="56"/>
+      <c r="BK9" s="59"/>
+      <c r="BL9" s="59"/>
+      <c r="BM9" s="56"/>
+      <c r="BN9" s="56"/>
+      <c r="BO9" s="56"/>
+      <c r="BP9" s="56"/>
+      <c r="BQ9" s="56"/>
+      <c r="BR9" s="59"/>
+      <c r="BS9" s="59"/>
+      <c r="BT9" s="56"/>
+      <c r="BU9" s="56"/>
       <c r="BV9" s="54"/>
       <c r="BW9" s="54"/>
       <c r="BX9" s="54"/>
-      <c r="BY9" s="54"/>
-      <c r="BZ9" s="54"/>
+      <c r="BY9" s="59"/>
+      <c r="BZ9" s="59"/>
       <c r="CA9" s="54"/>
       <c r="CB9" s="54"/>
       <c r="CC9" s="54"/>
       <c r="CD9" s="54"/>
       <c r="CE9" s="54"/>
-      <c r="CF9" s="54"/>
-      <c r="CG9" s="54"/>
+      <c r="CF9" s="59"/>
+      <c r="CG9" s="59"/>
       <c r="CH9" s="54"/>
       <c r="CI9" s="54"/>
       <c r="CJ9" s="54"/>
       <c r="CK9" s="54"/>
       <c r="CL9" s="54"/>
-      <c r="CM9" s="54"/>
-      <c r="CN9" s="54"/>
+      <c r="CM9" s="59"/>
+      <c r="CN9" s="59"/>
       <c r="CO9" s="54"/>
       <c r="CP9" s="54"/>
-      <c r="CQ9" s="54"/>
-      <c r="CR9" s="54"/>
-      <c r="CS9" s="54"/>
-      <c r="CT9" s="54"/>
+      <c r="CQ9" s="56"/>
+      <c r="CR9" s="56"/>
+      <c r="CS9" s="56"/>
+      <c r="CT9" s="59"/>
+      <c r="CU9" s="59"/>
+      <c r="CV9" s="68"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -7171,866 +7588,545 @@
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="54"/>
-      <c r="AI10" s="54"/>
-      <c r="AJ10" s="54"/>
-      <c r="AK10" s="54"/>
-      <c r="AL10" s="54"/>
-      <c r="AM10" s="54"/>
-      <c r="AN10" s="54"/>
-      <c r="AO10" s="54"/>
-      <c r="AP10" s="54"/>
-      <c r="AQ10" s="54"/>
-      <c r="AR10" s="54"/>
-      <c r="AS10" s="54"/>
-      <c r="AT10" s="54"/>
-      <c r="AU10" s="54"/>
-      <c r="AV10" s="54"/>
-      <c r="AW10" s="54"/>
-      <c r="AX10" s="54"/>
-      <c r="AY10" s="54"/>
-      <c r="AZ10" s="54"/>
-      <c r="BA10" s="54"/>
-      <c r="BB10" s="54"/>
-      <c r="BC10" s="54"/>
-      <c r="BD10" s="54"/>
-      <c r="BE10" s="54"/>
-      <c r="BF10" s="54"/>
-      <c r="BG10" s="54"/>
-      <c r="BH10" s="54"/>
-      <c r="BI10" s="54"/>
-      <c r="BJ10" s="54"/>
-      <c r="BK10" s="54"/>
-      <c r="BL10" s="54"/>
-      <c r="BM10" s="54"/>
-      <c r="BN10" s="54"/>
-      <c r="BO10" s="54"/>
-      <c r="BP10" s="54"/>
-      <c r="BQ10" s="54"/>
-      <c r="BR10" s="54"/>
-      <c r="BS10" s="54"/>
-      <c r="BT10" s="54"/>
-      <c r="BU10" s="54"/>
-      <c r="BV10" s="54"/>
-      <c r="BW10" s="54"/>
-      <c r="BX10" s="54"/>
-      <c r="BY10" s="54"/>
-      <c r="BZ10" s="54"/>
-      <c r="CA10" s="54"/>
-      <c r="CB10" s="54"/>
-      <c r="CC10" s="54"/>
-      <c r="CD10" s="54"/>
-      <c r="CE10" s="54"/>
-      <c r="CF10" s="54"/>
-      <c r="CG10" s="54"/>
-      <c r="CH10" s="54"/>
-      <c r="CI10" s="54"/>
-      <c r="CJ10" s="54"/>
-      <c r="CK10" s="54"/>
-      <c r="CL10" s="54"/>
-      <c r="CM10" s="54"/>
-      <c r="CN10" s="54"/>
-      <c r="CO10" s="54"/>
-      <c r="CP10" s="54"/>
-      <c r="CQ10" s="54"/>
-      <c r="CR10" s="54"/>
-      <c r="CS10" s="54"/>
-      <c r="CT10" s="54"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="62"/>
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="61"/>
+      <c r="AL10" s="61"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="61"/>
+      <c r="AO10" s="61"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="63"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="61"/>
+      <c r="AU10" s="61"/>
+      <c r="AV10" s="61"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="61"/>
+      <c r="AZ10" s="61"/>
+      <c r="BA10" s="61"/>
+      <c r="BB10" s="61"/>
+      <c r="BC10" s="61"/>
+      <c r="BD10" s="65"/>
+      <c r="BE10" s="65"/>
+      <c r="BF10" s="61"/>
+      <c r="BG10" s="61"/>
+      <c r="BH10" s="61"/>
+      <c r="BI10" s="61"/>
+      <c r="BJ10" s="61"/>
+      <c r="BK10" s="65"/>
+      <c r="BL10" s="65"/>
+      <c r="BM10" s="61"/>
+      <c r="BN10" s="61"/>
+      <c r="BO10" s="61"/>
+      <c r="BP10" s="61"/>
+      <c r="BQ10" s="61"/>
+      <c r="BR10" s="65"/>
+      <c r="BS10" s="65"/>
+      <c r="BT10" s="61"/>
+      <c r="BU10" s="61"/>
+      <c r="BV10" s="61"/>
+      <c r="BW10" s="61"/>
+      <c r="BX10" s="61"/>
+      <c r="BY10" s="65"/>
+      <c r="BZ10" s="65"/>
+      <c r="CA10" s="61"/>
+      <c r="CB10" s="61"/>
+      <c r="CC10" s="61"/>
+      <c r="CD10" s="61"/>
+      <c r="CE10" s="61"/>
+      <c r="CF10" s="65"/>
+      <c r="CG10" s="65"/>
+      <c r="CH10" s="61"/>
+      <c r="CI10" s="61"/>
+      <c r="CJ10" s="61"/>
+      <c r="CK10" s="61"/>
+      <c r="CL10" s="61"/>
+      <c r="CM10" s="65"/>
+      <c r="CN10" s="65"/>
+      <c r="CO10" s="61"/>
+      <c r="CP10" s="61"/>
+      <c r="CQ10" s="66"/>
+      <c r="CR10" s="66"/>
+      <c r="CS10" s="66"/>
+      <c r="CT10" s="65"/>
+      <c r="CU10" s="65"/>
+      <c r="CV10" s="66"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24" t="n">
+        <f aca="false">A12+A14</f>
+        <v>15</v>
+      </c>
+      <c r="F12" s="22" t="n">
+        <f aca="false">C12</f>
+        <v>15</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24" t="n">
+        <f aca="false">F12+F14</f>
+        <v>21</v>
+      </c>
+      <c r="P12" s="22" t="n">
+        <f aca="false">H12</f>
+        <v>21</v>
+      </c>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="24" t="n">
+        <f aca="false">P12+P14</f>
+        <v>28</v>
+      </c>
+      <c r="U12" s="22" t="n">
+        <f aca="false">MAX(R12,R18)</f>
+        <v>59</v>
+      </c>
+      <c r="V12" s="23"/>
+      <c r="W12" s="24" t="n">
+        <f aca="false">U12+U14</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="n">
+        <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
+        <v>15</v>
+      </c>
+      <c r="B14" s="29" t="n">
+        <f aca="false">C15-C12</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="31"/>
+      <c r="F14" s="28" t="n">
+        <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="G14" s="29" t="n">
+        <f aca="false">H15-H12</f>
+        <v>31</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="P14" s="28" t="n">
+        <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
         <v>7</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="54"/>
-      <c r="AH11" s="54"/>
-      <c r="AI11" s="54"/>
-      <c r="AJ11" s="54"/>
-      <c r="AK11" s="54"/>
-      <c r="AL11" s="54"/>
-      <c r="AM11" s="54"/>
-      <c r="AN11" s="54"/>
-      <c r="AO11" s="54"/>
-      <c r="AP11" s="54"/>
-      <c r="AQ11" s="54"/>
-      <c r="AR11" s="54"/>
-      <c r="AS11" s="54"/>
-      <c r="AT11" s="54"/>
-      <c r="AU11" s="54"/>
-      <c r="AV11" s="54"/>
-      <c r="AW11" s="54"/>
-      <c r="AX11" s="54"/>
-      <c r="AY11" s="54"/>
-      <c r="AZ11" s="54"/>
-      <c r="BA11" s="54"/>
-      <c r="BB11" s="54"/>
-      <c r="BC11" s="54"/>
-      <c r="BD11" s="54"/>
-      <c r="BE11" s="54"/>
-      <c r="BF11" s="54"/>
-      <c r="BG11" s="54"/>
-      <c r="BH11" s="54"/>
-      <c r="BI11" s="54"/>
-      <c r="BJ11" s="54"/>
-      <c r="BK11" s="54"/>
-      <c r="BL11" s="54"/>
-      <c r="BM11" s="54"/>
-      <c r="BN11" s="54"/>
-      <c r="BO11" s="54"/>
-      <c r="BP11" s="54"/>
-      <c r="BQ11" s="54"/>
-      <c r="BR11" s="54"/>
-      <c r="BS11" s="54"/>
-      <c r="BT11" s="54"/>
-      <c r="BU11" s="54"/>
-      <c r="BV11" s="54"/>
-      <c r="BW11" s="54"/>
-      <c r="BX11" s="54"/>
-      <c r="BY11" s="54"/>
-      <c r="BZ11" s="54"/>
-      <c r="CA11" s="54"/>
-      <c r="CB11" s="54"/>
-      <c r="CC11" s="54"/>
-      <c r="CD11" s="54"/>
-      <c r="CE11" s="54"/>
-      <c r="CF11" s="54"/>
-      <c r="CG11" s="54"/>
-      <c r="CH11" s="54"/>
-      <c r="CI11" s="54"/>
-      <c r="CJ11" s="54"/>
-      <c r="CK11" s="54"/>
-      <c r="CL11" s="54"/>
-      <c r="CM11" s="54"/>
-      <c r="CN11" s="54"/>
-      <c r="CO11" s="54"/>
-      <c r="CP11" s="54"/>
-      <c r="CQ11" s="54"/>
-      <c r="CR11" s="54"/>
-      <c r="CS11" s="54"/>
-      <c r="CT11" s="54"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="4" t="n">
+      <c r="Q14" s="29" t="n">
+        <f aca="false">R15-R12</f>
+        <v>31</v>
+      </c>
+      <c r="R14" s="43"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="28" t="n">
+        <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
         <v>4</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="56"/>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="56"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="56"/>
-      <c r="AP12" s="56"/>
-      <c r="AQ12" s="56"/>
-      <c r="AR12" s="56"/>
-      <c r="AS12" s="56"/>
-      <c r="AT12" s="56"/>
-      <c r="AU12" s="56"/>
-      <c r="AV12" s="56"/>
-      <c r="AW12" s="56"/>
-      <c r="AX12" s="56"/>
-      <c r="AY12" s="56"/>
-      <c r="AZ12" s="56"/>
-      <c r="BA12" s="56"/>
-      <c r="BB12" s="56"/>
-      <c r="BC12" s="56"/>
-      <c r="BD12" s="56"/>
-      <c r="BE12" s="56"/>
-      <c r="BF12" s="56"/>
-      <c r="BG12" s="56"/>
-      <c r="BH12" s="56"/>
-      <c r="BI12" s="56"/>
-      <c r="BJ12" s="56"/>
-      <c r="BK12" s="56"/>
-      <c r="BL12" s="56"/>
-      <c r="BM12" s="56"/>
-      <c r="BN12" s="56"/>
-      <c r="BO12" s="56"/>
-      <c r="BP12" s="56"/>
-      <c r="BQ12" s="56"/>
-      <c r="BR12" s="56"/>
-      <c r="BS12" s="56"/>
-      <c r="BT12" s="56"/>
-      <c r="BU12" s="56"/>
-      <c r="BV12" s="56"/>
-      <c r="BW12" s="56"/>
-      <c r="BX12" s="56"/>
-      <c r="BY12" s="56"/>
-      <c r="BZ12" s="56"/>
-      <c r="CA12" s="56"/>
-      <c r="CB12" s="56"/>
-      <c r="CC12" s="56"/>
-      <c r="CD12" s="56"/>
-      <c r="CE12" s="56"/>
-      <c r="CF12" s="56"/>
-      <c r="CG12" s="56"/>
-      <c r="CH12" s="56"/>
-      <c r="CI12" s="56"/>
-      <c r="CJ12" s="56"/>
-      <c r="CK12" s="56"/>
-      <c r="CL12" s="56"/>
-      <c r="CM12" s="56"/>
-      <c r="CN12" s="56"/>
-      <c r="CO12" s="56"/>
-      <c r="CP12" s="56"/>
-      <c r="CQ12" s="56"/>
-      <c r="CR12" s="56"/>
-      <c r="CS12" s="56"/>
-      <c r="CT12" s="56"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="n">
+      <c r="V14" s="42" t="n">
+        <f aca="false">W15-W12</f>
         <v>0</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24" t="n">
-        <f aca="false">A14+A16</f>
-        <v>4</v>
-      </c>
-      <c r="F14" s="22" t="n">
-        <f aca="false">C14</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24" t="n">
-        <f aca="false">F14+F16</f>
-        <v>13</v>
-      </c>
-      <c r="P14" s="22" t="n">
-        <f aca="false">H14</f>
-        <v>13</v>
-      </c>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="24" t="n">
-        <f aca="false">P14+P16</f>
-        <v>24</v>
-      </c>
-      <c r="U14" s="22" t="n">
-        <f aca="false">R14</f>
-        <v>24</v>
-      </c>
-      <c r="V14" s="23"/>
-      <c r="W14" s="24" t="n">
-        <f aca="false">U14+U16</f>
-        <v>34</v>
-      </c>
+      <c r="W14" s="43"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="26"/>
+      <c r="A15" s="33" t="n">
+        <f aca="false">C15-A14</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="34" t="n">
+        <f aca="false">MIN(F15,F21,F27)</f>
+        <v>15</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="F15" s="33" t="n">
+        <f aca="false">H15-F14</f>
+        <v>46</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="34" t="n">
+        <f aca="false">P15</f>
+        <v>52</v>
+      </c>
+      <c r="P15" s="33" t="n">
+        <f aca="false">R15-P14</f>
+        <v>52</v>
+      </c>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="34" t="n">
+        <f aca="false">U15</f>
+        <v>59</v>
+      </c>
+      <c r="S15" s="36"/>
+      <c r="U15" s="33" t="n">
+        <f aca="false">W15-U14</f>
+        <v>59</v>
+      </c>
+      <c r="V15" s="23"/>
+      <c r="W15" s="34" t="n">
+        <f aca="false">W12</f>
+        <v>63</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="n">
-        <f aca="false">VLOOKUP(A15,$A$2:$H$12,8)</f>
-        <v>4</v>
-      </c>
-      <c r="B16" s="29" t="n">
-        <f aca="false">C17-C14</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="43" t="n">
-        <f aca="false">MIN(F14,F20,F26)-C14</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="F16" s="28" t="n">
-        <f aca="false">VLOOKUP(F15,$A$2:$H$12,8)</f>
-        <v>9</v>
-      </c>
-      <c r="G16" s="29" t="n">
-        <f aca="false">H17-H14</f>
+      <c r="C16" s="76"/>
+      <c r="D16" s="36"/>
+      <c r="S16" s="36"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="S17" s="36"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="F18" s="22" t="n">
+        <f aca="false">C12</f>
         <v>15</v>
       </c>
-      <c r="H16" s="43" t="n">
-        <f aca="false">P14-H14</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="28" t="n">
-        <f aca="false">VLOOKUP(P15,$A$2:$H$12,8)</f>
-        <v>11</v>
-      </c>
-      <c r="Q16" s="29" t="n">
-        <f aca="false">R17-R14</f>
-        <v>15</v>
-      </c>
-      <c r="R16" s="43" t="n">
-        <f aca="false">U14-R14</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="57"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="28" t="n">
-        <f aca="false">VLOOKUP(U15,$A$2:$H$12,8)</f>
-        <v>10</v>
-      </c>
-      <c r="V16" s="29" t="n">
-        <f aca="false">W17-W14</f>
-        <v>15</v>
-      </c>
-      <c r="W16" s="43" t="n">
-        <f aca="false">Z17-W14</f>
-        <v>15</v>
-      </c>
-      <c r="X16" s="65"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="33" t="n">
-        <f aca="false">C17-A16</f>
-        <v>0</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="34" t="n">
-        <f aca="false">MIN(F17,F23,F29)</f>
-        <v>4</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="F17" s="33" t="n">
-        <f aca="false">H17-F16</f>
-        <v>19</v>
-      </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="34" t="n">
-        <f aca="false">P17</f>
-        <v>28</v>
-      </c>
-      <c r="P17" s="33" t="n">
-        <f aca="false">R17-P16</f>
-        <v>28</v>
-      </c>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="66" t="n">
-        <f aca="false">U17</f>
-        <v>39</v>
-      </c>
-      <c r="U17" s="33" t="n">
-        <f aca="false">W17-U16</f>
-        <v>39</v>
-      </c>
-      <c r="V17" s="23"/>
-      <c r="W17" s="34" t="n">
-        <f aca="false">Z20</f>
-        <v>49</v>
-      </c>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="22" t="n">
-        <f aca="false">MAX(W14,W20)</f>
-        <v>49</v>
-      </c>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="24" t="n">
-        <f aca="false">Z17+Z19</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="59"/>
-      <c r="D18" s="36"/>
-      <c r="Z18" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24" t="n">
+        <f aca="false">F18+F20</f>
+        <v>29</v>
+      </c>
+      <c r="K18" s="22" t="n">
+        <f aca="false">H18</f>
+        <v>29</v>
+      </c>
+      <c r="L18" s="23"/>
+      <c r="M18" s="24" t="n">
+        <f aca="false">K18+K20</f>
+        <v>44</v>
+      </c>
+      <c r="P18" s="22" t="n">
+        <f aca="false">MAX(M18,M24)</f>
+        <v>44</v>
+      </c>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="24" t="n">
+        <f aca="false">P18+P20</f>
+        <v>59</v>
+      </c>
+      <c r="S18" s="36"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="28" t="n">
-        <f aca="false">VLOOKUP(Z18,$A$2:$H$12,8)</f>
-        <v>4</v>
-      </c>
-      <c r="AA19" s="29" t="n">
-        <f aca="false">AB20-AB17</f>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="43" t="n">
-        <v>0</v>
-      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="38"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="F20" s="22" t="n">
-        <f aca="false">C14</f>
-        <v>4</v>
-      </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24" t="n">
-        <f aca="false">F20+F22</f>
-        <v>11</v>
-      </c>
-      <c r="K20" s="22" t="n">
-        <f aca="false">H20</f>
-        <v>11</v>
-      </c>
-      <c r="L20" s="23"/>
-      <c r="M20" s="24" t="n">
-        <f aca="false">K20+K22</f>
-        <v>26</v>
-      </c>
-      <c r="P20" s="22" t="n">
-        <f aca="false">MAX(M20,M26)</f>
-        <v>32</v>
-      </c>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="24" t="n">
-        <f aca="false">P20+P22</f>
-        <v>39</v>
-      </c>
-      <c r="U20" s="22" t="n">
-        <f aca="false">R20</f>
-        <v>39</v>
-      </c>
-      <c r="V20" s="23"/>
-      <c r="W20" s="24" t="n">
-        <f aca="false">U20+U22</f>
-        <v>49</v>
-      </c>
-      <c r="X20" s="67"/>
-      <c r="Z20" s="33" t="n">
-        <f aca="false">AB20-Z19</f>
-        <v>49</v>
-      </c>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="34" t="n">
-        <f aca="false">AB17</f>
-        <v>53</v>
-      </c>
+      <c r="F20" s="28" t="n">
+        <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
+        <v>14</v>
+      </c>
+      <c r="G20" s="29" t="n">
+        <f aca="false">H21-H18</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="43"/>
+      <c r="I20" s="67"/>
+      <c r="K20" s="28" t="n">
+        <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
+        <v>15</v>
+      </c>
+      <c r="L20" s="29" t="n">
+        <f aca="false">M21-M18</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="43"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="28" t="n">
+        <f aca="false">VLOOKUP(P19,$A$2:$H$10,8)</f>
+        <v>15</v>
+      </c>
+      <c r="Q20" s="29" t="n">
+        <f aca="false">R21-R18</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="43"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="38"/>
+      <c r="F21" s="33" t="n">
+        <f aca="false">H21-F20</f>
+        <v>15</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="34" t="n">
+        <f aca="false">K21</f>
+        <v>29</v>
+      </c>
+      <c r="K21" s="33" t="n">
+        <f aca="false">M21-K20</f>
+        <v>29</v>
+      </c>
+      <c r="L21" s="23"/>
+      <c r="M21" s="34" t="n">
+        <f aca="false">P21</f>
+        <v>44</v>
+      </c>
+      <c r="N21" s="36"/>
+      <c r="P21" s="33" t="n">
+        <f aca="false">R21-P20</f>
+        <v>44</v>
+      </c>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="34" t="n">
+        <f aca="false">U15</f>
+        <v>59</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="36"/>
-      <c r="F22" s="28" t="n">
-        <f aca="false">VLOOKUP(F21,$A$2:$H$12,8)</f>
-        <v>7</v>
-      </c>
-      <c r="G22" s="29" t="n">
-        <f aca="false">H23-H20</f>
-        <v>6</v>
-      </c>
-      <c r="H22" s="43" t="n">
-        <f aca="false">K20-H20</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="57"/>
-      <c r="K22" s="28" t="n">
-        <f aca="false">VLOOKUP(K21,$A$2:$H$12,8)</f>
-        <v>15</v>
-      </c>
-      <c r="L22" s="29" t="n">
-        <f aca="false">M23-M20</f>
-        <v>6</v>
-      </c>
-      <c r="M22" s="43" t="n">
-        <f aca="false">P20-M20</f>
-        <v>6</v>
-      </c>
-      <c r="O22" s="32"/>
-      <c r="P22" s="28" t="n">
-        <f aca="false">VLOOKUP(P21,$A$2:$H$12,8)</f>
-        <v>7</v>
-      </c>
-      <c r="Q22" s="29" t="n">
-        <f aca="false">R23-R20</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="43" t="n">
-        <f aca="false">U20-R20</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="28" t="n">
-        <f aca="false">VLOOKUP(U21,$A$2:$H$12,8)</f>
-        <v>10</v>
-      </c>
-      <c r="V22" s="29" t="n">
-        <f aca="false">W23-W20</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="43" t="n">
-        <f aca="false">Z17-W20</f>
-        <v>0</v>
-      </c>
+      <c r="N22" s="36"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="36"/>
-      <c r="F23" s="33" t="n">
-        <f aca="false">H23-F22</f>
-        <v>10</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="66" t="n">
-        <f aca="false">K23</f>
-        <v>17</v>
-      </c>
-      <c r="K23" s="33" t="n">
-        <f aca="false">M23-K22</f>
-        <v>17</v>
-      </c>
-      <c r="L23" s="23"/>
-      <c r="M23" s="66" t="n">
-        <f aca="false">P23</f>
-        <v>32</v>
-      </c>
       <c r="N23" s="36"/>
-      <c r="P23" s="33" t="n">
-        <f aca="false">R23-P22</f>
-        <v>32</v>
-      </c>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="66" t="n">
-        <f aca="false">U23</f>
-        <v>39</v>
-      </c>
-      <c r="U23" s="33" t="n">
-        <f aca="false">W23-U22</f>
-        <v>39</v>
-      </c>
-      <c r="V23" s="23"/>
-      <c r="W23" s="34" t="n">
-        <f aca="false">Z20</f>
-        <v>49</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="36"/>
+      <c r="F24" s="22" t="n">
+        <f aca="false">C12</f>
+        <v>15</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24" t="n">
+        <f aca="false">F24+F26</f>
+        <v>21</v>
+      </c>
+      <c r="K24" s="22" t="n">
+        <f aca="false">H24</f>
+        <v>21</v>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="24" t="n">
+        <f aca="false">K24+K26</f>
+        <v>35</v>
+      </c>
       <c r="N24" s="36"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="36"/>
-      <c r="N25" s="36"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="38"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="36"/>
-      <c r="F26" s="22" t="n">
-        <f aca="false">C14</f>
-        <v>4</v>
-      </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24" t="n">
-        <f aca="false">F26+F28</f>
-        <v>19</v>
-      </c>
-      <c r="K26" s="22" t="n">
-        <f aca="false">H26</f>
-        <v>19</v>
-      </c>
-      <c r="L26" s="23"/>
-      <c r="M26" s="24" t="n">
-        <f aca="false">K26+K28</f>
-        <v>32</v>
-      </c>
-      <c r="N26" s="36"/>
+      <c r="F26" s="28" t="n">
+        <f aca="false">VLOOKUP(F25,$A$2:$H$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="G26" s="29" t="n">
+        <f aca="false">H27-H24</f>
+        <v>9</v>
+      </c>
+      <c r="H26" s="43"/>
+      <c r="K26" s="28" t="n">
+        <f aca="false">VLOOKUP(K25,$A$2:$H$10,8)</f>
+        <v>14</v>
+      </c>
+      <c r="L26" s="29" t="n">
+        <f aca="false">M27-M24</f>
+        <v>9</v>
+      </c>
+      <c r="M26" s="43"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="36"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="38"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="28" t="n">
-        <f aca="false">VLOOKUP(F27,$A$2:$H$12,8)</f>
-        <v>15</v>
-      </c>
-      <c r="G28" s="29" t="n">
-        <f aca="false">H29-H26</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="43" t="n">
-        <f aca="false">K26-H26</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="28" t="n">
-        <f aca="false">VLOOKUP(K27,$A$2:$H$12,8)</f>
-        <v>13</v>
-      </c>
-      <c r="L28" s="42" t="n">
-        <f aca="false">M29-M26</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="43" t="n">
-        <f aca="false">P20-M26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="33" t="n">
-        <f aca="false">H29-F28</f>
-        <v>4</v>
-      </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="66" t="n">
-        <f aca="false">K29</f>
-        <v>19</v>
-      </c>
-      <c r="K29" s="33" t="n">
-        <f aca="false">M29-K28</f>
-        <v>19</v>
-      </c>
-      <c r="L29" s="23"/>
-      <c r="M29" s="34" t="n">
-        <f aca="false">P23</f>
-        <v>32</v>
+      <c r="F27" s="33" t="n">
+        <f aca="false">H27-F26</f>
+        <v>24</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="34" t="n">
+        <f aca="false">K27</f>
+        <v>30</v>
+      </c>
+      <c r="K27" s="33" t="n">
+        <f aca="false">M27-K26</f>
+        <v>30</v>
+      </c>
+      <c r="L27" s="23"/>
+      <c r="M27" s="34" t="n">
+        <f aca="false">P21</f>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="11">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="K25:M25"/>
   </mergeCells>
-  <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
+  <conditionalFormatting sqref="V14">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+  <conditionalFormatting sqref="Q20">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+  <conditionalFormatting sqref="Q14">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
+  <conditionalFormatting sqref="L26">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+  <conditionalFormatting sqref="L20">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA19">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q16">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>0</formula>
+  <conditionalFormatting sqref="I1:AW1 AY1:CV1">
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:CT1">
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
+  <conditionalFormatting sqref="AX1 BE1 BL1 BS1 BZ1 CG1 CN1 CU1:CV1">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>IF(OR(WEEKDAY(AX$1)=7,WEEKDAY(AX$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8051,16 +8147,16 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="68" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="81" width="25.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="81" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -8071,10 +8167,10 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="69" t="n">
+      <c r="A2" s="82" t="n">
         <v>45297</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="81" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -8086,10 +8182,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="69" t="n">
+      <c r="A3" s="82" t="n">
         <v>45359</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="81" t="s">
         <v>57</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -8103,10 +8199,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="69" t="n">
+      <c r="A4" s="82" t="n">
         <v>45380</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="81" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -8120,10 +8216,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="69" t="n">
+      <c r="A5" s="82" t="n">
         <v>45383</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="81" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -8137,10 +8233,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="69" t="n">
+      <c r="A6" s="82" t="n">
         <v>45413</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="81" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -8152,10 +8248,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="69" t="n">
+      <c r="A7" s="82" t="n">
         <v>45421</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="81" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -8169,10 +8265,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="69" t="n">
+      <c r="A8" s="82" t="n">
         <v>45432</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="81" t="s">
         <v>71</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -8186,10 +8282,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="69" t="n">
+      <c r="A9" s="82" t="n">
         <v>45442</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="81" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -8203,10 +8299,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="69" t="n">
+      <c r="A10" s="82" t="n">
         <v>45519</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="81" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="21" t="s">
@@ -8220,10 +8316,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="69" t="n">
+      <c r="A11" s="82" t="n">
         <v>45555</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="81" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -8237,10 +8333,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="69" t="n">
+      <c r="A12" s="82" t="n">
         <v>45568</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="81" t="s">
         <v>82</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -8254,10 +8350,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="69" t="n">
+      <c r="A13" s="82" t="n">
         <v>45596</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="81" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -8266,15 +8362,15 @@
       <c r="D13" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="81" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="70" t="n">
+      <c r="A14" s="83" t="n">
         <v>45597</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="81" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="21" t="s">
@@ -8288,10 +8384,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="70" t="n">
+      <c r="A15" s="83" t="n">
         <v>45616</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="81" t="s">
         <v>89</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -8303,10 +8399,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="70" t="n">
+      <c r="A16" s="83" t="n">
         <v>45651</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="81" t="s">
         <v>92</v>
       </c>
       <c r="C16" s="21" t="s">
@@ -8318,10 +8414,10 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="70" t="n">
+      <c r="A17" s="83" t="n">
         <v>45652</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="81" t="s">
         <v>94</v>
       </c>
       <c r="C17" s="21" t="s">

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Übung2" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Übung3" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Übung 4" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Übung 4" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Übung3" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="FeiertageMV" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="95">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -188,43 +188,127 @@
     <t xml:space="preserve">Feiertag</t>
   </si>
   <si>
-    <t xml:space="preserve">Neujahr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gründonnerstag</t>
+    <t xml:space="preserve">Heilige Drei Könige</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ba-Wü, Bay, Sa-An</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internationaler Frauentag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verlängertes Wochenende</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B, MV</t>
   </si>
   <si>
     <t xml:space="preserve">Karfreitag</t>
   </si>
   <si>
-    <t xml:space="preserve">Ostersonntag</t>
+    <t xml:space="preserve"> KW 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bundesweit</t>
   </si>
   <si>
     <t xml:space="preserve">Ostermontag</t>
   </si>
   <si>
+    <t xml:space="preserve"> KW 14</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tag der Arbeit</t>
   </si>
   <si>
+    <t xml:space="preserve"> KW 18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Christi Himmelfahrt</t>
   </si>
   <si>
-    <t xml:space="preserve">Pfingstsonntag</t>
+    <t xml:space="preserve"> KW 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brückentag möglich</t>
   </si>
   <si>
     <t xml:space="preserve">Pfingstmontag</t>
   </si>
   <si>
+    <t xml:space="preserve"> KW 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fronleichnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BaWü, Bay, Hes, NRW, Rh-Pf, Sa-La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariä Himmelfahrt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bay, Sa-La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weltkindertag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thü</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tag der Deutschen Einheit</t>
   </si>
   <si>
+    <t xml:space="preserve"> KW 40</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reformationstag</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Weihnachtsfeiertag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Weihnachtsfeiertag</t>
+    <t xml:space="preserve"> KW 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB, HH, MV, Sa, Sa-An, S-H, Thü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allerheiligen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BaWü, Bay, NRW, Rh-Pf, Sa-La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buß- und Bettag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Weihnachtstag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Weihnachtstag</t>
   </si>
 </sst>
 </file>
@@ -373,7 +457,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,7 +467,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
-        <bgColor rgb="FF999999"/>
+        <bgColor rgb="FFAFD095"/>
       </patternFill>
     </fill>
     <fill>
@@ -419,7 +503,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.5"/>
-        <bgColor rgb="FF999999"/>
+        <bgColor rgb="FF8E86AE"/>
       </patternFill>
     </fill>
     <fill>
@@ -466,14 +550,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF666666"/>
+        <fgColor rgb="FF8E86AE"/>
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF999999"/>
-        <bgColor rgb="FFB2B2B2"/>
+        <fgColor rgb="FF6B5E9B"/>
+        <bgColor rgb="FF666666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666666"/>
+        <bgColor rgb="FF6B5E9B"/>
       </patternFill>
     </fill>
   </fills>
@@ -592,27 +682,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium"/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right style="hair"/>
       <top style="medium"/>
       <bottom/>
@@ -630,6 +699,27 @@
       <right style="medium"/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -660,7 +750,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -877,15 +967,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -893,19 +995,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -913,15 +1023,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -937,39 +1047,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -977,7 +1071,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1430,10 +1536,10 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFED7D31"/>
+      <rgbColor rgb="FF6B5E9B"/>
+      <rgbColor rgb="FF8E86AE"/>
+      <rgbColor rgb="FF203864"/>
       <rgbColor rgb="FF666666"/>
-      <rgbColor rgb="FF999999"/>
-      <rgbColor rgb="FF203864"/>
-      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF443205"/>
       <rgbColor rgb="FF843C0B"/>
@@ -3116,8 +3222,10 @@
   </sheetPr>
   <dimension ref="A1:AX27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="0" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="Y12" activeCellId="0" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3302,7 +3410,7 @@
       <c r="V2" s="55"/>
       <c r="W2" s="56"/>
       <c r="X2" s="56"/>
-      <c r="Y2" s="55"/>
+      <c r="Y2" s="57"/>
       <c r="Z2" s="56"/>
       <c r="AA2" s="56"/>
       <c r="AB2" s="55"/>
@@ -3310,7 +3418,7 @@
       <c r="AD2" s="56"/>
       <c r="AE2" s="56"/>
       <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
+      <c r="AG2" s="58"/>
       <c r="AH2" s="56"/>
       <c r="AI2" s="55"/>
       <c r="AJ2" s="55"/>
@@ -3319,15 +3427,15 @@
       <c r="AM2" s="56"/>
       <c r="AN2" s="56"/>
       <c r="AO2" s="56"/>
-      <c r="AP2" s="55"/>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="56"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="58"/>
       <c r="AS2" s="56"/>
       <c r="AT2" s="56"/>
       <c r="AU2" s="56"/>
       <c r="AV2" s="56"/>
-      <c r="AW2" s="55"/>
-      <c r="AX2" s="55"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -3362,7 +3470,7 @@
       <c r="V3" s="55"/>
       <c r="W3" s="54"/>
       <c r="X3" s="54"/>
-      <c r="Y3" s="55"/>
+      <c r="Y3" s="57"/>
       <c r="Z3" s="54"/>
       <c r="AA3" s="56"/>
       <c r="AB3" s="55"/>
@@ -3370,7 +3478,7 @@
       <c r="AD3" s="56"/>
       <c r="AE3" s="56"/>
       <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
+      <c r="AG3" s="58"/>
       <c r="AH3" s="56"/>
       <c r="AI3" s="55"/>
       <c r="AJ3" s="55"/>
@@ -3379,15 +3487,15 @@
       <c r="AM3" s="56"/>
       <c r="AN3" s="56"/>
       <c r="AO3" s="56"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="56"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="58"/>
       <c r="AS3" s="56"/>
       <c r="AT3" s="56"/>
       <c r="AU3" s="56"/>
       <c r="AV3" s="56"/>
-      <c r="AW3" s="55"/>
-      <c r="AX3" s="55"/>
+      <c r="AW3" s="59"/>
+      <c r="AX3" s="59"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -3424,7 +3532,7 @@
       <c r="V4" s="55"/>
       <c r="W4" s="54"/>
       <c r="X4" s="54"/>
-      <c r="Y4" s="55"/>
+      <c r="Y4" s="57"/>
       <c r="Z4" s="54"/>
       <c r="AA4" s="56"/>
       <c r="AB4" s="55"/>
@@ -3432,7 +3540,7 @@
       <c r="AD4" s="56"/>
       <c r="AE4" s="56"/>
       <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
+      <c r="AG4" s="58"/>
       <c r="AH4" s="56"/>
       <c r="AI4" s="55"/>
       <c r="AJ4" s="55"/>
@@ -3441,15 +3549,15 @@
       <c r="AM4" s="56"/>
       <c r="AN4" s="56"/>
       <c r="AO4" s="56"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="56"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="58"/>
       <c r="AS4" s="56"/>
       <c r="AT4" s="56"/>
       <c r="AU4" s="56"/>
       <c r="AV4" s="56"/>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -3484,7 +3592,7 @@
       <c r="V5" s="55"/>
       <c r="W5" s="56"/>
       <c r="X5" s="56"/>
-      <c r="Y5" s="55"/>
+      <c r="Y5" s="57"/>
       <c r="Z5" s="56"/>
       <c r="AA5" s="54"/>
       <c r="AB5" s="55"/>
@@ -3492,7 +3600,7 @@
       <c r="AD5" s="54"/>
       <c r="AE5" s="54"/>
       <c r="AF5" s="54"/>
-      <c r="AG5" s="56"/>
+      <c r="AG5" s="58"/>
       <c r="AH5" s="56"/>
       <c r="AI5" s="55"/>
       <c r="AJ5" s="55"/>
@@ -3501,15 +3609,15 @@
       <c r="AM5" s="56"/>
       <c r="AN5" s="56"/>
       <c r="AO5" s="56"/>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="55"/>
-      <c r="AR5" s="56"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="58"/>
       <c r="AS5" s="56"/>
       <c r="AT5" s="56"/>
       <c r="AU5" s="56"/>
       <c r="AV5" s="56"/>
-      <c r="AW5" s="55"/>
-      <c r="AX5" s="55"/>
+      <c r="AW5" s="59"/>
+      <c r="AX5" s="59"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -3544,7 +3652,7 @@
       <c r="V6" s="55"/>
       <c r="W6" s="56"/>
       <c r="X6" s="56"/>
-      <c r="Y6" s="55"/>
+      <c r="Y6" s="57"/>
       <c r="Z6" s="56"/>
       <c r="AA6" s="54"/>
       <c r="AB6" s="55"/>
@@ -3552,7 +3660,7 @@
       <c r="AD6" s="54"/>
       <c r="AE6" s="54"/>
       <c r="AF6" s="54"/>
-      <c r="AG6" s="56"/>
+      <c r="AG6" s="58"/>
       <c r="AH6" s="56"/>
       <c r="AI6" s="55"/>
       <c r="AJ6" s="55"/>
@@ -3561,15 +3669,15 @@
       <c r="AM6" s="56"/>
       <c r="AN6" s="56"/>
       <c r="AO6" s="56"/>
-      <c r="AP6" s="55"/>
-      <c r="AQ6" s="55"/>
-      <c r="AR6" s="56"/>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="58"/>
       <c r="AS6" s="56"/>
       <c r="AT6" s="56"/>
       <c r="AU6" s="56"/>
       <c r="AV6" s="56"/>
-      <c r="AW6" s="55"/>
-      <c r="AX6" s="55"/>
+      <c r="AW6" s="59"/>
+      <c r="AX6" s="59"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -3604,7 +3712,7 @@
       <c r="V7" s="55"/>
       <c r="W7" s="56"/>
       <c r="X7" s="56"/>
-      <c r="Y7" s="55"/>
+      <c r="Y7" s="57"/>
       <c r="Z7" s="56"/>
       <c r="AA7" s="54"/>
       <c r="AB7" s="55"/>
@@ -3612,8 +3720,8 @@
       <c r="AD7" s="54"/>
       <c r="AE7" s="54"/>
       <c r="AF7" s="54"/>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="56"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="54"/>
       <c r="AI7" s="55"/>
       <c r="AJ7" s="55"/>
       <c r="AK7" s="56"/>
@@ -3621,15 +3729,15 @@
       <c r="AM7" s="56"/>
       <c r="AN7" s="56"/>
       <c r="AO7" s="56"/>
-      <c r="AP7" s="55"/>
-      <c r="AQ7" s="55"/>
-      <c r="AR7" s="56"/>
+      <c r="AP7" s="59"/>
+      <c r="AQ7" s="59"/>
+      <c r="AR7" s="58"/>
       <c r="AS7" s="56"/>
       <c r="AT7" s="56"/>
       <c r="AU7" s="56"/>
       <c r="AV7" s="56"/>
-      <c r="AW7" s="55"/>
-      <c r="AX7" s="55"/>
+      <c r="AW7" s="59"/>
+      <c r="AX7" s="59"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -3649,7 +3757,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="57" t="n">
+      <c r="H8" s="60" t="n">
         <v>3</v>
       </c>
       <c r="I8" s="56"/>
@@ -3668,7 +3776,7 @@
       <c r="V8" s="55"/>
       <c r="W8" s="56"/>
       <c r="X8" s="56"/>
-      <c r="Y8" s="55"/>
+      <c r="Y8" s="57"/>
       <c r="Z8" s="56"/>
       <c r="AA8" s="56"/>
       <c r="AB8" s="55"/>
@@ -3676,24 +3784,24 @@
       <c r="AD8" s="56"/>
       <c r="AE8" s="56"/>
       <c r="AF8" s="56"/>
-      <c r="AG8" s="54"/>
+      <c r="AG8" s="58"/>
       <c r="AH8" s="54"/>
       <c r="AI8" s="55"/>
       <c r="AJ8" s="55"/>
       <c r="AK8" s="54"/>
-      <c r="AL8" s="56"/>
+      <c r="AL8" s="54"/>
       <c r="AM8" s="56"/>
       <c r="AN8" s="56"/>
       <c r="AO8" s="56"/>
-      <c r="AP8" s="55"/>
-      <c r="AQ8" s="55"/>
-      <c r="AR8" s="56"/>
+      <c r="AP8" s="59"/>
+      <c r="AQ8" s="59"/>
+      <c r="AR8" s="58"/>
       <c r="AS8" s="56"/>
       <c r="AT8" s="56"/>
       <c r="AU8" s="56"/>
       <c r="AV8" s="56"/>
-      <c r="AW8" s="55"/>
-      <c r="AX8" s="55"/>
+      <c r="AW8" s="59"/>
+      <c r="AX8" s="59"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -3730,7 +3838,7 @@
       <c r="V9" s="55"/>
       <c r="W9" s="56"/>
       <c r="X9" s="56"/>
-      <c r="Y9" s="55"/>
+      <c r="Y9" s="57"/>
       <c r="Z9" s="56"/>
       <c r="AA9" s="56"/>
       <c r="AB9" s="55"/>
@@ -3738,8 +3846,8 @@
       <c r="AD9" s="56"/>
       <c r="AE9" s="56"/>
       <c r="AF9" s="56"/>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="54"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="56"/>
       <c r="AI9" s="55"/>
       <c r="AJ9" s="55"/>
       <c r="AK9" s="54"/>
@@ -3747,15 +3855,15 @@
       <c r="AM9" s="54"/>
       <c r="AN9" s="54"/>
       <c r="AO9" s="54"/>
-      <c r="AP9" s="55"/>
-      <c r="AQ9" s="55"/>
-      <c r="AR9" s="56"/>
-      <c r="AS9" s="56"/>
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="59"/>
+      <c r="AR9" s="58"/>
+      <c r="AS9" s="54"/>
       <c r="AT9" s="56"/>
       <c r="AU9" s="56"/>
       <c r="AV9" s="56"/>
-      <c r="AW9" s="55"/>
-      <c r="AX9" s="55"/>
+      <c r="AW9" s="59"/>
+      <c r="AX9" s="59"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -3772,48 +3880,48 @@
       <c r="H10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="58"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
-      <c r="AK10" s="58"/>
-      <c r="AL10" s="58"/>
-      <c r="AM10" s="58"/>
-      <c r="AN10" s="58"/>
-      <c r="AO10" s="58"/>
-      <c r="AP10" s="59"/>
-      <c r="AQ10" s="59"/>
-      <c r="AR10" s="60"/>
-      <c r="AS10" s="60"/>
-      <c r="AT10" s="61"/>
-      <c r="AU10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="62"/>
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="61"/>
+      <c r="AL10" s="61"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="61"/>
+      <c r="AO10" s="61"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="66"/>
       <c r="AV10" s="61"/>
-      <c r="AW10" s="59"/>
-      <c r="AX10" s="59"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="n">
@@ -3921,7 +4029,7 @@
         <v>4</v>
       </c>
       <c r="R14" s="43"/>
-      <c r="S14" s="62"/>
+      <c r="S14" s="67"/>
       <c r="T14" s="32"/>
       <c r="U14" s="28" t="n">
         <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
@@ -4193,8 +4301,13 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:AX1">
+  <conditionalFormatting sqref="K1:AX1">
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>IF(OR(WEEKDAY(K$1)=7,WEEKDAY(K$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:J1">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4213,22 +4326,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CU27"/>
+  <dimension ref="A1:CT29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="0" topLeftCell="BB1" activePane="topRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="0" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="CH10" activeCellId="0" sqref="CH10"/>
+      <selection pane="topRight" activeCell="BE13" activeCellId="0" sqref="BE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="1" style="1" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="44" style="1" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="65" style="0" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="9" style="1" width="3.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4514,9 +4626,6 @@
       </c>
       <c r="CT1" s="53" t="n">
         <v>45486</v>
-      </c>
-      <c r="CU1" s="53" t="n">
-        <v>45487</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4536,33 +4645,33 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I2" s="54"/>
       <c r="J2" s="54"/>
       <c r="K2" s="54"/>
       <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
+      <c r="M2" s="68"/>
       <c r="N2" s="55"/>
       <c r="O2" s="55"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
       <c r="U2" s="55"/>
       <c r="V2" s="55"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
       <c r="AB2" s="55"/>
       <c r="AC2" s="55"/>
-      <c r="AD2" s="54"/>
+      <c r="AD2" s="56"/>
       <c r="AE2" s="56"/>
       <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
+      <c r="AG2" s="58"/>
       <c r="AH2" s="56"/>
       <c r="AI2" s="55"/>
       <c r="AJ2" s="55"/>
@@ -4571,64 +4680,63 @@
       <c r="AM2" s="56"/>
       <c r="AN2" s="56"/>
       <c r="AO2" s="56"/>
-      <c r="AP2" s="55"/>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="56"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="58"/>
       <c r="AS2" s="56"/>
       <c r="AT2" s="56"/>
       <c r="AU2" s="56"/>
       <c r="AV2" s="56"/>
-      <c r="AW2" s="55"/>
-      <c r="AX2" s="55"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="56"/>
-      <c r="BB2" s="56"/>
-      <c r="BC2" s="56"/>
-      <c r="BD2" s="55"/>
-      <c r="BE2" s="55"/>
-      <c r="BF2" s="56"/>
-      <c r="BG2" s="63"/>
-      <c r="BH2" s="56"/>
-      <c r="BI2" s="56"/>
-      <c r="BJ2" s="56"/>
-      <c r="BK2" s="55"/>
-      <c r="BL2" s="55"/>
-      <c r="BM2" s="56"/>
-      <c r="BN2" s="56"/>
-      <c r="BO2" s="56"/>
-      <c r="BP2" s="56"/>
-      <c r="BQ2" s="56"/>
-      <c r="BR2" s="55"/>
-      <c r="BS2" s="55"/>
-      <c r="BT2" s="56"/>
-      <c r="BU2" s="56"/>
-      <c r="BV2" s="56"/>
-      <c r="BW2" s="56"/>
-      <c r="BX2" s="56"/>
-      <c r="BY2" s="55"/>
-      <c r="BZ2" s="55"/>
-      <c r="CA2" s="56"/>
-      <c r="CB2" s="56"/>
-      <c r="CC2" s="56"/>
-      <c r="CD2" s="56"/>
-      <c r="CE2" s="56"/>
-      <c r="CF2" s="55"/>
-      <c r="CG2" s="55"/>
-      <c r="CH2" s="56"/>
-      <c r="CI2" s="56"/>
-      <c r="CJ2" s="56"/>
-      <c r="CK2" s="56"/>
-      <c r="CL2" s="56"/>
-      <c r="CM2" s="55"/>
-      <c r="CN2" s="55"/>
-      <c r="CO2" s="56"/>
-      <c r="CP2" s="56"/>
-      <c r="CQ2" s="56"/>
-      <c r="CR2" s="56"/>
-      <c r="CS2" s="56"/>
-      <c r="CT2" s="55"/>
-      <c r="CU2" s="55"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="70"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="69"/>
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="69"/>
+      <c r="BJ2" s="69"/>
+      <c r="BK2" s="70"/>
+      <c r="BL2" s="70"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="69"/>
+      <c r="BP2" s="69"/>
+      <c r="BQ2" s="69"/>
+      <c r="BR2" s="70"/>
+      <c r="BS2" s="70"/>
+      <c r="BT2" s="69"/>
+      <c r="BU2" s="69"/>
+      <c r="BV2" s="69"/>
+      <c r="BW2" s="69"/>
+      <c r="BX2" s="69"/>
+      <c r="BY2" s="70"/>
+      <c r="BZ2" s="70"/>
+      <c r="CA2" s="69"/>
+      <c r="CB2" s="69"/>
+      <c r="CC2" s="69"/>
+      <c r="CD2" s="69"/>
+      <c r="CE2" s="69"/>
+      <c r="CF2" s="70"/>
+      <c r="CG2" s="70"/>
+      <c r="CH2" s="69"/>
+      <c r="CI2" s="69"/>
+      <c r="CJ2" s="69"/>
+      <c r="CK2" s="69"/>
+      <c r="CL2" s="69"/>
+      <c r="CM2" s="70"/>
+      <c r="CN2" s="70"/>
+      <c r="CO2" s="69"/>
+      <c r="CP2" s="69"/>
+      <c r="CQ2" s="69"/>
+      <c r="CR2" s="69"/>
+      <c r="CS2" s="69"/>
+      <c r="CT2" s="70"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -4640,104 +4748,103 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I3" s="56"/>
       <c r="J3" s="56"/>
       <c r="K3" s="56"/>
       <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="55"/>
       <c r="O3" s="55"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
       <c r="U3" s="55"/>
       <c r="V3" s="55"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="56"/>
       <c r="AB3" s="55"/>
       <c r="AC3" s="55"/>
       <c r="AD3" s="56"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="56"/>
       <c r="AI3" s="55"/>
       <c r="AJ3" s="55"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
       <c r="AM3" s="56"/>
       <c r="AN3" s="56"/>
       <c r="AO3" s="56"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="56"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="58"/>
       <c r="AS3" s="56"/>
       <c r="AT3" s="56"/>
       <c r="AU3" s="56"/>
       <c r="AV3" s="56"/>
-      <c r="AW3" s="55"/>
-      <c r="AX3" s="55"/>
+      <c r="AW3" s="59"/>
+      <c r="AX3" s="59"/>
       <c r="AY3" s="56"/>
       <c r="AZ3" s="56"/>
       <c r="BA3" s="56"/>
       <c r="BB3" s="56"/>
       <c r="BC3" s="56"/>
-      <c r="BD3" s="55"/>
-      <c r="BE3" s="55"/>
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="59"/>
       <c r="BF3" s="56"/>
-      <c r="BG3" s="63"/>
+      <c r="BG3" s="56"/>
       <c r="BH3" s="56"/>
       <c r="BI3" s="56"/>
       <c r="BJ3" s="56"/>
-      <c r="BK3" s="55"/>
-      <c r="BL3" s="55"/>
+      <c r="BK3" s="59"/>
+      <c r="BL3" s="59"/>
       <c r="BM3" s="56"/>
       <c r="BN3" s="56"/>
       <c r="BO3" s="56"/>
       <c r="BP3" s="56"/>
       <c r="BQ3" s="56"/>
-      <c r="BR3" s="55"/>
-      <c r="BS3" s="55"/>
+      <c r="BR3" s="59"/>
+      <c r="BS3" s="59"/>
       <c r="BT3" s="56"/>
       <c r="BU3" s="56"/>
       <c r="BV3" s="56"/>
       <c r="BW3" s="56"/>
       <c r="BX3" s="56"/>
-      <c r="BY3" s="55"/>
-      <c r="BZ3" s="55"/>
+      <c r="BY3" s="59"/>
+      <c r="BZ3" s="59"/>
       <c r="CA3" s="56"/>
       <c r="CB3" s="56"/>
       <c r="CC3" s="56"/>
       <c r="CD3" s="56"/>
       <c r="CE3" s="56"/>
-      <c r="CF3" s="55"/>
-      <c r="CG3" s="55"/>
+      <c r="CF3" s="59"/>
+      <c r="CG3" s="59"/>
       <c r="CH3" s="56"/>
       <c r="CI3" s="56"/>
       <c r="CJ3" s="56"/>
       <c r="CK3" s="56"/>
       <c r="CL3" s="56"/>
-      <c r="CM3" s="55"/>
-      <c r="CN3" s="55"/>
+      <c r="CM3" s="59"/>
+      <c r="CN3" s="59"/>
       <c r="CO3" s="56"/>
       <c r="CP3" s="56"/>
       <c r="CQ3" s="56"/>
       <c r="CR3" s="56"/>
       <c r="CS3" s="56"/>
-      <c r="CT3" s="55"/>
-      <c r="CU3" s="55"/>
+      <c r="CT3" s="59"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -4754,99 +4861,98 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="4" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I4" s="56"/>
       <c r="J4" s="56"/>
       <c r="K4" s="56"/>
       <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="55"/>
       <c r="O4" s="55"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
       <c r="U4" s="55"/>
       <c r="V4" s="55"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
       <c r="AB4" s="55"/>
       <c r="AC4" s="55"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="56"/>
       <c r="AI4" s="55"/>
       <c r="AJ4" s="55"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="54"/>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="54"/>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="56"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
       <c r="AY4" s="56"/>
       <c r="AZ4" s="56"/>
       <c r="BA4" s="56"/>
       <c r="BB4" s="56"/>
       <c r="BC4" s="56"/>
-      <c r="BD4" s="55"/>
-      <c r="BE4" s="55"/>
+      <c r="BD4" s="59"/>
+      <c r="BE4" s="59"/>
       <c r="BF4" s="56"/>
-      <c r="BG4" s="63"/>
+      <c r="BG4" s="56"/>
       <c r="BH4" s="56"/>
       <c r="BI4" s="56"/>
       <c r="BJ4" s="56"/>
-      <c r="BK4" s="55"/>
-      <c r="BL4" s="55"/>
+      <c r="BK4" s="59"/>
+      <c r="BL4" s="59"/>
       <c r="BM4" s="56"/>
       <c r="BN4" s="56"/>
       <c r="BO4" s="56"/>
       <c r="BP4" s="56"/>
       <c r="BQ4" s="56"/>
-      <c r="BR4" s="55"/>
-      <c r="BS4" s="55"/>
+      <c r="BR4" s="59"/>
+      <c r="BS4" s="59"/>
       <c r="BT4" s="56"/>
       <c r="BU4" s="56"/>
       <c r="BV4" s="56"/>
       <c r="BW4" s="56"/>
       <c r="BX4" s="56"/>
-      <c r="BY4" s="55"/>
-      <c r="BZ4" s="55"/>
+      <c r="BY4" s="59"/>
+      <c r="BZ4" s="59"/>
       <c r="CA4" s="56"/>
       <c r="CB4" s="56"/>
       <c r="CC4" s="56"/>
       <c r="CD4" s="56"/>
       <c r="CE4" s="56"/>
-      <c r="CF4" s="55"/>
-      <c r="CG4" s="55"/>
+      <c r="CF4" s="59"/>
+      <c r="CG4" s="59"/>
       <c r="CH4" s="56"/>
       <c r="CI4" s="56"/>
       <c r="CJ4" s="56"/>
       <c r="CK4" s="56"/>
       <c r="CL4" s="56"/>
-      <c r="CM4" s="55"/>
-      <c r="CN4" s="55"/>
+      <c r="CM4" s="59"/>
+      <c r="CN4" s="59"/>
       <c r="CO4" s="56"/>
       <c r="CP4" s="56"/>
       <c r="CQ4" s="56"/>
       <c r="CR4" s="56"/>
       <c r="CS4" s="56"/>
-      <c r="CT4" s="55"/>
-      <c r="CU4" s="55"/>
+      <c r="CT4" s="59"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -4863,99 +4969,98 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
+      <c r="M5" s="54"/>
       <c r="N5" s="55"/>
       <c r="O5" s="55"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
       <c r="U5" s="55"/>
       <c r="V5" s="55"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="64"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
       <c r="AB5" s="55"/>
       <c r="AC5" s="55"/>
-      <c r="AD5" s="64"/>
+      <c r="AD5" s="54"/>
       <c r="AE5" s="54"/>
       <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
+      <c r="AG5" s="58"/>
       <c r="AH5" s="54"/>
       <c r="AI5" s="55"/>
       <c r="AJ5" s="55"/>
       <c r="AK5" s="54"/>
-      <c r="AL5" s="54"/>
+      <c r="AL5" s="56"/>
       <c r="AM5" s="56"/>
       <c r="AN5" s="56"/>
       <c r="AO5" s="56"/>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="55"/>
-      <c r="AR5" s="56"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="58"/>
       <c r="AS5" s="56"/>
       <c r="AT5" s="56"/>
       <c r="AU5" s="56"/>
       <c r="AV5" s="56"/>
-      <c r="AW5" s="55"/>
-      <c r="AX5" s="55"/>
+      <c r="AW5" s="59"/>
+      <c r="AX5" s="59"/>
       <c r="AY5" s="56"/>
       <c r="AZ5" s="56"/>
       <c r="BA5" s="56"/>
       <c r="BB5" s="56"/>
       <c r="BC5" s="56"/>
-      <c r="BD5" s="55"/>
-      <c r="BE5" s="55"/>
+      <c r="BD5" s="59"/>
+      <c r="BE5" s="59"/>
       <c r="BF5" s="56"/>
-      <c r="BG5" s="63"/>
+      <c r="BG5" s="56"/>
       <c r="BH5" s="56"/>
       <c r="BI5" s="56"/>
       <c r="BJ5" s="56"/>
-      <c r="BK5" s="55"/>
-      <c r="BL5" s="55"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59"/>
       <c r="BM5" s="56"/>
       <c r="BN5" s="56"/>
       <c r="BO5" s="56"/>
       <c r="BP5" s="56"/>
       <c r="BQ5" s="56"/>
-      <c r="BR5" s="55"/>
-      <c r="BS5" s="55"/>
+      <c r="BR5" s="59"/>
+      <c r="BS5" s="59"/>
       <c r="BT5" s="56"/>
       <c r="BU5" s="56"/>
       <c r="BV5" s="56"/>
       <c r="BW5" s="56"/>
       <c r="BX5" s="56"/>
-      <c r="BY5" s="55"/>
-      <c r="BZ5" s="55"/>
+      <c r="BY5" s="59"/>
+      <c r="BZ5" s="59"/>
       <c r="CA5" s="56"/>
       <c r="CB5" s="56"/>
       <c r="CC5" s="56"/>
       <c r="CD5" s="56"/>
       <c r="CE5" s="56"/>
-      <c r="CF5" s="55"/>
-      <c r="CG5" s="55"/>
+      <c r="CF5" s="59"/>
+      <c r="CG5" s="59"/>
       <c r="CH5" s="56"/>
       <c r="CI5" s="56"/>
       <c r="CJ5" s="56"/>
       <c r="CK5" s="56"/>
       <c r="CL5" s="56"/>
-      <c r="CM5" s="55"/>
-      <c r="CN5" s="55"/>
+      <c r="CM5" s="59"/>
+      <c r="CN5" s="59"/>
       <c r="CO5" s="56"/>
       <c r="CP5" s="56"/>
       <c r="CQ5" s="56"/>
       <c r="CR5" s="56"/>
       <c r="CS5" s="56"/>
-      <c r="CT5" s="55"/>
-      <c r="CU5" s="55"/>
+      <c r="CT5" s="59"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -4989,82 +5094,81 @@
       <c r="U6" s="55"/>
       <c r="V6" s="55"/>
       <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
       <c r="AB6" s="55"/>
       <c r="AC6" s="55"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="64"/>
-      <c r="AH6" s="64"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="54"/>
       <c r="AI6" s="55"/>
       <c r="AJ6" s="55"/>
-      <c r="AK6" s="56"/>
-      <c r="AL6" s="56"/>
-      <c r="AM6" s="56"/>
-      <c r="AN6" s="56"/>
-      <c r="AO6" s="56"/>
-      <c r="AP6" s="55"/>
-      <c r="AQ6" s="55"/>
-      <c r="AR6" s="56"/>
-      <c r="AS6" s="56"/>
-      <c r="AT6" s="56"/>
-      <c r="AU6" s="56"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="54"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="54"/>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="58"/>
+      <c r="AS6" s="54"/>
+      <c r="AT6" s="54"/>
+      <c r="AU6" s="54"/>
       <c r="AV6" s="56"/>
-      <c r="AW6" s="55"/>
-      <c r="AX6" s="55"/>
-      <c r="AY6" s="54"/>
-      <c r="AZ6" s="54"/>
-      <c r="BA6" s="54"/>
-      <c r="BB6" s="54"/>
-      <c r="BC6" s="54"/>
-      <c r="BD6" s="55"/>
-      <c r="BE6" s="55"/>
-      <c r="BF6" s="54"/>
-      <c r="BG6" s="63"/>
-      <c r="BH6" s="54"/>
-      <c r="BI6" s="54"/>
-      <c r="BJ6" s="54"/>
-      <c r="BK6" s="55"/>
-      <c r="BL6" s="55"/>
-      <c r="BM6" s="54"/>
-      <c r="BN6" s="54"/>
-      <c r="BO6" s="54"/>
-      <c r="BP6" s="54"/>
-      <c r="BQ6" s="54"/>
-      <c r="BR6" s="55"/>
-      <c r="BS6" s="55"/>
-      <c r="BT6" s="54"/>
+      <c r="AW6" s="59"/>
+      <c r="AX6" s="59"/>
+      <c r="AY6" s="56"/>
+      <c r="AZ6" s="56"/>
+      <c r="BA6" s="56"/>
+      <c r="BB6" s="56"/>
+      <c r="BC6" s="56"/>
+      <c r="BD6" s="59"/>
+      <c r="BE6" s="59"/>
+      <c r="BF6" s="56"/>
+      <c r="BG6" s="56"/>
+      <c r="BH6" s="56"/>
+      <c r="BI6" s="56"/>
+      <c r="BJ6" s="56"/>
+      <c r="BK6" s="59"/>
+      <c r="BL6" s="59"/>
+      <c r="BM6" s="56"/>
+      <c r="BN6" s="56"/>
+      <c r="BO6" s="56"/>
+      <c r="BP6" s="56"/>
+      <c r="BQ6" s="56"/>
+      <c r="BR6" s="59"/>
+      <c r="BS6" s="59"/>
+      <c r="BT6" s="56"/>
       <c r="BU6" s="56"/>
       <c r="BV6" s="56"/>
       <c r="BW6" s="56"/>
       <c r="BX6" s="56"/>
-      <c r="BY6" s="55"/>
-      <c r="BZ6" s="55"/>
+      <c r="BY6" s="59"/>
+      <c r="BZ6" s="59"/>
       <c r="CA6" s="56"/>
       <c r="CB6" s="56"/>
       <c r="CC6" s="56"/>
       <c r="CD6" s="56"/>
       <c r="CE6" s="56"/>
-      <c r="CF6" s="55"/>
-      <c r="CG6" s="55"/>
+      <c r="CF6" s="59"/>
+      <c r="CG6" s="59"/>
       <c r="CH6" s="56"/>
       <c r="CI6" s="56"/>
       <c r="CJ6" s="56"/>
       <c r="CK6" s="56"/>
       <c r="CL6" s="56"/>
-      <c r="CM6" s="55"/>
-      <c r="CN6" s="55"/>
+      <c r="CM6" s="59"/>
+      <c r="CN6" s="59"/>
       <c r="CO6" s="56"/>
       <c r="CP6" s="56"/>
       <c r="CQ6" s="56"/>
       <c r="CR6" s="56"/>
       <c r="CS6" s="56"/>
-      <c r="CT6" s="55"/>
-      <c r="CU6" s="55"/>
+      <c r="CT6" s="59"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -5081,7 +5185,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="56"/>
       <c r="J7" s="56"/>
@@ -5099,81 +5203,80 @@
       <c r="V7" s="55"/>
       <c r="W7" s="56"/>
       <c r="X7" s="56"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="64"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
       <c r="AB7" s="55"/>
       <c r="AC7" s="55"/>
-      <c r="AD7" s="64"/>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="64"/>
-      <c r="AG7" s="64"/>
-      <c r="AH7" s="64"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="56"/>
       <c r="AI7" s="55"/>
       <c r="AJ7" s="55"/>
-      <c r="AK7" s="64"/>
-      <c r="AL7" s="64"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="54"/>
       <c r="AM7" s="54"/>
       <c r="AN7" s="54"/>
       <c r="AO7" s="54"/>
-      <c r="AP7" s="55"/>
-      <c r="AQ7" s="55"/>
-      <c r="AR7" s="54"/>
+      <c r="AP7" s="59"/>
+      <c r="AQ7" s="59"/>
+      <c r="AR7" s="58"/>
       <c r="AS7" s="54"/>
       <c r="AT7" s="54"/>
       <c r="AU7" s="54"/>
       <c r="AV7" s="54"/>
-      <c r="AW7" s="55"/>
-      <c r="AX7" s="55"/>
+      <c r="AW7" s="59"/>
+      <c r="AX7" s="59"/>
       <c r="AY7" s="54"/>
       <c r="AZ7" s="54"/>
       <c r="BA7" s="54"/>
       <c r="BB7" s="54"/>
       <c r="BC7" s="54"/>
-      <c r="BD7" s="55"/>
-      <c r="BE7" s="55"/>
-      <c r="BF7" s="54"/>
-      <c r="BG7" s="63"/>
+      <c r="BD7" s="59"/>
+      <c r="BE7" s="59"/>
+      <c r="BF7" s="56"/>
+      <c r="BG7" s="56"/>
       <c r="BH7" s="56"/>
       <c r="BI7" s="56"/>
       <c r="BJ7" s="56"/>
-      <c r="BK7" s="55"/>
-      <c r="BL7" s="55"/>
+      <c r="BK7" s="59"/>
+      <c r="BL7" s="59"/>
       <c r="BM7" s="56"/>
       <c r="BN7" s="56"/>
       <c r="BO7" s="56"/>
       <c r="BP7" s="56"/>
       <c r="BQ7" s="56"/>
-      <c r="BR7" s="55"/>
-      <c r="BS7" s="55"/>
+      <c r="BR7" s="59"/>
+      <c r="BS7" s="59"/>
       <c r="BT7" s="56"/>
       <c r="BU7" s="56"/>
       <c r="BV7" s="56"/>
       <c r="BW7" s="56"/>
       <c r="BX7" s="56"/>
-      <c r="BY7" s="55"/>
-      <c r="BZ7" s="55"/>
+      <c r="BY7" s="59"/>
+      <c r="BZ7" s="59"/>
       <c r="CA7" s="56"/>
       <c r="CB7" s="56"/>
       <c r="CC7" s="56"/>
       <c r="CD7" s="56"/>
       <c r="CE7" s="56"/>
-      <c r="CF7" s="55"/>
-      <c r="CG7" s="55"/>
+      <c r="CF7" s="59"/>
+      <c r="CG7" s="59"/>
       <c r="CH7" s="56"/>
       <c r="CI7" s="56"/>
       <c r="CJ7" s="56"/>
       <c r="CK7" s="56"/>
       <c r="CL7" s="56"/>
-      <c r="CM7" s="55"/>
-      <c r="CN7" s="55"/>
+      <c r="CM7" s="59"/>
+      <c r="CN7" s="59"/>
       <c r="CO7" s="56"/>
       <c r="CP7" s="56"/>
       <c r="CQ7" s="56"/>
       <c r="CR7" s="56"/>
       <c r="CS7" s="56"/>
-      <c r="CT7" s="55"/>
-      <c r="CU7" s="55"/>
+      <c r="CT7" s="59"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -5194,7 +5297,7 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
@@ -5212,81 +5315,80 @@
       <c r="V8" s="55"/>
       <c r="W8" s="56"/>
       <c r="X8" s="56"/>
-      <c r="Y8" s="55"/>
+      <c r="Y8" s="57"/>
       <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
+      <c r="AA8" s="54"/>
       <c r="AB8" s="55"/>
       <c r="AC8" s="55"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="64"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="54"/>
       <c r="AI8" s="55"/>
       <c r="AJ8" s="55"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="64"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="54"/>
       <c r="AM8" s="54"/>
       <c r="AN8" s="54"/>
       <c r="AO8" s="54"/>
-      <c r="AP8" s="55"/>
-      <c r="AQ8" s="55"/>
-      <c r="AR8" s="54"/>
+      <c r="AP8" s="59"/>
+      <c r="AQ8" s="59"/>
+      <c r="AR8" s="58"/>
       <c r="AS8" s="54"/>
-      <c r="AT8" s="54"/>
-      <c r="AU8" s="54"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="56"/>
       <c r="AV8" s="56"/>
-      <c r="AW8" s="55"/>
-      <c r="AX8" s="55"/>
+      <c r="AW8" s="59"/>
+      <c r="AX8" s="59"/>
       <c r="AY8" s="56"/>
       <c r="AZ8" s="56"/>
       <c r="BA8" s="56"/>
       <c r="BB8" s="56"/>
       <c r="BC8" s="56"/>
-      <c r="BD8" s="55"/>
-      <c r="BE8" s="55"/>
+      <c r="BD8" s="59"/>
+      <c r="BE8" s="59"/>
       <c r="BF8" s="56"/>
-      <c r="BG8" s="63"/>
+      <c r="BG8" s="56"/>
       <c r="BH8" s="56"/>
       <c r="BI8" s="56"/>
       <c r="BJ8" s="56"/>
-      <c r="BK8" s="55"/>
-      <c r="BL8" s="55"/>
+      <c r="BK8" s="59"/>
+      <c r="BL8" s="59"/>
       <c r="BM8" s="56"/>
       <c r="BN8" s="56"/>
       <c r="BO8" s="56"/>
       <c r="BP8" s="56"/>
       <c r="BQ8" s="56"/>
-      <c r="BR8" s="55"/>
-      <c r="BS8" s="55"/>
+      <c r="BR8" s="59"/>
+      <c r="BS8" s="59"/>
       <c r="BT8" s="56"/>
       <c r="BU8" s="56"/>
       <c r="BV8" s="56"/>
       <c r="BW8" s="56"/>
       <c r="BX8" s="56"/>
-      <c r="BY8" s="55"/>
-      <c r="BZ8" s="55"/>
+      <c r="BY8" s="59"/>
+      <c r="BZ8" s="59"/>
       <c r="CA8" s="56"/>
       <c r="CB8" s="56"/>
       <c r="CC8" s="56"/>
       <c r="CD8" s="56"/>
       <c r="CE8" s="56"/>
-      <c r="CF8" s="55"/>
-      <c r="CG8" s="55"/>
+      <c r="CF8" s="59"/>
+      <c r="CG8" s="59"/>
       <c r="CH8" s="56"/>
       <c r="CI8" s="56"/>
       <c r="CJ8" s="56"/>
       <c r="CK8" s="56"/>
       <c r="CL8" s="56"/>
-      <c r="CM8" s="55"/>
-      <c r="CN8" s="55"/>
+      <c r="CM8" s="59"/>
+      <c r="CN8" s="59"/>
       <c r="CO8" s="56"/>
       <c r="CP8" s="56"/>
       <c r="CQ8" s="56"/>
       <c r="CR8" s="56"/>
       <c r="CS8" s="56"/>
-      <c r="CT8" s="55"/>
-      <c r="CU8" s="55"/>
+      <c r="CT8" s="59"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -5300,12 +5402,12 @@
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I9" s="56"/>
       <c r="J9" s="56"/>
@@ -5323,1593 +5425,80 @@
       <c r="V9" s="55"/>
       <c r="W9" s="56"/>
       <c r="X9" s="56"/>
-      <c r="Y9" s="55"/>
+      <c r="Y9" s="57"/>
       <c r="Z9" s="56"/>
       <c r="AA9" s="56"/>
       <c r="AB9" s="55"/>
       <c r="AC9" s="55"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="64"/>
-      <c r="AF9" s="64"/>
-      <c r="AG9" s="64"/>
-      <c r="AH9" s="64"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="56"/>
       <c r="AI9" s="55"/>
       <c r="AJ9" s="55"/>
-      <c r="AK9" s="64"/>
-      <c r="AL9" s="64"/>
-      <c r="AM9" s="64"/>
-      <c r="AN9" s="64"/>
-      <c r="AO9" s="64"/>
-      <c r="AP9" s="55"/>
-      <c r="AQ9" s="55"/>
-      <c r="AR9" s="64"/>
-      <c r="AS9" s="64"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="59"/>
+      <c r="AR9" s="58"/>
+      <c r="AS9" s="56"/>
       <c r="AT9" s="56"/>
       <c r="AU9" s="56"/>
       <c r="AV9" s="56"/>
-      <c r="AW9" s="55"/>
-      <c r="AX9" s="55"/>
-      <c r="AY9" s="64"/>
-      <c r="AZ9" s="64"/>
+      <c r="AW9" s="59"/>
+      <c r="AX9" s="59"/>
+      <c r="AY9" s="56"/>
+      <c r="AZ9" s="56"/>
       <c r="BA9" s="56"/>
       <c r="BB9" s="56"/>
       <c r="BC9" s="56"/>
-      <c r="BD9" s="55"/>
-      <c r="BE9" s="55"/>
-      <c r="BF9" s="64"/>
-      <c r="BG9" s="63"/>
+      <c r="BD9" s="59"/>
+      <c r="BE9" s="59"/>
+      <c r="BF9" s="54"/>
+      <c r="BG9" s="54"/>
       <c r="BH9" s="54"/>
       <c r="BI9" s="54"/>
       <c r="BJ9" s="54"/>
-      <c r="BK9" s="55"/>
-      <c r="BL9" s="55"/>
+      <c r="BK9" s="59"/>
+      <c r="BL9" s="59"/>
       <c r="BM9" s="54"/>
       <c r="BN9" s="54"/>
-      <c r="BO9" s="54"/>
-      <c r="BP9" s="54"/>
-      <c r="BQ9" s="54"/>
-      <c r="BR9" s="55"/>
-      <c r="BS9" s="55"/>
-      <c r="BT9" s="54"/>
-      <c r="BU9" s="54"/>
-      <c r="BV9" s="54"/>
-      <c r="BW9" s="54"/>
-      <c r="BX9" s="54"/>
-      <c r="BY9" s="55"/>
-      <c r="BZ9" s="55"/>
-      <c r="CA9" s="54"/>
-      <c r="CB9" s="54"/>
+      <c r="BO9" s="56"/>
+      <c r="BP9" s="56"/>
+      <c r="BQ9" s="56"/>
+      <c r="BR9" s="59"/>
+      <c r="BS9" s="59"/>
+      <c r="BT9" s="56"/>
+      <c r="BU9" s="56"/>
+      <c r="BV9" s="56"/>
+      <c r="BW9" s="56"/>
+      <c r="BX9" s="56"/>
+      <c r="BY9" s="59"/>
+      <c r="BZ9" s="59"/>
+      <c r="CA9" s="56"/>
+      <c r="CB9" s="56"/>
       <c r="CC9" s="56"/>
       <c r="CD9" s="56"/>
       <c r="CE9" s="56"/>
-      <c r="CF9" s="55"/>
-      <c r="CG9" s="55"/>
-      <c r="CH9" s="64"/>
-      <c r="CI9" s="64"/>
+      <c r="CF9" s="59"/>
+      <c r="CG9" s="59"/>
+      <c r="CH9" s="56"/>
+      <c r="CI9" s="56"/>
       <c r="CJ9" s="56"/>
       <c r="CK9" s="56"/>
       <c r="CL9" s="56"/>
-      <c r="CM9" s="55"/>
-      <c r="CN9" s="55"/>
-      <c r="CO9" s="64"/>
-      <c r="CP9" s="64"/>
+      <c r="CM9" s="59"/>
+      <c r="CN9" s="59"/>
+      <c r="CO9" s="56"/>
+      <c r="CP9" s="56"/>
       <c r="CQ9" s="56"/>
       <c r="CR9" s="56"/>
       <c r="CS9" s="56"/>
-      <c r="CT9" s="55"/>
-      <c r="CU9" s="55"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
-      <c r="AK10" s="61"/>
-      <c r="AL10" s="61"/>
-      <c r="AM10" s="61"/>
-      <c r="AN10" s="61"/>
-      <c r="AO10" s="61"/>
-      <c r="AP10" s="59"/>
-      <c r="AQ10" s="59"/>
-      <c r="AR10" s="61"/>
-      <c r="AS10" s="61"/>
-      <c r="AT10" s="61"/>
-      <c r="AU10" s="61"/>
-      <c r="AV10" s="61"/>
-      <c r="AW10" s="59"/>
-      <c r="AX10" s="59"/>
-      <c r="AY10" s="61"/>
-      <c r="AZ10" s="61"/>
-      <c r="BA10" s="61"/>
-      <c r="BB10" s="61"/>
-      <c r="BC10" s="61"/>
-      <c r="BD10" s="59"/>
-      <c r="BE10" s="59"/>
-      <c r="BF10" s="61"/>
-      <c r="BG10" s="65"/>
-      <c r="BH10" s="61"/>
-      <c r="BI10" s="61"/>
-      <c r="BJ10" s="61"/>
-      <c r="BK10" s="59"/>
-      <c r="BL10" s="59"/>
-      <c r="BM10" s="61"/>
-      <c r="BN10" s="61"/>
-      <c r="BO10" s="61"/>
-      <c r="BP10" s="61"/>
-      <c r="BQ10" s="61"/>
-      <c r="BR10" s="59"/>
-      <c r="BS10" s="59"/>
-      <c r="BT10" s="61"/>
-      <c r="BU10" s="61"/>
-      <c r="BV10" s="61"/>
-      <c r="BW10" s="61"/>
-      <c r="BX10" s="61"/>
-      <c r="BY10" s="59"/>
-      <c r="BZ10" s="59"/>
-      <c r="CA10" s="61"/>
-      <c r="CC10" s="60"/>
-      <c r="CD10" s="60"/>
-      <c r="CE10" s="60"/>
-      <c r="CF10" s="59"/>
-      <c r="CG10" s="59"/>
-      <c r="CH10" s="60"/>
-      <c r="CI10" s="61"/>
-      <c r="CJ10" s="61"/>
-      <c r="CK10" s="61"/>
-      <c r="CL10" s="61"/>
-      <c r="CM10" s="59"/>
-      <c r="CN10" s="59"/>
-      <c r="CO10" s="61"/>
-      <c r="CP10" s="61"/>
-      <c r="CQ10" s="61"/>
-      <c r="CR10" s="61"/>
-      <c r="CS10" s="61"/>
-      <c r="CT10" s="59"/>
-      <c r="CU10" s="59"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24" t="n">
-        <f aca="false">A12+A14</f>
-        <v>15</v>
-      </c>
-      <c r="F12" s="22" t="n">
-        <f aca="false">C12</f>
-        <v>15</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24" t="n">
-        <f aca="false">F12+F14</f>
-        <v>21</v>
-      </c>
-      <c r="P12" s="22" t="n">
-        <f aca="false">H12</f>
-        <v>21</v>
-      </c>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="24" t="n">
-        <f aca="false">P12+P14</f>
-        <v>28</v>
-      </c>
-      <c r="U12" s="22" t="n">
-        <f aca="false">MAX(R12,R18)</f>
-        <v>59</v>
-      </c>
-      <c r="V12" s="23"/>
-      <c r="W12" s="24" t="n">
-        <f aca="false">U12+U14</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="n">
-        <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
-        <v>15</v>
-      </c>
-      <c r="B14" s="29" t="n">
-        <f aca="false">C15-C12</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="31"/>
-      <c r="F14" s="28" t="n">
-        <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
-        <v>6</v>
-      </c>
-      <c r="G14" s="29" t="n">
-        <f aca="false">H15-H12</f>
-        <v>31</v>
-      </c>
-      <c r="H14" s="43"/>
-      <c r="P14" s="28" t="n">
-        <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
-        <v>7</v>
-      </c>
-      <c r="Q14" s="29" t="n">
-        <f aca="false">R15-R12</f>
-        <v>31</v>
-      </c>
-      <c r="R14" s="43"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="28" t="n">
-        <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
-        <v>4</v>
-      </c>
-      <c r="V14" s="42" t="n">
-        <f aca="false">W15-W12</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="43"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="33" t="n">
-        <f aca="false">C15-A14</f>
-        <v>0</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="34" t="n">
-        <f aca="false">MIN(F15,F21,F27)</f>
-        <v>15</v>
-      </c>
-      <c r="D15" s="35"/>
-      <c r="F15" s="33" t="n">
-        <f aca="false">H15-F14</f>
-        <v>46</v>
-      </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="34" t="n">
-        <f aca="false">P15</f>
-        <v>52</v>
-      </c>
-      <c r="P15" s="33" t="n">
-        <f aca="false">R15-P14</f>
-        <v>52</v>
-      </c>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="34" t="n">
-        <f aca="false">U15</f>
-        <v>59</v>
-      </c>
-      <c r="S15" s="36"/>
-      <c r="U15" s="33" t="n">
-        <f aca="false">W15-U14</f>
-        <v>59</v>
-      </c>
-      <c r="V15" s="23"/>
-      <c r="W15" s="34" t="n">
-        <f aca="false">W12</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="67"/>
-      <c r="D16" s="36"/>
-      <c r="S16" s="36"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="S17" s="36"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="F18" s="22" t="n">
-        <f aca="false">C12</f>
-        <v>15</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24" t="n">
-        <f aca="false">F18+F20</f>
-        <v>29</v>
-      </c>
-      <c r="K18" s="22" t="n">
-        <f aca="false">H18</f>
-        <v>29</v>
-      </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="24" t="n">
-        <f aca="false">K18+K20</f>
-        <v>44</v>
-      </c>
-      <c r="P18" s="22" t="n">
-        <f aca="false">MAX(M18,M24)</f>
-        <v>44</v>
-      </c>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="24" t="n">
-        <f aca="false">P18+P20</f>
-        <v>59</v>
-      </c>
-      <c r="S18" s="36"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="38"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="36"/>
-      <c r="F20" s="28" t="n">
-        <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
-        <v>14</v>
-      </c>
-      <c r="G20" s="29" t="n">
-        <f aca="false">H21-H18</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="62"/>
-      <c r="K20" s="28" t="n">
-        <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
-        <v>15</v>
-      </c>
-      <c r="L20" s="29" t="n">
-        <f aca="false">M21-M18</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="43"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="28" t="n">
-        <f aca="false">VLOOKUP(P19,$A$2:$H$10,8)</f>
-        <v>15</v>
-      </c>
-      <c r="Q20" s="29" t="n">
-        <f aca="false">R21-R18</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="43"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="36"/>
-      <c r="F21" s="33" t="n">
-        <f aca="false">H21-F20</f>
-        <v>15</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="34" t="n">
-        <f aca="false">K21</f>
-        <v>29</v>
-      </c>
-      <c r="K21" s="33" t="n">
-        <f aca="false">M21-K20</f>
-        <v>29</v>
-      </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="34" t="n">
-        <f aca="false">P21</f>
-        <v>44</v>
-      </c>
-      <c r="N21" s="36"/>
-      <c r="P21" s="33" t="n">
-        <f aca="false">R21-P20</f>
-        <v>44</v>
-      </c>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="34" t="n">
-        <f aca="false">U15</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="36"/>
-      <c r="N22" s="36"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="36"/>
-      <c r="N23" s="36"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="36"/>
-      <c r="F24" s="22" t="n">
-        <f aca="false">C12</f>
-        <v>15</v>
-      </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24" t="n">
-        <f aca="false">F24+F26</f>
-        <v>21</v>
-      </c>
-      <c r="K24" s="22" t="n">
-        <f aca="false">H24</f>
-        <v>21</v>
-      </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="24" t="n">
-        <f aca="false">K24+K26</f>
-        <v>35</v>
-      </c>
-      <c r="N24" s="36"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="36"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="38"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="28" t="n">
-        <f aca="false">VLOOKUP(F25,$A$2:$H$10,8)</f>
-        <v>6</v>
-      </c>
-      <c r="G26" s="29" t="n">
-        <f aca="false">H27-H24</f>
-        <v>9</v>
-      </c>
-      <c r="H26" s="43"/>
-      <c r="K26" s="28" t="n">
-        <f aca="false">VLOOKUP(K25,$A$2:$H$10,8)</f>
-        <v>14</v>
-      </c>
-      <c r="L26" s="29" t="n">
-        <f aca="false">M27-M24</f>
-        <v>9</v>
-      </c>
-      <c r="M26" s="43"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="33" t="n">
-        <f aca="false">H27-F26</f>
-        <v>24</v>
-      </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="34" t="n">
-        <f aca="false">K27</f>
-        <v>30</v>
-      </c>
-      <c r="K27" s="33" t="n">
-        <f aca="false">M27-K26</f>
-        <v>30</v>
-      </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="34" t="n">
-        <f aca="false">P21</f>
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="K25:M25"/>
-  </mergeCells>
-  <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:AW1 AY1:CU1">
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX1 BE1 BL1 BS1 BZ1 CG1 CN1 CU1">
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>IF(OR(WEEKDAY(AX$1)=7,WEEKDAY(AX$1)=1),1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CSeite &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:CT29"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="0" topLeftCell="BJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BX15" activeCellId="0" sqref="BX15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="9" style="1" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="98" min="65" style="0" width="3.83"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="53" t="n">
-        <v>45397</v>
-      </c>
-      <c r="J1" s="53" t="n">
-        <v>45398</v>
-      </c>
-      <c r="K1" s="53" t="n">
-        <v>45399</v>
-      </c>
-      <c r="L1" s="53" t="n">
-        <v>45400</v>
-      </c>
-      <c r="M1" s="53" t="n">
-        <v>45401</v>
-      </c>
-      <c r="N1" s="53" t="n">
-        <v>45402</v>
-      </c>
-      <c r="O1" s="53" t="n">
-        <v>45403</v>
-      </c>
-      <c r="P1" s="53" t="n">
-        <v>45404</v>
-      </c>
-      <c r="Q1" s="53" t="n">
-        <v>45405</v>
-      </c>
-      <c r="R1" s="53" t="n">
-        <v>45406</v>
-      </c>
-      <c r="S1" s="53" t="n">
-        <v>45407</v>
-      </c>
-      <c r="T1" s="53" t="n">
-        <v>45408</v>
-      </c>
-      <c r="U1" s="53" t="n">
-        <v>45409</v>
-      </c>
-      <c r="V1" s="53" t="n">
-        <v>45410</v>
-      </c>
-      <c r="W1" s="53" t="n">
-        <v>45411</v>
-      </c>
-      <c r="X1" s="53" t="n">
-        <v>45412</v>
-      </c>
-      <c r="Y1" s="53" t="n">
-        <v>45413</v>
-      </c>
-      <c r="Z1" s="53" t="n">
-        <v>45414</v>
-      </c>
-      <c r="AA1" s="53" t="n">
-        <v>45415</v>
-      </c>
-      <c r="AB1" s="53" t="n">
-        <v>45416</v>
-      </c>
-      <c r="AC1" s="53" t="n">
-        <v>45417</v>
-      </c>
-      <c r="AD1" s="53" t="n">
-        <v>45418</v>
-      </c>
-      <c r="AE1" s="53" t="n">
-        <v>45419</v>
-      </c>
-      <c r="AF1" s="53" t="n">
-        <v>45420</v>
-      </c>
-      <c r="AG1" s="53" t="n">
-        <v>45421</v>
-      </c>
-      <c r="AH1" s="53" t="n">
-        <v>45422</v>
-      </c>
-      <c r="AI1" s="53" t="n">
-        <v>45423</v>
-      </c>
-      <c r="AJ1" s="53" t="n">
-        <v>45424</v>
-      </c>
-      <c r="AK1" s="53" t="n">
-        <v>45425</v>
-      </c>
-      <c r="AL1" s="53" t="n">
-        <v>45426</v>
-      </c>
-      <c r="AM1" s="53" t="n">
-        <v>45427</v>
-      </c>
-      <c r="AN1" s="53" t="n">
-        <v>45428</v>
-      </c>
-      <c r="AO1" s="53" t="n">
-        <v>45429</v>
-      </c>
-      <c r="AP1" s="53" t="n">
-        <v>45430</v>
-      </c>
-      <c r="AQ1" s="53" t="n">
-        <v>45431</v>
-      </c>
-      <c r="AR1" s="53" t="n">
-        <v>45432</v>
-      </c>
-      <c r="AS1" s="53" t="n">
-        <v>45433</v>
-      </c>
-      <c r="AT1" s="53" t="n">
-        <v>45434</v>
-      </c>
-      <c r="AU1" s="53" t="n">
-        <v>45435</v>
-      </c>
-      <c r="AV1" s="53" t="n">
-        <v>45436</v>
-      </c>
-      <c r="AW1" s="53" t="n">
-        <v>45437</v>
-      </c>
-      <c r="AX1" s="53" t="n">
-        <v>45438</v>
-      </c>
-      <c r="AY1" s="53" t="n">
-        <v>45439</v>
-      </c>
-      <c r="AZ1" s="53" t="n">
-        <v>45440</v>
-      </c>
-      <c r="BA1" s="53" t="n">
-        <v>45441</v>
-      </c>
-      <c r="BB1" s="53" t="n">
-        <v>45442</v>
-      </c>
-      <c r="BC1" s="53" t="n">
-        <v>45443</v>
-      </c>
-      <c r="BD1" s="53" t="n">
-        <v>45444</v>
-      </c>
-      <c r="BE1" s="53" t="n">
-        <v>45445</v>
-      </c>
-      <c r="BF1" s="53" t="n">
-        <v>45446</v>
-      </c>
-      <c r="BG1" s="53" t="n">
-        <v>45447</v>
-      </c>
-      <c r="BH1" s="53" t="n">
-        <v>45448</v>
-      </c>
-      <c r="BI1" s="53" t="n">
-        <v>45449</v>
-      </c>
-      <c r="BJ1" s="53" t="n">
-        <v>45450</v>
-      </c>
-      <c r="BK1" s="53" t="n">
-        <v>45451</v>
-      </c>
-      <c r="BL1" s="53" t="n">
-        <v>45452</v>
-      </c>
-      <c r="BM1" s="53" t="n">
-        <v>45453</v>
-      </c>
-      <c r="BN1" s="53" t="n">
-        <v>45454</v>
-      </c>
-      <c r="BO1" s="53" t="n">
-        <v>45455</v>
-      </c>
-      <c r="BP1" s="53" t="n">
-        <v>45456</v>
-      </c>
-      <c r="BQ1" s="53" t="n">
-        <v>45457</v>
-      </c>
-      <c r="BR1" s="53" t="n">
-        <v>45458</v>
-      </c>
-      <c r="BS1" s="53" t="n">
-        <v>45459</v>
-      </c>
-      <c r="BT1" s="53" t="n">
-        <v>45460</v>
-      </c>
-      <c r="BU1" s="53" t="n">
-        <v>45461</v>
-      </c>
-      <c r="BV1" s="53" t="n">
-        <v>45462</v>
-      </c>
-      <c r="BW1" s="53" t="n">
-        <v>45463</v>
-      </c>
-      <c r="BX1" s="53" t="n">
-        <v>45464</v>
-      </c>
-      <c r="BY1" s="53" t="n">
-        <v>45465</v>
-      </c>
-      <c r="BZ1" s="53" t="n">
-        <v>45466</v>
-      </c>
-      <c r="CA1" s="53" t="n">
-        <v>45467</v>
-      </c>
-      <c r="CB1" s="53" t="n">
-        <v>45468</v>
-      </c>
-      <c r="CC1" s="53" t="n">
-        <v>45469</v>
-      </c>
-      <c r="CD1" s="53" t="n">
-        <v>45470</v>
-      </c>
-      <c r="CE1" s="53" t="n">
-        <v>45471</v>
-      </c>
-      <c r="CF1" s="53" t="n">
-        <v>45472</v>
-      </c>
-      <c r="CG1" s="53" t="n">
-        <v>45473</v>
-      </c>
-      <c r="CH1" s="53" t="n">
-        <v>45474</v>
-      </c>
-      <c r="CI1" s="53" t="n">
-        <v>45475</v>
-      </c>
-      <c r="CJ1" s="53" t="n">
-        <v>45476</v>
-      </c>
-      <c r="CK1" s="53" t="n">
-        <v>45477</v>
-      </c>
-      <c r="CL1" s="53" t="n">
-        <v>45478</v>
-      </c>
-      <c r="CM1" s="53" t="n">
-        <v>45479</v>
-      </c>
-      <c r="CN1" s="53" t="n">
-        <v>45480</v>
-      </c>
-      <c r="CO1" s="53" t="n">
-        <v>45481</v>
-      </c>
-      <c r="CP1" s="53" t="n">
-        <v>45482</v>
-      </c>
-      <c r="CQ1" s="53" t="n">
-        <v>45483</v>
-      </c>
-      <c r="CR1" s="53" t="n">
-        <v>45484</v>
-      </c>
-      <c r="CS1" s="53" t="n">
-        <v>45485</v>
-      </c>
-      <c r="CT1" s="53" t="n">
-        <v>45486</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="BD2" s="72"/>
-      <c r="BE2" s="72"/>
-      <c r="BG2" s="73"/>
-      <c r="BK2" s="72"/>
-      <c r="BL2" s="72"/>
-      <c r="BM2" s="1"/>
-      <c r="BN2" s="1"/>
-      <c r="BO2" s="1"/>
-      <c r="BP2" s="1"/>
-      <c r="BQ2" s="1"/>
-      <c r="BR2" s="72"/>
-      <c r="BS2" s="72"/>
-      <c r="BT2" s="1"/>
-      <c r="BU2" s="1"/>
-      <c r="BV2" s="1"/>
-      <c r="BW2" s="1"/>
-      <c r="BX2" s="1"/>
-      <c r="BY2" s="72"/>
-      <c r="BZ2" s="72"/>
-      <c r="CA2" s="1"/>
-      <c r="CB2" s="1"/>
-      <c r="CC2" s="1"/>
-      <c r="CD2" s="1"/>
-      <c r="CE2" s="1"/>
-      <c r="CF2" s="72"/>
-      <c r="CG2" s="72"/>
-      <c r="CH2" s="1"/>
-      <c r="CI2" s="1"/>
-      <c r="CJ2" s="1"/>
-      <c r="CK2" s="1"/>
-      <c r="CL2" s="1"/>
-      <c r="CM2" s="72"/>
-      <c r="CN2" s="72"/>
-      <c r="CO2" s="1"/>
-      <c r="CP2" s="1"/>
-      <c r="CQ2" s="1"/>
-      <c r="CR2" s="1"/>
-      <c r="CS2" s="1"/>
-      <c r="CT2" s="72"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="M3" s="71"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="73"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="72"/>
-      <c r="BG3" s="73"/>
-      <c r="BK3" s="72"/>
-      <c r="BL3" s="72"/>
-      <c r="BM3" s="1"/>
-      <c r="BN3" s="1"/>
-      <c r="BO3" s="1"/>
-      <c r="BP3" s="1"/>
-      <c r="BQ3" s="1"/>
-      <c r="BR3" s="72"/>
-      <c r="BS3" s="72"/>
-      <c r="BT3" s="1"/>
-      <c r="BU3" s="1"/>
-      <c r="BV3" s="1"/>
-      <c r="BW3" s="1"/>
-      <c r="BX3" s="1"/>
-      <c r="BY3" s="72"/>
-      <c r="BZ3" s="72"/>
-      <c r="CA3" s="1"/>
-      <c r="CB3" s="1"/>
-      <c r="CC3" s="1"/>
-      <c r="CD3" s="1"/>
-      <c r="CE3" s="1"/>
-      <c r="CF3" s="72"/>
-      <c r="CG3" s="72"/>
-      <c r="CH3" s="1"/>
-      <c r="CI3" s="1"/>
-      <c r="CJ3" s="1"/>
-      <c r="CK3" s="1"/>
-      <c r="CL3" s="1"/>
-      <c r="CM3" s="72"/>
-      <c r="CN3" s="72"/>
-      <c r="CO3" s="1"/>
-      <c r="CP3" s="1"/>
-      <c r="CQ3" s="1"/>
-      <c r="CR3" s="1"/>
-      <c r="CS3" s="1"/>
-      <c r="CT3" s="72"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="M4" s="71"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="71"/>
-      <c r="Z4" s="73"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="72"/>
-      <c r="AW4" s="72"/>
-      <c r="AX4" s="72"/>
-      <c r="BD4" s="72"/>
-      <c r="BE4" s="72"/>
-      <c r="BG4" s="73"/>
-      <c r="BK4" s="72"/>
-      <c r="BL4" s="72"/>
-      <c r="BM4" s="1"/>
-      <c r="BN4" s="1"/>
-      <c r="BO4" s="1"/>
-      <c r="BP4" s="1"/>
-      <c r="BQ4" s="1"/>
-      <c r="BR4" s="72"/>
-      <c r="BS4" s="72"/>
-      <c r="BT4" s="1"/>
-      <c r="BU4" s="1"/>
-      <c r="BV4" s="1"/>
-      <c r="BW4" s="1"/>
-      <c r="BX4" s="1"/>
-      <c r="BY4" s="72"/>
-      <c r="BZ4" s="72"/>
-      <c r="CA4" s="1"/>
-      <c r="CB4" s="1"/>
-      <c r="CC4" s="1"/>
-      <c r="CD4" s="1"/>
-      <c r="CE4" s="1"/>
-      <c r="CF4" s="72"/>
-      <c r="CG4" s="72"/>
-      <c r="CH4" s="1"/>
-      <c r="CI4" s="1"/>
-      <c r="CJ4" s="1"/>
-      <c r="CK4" s="1"/>
-      <c r="CL4" s="1"/>
-      <c r="CM4" s="72"/>
-      <c r="CN4" s="72"/>
-      <c r="CO4" s="1"/>
-      <c r="CP4" s="1"/>
-      <c r="CQ4" s="1"/>
-      <c r="CR4" s="1"/>
-      <c r="CS4" s="1"/>
-      <c r="CT4" s="72"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="73"/>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="71"/>
-      <c r="AE5" s="71"/>
-      <c r="AF5" s="71"/>
-      <c r="AG5" s="71"/>
-      <c r="AH5" s="71"/>
-      <c r="AI5" s="72"/>
-      <c r="AJ5" s="72"/>
-      <c r="AP5" s="72"/>
-      <c r="AQ5" s="72"/>
-      <c r="AW5" s="72"/>
-      <c r="AX5" s="72"/>
-      <c r="BD5" s="72"/>
-      <c r="BE5" s="72"/>
-      <c r="BG5" s="73"/>
-      <c r="BK5" s="72"/>
-      <c r="BL5" s="72"/>
-      <c r="BM5" s="1"/>
-      <c r="BN5" s="1"/>
-      <c r="BO5" s="1"/>
-      <c r="BP5" s="1"/>
-      <c r="BQ5" s="1"/>
-      <c r="BR5" s="72"/>
-      <c r="BS5" s="72"/>
-      <c r="BT5" s="1"/>
-      <c r="BU5" s="1"/>
-      <c r="BV5" s="1"/>
-      <c r="BW5" s="1"/>
-      <c r="BX5" s="1"/>
-      <c r="BY5" s="72"/>
-      <c r="BZ5" s="72"/>
-      <c r="CA5" s="1"/>
-      <c r="CB5" s="1"/>
-      <c r="CC5" s="1"/>
-      <c r="CD5" s="1"/>
-      <c r="CE5" s="1"/>
-      <c r="CF5" s="72"/>
-      <c r="CG5" s="72"/>
-      <c r="CH5" s="1"/>
-      <c r="CI5" s="1"/>
-      <c r="CJ5" s="1"/>
-      <c r="CK5" s="1"/>
-      <c r="CL5" s="1"/>
-      <c r="CM5" s="72"/>
-      <c r="CN5" s="72"/>
-      <c r="CO5" s="1"/>
-      <c r="CP5" s="1"/>
-      <c r="CQ5" s="1"/>
-      <c r="CR5" s="1"/>
-      <c r="CS5" s="1"/>
-      <c r="CT5" s="72"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="72"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="71"/>
-      <c r="AL6" s="71"/>
-      <c r="AM6" s="71"/>
-      <c r="AN6" s="71"/>
-      <c r="AO6" s="71"/>
-      <c r="AP6" s="72"/>
-      <c r="AQ6" s="72"/>
-      <c r="AR6" s="71"/>
-      <c r="AW6" s="72"/>
-      <c r="AX6" s="72"/>
-      <c r="BD6" s="72"/>
-      <c r="BE6" s="72"/>
-      <c r="BG6" s="73"/>
-      <c r="BK6" s="72"/>
-      <c r="BL6" s="72"/>
-      <c r="BM6" s="1"/>
-      <c r="BN6" s="1"/>
-      <c r="BO6" s="1"/>
-      <c r="BP6" s="1"/>
-      <c r="BQ6" s="1"/>
-      <c r="BR6" s="72"/>
-      <c r="BS6" s="72"/>
-      <c r="BT6" s="1"/>
-      <c r="BU6" s="1"/>
-      <c r="BV6" s="1"/>
-      <c r="BW6" s="1"/>
-      <c r="BX6" s="1"/>
-      <c r="BY6" s="72"/>
-      <c r="BZ6" s="72"/>
-      <c r="CA6" s="1"/>
-      <c r="CB6" s="1"/>
-      <c r="CC6" s="1"/>
-      <c r="CD6" s="1"/>
-      <c r="CE6" s="1"/>
-      <c r="CF6" s="72"/>
-      <c r="CG6" s="72"/>
-      <c r="CH6" s="1"/>
-      <c r="CI6" s="1"/>
-      <c r="CJ6" s="1"/>
-      <c r="CK6" s="1"/>
-      <c r="CL6" s="1"/>
-      <c r="CM6" s="72"/>
-      <c r="CN6" s="72"/>
-      <c r="CO6" s="1"/>
-      <c r="CP6" s="1"/>
-      <c r="CQ6" s="1"/>
-      <c r="CR6" s="1"/>
-      <c r="CS6" s="1"/>
-      <c r="CT6" s="72"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="Z7" s="73"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AH7" s="0"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="71"/>
-      <c r="AS7" s="71"/>
-      <c r="AT7" s="71"/>
-      <c r="AU7" s="71"/>
-      <c r="AV7" s="71"/>
-      <c r="AW7" s="72"/>
-      <c r="AX7" s="72"/>
-      <c r="AY7" s="71"/>
-      <c r="AZ7" s="71"/>
-      <c r="BA7" s="71"/>
-      <c r="BD7" s="72"/>
-      <c r="BE7" s="72"/>
-      <c r="BG7" s="73"/>
-      <c r="BK7" s="72"/>
-      <c r="BL7" s="72"/>
-      <c r="BM7" s="1"/>
-      <c r="BN7" s="1"/>
-      <c r="BO7" s="1"/>
-      <c r="BP7" s="1"/>
-      <c r="BQ7" s="1"/>
-      <c r="BR7" s="72"/>
-      <c r="BS7" s="72"/>
-      <c r="BT7" s="1"/>
-      <c r="BU7" s="1"/>
-      <c r="BV7" s="1"/>
-      <c r="BW7" s="1"/>
-      <c r="BX7" s="1"/>
-      <c r="BY7" s="72"/>
-      <c r="BZ7" s="72"/>
-      <c r="CA7" s="1"/>
-      <c r="CB7" s="1"/>
-      <c r="CC7" s="1"/>
-      <c r="CD7" s="1"/>
-      <c r="CE7" s="1"/>
-      <c r="CF7" s="72"/>
-      <c r="CG7" s="72"/>
-      <c r="CH7" s="1"/>
-      <c r="CI7" s="1"/>
-      <c r="CJ7" s="1"/>
-      <c r="CK7" s="1"/>
-      <c r="CL7" s="1"/>
-      <c r="CM7" s="72"/>
-      <c r="CN7" s="72"/>
-      <c r="CO7" s="1"/>
-      <c r="CP7" s="1"/>
-      <c r="CQ7" s="1"/>
-      <c r="CR7" s="1"/>
-      <c r="CS7" s="1"/>
-      <c r="CT7" s="72"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="71"/>
-      <c r="AF8" s="71"/>
-      <c r="AG8" s="71"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="71"/>
-      <c r="AM8" s="71"/>
-      <c r="AN8" s="71"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AW8" s="72"/>
-      <c r="AX8" s="72"/>
-      <c r="BD8" s="72"/>
-      <c r="BE8" s="72"/>
-      <c r="BG8" s="73"/>
-      <c r="BK8" s="72"/>
-      <c r="BL8" s="72"/>
-      <c r="BM8" s="1"/>
-      <c r="BN8" s="1"/>
-      <c r="BO8" s="1"/>
-      <c r="BP8" s="1"/>
-      <c r="BQ8" s="1"/>
-      <c r="BR8" s="72"/>
-      <c r="BS8" s="72"/>
-      <c r="BT8" s="1"/>
-      <c r="BU8" s="1"/>
-      <c r="BV8" s="1"/>
-      <c r="BW8" s="1"/>
-      <c r="BX8" s="1"/>
-      <c r="BY8" s="72"/>
-      <c r="BZ8" s="72"/>
-      <c r="CA8" s="1"/>
-      <c r="CB8" s="1"/>
-      <c r="CC8" s="1"/>
-      <c r="CD8" s="1"/>
-      <c r="CE8" s="1"/>
-      <c r="CF8" s="72"/>
-      <c r="CG8" s="72"/>
-      <c r="CH8" s="1"/>
-      <c r="CI8" s="1"/>
-      <c r="CJ8" s="1"/>
-      <c r="CK8" s="1"/>
-      <c r="CL8" s="1"/>
-      <c r="CM8" s="72"/>
-      <c r="CN8" s="72"/>
-      <c r="CO8" s="1"/>
-      <c r="CP8" s="1"/>
-      <c r="CQ8" s="1"/>
-      <c r="CR8" s="1"/>
-      <c r="CS8" s="1"/>
-      <c r="CT8" s="72"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="Z9" s="73"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AI9" s="72"/>
-      <c r="AJ9" s="72"/>
-      <c r="AP9" s="72"/>
-      <c r="AQ9" s="72"/>
-      <c r="AW9" s="72"/>
-      <c r="AX9" s="72"/>
-      <c r="BA9" s="74"/>
-      <c r="BB9" s="71"/>
-      <c r="BC9" s="71"/>
-      <c r="BD9" s="72"/>
-      <c r="BE9" s="72"/>
-      <c r="BF9" s="71"/>
-      <c r="BG9" s="73"/>
-      <c r="BH9" s="71"/>
-      <c r="BI9" s="71"/>
-      <c r="BJ9" s="71"/>
-      <c r="BK9" s="72"/>
-      <c r="BL9" s="72"/>
-      <c r="BM9" s="1"/>
-      <c r="BN9" s="1"/>
-      <c r="BO9" s="1"/>
-      <c r="BP9" s="1"/>
-      <c r="BQ9" s="1"/>
-      <c r="BR9" s="72"/>
-      <c r="BS9" s="72"/>
-      <c r="BT9" s="1"/>
-      <c r="BU9" s="1"/>
-      <c r="BV9" s="1"/>
-      <c r="BW9" s="1"/>
-      <c r="BX9" s="1"/>
-      <c r="BY9" s="72"/>
-      <c r="BZ9" s="72"/>
-      <c r="CA9" s="1"/>
-      <c r="CB9" s="1"/>
-      <c r="CC9" s="1"/>
-      <c r="CD9" s="1"/>
-      <c r="CE9" s="1"/>
-      <c r="CF9" s="72"/>
-      <c r="CG9" s="72"/>
-      <c r="CH9" s="1"/>
-      <c r="CI9" s="1"/>
-      <c r="CJ9" s="1"/>
-      <c r="CK9" s="1"/>
-      <c r="CL9" s="1"/>
-      <c r="CM9" s="72"/>
-      <c r="CN9" s="72"/>
-      <c r="CO9" s="1"/>
-      <c r="CP9" s="1"/>
-      <c r="CQ9" s="1"/>
-      <c r="CR9" s="1"/>
-      <c r="CS9" s="1"/>
-      <c r="CT9" s="72"/>
+      <c r="CT9" s="59"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -6928,61 +5517,96 @@
       <c r="H10" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="Z10" s="73"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="72"/>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="72"/>
-      <c r="AO10" s="0"/>
-      <c r="AP10" s="72"/>
-      <c r="AQ10" s="72"/>
-      <c r="AR10" s="71"/>
-      <c r="AS10" s="71"/>
-      <c r="AT10" s="71"/>
-      <c r="AU10" s="71"/>
-      <c r="AV10" s="71"/>
-      <c r="AW10" s="72"/>
-      <c r="AX10" s="72"/>
-      <c r="AY10" s="71"/>
-      <c r="AZ10" s="71"/>
-      <c r="BA10" s="71"/>
-      <c r="BB10" s="71"/>
-      <c r="BC10" s="71"/>
-      <c r="BD10" s="72"/>
-      <c r="BE10" s="72"/>
-      <c r="BG10" s="73"/>
-      <c r="BJ10" s="0"/>
-      <c r="BK10" s="72"/>
-      <c r="BL10" s="72"/>
-      <c r="BR10" s="72"/>
-      <c r="BS10" s="72"/>
-      <c r="BX10" s="1"/>
-      <c r="BY10" s="72"/>
-      <c r="BZ10" s="72"/>
-      <c r="CA10" s="1"/>
-      <c r="CB10" s="1"/>
-      <c r="CC10" s="1"/>
-      <c r="CD10" s="1"/>
-      <c r="CE10" s="1"/>
-      <c r="CF10" s="72"/>
-      <c r="CG10" s="72"/>
-      <c r="CH10" s="1"/>
-      <c r="CI10" s="1"/>
-      <c r="CJ10" s="1"/>
-      <c r="CK10" s="1"/>
-      <c r="CL10" s="1"/>
-      <c r="CM10" s="72"/>
-      <c r="CN10" s="72"/>
-      <c r="CO10" s="1"/>
-      <c r="CP10" s="1"/>
-      <c r="CQ10" s="1"/>
-      <c r="CR10" s="1"/>
-      <c r="CS10" s="1"/>
-      <c r="CT10" s="72"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="59"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="58"/>
+      <c r="AS10" s="56"/>
+      <c r="AT10" s="54"/>
+      <c r="AU10" s="54"/>
+      <c r="AV10" s="54"/>
+      <c r="AW10" s="59"/>
+      <c r="AX10" s="59"/>
+      <c r="AY10" s="54"/>
+      <c r="AZ10" s="54"/>
+      <c r="BA10" s="54"/>
+      <c r="BB10" s="54"/>
+      <c r="BC10" s="54"/>
+      <c r="BD10" s="59"/>
+      <c r="BE10" s="59"/>
+      <c r="BF10" s="54"/>
+      <c r="BG10" s="54"/>
+      <c r="BH10" s="56"/>
+      <c r="BI10" s="56"/>
+      <c r="BJ10" s="56"/>
+      <c r="BK10" s="59"/>
+      <c r="BL10" s="59"/>
+      <c r="BM10" s="56"/>
+      <c r="BN10" s="56"/>
+      <c r="BO10" s="56"/>
+      <c r="BP10" s="56"/>
+      <c r="BQ10" s="56"/>
+      <c r="BR10" s="59"/>
+      <c r="BS10" s="59"/>
+      <c r="BT10" s="56"/>
+      <c r="BU10" s="56"/>
+      <c r="BV10" s="56"/>
+      <c r="BW10" s="56"/>
+      <c r="BX10" s="56"/>
+      <c r="BY10" s="59"/>
+      <c r="BZ10" s="59"/>
+      <c r="CA10" s="56"/>
+      <c r="CB10" s="56"/>
+      <c r="CC10" s="56"/>
+      <c r="CD10" s="56"/>
+      <c r="CE10" s="56"/>
+      <c r="CF10" s="59"/>
+      <c r="CG10" s="59"/>
+      <c r="CH10" s="56"/>
+      <c r="CI10" s="56"/>
+      <c r="CJ10" s="56"/>
+      <c r="CK10" s="56"/>
+      <c r="CL10" s="56"/>
+      <c r="CM10" s="59"/>
+      <c r="CN10" s="59"/>
+      <c r="CO10" s="56"/>
+      <c r="CP10" s="56"/>
+      <c r="CQ10" s="56"/>
+      <c r="CR10" s="56"/>
+      <c r="CS10" s="56"/>
+      <c r="CT10" s="59"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
@@ -7001,59 +5625,96 @@
       <c r="H11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="Z11" s="73"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="72"/>
-      <c r="AI11" s="72"/>
-      <c r="AJ11" s="72"/>
-      <c r="AP11" s="72"/>
-      <c r="AQ11" s="72"/>
-      <c r="AW11" s="72"/>
-      <c r="AX11" s="72"/>
-      <c r="BD11" s="72"/>
-      <c r="BE11" s="72"/>
-      <c r="BG11" s="73"/>
-      <c r="BJ11" s="74"/>
-      <c r="BK11" s="72"/>
-      <c r="BL11" s="72"/>
-      <c r="BM11" s="71"/>
-      <c r="BN11" s="71"/>
-      <c r="BO11" s="71"/>
-      <c r="BP11" s="71"/>
-      <c r="BQ11" s="71"/>
-      <c r="BR11" s="72"/>
-      <c r="BS11" s="72"/>
-      <c r="BT11" s="71"/>
-      <c r="BU11" s="71"/>
-      <c r="BV11" s="71"/>
-      <c r="BW11" s="71"/>
-      <c r="BX11" s="71"/>
-      <c r="BY11" s="72"/>
-      <c r="BZ11" s="72"/>
-      <c r="CA11" s="1"/>
-      <c r="CB11" s="1"/>
-      <c r="CC11" s="1"/>
-      <c r="CD11" s="1"/>
-      <c r="CE11" s="1"/>
-      <c r="CF11" s="72"/>
-      <c r="CG11" s="72"/>
-      <c r="CH11" s="1"/>
-      <c r="CI11" s="1"/>
-      <c r="CJ11" s="1"/>
-      <c r="CK11" s="1"/>
-      <c r="CL11" s="1"/>
-      <c r="CM11" s="72"/>
-      <c r="CN11" s="72"/>
-      <c r="CO11" s="1"/>
-      <c r="CP11" s="1"/>
-      <c r="CQ11" s="1"/>
-      <c r="CR11" s="1"/>
-      <c r="CS11" s="1"/>
-      <c r="CT11" s="72"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="55"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="56"/>
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="56"/>
+      <c r="AP11" s="59"/>
+      <c r="AQ11" s="59"/>
+      <c r="AR11" s="58"/>
+      <c r="AS11" s="56"/>
+      <c r="AT11" s="56"/>
+      <c r="AU11" s="56"/>
+      <c r="AV11" s="56"/>
+      <c r="AW11" s="59"/>
+      <c r="AX11" s="59"/>
+      <c r="AY11" s="56"/>
+      <c r="AZ11" s="56"/>
+      <c r="BA11" s="56"/>
+      <c r="BB11" s="56"/>
+      <c r="BC11" s="56"/>
+      <c r="BD11" s="59"/>
+      <c r="BE11" s="59"/>
+      <c r="BF11" s="56"/>
+      <c r="BG11" s="56"/>
+      <c r="BH11" s="56"/>
+      <c r="BI11" s="56"/>
+      <c r="BJ11" s="56"/>
+      <c r="BK11" s="59"/>
+      <c r="BL11" s="59"/>
+      <c r="BM11" s="56"/>
+      <c r="BN11" s="56"/>
+      <c r="BO11" s="54"/>
+      <c r="BP11" s="54"/>
+      <c r="BQ11" s="54"/>
+      <c r="BR11" s="59"/>
+      <c r="BS11" s="59"/>
+      <c r="BT11" s="54"/>
+      <c r="BU11" s="54"/>
+      <c r="BV11" s="54"/>
+      <c r="BW11" s="54"/>
+      <c r="BX11" s="54"/>
+      <c r="BY11" s="59"/>
+      <c r="BZ11" s="59"/>
+      <c r="CA11" s="54"/>
+      <c r="CB11" s="54"/>
+      <c r="CC11" s="56"/>
+      <c r="CD11" s="56"/>
+      <c r="CE11" s="56"/>
+      <c r="CF11" s="59"/>
+      <c r="CG11" s="59"/>
+      <c r="CH11" s="56"/>
+      <c r="CI11" s="56"/>
+      <c r="CJ11" s="56"/>
+      <c r="CK11" s="56"/>
+      <c r="CL11" s="56"/>
+      <c r="CM11" s="59"/>
+      <c r="CN11" s="59"/>
+      <c r="CO11" s="56"/>
+      <c r="CP11" s="56"/>
+      <c r="CQ11" s="56"/>
+      <c r="CR11" s="56"/>
+      <c r="CS11" s="56"/>
+      <c r="CT11" s="59"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
@@ -7072,57 +5733,96 @@
       <c r="H12" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="Z12" s="73"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
-      <c r="AP12" s="72"/>
-      <c r="AQ12" s="72"/>
-      <c r="AW12" s="72"/>
-      <c r="AX12" s="72"/>
-      <c r="BD12" s="72"/>
-      <c r="BE12" s="72"/>
-      <c r="BG12" s="73"/>
-      <c r="BK12" s="72"/>
-      <c r="BL12" s="72"/>
-      <c r="BM12" s="1"/>
-      <c r="BN12" s="1"/>
-      <c r="BO12" s="1"/>
-      <c r="BP12" s="1"/>
-      <c r="BQ12" s="1"/>
-      <c r="BR12" s="72"/>
-      <c r="BS12" s="72"/>
-      <c r="BT12" s="1"/>
-      <c r="BU12" s="1"/>
-      <c r="BV12" s="1"/>
-      <c r="BW12" s="1"/>
-      <c r="BY12" s="72"/>
-      <c r="BZ12" s="72"/>
-      <c r="CA12" s="71"/>
-      <c r="CB12" s="71"/>
-      <c r="CC12" s="71"/>
-      <c r="CD12" s="71"/>
-      <c r="CE12" s="1"/>
-      <c r="CF12" s="72"/>
-      <c r="CG12" s="72"/>
-      <c r="CH12" s="1"/>
-      <c r="CI12" s="1"/>
-      <c r="CJ12" s="1"/>
-      <c r="CK12" s="1"/>
-      <c r="CL12" s="1"/>
-      <c r="CM12" s="72"/>
-      <c r="CN12" s="72"/>
-      <c r="CO12" s="1"/>
-      <c r="CP12" s="1"/>
-      <c r="CQ12" s="1"/>
-      <c r="CR12" s="1"/>
-      <c r="CS12" s="1"/>
-      <c r="CT12" s="72"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
+      <c r="AP12" s="59"/>
+      <c r="AQ12" s="59"/>
+      <c r="AR12" s="58"/>
+      <c r="AS12" s="56"/>
+      <c r="AT12" s="56"/>
+      <c r="AU12" s="56"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="59"/>
+      <c r="AX12" s="59"/>
+      <c r="AY12" s="61"/>
+      <c r="AZ12" s="61"/>
+      <c r="BA12" s="61"/>
+      <c r="BB12" s="61"/>
+      <c r="BC12" s="61"/>
+      <c r="BD12" s="65"/>
+      <c r="BE12" s="65"/>
+      <c r="BF12" s="61"/>
+      <c r="BG12" s="61"/>
+      <c r="BH12" s="61"/>
+      <c r="BI12" s="61"/>
+      <c r="BJ12" s="61"/>
+      <c r="BK12" s="65"/>
+      <c r="BL12" s="65"/>
+      <c r="BM12" s="61"/>
+      <c r="BN12" s="61"/>
+      <c r="BO12" s="61"/>
+      <c r="BP12" s="61"/>
+      <c r="BQ12" s="61"/>
+      <c r="BR12" s="65"/>
+      <c r="BS12" s="65"/>
+      <c r="BT12" s="61"/>
+      <c r="BU12" s="61"/>
+      <c r="BV12" s="61"/>
+      <c r="BW12" s="61"/>
+      <c r="BX12" s="61"/>
+      <c r="BY12" s="65"/>
+      <c r="BZ12" s="65"/>
+      <c r="CA12" s="61"/>
+      <c r="CB12" s="61"/>
+      <c r="CC12" s="66"/>
+      <c r="CD12" s="66"/>
+      <c r="CE12" s="66"/>
+      <c r="CF12" s="65"/>
+      <c r="CG12" s="65"/>
+      <c r="CH12" s="66"/>
+      <c r="CI12" s="61"/>
+      <c r="CJ12" s="61"/>
+      <c r="CK12" s="61"/>
+      <c r="CL12" s="61"/>
+      <c r="CM12" s="65"/>
+      <c r="CN12" s="65"/>
+      <c r="CO12" s="61"/>
+      <c r="CP12" s="61"/>
+      <c r="CQ12" s="61"/>
+      <c r="CR12" s="61"/>
+      <c r="CS12" s="61"/>
+      <c r="CT12" s="65"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="n">
@@ -7177,7 +5877,7 @@
       <c r="I15" s="26"/>
       <c r="J15" s="27"/>
       <c r="K15" s="26"/>
-      <c r="L15" s="66"/>
+      <c r="L15" s="71"/>
       <c r="M15" s="27"/>
       <c r="N15" s="26"/>
       <c r="O15" s="27"/>
@@ -7233,8 +5933,8 @@
         <f aca="false">U14-R14</f>
         <v>0</v>
       </c>
-      <c r="S16" s="62"/>
-      <c r="T16" s="75"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="72"/>
       <c r="U16" s="28" t="n">
         <f aca="false">VLOOKUP(U15,$A$2:$H$12,8)</f>
         <v>10</v>
@@ -7247,7 +5947,7 @@
         <f aca="false">Z17-W14</f>
         <v>15</v>
       </c>
-      <c r="X16" s="76"/>
+      <c r="X16" s="73"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="33" t="n">
@@ -7274,7 +5974,7 @@
         <v>28</v>
       </c>
       <c r="Q17" s="23"/>
-      <c r="R17" s="77" t="n">
+      <c r="R17" s="74" t="n">
         <f aca="false">U17</f>
         <v>39</v>
       </c>
@@ -7287,7 +5987,7 @@
         <f aca="false">Z20</f>
         <v>49</v>
       </c>
-      <c r="X17" s="78"/>
+      <c r="X17" s="75"/>
       <c r="Y17" s="37"/>
       <c r="Z17" s="22" t="n">
         <f aca="false">MAX(W14,W20)</f>
@@ -7300,7 +6000,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="67"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="36"/>
       <c r="Z18" s="25" t="s">
         <v>7</v>
@@ -7363,7 +6063,7 @@
         <f aca="false">U20+U22</f>
         <v>49</v>
       </c>
-      <c r="X20" s="78"/>
+      <c r="X20" s="75"/>
       <c r="Z20" s="33" t="n">
         <f aca="false">AB20-Z19</f>
         <v>49</v>
@@ -7392,18 +6092,18 @@
       <c r="M21" s="25"/>
       <c r="N21" s="26"/>
       <c r="O21" s="27"/>
-      <c r="P21" s="69" t="s">
+      <c r="P21" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="70" t="s">
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
       <c r="X21" s="38"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7420,7 +6120,7 @@
         <f aca="false">K20-H20</f>
         <v>0</v>
       </c>
-      <c r="I22" s="62"/>
+      <c r="I22" s="67"/>
       <c r="K22" s="28" t="n">
         <f aca="false">VLOOKUP(K21,$A$2:$H$12,8)</f>
         <v>15</v>
@@ -7466,7 +6166,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="23"/>
-      <c r="H23" s="77" t="n">
+      <c r="H23" s="74" t="n">
         <f aca="false">K23</f>
         <v>17</v>
       </c>
@@ -7475,7 +6175,7 @@
         <v>17</v>
       </c>
       <c r="L23" s="23"/>
-      <c r="M23" s="77" t="n">
+      <c r="M23" s="74" t="n">
         <f aca="false">P23</f>
         <v>32</v>
       </c>
@@ -7485,7 +6185,7 @@
         <v>32</v>
       </c>
       <c r="Q23" s="23"/>
-      <c r="R23" s="77" t="n">
+      <c r="R23" s="74" t="n">
         <f aca="false">U23</f>
         <v>39</v>
       </c>
@@ -7531,20 +6231,20 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="36"/>
-      <c r="D27" s="68"/>
+      <c r="D27" s="79"/>
       <c r="E27" s="27"/>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="70" t="s">
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
       <c r="N27" s="38"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7579,7 +6279,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="23"/>
-      <c r="H29" s="77" t="n">
+      <c r="H29" s="74" t="n">
         <f aca="false">K29</f>
         <v>19</v>
       </c>
@@ -7610,57 +6310,57 @@
     <mergeCell ref="K27:M27"/>
   </mergeCells>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA19">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7679,132 +6379,2055 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:CV27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="0" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="CV10" activeCellId="0" sqref="CV10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="1" style="1" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="44" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="0" width="3.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="53" t="n">
+        <v>45397</v>
+      </c>
+      <c r="J1" s="53" t="n">
+        <v>45398</v>
+      </c>
+      <c r="K1" s="53" t="n">
+        <v>45399</v>
+      </c>
+      <c r="L1" s="53" t="n">
+        <v>45400</v>
+      </c>
+      <c r="M1" s="53" t="n">
+        <v>45401</v>
+      </c>
+      <c r="N1" s="53" t="n">
+        <v>45402</v>
+      </c>
+      <c r="O1" s="53" t="n">
+        <v>45403</v>
+      </c>
+      <c r="P1" s="53" t="n">
+        <v>45404</v>
+      </c>
+      <c r="Q1" s="53" t="n">
+        <v>45405</v>
+      </c>
+      <c r="R1" s="53" t="n">
+        <v>45406</v>
+      </c>
+      <c r="S1" s="53" t="n">
+        <v>45407</v>
+      </c>
+      <c r="T1" s="53" t="n">
+        <v>45408</v>
+      </c>
+      <c r="U1" s="53" t="n">
+        <v>45409</v>
+      </c>
+      <c r="V1" s="53" t="n">
+        <v>45410</v>
+      </c>
+      <c r="W1" s="53" t="n">
+        <v>45411</v>
+      </c>
+      <c r="X1" s="53" t="n">
+        <v>45412</v>
+      </c>
+      <c r="Y1" s="53" t="n">
+        <v>45413</v>
+      </c>
+      <c r="Z1" s="53" t="n">
+        <v>45414</v>
+      </c>
+      <c r="AA1" s="53" t="n">
+        <v>45415</v>
+      </c>
+      <c r="AB1" s="53" t="n">
+        <v>45416</v>
+      </c>
+      <c r="AC1" s="53" t="n">
+        <v>45417</v>
+      </c>
+      <c r="AD1" s="53" t="n">
+        <v>45418</v>
+      </c>
+      <c r="AE1" s="53" t="n">
+        <v>45419</v>
+      </c>
+      <c r="AF1" s="53" t="n">
+        <v>45420</v>
+      </c>
+      <c r="AG1" s="53" t="n">
+        <v>45421</v>
+      </c>
+      <c r="AH1" s="53" t="n">
+        <v>45422</v>
+      </c>
+      <c r="AI1" s="53" t="n">
+        <v>45423</v>
+      </c>
+      <c r="AJ1" s="53" t="n">
+        <v>45424</v>
+      </c>
+      <c r="AK1" s="53" t="n">
+        <v>45425</v>
+      </c>
+      <c r="AL1" s="53" t="n">
+        <v>45426</v>
+      </c>
+      <c r="AM1" s="53" t="n">
+        <v>45427</v>
+      </c>
+      <c r="AN1" s="53" t="n">
+        <v>45428</v>
+      </c>
+      <c r="AO1" s="53" t="n">
+        <v>45429</v>
+      </c>
+      <c r="AP1" s="53" t="n">
+        <v>45430</v>
+      </c>
+      <c r="AQ1" s="53" t="n">
+        <v>45431</v>
+      </c>
+      <c r="AR1" s="80" t="n">
+        <v>45432</v>
+      </c>
+      <c r="AS1" s="53" t="n">
+        <v>45433</v>
+      </c>
+      <c r="AT1" s="53" t="n">
+        <v>45434</v>
+      </c>
+      <c r="AU1" s="53" t="n">
+        <v>45435</v>
+      </c>
+      <c r="AV1" s="53" t="n">
+        <v>45436</v>
+      </c>
+      <c r="AW1" s="53" t="n">
+        <v>45437</v>
+      </c>
+      <c r="AX1" s="53" t="n">
+        <v>45438</v>
+      </c>
+      <c r="AY1" s="53" t="n">
+        <v>45439</v>
+      </c>
+      <c r="AZ1" s="53" t="n">
+        <v>45440</v>
+      </c>
+      <c r="BA1" s="53" t="n">
+        <v>45441</v>
+      </c>
+      <c r="BB1" s="53" t="n">
+        <v>45442</v>
+      </c>
+      <c r="BC1" s="53" t="n">
+        <v>45443</v>
+      </c>
+      <c r="BD1" s="53" t="n">
+        <v>45444</v>
+      </c>
+      <c r="BE1" s="53" t="n">
+        <v>45445</v>
+      </c>
+      <c r="BF1" s="53" t="n">
+        <v>45446</v>
+      </c>
+      <c r="BG1" s="53" t="n">
+        <v>45447</v>
+      </c>
+      <c r="BH1" s="53" t="n">
+        <v>45448</v>
+      </c>
+      <c r="BI1" s="53" t="n">
+        <v>45449</v>
+      </c>
+      <c r="BJ1" s="53" t="n">
+        <v>45450</v>
+      </c>
+      <c r="BK1" s="53" t="n">
+        <v>45451</v>
+      </c>
+      <c r="BL1" s="53" t="n">
+        <v>45452</v>
+      </c>
+      <c r="BM1" s="53" t="n">
+        <v>45453</v>
+      </c>
+      <c r="BN1" s="53" t="n">
+        <v>45454</v>
+      </c>
+      <c r="BO1" s="53" t="n">
+        <v>45455</v>
+      </c>
+      <c r="BP1" s="53" t="n">
+        <v>45456</v>
+      </c>
+      <c r="BQ1" s="53" t="n">
+        <v>45457</v>
+      </c>
+      <c r="BR1" s="53" t="n">
+        <v>45458</v>
+      </c>
+      <c r="BS1" s="53" t="n">
+        <v>45459</v>
+      </c>
+      <c r="BT1" s="53" t="n">
+        <v>45460</v>
+      </c>
+      <c r="BU1" s="53" t="n">
+        <v>45461</v>
+      </c>
+      <c r="BV1" s="53" t="n">
+        <v>45462</v>
+      </c>
+      <c r="BW1" s="53" t="n">
+        <v>45463</v>
+      </c>
+      <c r="BX1" s="53" t="n">
+        <v>45464</v>
+      </c>
+      <c r="BY1" s="53" t="n">
+        <v>45465</v>
+      </c>
+      <c r="BZ1" s="53" t="n">
+        <v>45466</v>
+      </c>
+      <c r="CA1" s="53" t="n">
+        <v>45467</v>
+      </c>
+      <c r="CB1" s="53" t="n">
+        <v>45468</v>
+      </c>
+      <c r="CC1" s="53" t="n">
+        <v>45469</v>
+      </c>
+      <c r="CD1" s="53" t="n">
+        <v>45470</v>
+      </c>
+      <c r="CE1" s="53" t="n">
+        <v>45471</v>
+      </c>
+      <c r="CF1" s="53" t="n">
+        <v>45472</v>
+      </c>
+      <c r="CG1" s="53" t="n">
+        <v>45473</v>
+      </c>
+      <c r="CH1" s="53" t="n">
+        <v>45474</v>
+      </c>
+      <c r="CI1" s="53" t="n">
+        <v>45475</v>
+      </c>
+      <c r="CJ1" s="53" t="n">
+        <v>45476</v>
+      </c>
+      <c r="CK1" s="53" t="n">
+        <v>45477</v>
+      </c>
+      <c r="CL1" s="53" t="n">
+        <v>45478</v>
+      </c>
+      <c r="CM1" s="53" t="n">
+        <v>45479</v>
+      </c>
+      <c r="CN1" s="53" t="n">
+        <v>45480</v>
+      </c>
+      <c r="CO1" s="53" t="n">
+        <v>45481</v>
+      </c>
+      <c r="CP1" s="53" t="n">
+        <v>45482</v>
+      </c>
+      <c r="CQ1" s="53" t="n">
+        <v>45483</v>
+      </c>
+      <c r="CR1" s="53" t="n">
+        <v>45484</v>
+      </c>
+      <c r="CS1" s="53" t="n">
+        <v>45485</v>
+      </c>
+      <c r="CT1" s="53" t="n">
+        <v>45486</v>
+      </c>
+      <c r="CU1" s="53" t="n">
+        <v>45487</v>
+      </c>
+      <c r="CV1" s="53" t="n">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="59"/>
+      <c r="BF2" s="56"/>
+      <c r="BG2" s="56"/>
+      <c r="BH2" s="56"/>
+      <c r="BI2" s="56"/>
+      <c r="BJ2" s="56"/>
+      <c r="BK2" s="59"/>
+      <c r="BL2" s="59"/>
+      <c r="BM2" s="56"/>
+      <c r="BN2" s="56"/>
+      <c r="BO2" s="56"/>
+      <c r="BP2" s="56"/>
+      <c r="BQ2" s="56"/>
+      <c r="BR2" s="59"/>
+      <c r="BS2" s="59"/>
+      <c r="BT2" s="56"/>
+      <c r="BU2" s="56"/>
+      <c r="BV2" s="56"/>
+      <c r="BW2" s="56"/>
+      <c r="BX2" s="56"/>
+      <c r="BY2" s="59"/>
+      <c r="BZ2" s="59"/>
+      <c r="CA2" s="56"/>
+      <c r="CB2" s="56"/>
+      <c r="CC2" s="56"/>
+      <c r="CD2" s="56"/>
+      <c r="CE2" s="56"/>
+      <c r="CF2" s="59"/>
+      <c r="CG2" s="59"/>
+      <c r="CH2" s="56"/>
+      <c r="CI2" s="56"/>
+      <c r="CJ2" s="56"/>
+      <c r="CK2" s="56"/>
+      <c r="CL2" s="56"/>
+      <c r="CM2" s="59"/>
+      <c r="CN2" s="59"/>
+      <c r="CO2" s="56"/>
+      <c r="CP2" s="56"/>
+      <c r="CQ2" s="56"/>
+      <c r="CR2" s="56"/>
+      <c r="CS2" s="56"/>
+      <c r="CT2" s="59"/>
+      <c r="CU2" s="59"/>
+      <c r="CV2" s="68"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="59"/>
+      <c r="AX3" s="59"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="56"/>
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="59"/>
+      <c r="BF3" s="56"/>
+      <c r="BG3" s="56"/>
+      <c r="BH3" s="56"/>
+      <c r="BI3" s="56"/>
+      <c r="BJ3" s="56"/>
+      <c r="BK3" s="59"/>
+      <c r="BL3" s="59"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="56"/>
+      <c r="BO3" s="56"/>
+      <c r="BP3" s="56"/>
+      <c r="BQ3" s="56"/>
+      <c r="BR3" s="59"/>
+      <c r="BS3" s="59"/>
+      <c r="BT3" s="56"/>
+      <c r="BU3" s="56"/>
+      <c r="BV3" s="56"/>
+      <c r="BW3" s="56"/>
+      <c r="BX3" s="56"/>
+      <c r="BY3" s="59"/>
+      <c r="BZ3" s="59"/>
+      <c r="CA3" s="56"/>
+      <c r="CB3" s="56"/>
+      <c r="CC3" s="56"/>
+      <c r="CD3" s="56"/>
+      <c r="CE3" s="56"/>
+      <c r="CF3" s="59"/>
+      <c r="CG3" s="59"/>
+      <c r="CH3" s="56"/>
+      <c r="CI3" s="56"/>
+      <c r="CJ3" s="56"/>
+      <c r="CK3" s="56"/>
+      <c r="CL3" s="56"/>
+      <c r="CM3" s="59"/>
+      <c r="CN3" s="59"/>
+      <c r="CO3" s="56"/>
+      <c r="CP3" s="56"/>
+      <c r="CQ3" s="56"/>
+      <c r="CR3" s="56"/>
+      <c r="CS3" s="56"/>
+      <c r="CT3" s="59"/>
+      <c r="CU3" s="59"/>
+      <c r="CV3" s="68"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="57"/>
+      <c r="AS4" s="54"/>
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="54"/>
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="54"/>
+      <c r="AZ4" s="54"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="56"/>
+      <c r="BC4" s="56"/>
+      <c r="BD4" s="59"/>
+      <c r="BE4" s="59"/>
+      <c r="BF4" s="56"/>
+      <c r="BG4" s="56"/>
+      <c r="BH4" s="56"/>
+      <c r="BI4" s="56"/>
+      <c r="BJ4" s="56"/>
+      <c r="BK4" s="59"/>
+      <c r="BL4" s="59"/>
+      <c r="BM4" s="56"/>
+      <c r="BN4" s="56"/>
+      <c r="BO4" s="56"/>
+      <c r="BP4" s="56"/>
+      <c r="BQ4" s="56"/>
+      <c r="BR4" s="59"/>
+      <c r="BS4" s="59"/>
+      <c r="BT4" s="56"/>
+      <c r="BU4" s="56"/>
+      <c r="BV4" s="56"/>
+      <c r="BW4" s="56"/>
+      <c r="BX4" s="56"/>
+      <c r="BY4" s="59"/>
+      <c r="BZ4" s="59"/>
+      <c r="CA4" s="56"/>
+      <c r="CB4" s="56"/>
+      <c r="CC4" s="56"/>
+      <c r="CD4" s="56"/>
+      <c r="CE4" s="56"/>
+      <c r="CF4" s="59"/>
+      <c r="CG4" s="59"/>
+      <c r="CH4" s="56"/>
+      <c r="CI4" s="56"/>
+      <c r="CJ4" s="56"/>
+      <c r="CK4" s="56"/>
+      <c r="CL4" s="56"/>
+      <c r="CM4" s="59"/>
+      <c r="CN4" s="59"/>
+      <c r="CO4" s="56"/>
+      <c r="CP4" s="56"/>
+      <c r="CQ4" s="56"/>
+      <c r="CR4" s="56"/>
+      <c r="CS4" s="56"/>
+      <c r="CT4" s="59"/>
+      <c r="CU4" s="59"/>
+      <c r="CV4" s="68"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="54"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="59"/>
+      <c r="AX5" s="59"/>
+      <c r="AY5" s="56"/>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="56"/>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="56"/>
+      <c r="BD5" s="59"/>
+      <c r="BE5" s="59"/>
+      <c r="BF5" s="56"/>
+      <c r="BG5" s="56"/>
+      <c r="BH5" s="56"/>
+      <c r="BI5" s="56"/>
+      <c r="BJ5" s="56"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59"/>
+      <c r="BM5" s="56"/>
+      <c r="BN5" s="56"/>
+      <c r="BO5" s="56"/>
+      <c r="BP5" s="56"/>
+      <c r="BQ5" s="56"/>
+      <c r="BR5" s="59"/>
+      <c r="BS5" s="59"/>
+      <c r="BT5" s="56"/>
+      <c r="BU5" s="56"/>
+      <c r="BV5" s="56"/>
+      <c r="BW5" s="56"/>
+      <c r="BX5" s="56"/>
+      <c r="BY5" s="59"/>
+      <c r="BZ5" s="59"/>
+      <c r="CA5" s="56"/>
+      <c r="CB5" s="56"/>
+      <c r="CC5" s="56"/>
+      <c r="CD5" s="56"/>
+      <c r="CE5" s="56"/>
+      <c r="CF5" s="59"/>
+      <c r="CG5" s="59"/>
+      <c r="CH5" s="56"/>
+      <c r="CI5" s="56"/>
+      <c r="CJ5" s="56"/>
+      <c r="CK5" s="56"/>
+      <c r="CL5" s="56"/>
+      <c r="CM5" s="59"/>
+      <c r="CN5" s="59"/>
+      <c r="CO5" s="56"/>
+      <c r="CP5" s="56"/>
+      <c r="CQ5" s="56"/>
+      <c r="CR5" s="56"/>
+      <c r="CS5" s="56"/>
+      <c r="CT5" s="59"/>
+      <c r="CU5" s="59"/>
+      <c r="CV5" s="68"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="68"/>
+      <c r="AO6" s="68"/>
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="59"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="68"/>
+      <c r="AT6" s="68"/>
+      <c r="AU6" s="68"/>
+      <c r="AV6" s="68"/>
+      <c r="AW6" s="59"/>
+      <c r="AX6" s="59"/>
+      <c r="AY6" s="68"/>
+      <c r="AZ6" s="68"/>
+      <c r="BA6" s="54"/>
+      <c r="BB6" s="54"/>
+      <c r="BC6" s="54"/>
+      <c r="BD6" s="59"/>
+      <c r="BE6" s="59"/>
+      <c r="BF6" s="54"/>
+      <c r="BG6" s="54"/>
+      <c r="BH6" s="54"/>
+      <c r="BI6" s="54"/>
+      <c r="BJ6" s="54"/>
+      <c r="BK6" s="59"/>
+      <c r="BL6" s="59"/>
+      <c r="BM6" s="54"/>
+      <c r="BN6" s="54"/>
+      <c r="BO6" s="54"/>
+      <c r="BP6" s="54"/>
+      <c r="BQ6" s="54"/>
+      <c r="BR6" s="59"/>
+      <c r="BS6" s="59"/>
+      <c r="BT6" s="54"/>
+      <c r="BU6" s="54"/>
+      <c r="BV6" s="56"/>
+      <c r="BW6" s="56"/>
+      <c r="BX6" s="56"/>
+      <c r="BY6" s="59"/>
+      <c r="BZ6" s="59"/>
+      <c r="CA6" s="56"/>
+      <c r="CB6" s="56"/>
+      <c r="CC6" s="56"/>
+      <c r="CD6" s="56"/>
+      <c r="CE6" s="56"/>
+      <c r="CF6" s="59"/>
+      <c r="CG6" s="59"/>
+      <c r="CH6" s="56"/>
+      <c r="CI6" s="56"/>
+      <c r="CJ6" s="56"/>
+      <c r="CK6" s="56"/>
+      <c r="CL6" s="56"/>
+      <c r="CM6" s="59"/>
+      <c r="CN6" s="59"/>
+      <c r="CO6" s="56"/>
+      <c r="CP6" s="56"/>
+      <c r="CQ6" s="56"/>
+      <c r="CR6" s="56"/>
+      <c r="CS6" s="56"/>
+      <c r="CT6" s="59"/>
+      <c r="CU6" s="59"/>
+      <c r="CV6" s="68"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="55"/>
+      <c r="AJ7" s="55"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="54"/>
+      <c r="AP7" s="59"/>
+      <c r="AQ7" s="59"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="54"/>
+      <c r="AT7" s="54"/>
+      <c r="AU7" s="54"/>
+      <c r="AV7" s="54"/>
+      <c r="AW7" s="59"/>
+      <c r="AX7" s="59"/>
+      <c r="AY7" s="54"/>
+      <c r="AZ7" s="54"/>
+      <c r="BA7" s="54"/>
+      <c r="BB7" s="54"/>
+      <c r="BC7" s="54"/>
+      <c r="BD7" s="59"/>
+      <c r="BE7" s="59"/>
+      <c r="BF7" s="54"/>
+      <c r="BG7" s="54"/>
+      <c r="BH7" s="54"/>
+      <c r="BI7" s="56"/>
+      <c r="BJ7" s="56"/>
+      <c r="BK7" s="59"/>
+      <c r="BL7" s="59"/>
+      <c r="BM7" s="56"/>
+      <c r="BN7" s="56"/>
+      <c r="BO7" s="56"/>
+      <c r="BP7" s="56"/>
+      <c r="BQ7" s="56"/>
+      <c r="BR7" s="59"/>
+      <c r="BS7" s="59"/>
+      <c r="BT7" s="56"/>
+      <c r="BU7" s="56"/>
+      <c r="BV7" s="56"/>
+      <c r="BW7" s="56"/>
+      <c r="BX7" s="56"/>
+      <c r="BY7" s="59"/>
+      <c r="BZ7" s="59"/>
+      <c r="CA7" s="56"/>
+      <c r="CB7" s="56"/>
+      <c r="CC7" s="56"/>
+      <c r="CD7" s="56"/>
+      <c r="CE7" s="56"/>
+      <c r="CF7" s="59"/>
+      <c r="CG7" s="59"/>
+      <c r="CH7" s="56"/>
+      <c r="CI7" s="56"/>
+      <c r="CJ7" s="56"/>
+      <c r="CK7" s="56"/>
+      <c r="CL7" s="56"/>
+      <c r="CM7" s="59"/>
+      <c r="CN7" s="59"/>
+      <c r="CO7" s="56"/>
+      <c r="CP7" s="56"/>
+      <c r="CQ7" s="56"/>
+      <c r="CR7" s="56"/>
+      <c r="CS7" s="56"/>
+      <c r="CT7" s="59"/>
+      <c r="CU7" s="59"/>
+      <c r="CV7" s="68"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="54"/>
+      <c r="AP8" s="59"/>
+      <c r="AQ8" s="59"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="54"/>
+      <c r="AT8" s="54"/>
+      <c r="AU8" s="54"/>
+      <c r="AV8" s="54"/>
+      <c r="AW8" s="59"/>
+      <c r="AX8" s="59"/>
+      <c r="AY8" s="54"/>
+      <c r="AZ8" s="56"/>
+      <c r="BA8" s="56"/>
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="56"/>
+      <c r="BD8" s="59"/>
+      <c r="BE8" s="59"/>
+      <c r="BF8" s="56"/>
+      <c r="BG8" s="56"/>
+      <c r="BH8" s="56"/>
+      <c r="BI8" s="56"/>
+      <c r="BJ8" s="56"/>
+      <c r="BK8" s="59"/>
+      <c r="BL8" s="59"/>
+      <c r="BM8" s="56"/>
+      <c r="BN8" s="56"/>
+      <c r="BO8" s="56"/>
+      <c r="BP8" s="56"/>
+      <c r="BQ8" s="56"/>
+      <c r="BR8" s="59"/>
+      <c r="BS8" s="59"/>
+      <c r="BT8" s="56"/>
+      <c r="BU8" s="56"/>
+      <c r="BV8" s="56"/>
+      <c r="BW8" s="56"/>
+      <c r="BX8" s="56"/>
+      <c r="BY8" s="59"/>
+      <c r="BZ8" s="59"/>
+      <c r="CA8" s="56"/>
+      <c r="CB8" s="56"/>
+      <c r="CC8" s="56"/>
+      <c r="CD8" s="56"/>
+      <c r="CE8" s="56"/>
+      <c r="CF8" s="59"/>
+      <c r="CG8" s="59"/>
+      <c r="CH8" s="56"/>
+      <c r="CI8" s="56"/>
+      <c r="CJ8" s="56"/>
+      <c r="CK8" s="56"/>
+      <c r="CL8" s="56"/>
+      <c r="CM8" s="59"/>
+      <c r="CN8" s="59"/>
+      <c r="CO8" s="56"/>
+      <c r="CP8" s="56"/>
+      <c r="CQ8" s="56"/>
+      <c r="CR8" s="56"/>
+      <c r="CS8" s="56"/>
+      <c r="CT8" s="59"/>
+      <c r="CU8" s="59"/>
+      <c r="CV8" s="68"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="59"/>
+      <c r="AR9" s="57"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="56"/>
+      <c r="AW9" s="59"/>
+      <c r="AX9" s="59"/>
+      <c r="AY9" s="56"/>
+      <c r="AZ9" s="56"/>
+      <c r="BA9" s="56"/>
+      <c r="BB9" s="56"/>
+      <c r="BC9" s="56"/>
+      <c r="BD9" s="59"/>
+      <c r="BE9" s="59"/>
+      <c r="BF9" s="56"/>
+      <c r="BG9" s="56"/>
+      <c r="BH9" s="56"/>
+      <c r="BI9" s="56"/>
+      <c r="BJ9" s="56"/>
+      <c r="BK9" s="59"/>
+      <c r="BL9" s="59"/>
+      <c r="BM9" s="56"/>
+      <c r="BN9" s="56"/>
+      <c r="BO9" s="56"/>
+      <c r="BP9" s="56"/>
+      <c r="BQ9" s="56"/>
+      <c r="BR9" s="59"/>
+      <c r="BS9" s="59"/>
+      <c r="BT9" s="56"/>
+      <c r="BU9" s="56"/>
+      <c r="BV9" s="54"/>
+      <c r="BW9" s="54"/>
+      <c r="BX9" s="54"/>
+      <c r="BY9" s="59"/>
+      <c r="BZ9" s="59"/>
+      <c r="CA9" s="54"/>
+      <c r="CB9" s="54"/>
+      <c r="CC9" s="54"/>
+      <c r="CD9" s="54"/>
+      <c r="CE9" s="54"/>
+      <c r="CF9" s="59"/>
+      <c r="CG9" s="59"/>
+      <c r="CH9" s="54"/>
+      <c r="CI9" s="54"/>
+      <c r="CJ9" s="54"/>
+      <c r="CK9" s="54"/>
+      <c r="CL9" s="54"/>
+      <c r="CM9" s="59"/>
+      <c r="CN9" s="59"/>
+      <c r="CO9" s="54"/>
+      <c r="CP9" s="54"/>
+      <c r="CQ9" s="56"/>
+      <c r="CR9" s="56"/>
+      <c r="CS9" s="56"/>
+      <c r="CT9" s="59"/>
+      <c r="CU9" s="59"/>
+      <c r="CV9" s="68"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="62"/>
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="61"/>
+      <c r="AL10" s="61"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="61"/>
+      <c r="AO10" s="61"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="63"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="61"/>
+      <c r="AU10" s="61"/>
+      <c r="AV10" s="61"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="61"/>
+      <c r="AZ10" s="61"/>
+      <c r="BA10" s="61"/>
+      <c r="BB10" s="61"/>
+      <c r="BC10" s="61"/>
+      <c r="BD10" s="65"/>
+      <c r="BE10" s="65"/>
+      <c r="BF10" s="61"/>
+      <c r="BG10" s="61"/>
+      <c r="BH10" s="61"/>
+      <c r="BI10" s="61"/>
+      <c r="BJ10" s="61"/>
+      <c r="BK10" s="65"/>
+      <c r="BL10" s="65"/>
+      <c r="BM10" s="61"/>
+      <c r="BN10" s="61"/>
+      <c r="BO10" s="61"/>
+      <c r="BP10" s="61"/>
+      <c r="BQ10" s="61"/>
+      <c r="BR10" s="65"/>
+      <c r="BS10" s="65"/>
+      <c r="BT10" s="61"/>
+      <c r="BU10" s="61"/>
+      <c r="BV10" s="61"/>
+      <c r="BW10" s="61"/>
+      <c r="BX10" s="61"/>
+      <c r="BY10" s="65"/>
+      <c r="BZ10" s="65"/>
+      <c r="CA10" s="61"/>
+      <c r="CB10" s="61"/>
+      <c r="CC10" s="61"/>
+      <c r="CD10" s="61"/>
+      <c r="CE10" s="61"/>
+      <c r="CF10" s="65"/>
+      <c r="CG10" s="65"/>
+      <c r="CH10" s="61"/>
+      <c r="CI10" s="61"/>
+      <c r="CJ10" s="61"/>
+      <c r="CK10" s="61"/>
+      <c r="CL10" s="61"/>
+      <c r="CM10" s="65"/>
+      <c r="CN10" s="65"/>
+      <c r="CO10" s="61"/>
+      <c r="CP10" s="61"/>
+      <c r="CQ10" s="66"/>
+      <c r="CR10" s="66"/>
+      <c r="CS10" s="66"/>
+      <c r="CT10" s="65"/>
+      <c r="CU10" s="65"/>
+      <c r="CV10" s="66"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24" t="n">
+        <f aca="false">A12+A14</f>
+        <v>15</v>
+      </c>
+      <c r="F12" s="22" t="n">
+        <f aca="false">C12</f>
+        <v>15</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24" t="n">
+        <f aca="false">F12+F14</f>
+        <v>21</v>
+      </c>
+      <c r="P12" s="22" t="n">
+        <f aca="false">H12</f>
+        <v>21</v>
+      </c>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="24" t="n">
+        <f aca="false">P12+P14</f>
+        <v>28</v>
+      </c>
+      <c r="U12" s="22" t="n">
+        <f aca="false">MAX(R12,R18)</f>
+        <v>59</v>
+      </c>
+      <c r="V12" s="23"/>
+      <c r="W12" s="24" t="n">
+        <f aca="false">U12+U14</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="n">
+        <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
+        <v>15</v>
+      </c>
+      <c r="B14" s="29" t="n">
+        <f aca="false">C15-C12</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="31"/>
+      <c r="F14" s="28" t="n">
+        <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="G14" s="29" t="n">
+        <f aca="false">H15-H12</f>
+        <v>31</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="P14" s="28" t="n">
+        <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="Q14" s="29" t="n">
+        <f aca="false">R15-R12</f>
+        <v>31</v>
+      </c>
+      <c r="R14" s="43"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="28" t="n">
+        <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="V14" s="42" t="n">
+        <f aca="false">W15-W12</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="43"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="33" t="n">
+        <f aca="false">C15-A14</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="34" t="n">
+        <f aca="false">MIN(F15,F21,F27)</f>
+        <v>15</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="F15" s="33" t="n">
+        <f aca="false">H15-F14</f>
+        <v>46</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="34" t="n">
+        <f aca="false">P15</f>
+        <v>52</v>
+      </c>
+      <c r="P15" s="33" t="n">
+        <f aca="false">R15-P14</f>
+        <v>52</v>
+      </c>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="34" t="n">
+        <f aca="false">U15</f>
+        <v>59</v>
+      </c>
+      <c r="S15" s="36"/>
+      <c r="U15" s="33" t="n">
+        <f aca="false">W15-U14</f>
+        <v>59</v>
+      </c>
+      <c r="V15" s="23"/>
+      <c r="W15" s="34" t="n">
+        <f aca="false">W12</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="76"/>
+      <c r="D16" s="36"/>
+      <c r="S16" s="36"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="S17" s="36"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="F18" s="22" t="n">
+        <f aca="false">C12</f>
+        <v>15</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24" t="n">
+        <f aca="false">F18+F20</f>
+        <v>29</v>
+      </c>
+      <c r="K18" s="22" t="n">
+        <f aca="false">H18</f>
+        <v>29</v>
+      </c>
+      <c r="L18" s="23"/>
+      <c r="M18" s="24" t="n">
+        <f aca="false">K18+K20</f>
+        <v>44</v>
+      </c>
+      <c r="P18" s="22" t="n">
+        <f aca="false">MAX(M18,M24)</f>
+        <v>44</v>
+      </c>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="24" t="n">
+        <f aca="false">P18+P20</f>
+        <v>59</v>
+      </c>
+      <c r="S18" s="36"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="38"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="36"/>
+      <c r="F20" s="28" t="n">
+        <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
+        <v>14</v>
+      </c>
+      <c r="G20" s="29" t="n">
+        <f aca="false">H21-H18</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="43"/>
+      <c r="I20" s="67"/>
+      <c r="K20" s="28" t="n">
+        <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
+        <v>15</v>
+      </c>
+      <c r="L20" s="29" t="n">
+        <f aca="false">M21-M18</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="43"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="28" t="n">
+        <f aca="false">VLOOKUP(P19,$A$2:$H$10,8)</f>
+        <v>15</v>
+      </c>
+      <c r="Q20" s="29" t="n">
+        <f aca="false">R21-R18</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="43"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="36"/>
+      <c r="F21" s="33" t="n">
+        <f aca="false">H21-F20</f>
+        <v>15</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="34" t="n">
+        <f aca="false">K21</f>
+        <v>29</v>
+      </c>
+      <c r="K21" s="33" t="n">
+        <f aca="false">M21-K20</f>
+        <v>29</v>
+      </c>
+      <c r="L21" s="23"/>
+      <c r="M21" s="34" t="n">
+        <f aca="false">P21</f>
+        <v>44</v>
+      </c>
+      <c r="N21" s="36"/>
+      <c r="P21" s="33" t="n">
+        <f aca="false">R21-P20</f>
+        <v>44</v>
+      </c>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="34" t="n">
+        <f aca="false">U15</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="36"/>
+      <c r="N22" s="36"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="36"/>
+      <c r="N23" s="36"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="36"/>
+      <c r="F24" s="22" t="n">
+        <f aca="false">C12</f>
+        <v>15</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24" t="n">
+        <f aca="false">F24+F26</f>
+        <v>21</v>
+      </c>
+      <c r="K24" s="22" t="n">
+        <f aca="false">H24</f>
+        <v>21</v>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="24" t="n">
+        <f aca="false">K24+K26</f>
+        <v>35</v>
+      </c>
+      <c r="N24" s="36"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="36"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="38"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="28" t="n">
+        <f aca="false">VLOOKUP(F25,$A$2:$H$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="G26" s="29" t="n">
+        <f aca="false">H27-H24</f>
+        <v>9</v>
+      </c>
+      <c r="H26" s="43"/>
+      <c r="K26" s="28" t="n">
+        <f aca="false">VLOOKUP(K25,$A$2:$H$10,8)</f>
+        <v>14</v>
+      </c>
+      <c r="L26" s="29" t="n">
+        <f aca="false">M27-M24</f>
+        <v>9</v>
+      </c>
+      <c r="M26" s="43"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="33" t="n">
+        <f aca="false">H27-F26</f>
+        <v>24</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="34" t="n">
+        <f aca="false">K27</f>
+        <v>30</v>
+      </c>
+      <c r="K27" s="33" t="n">
+        <f aca="false">M27-K26</f>
+        <v>30</v>
+      </c>
+      <c r="L27" s="23"/>
+      <c r="M27" s="34" t="n">
+        <f aca="false">P21</f>
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="K25:M25"/>
+  </mergeCells>
+  <conditionalFormatting sqref="V14">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:AW1 AY1:CV1">
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX1 BE1 BL1 BS1 BZ1 CG1 CN1 CU1:CV1">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>IF(OR(WEEKDAY(AX$1)=7,WEEKDAY(AX$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CSeite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="79" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="81" width="25.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>53</v>
       </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="79" t="n">
-        <v>44927</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="82" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B2" s="81" t="s">
         <v>54</v>
       </c>
+      <c r="C2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="21" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="79" t="n">
-        <v>45022</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>55</v>
+      <c r="A3" s="82" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="79" t="n">
-        <v>45023</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>56</v>
+      <c r="A4" s="82" t="n">
+        <v>45380</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="79" t="n">
-        <v>45025</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>57</v>
+      <c r="A5" s="82" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="79" t="n">
-        <v>45026</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>58</v>
+      <c r="A6" s="82" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="79" t="n">
-        <v>45047</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="82" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="82" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="79" t="n">
-        <v>45071</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>60</v>
+      <c r="E8" s="21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="79" t="n">
-        <v>45081</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>61</v>
+      <c r="A9" s="82" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="79" t="n">
-        <v>45082</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>62</v>
+      <c r="A10" s="82" t="n">
+        <v>45519</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="79" t="n">
-        <v>45202</v>
-      </c>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="82" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="82" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B12" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="79" t="n">
-        <v>45230</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="79" t="n">
-        <v>45285</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>65</v>
+      <c r="A13" s="82" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="79" t="n">
-        <v>45286</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>66</v>
+      <c r="A14" s="83" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="83" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="83" t="n">
+        <v>45651</v>
+      </c>
+      <c r="B16" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="83" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -750,7 +750,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -967,27 +967,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -995,27 +995,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1023,15 +1023,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1073,6 +1069,14 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="16" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -3223,9 +3227,9 @@
   <dimension ref="A1:AX27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="0" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <pane xSplit="8" ySplit="0" topLeftCell="AD1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Y12" activeCellId="0" sqref="Y12"/>
+      <selection pane="topRight" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3233,7 +3237,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="3.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4329,9 +4333,9 @@
   <dimension ref="A1:CT29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="0" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
+      <pane xSplit="8" ySplit="0" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="BE13" activeCellId="0" sqref="BE13"/>
+      <selection pane="topRight" activeCell="CH12" activeCellId="0" sqref="CH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4651,10 +4655,10 @@
       <c r="J2" s="54"/>
       <c r="K2" s="54"/>
       <c r="L2" s="54"/>
-      <c r="M2" s="68"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="55"/>
       <c r="O2" s="55"/>
-      <c r="P2" s="68"/>
+      <c r="P2" s="56"/>
       <c r="Q2" s="56"/>
       <c r="R2" s="56"/>
       <c r="S2" s="56"/>
@@ -4689,54 +4693,54 @@
       <c r="AV2" s="56"/>
       <c r="AW2" s="59"/>
       <c r="AX2" s="59"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="70"/>
-      <c r="BE2" s="70"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="69"/>
-      <c r="BH2" s="69"/>
-      <c r="BI2" s="69"/>
-      <c r="BJ2" s="69"/>
-      <c r="BK2" s="70"/>
-      <c r="BL2" s="70"/>
-      <c r="BM2" s="69"/>
-      <c r="BN2" s="69"/>
-      <c r="BO2" s="69"/>
-      <c r="BP2" s="69"/>
-      <c r="BQ2" s="69"/>
-      <c r="BR2" s="70"/>
-      <c r="BS2" s="70"/>
-      <c r="BT2" s="69"/>
-      <c r="BU2" s="69"/>
-      <c r="BV2" s="69"/>
-      <c r="BW2" s="69"/>
-      <c r="BX2" s="69"/>
-      <c r="BY2" s="70"/>
-      <c r="BZ2" s="70"/>
-      <c r="CA2" s="69"/>
-      <c r="CB2" s="69"/>
-      <c r="CC2" s="69"/>
-      <c r="CD2" s="69"/>
-      <c r="CE2" s="69"/>
-      <c r="CF2" s="70"/>
-      <c r="CG2" s="70"/>
-      <c r="CH2" s="69"/>
-      <c r="CI2" s="69"/>
-      <c r="CJ2" s="69"/>
-      <c r="CK2" s="69"/>
-      <c r="CL2" s="69"/>
-      <c r="CM2" s="70"/>
-      <c r="CN2" s="70"/>
-      <c r="CO2" s="69"/>
-      <c r="CP2" s="69"/>
-      <c r="CQ2" s="69"/>
-      <c r="CR2" s="69"/>
-      <c r="CS2" s="69"/>
-      <c r="CT2" s="70"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="68"/>
+      <c r="BB2" s="68"/>
+      <c r="BC2" s="68"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="68"/>
+      <c r="BG2" s="68"/>
+      <c r="BH2" s="68"/>
+      <c r="BI2" s="68"/>
+      <c r="BJ2" s="68"/>
+      <c r="BK2" s="69"/>
+      <c r="BL2" s="69"/>
+      <c r="BM2" s="68"/>
+      <c r="BN2" s="68"/>
+      <c r="BO2" s="68"/>
+      <c r="BP2" s="68"/>
+      <c r="BQ2" s="68"/>
+      <c r="BR2" s="69"/>
+      <c r="BS2" s="69"/>
+      <c r="BT2" s="68"/>
+      <c r="BU2" s="68"/>
+      <c r="BV2" s="68"/>
+      <c r="BW2" s="68"/>
+      <c r="BX2" s="68"/>
+      <c r="BY2" s="69"/>
+      <c r="BZ2" s="69"/>
+      <c r="CA2" s="68"/>
+      <c r="CB2" s="68"/>
+      <c r="CC2" s="68"/>
+      <c r="CD2" s="68"/>
+      <c r="CE2" s="68"/>
+      <c r="CF2" s="69"/>
+      <c r="CG2" s="69"/>
+      <c r="CH2" s="68"/>
+      <c r="CI2" s="68"/>
+      <c r="CJ2" s="68"/>
+      <c r="CK2" s="68"/>
+      <c r="CL2" s="68"/>
+      <c r="CM2" s="69"/>
+      <c r="CN2" s="69"/>
+      <c r="CO2" s="68"/>
+      <c r="CP2" s="68"/>
+      <c r="CQ2" s="68"/>
+      <c r="CR2" s="68"/>
+      <c r="CS2" s="68"/>
+      <c r="CT2" s="69"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -5877,7 +5881,7 @@
       <c r="I15" s="26"/>
       <c r="J15" s="27"/>
       <c r="K15" s="26"/>
-      <c r="L15" s="71"/>
+      <c r="L15" s="70"/>
       <c r="M15" s="27"/>
       <c r="N15" s="26"/>
       <c r="O15" s="27"/>
@@ -5934,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="67"/>
-      <c r="T16" s="72"/>
+      <c r="T16" s="71"/>
       <c r="U16" s="28" t="n">
         <f aca="false">VLOOKUP(U15,$A$2:$H$12,8)</f>
         <v>10</v>
@@ -5947,7 +5951,7 @@
         <f aca="false">Z17-W14</f>
         <v>15</v>
       </c>
-      <c r="X16" s="73"/>
+      <c r="X16" s="72"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="33" t="n">
@@ -5974,7 +5978,7 @@
         <v>28</v>
       </c>
       <c r="Q17" s="23"/>
-      <c r="R17" s="74" t="n">
+      <c r="R17" s="73" t="n">
         <f aca="false">U17</f>
         <v>39</v>
       </c>
@@ -5987,7 +5991,7 @@
         <f aca="false">Z20</f>
         <v>49</v>
       </c>
-      <c r="X17" s="75"/>
+      <c r="X17" s="74"/>
       <c r="Y17" s="37"/>
       <c r="Z17" s="22" t="n">
         <f aca="false">MAX(W14,W20)</f>
@@ -6000,7 +6004,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="76"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="36"/>
       <c r="Z18" s="25" t="s">
         <v>7</v>
@@ -6063,7 +6067,7 @@
         <f aca="false">U20+U22</f>
         <v>49</v>
       </c>
-      <c r="X20" s="75"/>
+      <c r="X20" s="74"/>
       <c r="Z20" s="33" t="n">
         <f aca="false">AB20-Z19</f>
         <v>49</v>
@@ -6092,18 +6096,18 @@
       <c r="M21" s="25"/>
       <c r="N21" s="26"/>
       <c r="O21" s="27"/>
-      <c r="P21" s="77" t="s">
+      <c r="P21" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="78" t="s">
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
       <c r="X21" s="38"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6166,7 +6170,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="23"/>
-      <c r="H23" s="74" t="n">
+      <c r="H23" s="73" t="n">
         <f aca="false">K23</f>
         <v>17</v>
       </c>
@@ -6175,7 +6179,7 @@
         <v>17</v>
       </c>
       <c r="L23" s="23"/>
-      <c r="M23" s="74" t="n">
+      <c r="M23" s="73" t="n">
         <f aca="false">P23</f>
         <v>32</v>
       </c>
@@ -6185,7 +6189,7 @@
         <v>32</v>
       </c>
       <c r="Q23" s="23"/>
-      <c r="R23" s="74" t="n">
+      <c r="R23" s="73" t="n">
         <f aca="false">U23</f>
         <v>39</v>
       </c>
@@ -6231,20 +6235,20 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="36"/>
-      <c r="D27" s="79"/>
+      <c r="D27" s="78"/>
       <c r="E27" s="27"/>
-      <c r="F27" s="77" t="s">
+      <c r="F27" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="78" t="s">
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
       <c r="N27" s="38"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6279,7 +6283,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="23"/>
-      <c r="H29" s="74" t="n">
+      <c r="H29" s="73" t="n">
         <f aca="false">K29</f>
         <v>19</v>
       </c>
@@ -6384,22 +6388,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CV27"/>
+  <dimension ref="A1:DA27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="0" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="8" ySplit="0" topLeftCell="CG1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="CV10" activeCellId="0" sqref="CV10"/>
+      <selection pane="topRight" activeCell="CY16" activeCellId="0" sqref="CY16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="1" style="1" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="99" min="44" style="1" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="100" style="0" width="3.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="100" min="44" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="105" min="101" style="0" width="3.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6521,7 +6525,7 @@
       <c r="AQ1" s="53" t="n">
         <v>45431</v>
       </c>
-      <c r="AR1" s="80" t="n">
+      <c r="AR1" s="79" t="n">
         <v>45432</v>
       </c>
       <c r="AS1" s="53" t="n">
@@ -6691,6 +6695,21 @@
       </c>
       <c r="CV1" s="53" t="n">
         <v>45488</v>
+      </c>
+      <c r="CW1" s="53" t="n">
+        <v>45489</v>
+      </c>
+      <c r="CX1" s="53" t="n">
+        <v>45490</v>
+      </c>
+      <c r="CY1" s="53" t="n">
+        <v>45491</v>
+      </c>
+      <c r="CZ1" s="53" t="n">
+        <v>45492</v>
+      </c>
+      <c r="DA1" s="53" t="n">
+        <v>45493</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6803,7 +6822,12 @@
       <c r="CS2" s="56"/>
       <c r="CT2" s="59"/>
       <c r="CU2" s="59"/>
-      <c r="CV2" s="68"/>
+      <c r="CV2" s="56"/>
+      <c r="CW2" s="56"/>
+      <c r="CX2" s="56"/>
+      <c r="CY2" s="56"/>
+      <c r="CZ2" s="56"/>
+      <c r="DA2" s="59"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -6913,7 +6937,12 @@
       <c r="CS3" s="56"/>
       <c r="CT3" s="59"/>
       <c r="CU3" s="59"/>
-      <c r="CV3" s="68"/>
+      <c r="CV3" s="56"/>
+      <c r="CW3" s="56"/>
+      <c r="CX3" s="56"/>
+      <c r="CY3" s="56"/>
+      <c r="CZ3" s="56"/>
+      <c r="DA3" s="59"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -7023,7 +7052,12 @@
       <c r="CS4" s="56"/>
       <c r="CT4" s="59"/>
       <c r="CU4" s="59"/>
-      <c r="CV4" s="68"/>
+      <c r="CV4" s="56"/>
+      <c r="CW4" s="56"/>
+      <c r="CX4" s="56"/>
+      <c r="CY4" s="56"/>
+      <c r="CZ4" s="56"/>
+      <c r="DA4" s="59"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -7133,7 +7167,12 @@
       <c r="CS5" s="56"/>
       <c r="CT5" s="59"/>
       <c r="CU5" s="59"/>
-      <c r="CV5" s="68"/>
+      <c r="CV5" s="56"/>
+      <c r="CW5" s="56"/>
+      <c r="CX5" s="56"/>
+      <c r="CY5" s="56"/>
+      <c r="CZ5" s="56"/>
+      <c r="DA5" s="59"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -7183,19 +7222,19 @@
       <c r="AK6" s="56"/>
       <c r="AL6" s="56"/>
       <c r="AM6" s="56"/>
-      <c r="AN6" s="68"/>
-      <c r="AO6" s="68"/>
+      <c r="AN6" s="56"/>
+      <c r="AO6" s="56"/>
       <c r="AP6" s="59"/>
       <c r="AQ6" s="59"/>
       <c r="AR6" s="57"/>
-      <c r="AS6" s="68"/>
-      <c r="AT6" s="68"/>
-      <c r="AU6" s="68"/>
-      <c r="AV6" s="68"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="56"/>
       <c r="AW6" s="59"/>
       <c r="AX6" s="59"/>
-      <c r="AY6" s="68"/>
-      <c r="AZ6" s="68"/>
+      <c r="AY6" s="56"/>
+      <c r="AZ6" s="56"/>
       <c r="BA6" s="54"/>
       <c r="BB6" s="54"/>
       <c r="BC6" s="54"/>
@@ -7243,7 +7282,12 @@
       <c r="CS6" s="56"/>
       <c r="CT6" s="59"/>
       <c r="CU6" s="59"/>
-      <c r="CV6" s="68"/>
+      <c r="CV6" s="56"/>
+      <c r="CW6" s="56"/>
+      <c r="CX6" s="56"/>
+      <c r="CY6" s="56"/>
+      <c r="CZ6" s="56"/>
+      <c r="DA6" s="59"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -7353,7 +7397,12 @@
       <c r="CS7" s="56"/>
       <c r="CT7" s="59"/>
       <c r="CU7" s="59"/>
-      <c r="CV7" s="68"/>
+      <c r="CV7" s="56"/>
+      <c r="CW7" s="56"/>
+      <c r="CX7" s="56"/>
+      <c r="CY7" s="56"/>
+      <c r="CZ7" s="56"/>
+      <c r="DA7" s="59"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -7467,7 +7516,12 @@
       <c r="CS8" s="56"/>
       <c r="CT8" s="59"/>
       <c r="CU8" s="59"/>
-      <c r="CV8" s="68"/>
+      <c r="CV8" s="56"/>
+      <c r="CW8" s="56"/>
+      <c r="CX8" s="56"/>
+      <c r="CY8" s="56"/>
+      <c r="CZ8" s="56"/>
+      <c r="DA8" s="59"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -7579,7 +7633,8 @@
       <c r="CS9" s="56"/>
       <c r="CT9" s="59"/>
       <c r="CU9" s="59"/>
-      <c r="CV9" s="68"/>
+      <c r="CV9" s="0"/>
+      <c r="DA9" s="59"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -7689,7 +7744,19 @@
       <c r="CS10" s="66"/>
       <c r="CT10" s="65"/>
       <c r="CU10" s="65"/>
-      <c r="CV10" s="66"/>
+      <c r="CV10" s="54"/>
+      <c r="CW10" s="80"/>
+      <c r="CX10" s="80"/>
+      <c r="CY10" s="80"/>
+      <c r="CZ10" s="80"/>
+      <c r="DA10" s="65"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="CV11" s="81"/>
+      <c r="CW11" s="81"/>
+      <c r="CX11" s="81"/>
+      <c r="CY11" s="81"/>
+      <c r="CZ11" s="81"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="n">
@@ -7744,7 +7811,7 @@
       <c r="I13" s="26"/>
       <c r="J13" s="27"/>
       <c r="K13" s="26"/>
-      <c r="L13" s="71"/>
+      <c r="L13" s="70"/>
       <c r="M13" s="27"/>
       <c r="N13" s="26"/>
       <c r="O13" s="27"/>
@@ -7843,7 +7910,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="76"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="36"/>
       <c r="S16" s="36"/>
     </row>
@@ -8004,20 +8071,20 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="36"/>
-      <c r="D25" s="79"/>
+      <c r="D25" s="78"/>
       <c r="E25" s="27"/>
-      <c r="F25" s="77" t="s">
+      <c r="F25" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="78" t="s">
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
       <c r="N25" s="38"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8119,12 +8186,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:AW1 AY1:CV1">
+  <conditionalFormatting sqref="I1:AW1 AY1:DA1">
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX1 BE1 BL1 BS1 BZ1 CG1 CN1 CU1:CV1">
+  <conditionalFormatting sqref="AX1 BE1 BL1 BS1 BZ1 CG1 CN1 CU1">
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>IF(OR(WEEKDAY(AX$1)=7,WEEKDAY(AX$1)=1),1,0)</formula>
     </cfRule>
@@ -8146,17 +8213,17 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="81" width="25.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="82" width="25.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -8167,10 +8234,10 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="82" t="n">
+      <c r="A2" s="83" t="n">
         <v>45297</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="82" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -8182,10 +8249,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="82" t="n">
+      <c r="A3" s="83" t="n">
         <v>45359</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="82" t="s">
         <v>57</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -8199,10 +8266,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="82" t="n">
+      <c r="A4" s="83" t="n">
         <v>45380</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="82" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="21" t="s">
@@ -8216,10 +8283,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="82" t="n">
+      <c r="A5" s="83" t="n">
         <v>45383</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="82" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -8233,10 +8300,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="82" t="n">
+      <c r="A6" s="83" t="n">
         <v>45413</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="82" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -8248,10 +8315,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="82" t="n">
+      <c r="A7" s="83" t="n">
         <v>45421</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="82" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -8265,10 +8332,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="82" t="n">
+      <c r="A8" s="83" t="n">
         <v>45432</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="82" t="s">
         <v>71</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -8282,10 +8349,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="82" t="n">
+      <c r="A9" s="83" t="n">
         <v>45442</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="82" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -8299,10 +8366,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="82" t="n">
+      <c r="A10" s="83" t="n">
         <v>45519</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="82" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="21" t="s">
@@ -8316,10 +8383,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="82" t="n">
+      <c r="A11" s="83" t="n">
         <v>45555</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="82" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -8333,10 +8400,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="82" t="n">
+      <c r="A12" s="83" t="n">
         <v>45568</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="82" t="s">
         <v>82</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -8350,10 +8417,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="82" t="n">
+      <c r="A13" s="83" t="n">
         <v>45596</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="82" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -8362,15 +8429,15 @@
       <c r="D13" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="82" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="83" t="n">
+      <c r="A14" s="84" t="n">
         <v>45597</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="82" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="21" t="s">
@@ -8384,10 +8451,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="83" t="n">
+      <c r="A15" s="84" t="n">
         <v>45616</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="82" t="s">
         <v>89</v>
       </c>
       <c r="C15" s="21" t="s">
@@ -8399,10 +8466,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="83" t="n">
+      <c r="A16" s="84" t="n">
         <v>45651</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="82" t="s">
         <v>92</v>
       </c>
       <c r="C16" s="21" t="s">
@@ -8414,10 +8481,10 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="83" t="n">
+      <c r="A17" s="84" t="n">
         <v>45652</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="82" t="s">
         <v>94</v>
       </c>
       <c r="C17" s="21" t="s">

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="42">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t xml:space="preserve">SAZ = SEZ - D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP = SAZ-FAZ = SEZ-FEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FP = kleinste FAZ (Nachfolger) – FEZ</t>
   </si>
   <si>
     <t xml:space="preserve">Kritischer Pfad</t>
@@ -395,7 +401,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -502,6 +508,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -858,8 +868,8 @@
   </sheetPr>
   <dimension ref="A1:AB67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30:R30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M29" activeCellId="0" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1117,22 +1127,44 @@
         <v>0</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="F15" s="7"/>
+      <c r="C15" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="K15" s="7"/>
+      <c r="H15" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15" s="7" t="n">
+        <v>10</v>
+      </c>
       <c r="L15" s="8"/>
-      <c r="M15" s="9"/>
-      <c r="P15" s="7"/>
+      <c r="M15" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="P15" s="7" t="n">
+        <v>16</v>
+      </c>
       <c r="Q15" s="8"/>
-      <c r="R15" s="9"/>
-      <c r="U15" s="7"/>
+      <c r="R15" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="U15" s="7" t="n">
+        <v>21</v>
+      </c>
       <c r="V15" s="8"/>
-      <c r="W15" s="9"/>
-      <c r="Z15" s="7"/>
+      <c r="W15" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z15" s="7" t="n">
+        <v>29</v>
+      </c>
       <c r="AA15" s="8"/>
-      <c r="AB15" s="9"/>
+      <c r="AB15" s="9" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
@@ -1181,60 +1213,108 @@
         <f aca="false">VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="F17" s="12" t="n">
         <f aca="false">VLOOKUP(F16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
+      <c r="G17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" s="12" t="n">
         <f aca="false">VLOOKUP(K16,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="14"/>
+      <c r="L17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="P17" s="12" t="n">
         <f aca="false">VLOOKUP(P16,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
+      <c r="Q17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="U17" s="12" t="n">
         <f aca="false">VLOOKUP(U16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="V17" s="13"/>
-      <c r="W17" s="14"/>
+      <c r="V17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="Z17" s="12" t="n">
         <f aca="false">VLOOKUP(Z16,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="14"/>
+      <c r="AA17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15"/>
+      <c r="A18" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="16"/>
+      <c r="C18" s="16" t="n">
+        <v>2</v>
+      </c>
       <c r="D18" s="17"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="16"/>
-      <c r="K18" s="15"/>
+      <c r="H18" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K18" s="15" t="n">
+        <v>10</v>
+      </c>
       <c r="L18" s="8"/>
-      <c r="M18" s="16"/>
-      <c r="P18" s="15"/>
+      <c r="M18" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="P18" s="15" t="n">
+        <v>16</v>
+      </c>
       <c r="Q18" s="8"/>
-      <c r="R18" s="16"/>
-      <c r="U18" s="15"/>
+      <c r="R18" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="U18" s="15" t="n">
+        <v>21</v>
+      </c>
       <c r="V18" s="8"/>
-      <c r="W18" s="16"/>
+      <c r="W18" s="16" t="n">
+        <v>29</v>
+      </c>
       <c r="Y18" s="18"/>
-      <c r="Z18" s="15"/>
+      <c r="Z18" s="15" t="n">
+        <v>29</v>
+      </c>
       <c r="AA18" s="8"/>
-      <c r="AB18" s="16"/>
+      <c r="AB18" s="16" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="19"/>
@@ -1246,18 +1326,34 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="19"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="K21" s="7"/>
+      <c r="H21" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <v>10</v>
+      </c>
       <c r="L21" s="8"/>
-      <c r="M21" s="9"/>
-      <c r="P21" s="7"/>
+      <c r="M21" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="P21" s="7" t="n">
+        <v>18</v>
+      </c>
       <c r="Q21" s="8"/>
-      <c r="R21" s="9"/>
-      <c r="U21" s="7"/>
+      <c r="R21" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="U21" s="7" t="n">
+        <v>24</v>
+      </c>
       <c r="V21" s="8"/>
-      <c r="W21" s="9"/>
+      <c r="W21" s="9" t="n">
+        <v>26</v>
+      </c>
       <c r="Y21" s="20"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1297,43 +1393,75 @@
         <f aca="false">VLOOKUP(F22,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
+      <c r="G23" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" s="12" t="n">
         <f aca="false">VLOOKUP(K22,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="14"/>
+      <c r="L23" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="P23" s="12" t="n">
         <f aca="false">VLOOKUP(P22,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
+      <c r="Q23" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="U23" s="12" t="n">
         <f aca="false">VLOOKUP(U22,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="V23" s="13"/>
-      <c r="W23" s="14"/>
+      <c r="V23" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="W23" s="14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="15"/>
+      <c r="F24" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="G24" s="8"/>
-      <c r="H24" s="16"/>
+      <c r="H24" s="16" t="n">
+        <v>13</v>
+      </c>
       <c r="I24" s="17"/>
-      <c r="K24" s="15"/>
+      <c r="K24" s="15" t="n">
+        <v>13</v>
+      </c>
       <c r="L24" s="8"/>
-      <c r="M24" s="16"/>
-      <c r="P24" s="15"/>
+      <c r="M24" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="P24" s="15" t="n">
+        <v>21</v>
+      </c>
       <c r="Q24" s="8"/>
-      <c r="R24" s="16"/>
+      <c r="R24" s="16" t="n">
+        <v>27</v>
+      </c>
       <c r="S24" s="19"/>
       <c r="T24" s="21"/>
-      <c r="U24" s="15"/>
+      <c r="U24" s="15" t="n">
+        <v>27</v>
+      </c>
       <c r="V24" s="8"/>
-      <c r="W24" s="16"/>
+      <c r="W24" s="16" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I25" s="19"/>
@@ -1345,12 +1473,20 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I27" s="19"/>
-      <c r="K27" s="7"/>
+      <c r="K27" s="7" t="n">
+        <v>10</v>
+      </c>
       <c r="L27" s="8"/>
-      <c r="M27" s="9"/>
-      <c r="P27" s="7"/>
+      <c r="M27" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="P27" s="7" t="n">
+        <v>18</v>
+      </c>
       <c r="Q27" s="8"/>
-      <c r="R27" s="9"/>
+      <c r="R27" s="9" t="n">
+        <v>23</v>
+      </c>
       <c r="S27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1375,22 +1511,38 @@
         <f aca="false">VLOOKUP(K28,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="14"/>
+      <c r="L29" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="P29" s="12" t="n">
         <f aca="false">VLOOKUP(P28,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="14"/>
+      <c r="Q29" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" s="14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K30" s="15"/>
+      <c r="K30" s="15" t="n">
+        <v>14</v>
+      </c>
       <c r="L30" s="8"/>
-      <c r="M30" s="16"/>
-      <c r="P30" s="15"/>
+      <c r="M30" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="P30" s="15" t="n">
+        <v>22</v>
+      </c>
       <c r="Q30" s="8"/>
-      <c r="R30" s="16"/>
+      <c r="R30" s="16" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="23" t="s">
@@ -1489,194 +1641,218 @@
       <c r="O39" s="26"/>
       <c r="P39" s="26"/>
     </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I40" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H41" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+    </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="27"/>
-      <c r="B55" s="29" t="s">
+      <c r="A55" s="28"/>
+      <c r="B55" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29" t="s">
+      <c r="C55" s="30"/>
+      <c r="D55" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="27"/>
-      <c r="B56" s="30" t="s">
+      <c r="A56" s="28"/>
+      <c r="B56" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="27"/>
-      <c r="B57" s="32" t="s">
+      <c r="A57" s="28"/>
+      <c r="B57" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C57" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="32" t="s">
+      <c r="D57" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="27"/>
-      <c r="B58" s="29" t="s">
+      <c r="A58" s="28"/>
+      <c r="B58" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29" t="s">
+      <c r="C58" s="30"/>
+      <c r="D58" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="27"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="27"/>
-      <c r="B60" s="34" t="s">
+      <c r="A60" s="28"/>
+      <c r="B60" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
+      <c r="C60" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="27"/>
-      <c r="B61" s="34" t="s">
+      <c r="A61" s="28"/>
+      <c r="B61" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
+      <c r="C61" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="27"/>
-      <c r="B62" s="34" t="s">
+      <c r="A62" s="28"/>
+      <c r="B62" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
+      <c r="C62" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="27"/>
-      <c r="B63" s="34" t="s">
+      <c r="A63" s="28"/>
+      <c r="B63" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
+      <c r="C63" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="27"/>
-      <c r="B64" s="32" t="s">
+      <c r="A64" s="28"/>
+      <c r="B64" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
+      <c r="C64" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="27"/>
-      <c r="B65" s="33" t="s">
+      <c r="A65" s="28"/>
+      <c r="B65" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
+      <c r="C65" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="27"/>
-      <c r="B66" s="35" t="s">
+      <c r="A66" s="28"/>
+      <c r="B66" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
+      <c r="C66" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="27"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A16:C16"/>
@@ -1696,6 +1872,8 @@
     <mergeCell ref="H37:P37"/>
     <mergeCell ref="H38:P38"/>
     <mergeCell ref="H39:P39"/>
+    <mergeCell ref="I40:O40"/>
+    <mergeCell ref="H41:P41"/>
     <mergeCell ref="B56:D56"/>
   </mergeCells>
   <conditionalFormatting sqref="B38">
@@ -1726,7 +1904,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="K30:R30 D17"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1880,7 +2058,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="36" t="n">
+      <c r="H8" s="37" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1980,8 +2158,8 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="1" sqref="K30:R30 G20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q15" activeCellId="0" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2037,7 +2215,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -2159,7 +2337,7 @@
         <v>15</v>
       </c>
       <c r="P9" s="26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="26"/>
       <c r="R9" s="26"/>
@@ -2244,7 +2422,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P21" activeCellId="1" sqref="K30:R30 P21"/>
+      <selection pane="topLeft" activeCell="P21" activeCellId="0" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Übung1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Übung2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Übung3" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="Übung 4" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Feiertage" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="85">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -149,16 +150,147 @@
   </si>
   <si>
     <t xml:space="preserve">FP = kleinste FAZ(Nachfolger)- FEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feiertag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heilige Drei Könige</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ba-Wü, Bay, Sa-An</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internationaler Frauentag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verlängertes Wochenende</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B, MV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karfreitag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bundesweit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ostermontag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag der Arbeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christi Himmelfahrt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brückentag möglich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfingstmontag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fronleichnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BaWü, Bay, Hes, NRW, Rh-Pf, Sa-La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariä Himmelfahrt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bay, Sa-La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weltkindertag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag der Deutschen Einheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reformationstag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB, HH, MV, Sa, Sa-An, S-H, Thü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allerheiligen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BaWü, Bay, NRW, Rh-Pf, Sa-La</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buß- und Bettag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Weihnachtstag</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KW 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Weihnachtstag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -231,7 +363,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +374,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB2B2B2"/>
         <bgColor rgb="FFA9D18E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF55308D"/>
+        <bgColor rgb="FF203864"/>
       </patternFill>
     </fill>
     <fill>
@@ -311,7 +449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -324,6 +462,13 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -401,7 +546,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -414,6 +559,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -422,15 +575,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -438,27 +591,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -470,8 +619,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -494,7 +643,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -510,15 +663,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -526,7 +679,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -534,24 +687,36 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -563,7 +728,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -581,6 +746,19 @@
         <b val="1"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -671,7 +849,7 @@
       <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF666699"/>
@@ -682,7 +860,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF843C0B"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF55308D"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -866,21 +1044,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB67"/>
+  <dimension ref="A1:BJ67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M29" activeCellId="0" sqref="M29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="3.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="4.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.42"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="38.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -897,959 +1075,1121 @@
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="3" t="n">
+        <v>45397</v>
+      </c>
+      <c r="J1" s="3" t="n">
+        <v>45398</v>
+      </c>
+      <c r="K1" s="3" t="n">
+        <v>45399</v>
+      </c>
+      <c r="L1" s="3" t="n">
+        <v>45400</v>
+      </c>
+      <c r="M1" s="3" t="n">
+        <v>45401</v>
+      </c>
+      <c r="N1" s="3" t="n">
+        <v>45402</v>
+      </c>
+      <c r="O1" s="3" t="n">
+        <v>45403</v>
+      </c>
+      <c r="P1" s="3" t="n">
+        <v>45404</v>
+      </c>
+      <c r="Q1" s="3" t="n">
+        <v>45405</v>
+      </c>
+      <c r="R1" s="3" t="n">
+        <v>45406</v>
+      </c>
+      <c r="S1" s="3" t="n">
+        <v>45407</v>
+      </c>
+      <c r="T1" s="3" t="n">
+        <v>45408</v>
+      </c>
+      <c r="U1" s="3" t="n">
+        <v>45409</v>
+      </c>
+      <c r="V1" s="3" t="n">
+        <v>45410</v>
+      </c>
+      <c r="W1" s="3" t="n">
+        <v>45411</v>
+      </c>
+      <c r="X1" s="3" t="n">
+        <v>45412</v>
+      </c>
+      <c r="Y1" s="4" t="n">
+        <v>45413</v>
+      </c>
+      <c r="Z1" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="AA1" s="3" t="n">
+        <v>45415</v>
+      </c>
+      <c r="AB1" s="3" t="n">
+        <v>45416</v>
+      </c>
+      <c r="AC1" s="3" t="n">
+        <v>45417</v>
+      </c>
+      <c r="AD1" s="3" t="n">
+        <v>45418</v>
+      </c>
+      <c r="AE1" s="3" t="n">
+        <v>45419</v>
+      </c>
+      <c r="AF1" s="3" t="n">
+        <v>45420</v>
+      </c>
+      <c r="AG1" s="4" t="n">
+        <v>45421</v>
+      </c>
+      <c r="AH1" s="3" t="n">
+        <v>45422</v>
+      </c>
+      <c r="AI1" s="3" t="n">
+        <v>45423</v>
+      </c>
+      <c r="AJ1" s="3" t="n">
+        <v>45424</v>
+      </c>
+      <c r="AK1" s="3" t="n">
+        <v>45425</v>
+      </c>
+      <c r="AL1" s="3" t="n">
+        <v>45426</v>
+      </c>
+      <c r="AM1" s="3" t="n">
+        <v>45427</v>
+      </c>
+      <c r="AN1" s="3" t="n">
+        <v>45428</v>
+      </c>
+      <c r="AO1" s="3" t="n">
+        <v>45429</v>
+      </c>
+      <c r="AP1" s="3" t="n">
+        <v>45430</v>
+      </c>
+      <c r="AQ1" s="3" t="n">
+        <v>45431</v>
+      </c>
+      <c r="AR1" s="3" t="n">
+        <v>45432</v>
+      </c>
+      <c r="AS1" s="3" t="n">
+        <v>45433</v>
+      </c>
+      <c r="AT1" s="3" t="n">
+        <v>45434</v>
+      </c>
+      <c r="AU1" s="3" t="n">
+        <v>45435</v>
+      </c>
+      <c r="AV1" s="3" t="n">
+        <v>45436</v>
+      </c>
+      <c r="AW1" s="3" t="n">
+        <v>45437</v>
+      </c>
+      <c r="AX1" s="3" t="n">
+        <v>45438</v>
+      </c>
+      <c r="AY1" s="3" t="n">
+        <v>45439</v>
+      </c>
+      <c r="AZ1" s="3" t="n">
+        <v>45440</v>
+      </c>
+      <c r="BA1" s="3" t="n">
+        <v>45441</v>
+      </c>
+      <c r="BB1" s="4" t="n">
+        <v>45442</v>
+      </c>
+      <c r="BC1" s="3" t="n">
+        <v>45443</v>
+      </c>
+      <c r="BD1" s="3" t="n">
+        <v>45444</v>
+      </c>
+      <c r="BE1" s="3" t="n">
+        <v>45445</v>
+      </c>
+      <c r="BF1" s="3" t="n">
+        <v>45446</v>
+      </c>
+      <c r="BG1" s="3" t="n">
+        <v>45447</v>
+      </c>
+      <c r="BH1" s="3" t="n">
+        <v>45448</v>
+      </c>
+      <c r="BI1" s="3" t="n">
+        <v>45449</v>
+      </c>
+      <c r="BJ1" s="3" t="n">
+        <v>45450</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3" t="n">
+      <c r="G2" s="7"/>
+      <c r="H2" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="n">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="n">
+      <c r="G4" s="7"/>
+      <c r="H4" s="5" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="n">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="n">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="n">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="5" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3" t="n">
+      <c r="G8" s="7"/>
+      <c r="H8" s="5" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="n">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="5" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="n">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="5" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3" t="n">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="5" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3" t="n">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="3" t="n">
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="5" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="n">
+      <c r="A15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9" t="n">
+      <c r="G15" s="10"/>
+      <c r="H15" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="K15" s="7" t="n">
+      <c r="K15" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9" t="n">
+      <c r="L15" s="10"/>
+      <c r="M15" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="P15" s="7" t="n">
+      <c r="P15" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="9" t="n">
+      <c r="Q15" s="10"/>
+      <c r="R15" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="U15" s="7" t="n">
+      <c r="U15" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="V15" s="8"/>
-      <c r="W15" s="9" t="n">
+      <c r="V15" s="10"/>
+      <c r="W15" s="11" t="n">
         <v>29</v>
       </c>
-      <c r="Z15" s="7" t="n">
+      <c r="Z15" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="9" t="n">
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="11" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="10" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="10" t="s">
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="10" t="s">
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="10" t="s">
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="n">
+      <c r="A17" s="14" t="n">
         <f aca="false">VLOOKUP(A16,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="B17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="12" t="n">
+      <c r="B17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14" t="n">
         <f aca="false">VLOOKUP(F16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="12" t="n">
+      <c r="G17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="14" t="n">
         <f aca="false">VLOOKUP(K16,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="L17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="12" t="n">
+      <c r="L17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="14" t="n">
         <f aca="false">VLOOKUP(P16,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" s="12" t="n">
+      <c r="Q17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="14" t="n">
         <f aca="false">VLOOKUP(U16,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="V17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="12" t="n">
+      <c r="V17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="14" t="n">
         <f aca="false">VLOOKUP(Z16,$A$2:$H$13,8)</f>
         <v>4</v>
       </c>
-      <c r="AA17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="14" t="n">
+      <c r="AA17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="16" t="n">
+      <c r="A18" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="F18" s="15" t="n">
+      <c r="D18" s="19"/>
+      <c r="F18" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="16" t="n">
+      <c r="G18" s="10"/>
+      <c r="H18" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="K18" s="15" t="n">
+      <c r="K18" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="16" t="n">
+      <c r="L18" s="10"/>
+      <c r="M18" s="18" t="n">
         <v>16</v>
       </c>
-      <c r="P18" s="15" t="n">
+      <c r="P18" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="16" t="n">
+      <c r="Q18" s="10"/>
+      <c r="R18" s="18" t="n">
         <v>21</v>
       </c>
-      <c r="U18" s="15" t="n">
+      <c r="U18" s="17" t="n">
         <v>21</v>
       </c>
-      <c r="V18" s="8"/>
-      <c r="W18" s="16" t="n">
+      <c r="V18" s="10"/>
+      <c r="W18" s="18" t="n">
         <v>29</v>
       </c>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="15" t="n">
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="16" t="n">
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="18" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="19"/>
-      <c r="Y19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="Y19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="19"/>
-      <c r="Y20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="Y20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="19"/>
-      <c r="F21" s="7" t="n">
+      <c r="D21" s="21"/>
+      <c r="F21" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9" t="n">
+      <c r="G21" s="10"/>
+      <c r="H21" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="K21" s="7" t="n">
+      <c r="K21" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="9" t="n">
+      <c r="L21" s="10"/>
+      <c r="M21" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="P21" s="7" t="n">
+      <c r="P21" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="9" t="n">
+      <c r="Q21" s="10"/>
+      <c r="R21" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="U21" s="7" t="n">
+      <c r="U21" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="V21" s="8"/>
-      <c r="W21" s="9" t="n">
+      <c r="V21" s="10"/>
+      <c r="W21" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="Y21" s="20"/>
+      <c r="Y21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="19"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="10" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="10" t="s">
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="10" t="s">
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="10" t="s">
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="20"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="12" t="n">
+      <c r="F23" s="14" t="n">
         <f aca="false">VLOOKUP(F22,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="G23" s="13" t="n">
+      <c r="G23" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="H23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="12" t="n">
+      <c r="H23" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="14" t="n">
         <f aca="false">VLOOKUP(K22,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="L23" s="13" t="n">
+      <c r="L23" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="M23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="12" t="n">
+      <c r="M23" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="14" t="n">
         <f aca="false">VLOOKUP(P22,$A$2:$H$13,8)</f>
         <v>6</v>
       </c>
-      <c r="Q23" s="13" t="n">
+      <c r="Q23" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="R23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" s="12" t="n">
+      <c r="R23" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="14" t="n">
         <f aca="false">VLOOKUP(U22,$A$2:$H$13,8)</f>
         <v>2</v>
       </c>
-      <c r="V23" s="13" t="n">
+      <c r="V23" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="W23" s="14" t="n">
+      <c r="W23" s="16" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="15" t="n">
+      <c r="F24" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="16" t="n">
+      <c r="G24" s="10"/>
+      <c r="H24" s="18" t="n">
         <v>13</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="K24" s="15" t="n">
+      <c r="I24" s="19"/>
+      <c r="K24" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="L24" s="8"/>
-      <c r="M24" s="16" t="n">
+      <c r="L24" s="10"/>
+      <c r="M24" s="18" t="n">
         <v>21</v>
       </c>
-      <c r="P24" s="15" t="n">
+      <c r="P24" s="17" t="n">
         <v>21</v>
       </c>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="16" t="n">
+      <c r="Q24" s="10"/>
+      <c r="R24" s="18" t="n">
         <v>27</v>
       </c>
-      <c r="S24" s="19"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="15" t="n">
+      <c r="S24" s="21"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="17" t="n">
         <v>27</v>
       </c>
-      <c r="V24" s="8"/>
-      <c r="W24" s="16" t="n">
+      <c r="V24" s="10"/>
+      <c r="W24" s="18" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="19"/>
-      <c r="S25" s="19"/>
+      <c r="I25" s="21"/>
+      <c r="S25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I26" s="19"/>
-      <c r="S26" s="19"/>
+      <c r="I26" s="21"/>
+      <c r="S26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I27" s="19"/>
-      <c r="K27" s="7" t="n">
+      <c r="I27" s="21"/>
+      <c r="K27" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="9" t="n">
+      <c r="L27" s="10"/>
+      <c r="M27" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="P27" s="7" t="n">
+      <c r="P27" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="9" t="n">
+      <c r="Q27" s="10"/>
+      <c r="R27" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="S27" s="19"/>
+      <c r="S27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I28" s="19"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="10" t="s">
+      <c r="I28" s="21"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="10" t="s">
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="22"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K29" s="12" t="n">
+      <c r="K29" s="14" t="n">
         <f aca="false">VLOOKUP(K28,$A$2:$H$13,8)</f>
         <v>8</v>
       </c>
-      <c r="L29" s="13" t="n">
+      <c r="L29" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="M29" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" s="12" t="n">
+      <c r="M29" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="14" t="n">
         <f aca="false">VLOOKUP(P28,$A$2:$H$13,8)</f>
         <v>5</v>
       </c>
-      <c r="Q29" s="13" t="n">
+      <c r="Q29" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="R29" s="14" t="n">
+      <c r="R29" s="16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K30" s="15" t="n">
+      <c r="K30" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="L30" s="8"/>
-      <c r="M30" s="16" t="n">
+      <c r="L30" s="10"/>
+      <c r="M30" s="18" t="n">
         <v>22</v>
       </c>
-      <c r="P30" s="15" t="n">
+      <c r="P30" s="17" t="n">
         <v>22</v>
       </c>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="16" t="n">
+      <c r="Q30" s="10"/>
+      <c r="R30" s="18" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="52.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="26" t="s">
+      <c r="H36" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="H37" s="26" t="s">
+      <c r="A37" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="H37" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="26" t="s">
+      <c r="H38" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="16" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="26" t="s">
+      <c r="H39" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I40" s="27" t="s">
+      <c r="I40" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H41" s="27" t="s">
+      <c r="H41" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="28"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="28"/>
-      <c r="B55" s="30" t="s">
+      <c r="A55" s="30"/>
+      <c r="B55" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30" t="s">
+      <c r="C55" s="32"/>
+      <c r="D55" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="28"/>
-      <c r="B56" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="32" t="s">
+      <c r="A56" s="30"/>
+      <c r="B56" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="28"/>
-      <c r="B57" s="33" t="s">
+      <c r="A57" s="30"/>
+      <c r="B57" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D57" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="28"/>
-      <c r="B58" s="30" t="s">
+      <c r="A58" s="30"/>
+      <c r="B58" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30" t="s">
+      <c r="C58" s="32"/>
+      <c r="D58" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="28"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="28"/>
-      <c r="B60" s="35" t="s">
+      <c r="A60" s="30"/>
+      <c r="B60" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="28"/>
-      <c r="B61" s="35" t="s">
+      <c r="A61" s="30"/>
+      <c r="B61" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="28"/>
-      <c r="B62" s="35" t="s">
+      <c r="A62" s="30"/>
+      <c r="B62" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="28"/>
-      <c r="B63" s="35" t="s">
+      <c r="A63" s="30"/>
+      <c r="B63" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C63" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="28"/>
-      <c r="B64" s="33" t="s">
+      <c r="A64" s="30"/>
+      <c r="B64" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="28"/>
-      <c r="B65" s="34" t="s">
+      <c r="A65" s="30"/>
+      <c r="B65" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="28"/>
-      <c r="B66" s="36" t="s">
+      <c r="A66" s="30"/>
+      <c r="B66" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C66" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="28"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -1886,6 +2226,11 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I1:BJ1">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1901,10 +2246,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:BJ27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1912,7 +2257,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="3.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1929,216 +2274,745 @@
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="3" t="n">
+        <v>45397</v>
+      </c>
+      <c r="J1" s="3" t="n">
+        <v>45398</v>
+      </c>
+      <c r="K1" s="3" t="n">
+        <v>45399</v>
+      </c>
+      <c r="L1" s="3" t="n">
+        <v>45400</v>
+      </c>
+      <c r="M1" s="3" t="n">
+        <v>45401</v>
+      </c>
+      <c r="N1" s="3" t="n">
+        <v>45402</v>
+      </c>
+      <c r="O1" s="3" t="n">
+        <v>45403</v>
+      </c>
+      <c r="P1" s="3" t="n">
+        <v>45404</v>
+      </c>
+      <c r="Q1" s="3" t="n">
+        <v>45405</v>
+      </c>
+      <c r="R1" s="3" t="n">
+        <v>45406</v>
+      </c>
+      <c r="S1" s="3" t="n">
+        <v>45407</v>
+      </c>
+      <c r="T1" s="3" t="n">
+        <v>45408</v>
+      </c>
+      <c r="U1" s="3" t="n">
+        <v>45409</v>
+      </c>
+      <c r="V1" s="3" t="n">
+        <v>45410</v>
+      </c>
+      <c r="W1" s="3" t="n">
+        <v>45411</v>
+      </c>
+      <c r="X1" s="3" t="n">
+        <v>45412</v>
+      </c>
+      <c r="Y1" s="4" t="n">
+        <v>45413</v>
+      </c>
+      <c r="Z1" s="3" t="n">
+        <v>45414</v>
+      </c>
+      <c r="AA1" s="3" t="n">
+        <v>45415</v>
+      </c>
+      <c r="AB1" s="3" t="n">
+        <v>45416</v>
+      </c>
+      <c r="AC1" s="3" t="n">
+        <v>45417</v>
+      </c>
+      <c r="AD1" s="3" t="n">
+        <v>45418</v>
+      </c>
+      <c r="AE1" s="3" t="n">
+        <v>45419</v>
+      </c>
+      <c r="AF1" s="3" t="n">
+        <v>45420</v>
+      </c>
+      <c r="AG1" s="4" t="n">
+        <v>45421</v>
+      </c>
+      <c r="AH1" s="3" t="n">
+        <v>45422</v>
+      </c>
+      <c r="AI1" s="3" t="n">
+        <v>45423</v>
+      </c>
+      <c r="AJ1" s="3" t="n">
+        <v>45424</v>
+      </c>
+      <c r="AK1" s="3" t="n">
+        <v>45425</v>
+      </c>
+      <c r="AL1" s="3" t="n">
+        <v>45426</v>
+      </c>
+      <c r="AM1" s="3" t="n">
+        <v>45427</v>
+      </c>
+      <c r="AN1" s="3" t="n">
+        <v>45428</v>
+      </c>
+      <c r="AO1" s="3" t="n">
+        <v>45429</v>
+      </c>
+      <c r="AP1" s="3" t="n">
+        <v>45430</v>
+      </c>
+      <c r="AQ1" s="3" t="n">
+        <v>45431</v>
+      </c>
+      <c r="AR1" s="3" t="n">
+        <v>45432</v>
+      </c>
+      <c r="AS1" s="3" t="n">
+        <v>45433</v>
+      </c>
+      <c r="AT1" s="3" t="n">
+        <v>45434</v>
+      </c>
+      <c r="AU1" s="3" t="n">
+        <v>45435</v>
+      </c>
+      <c r="AV1" s="3" t="n">
+        <v>45436</v>
+      </c>
+      <c r="AW1" s="3" t="n">
+        <v>45437</v>
+      </c>
+      <c r="AX1" s="3" t="n">
+        <v>45438</v>
+      </c>
+      <c r="AY1" s="3" t="n">
+        <v>45439</v>
+      </c>
+      <c r="AZ1" s="3" t="n">
+        <v>45440</v>
+      </c>
+      <c r="BA1" s="3" t="n">
+        <v>45441</v>
+      </c>
+      <c r="BB1" s="4" t="n">
+        <v>45442</v>
+      </c>
+      <c r="BC1" s="3" t="n">
+        <v>45443</v>
+      </c>
+      <c r="BD1" s="3" t="n">
+        <v>45444</v>
+      </c>
+      <c r="BE1" s="3" t="n">
+        <v>45445</v>
+      </c>
+      <c r="BF1" s="3" t="n">
+        <v>45446</v>
+      </c>
+      <c r="BG1" s="3" t="n">
+        <v>45447</v>
+      </c>
+      <c r="BH1" s="3" t="n">
+        <v>45448</v>
+      </c>
+      <c r="BI1" s="3" t="n">
+        <v>45449</v>
+      </c>
+      <c r="BJ1" s="3" t="n">
+        <v>45450</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3" t="n">
+      <c r="G2" s="7"/>
+      <c r="H2" s="5" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="n">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="n">
+      <c r="G4" s="7"/>
+      <c r="H4" s="5" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="n">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="n">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="n">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="5" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="37" t="n">
+      <c r="G8" s="7"/>
+      <c r="H8" s="39" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="n">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="5" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="n">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="5" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="n">
+        <f aca="false">A12+A14</f>
+        <v>6</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <f aca="false">C12</f>
+        <v>6</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11" t="n">
+        <f aca="false">F12+F14</f>
+        <v>13</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <f aca="false">H12</f>
+        <v>13</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11" t="n">
+        <f aca="false">K12+K14</f>
+        <v>17</v>
+      </c>
+      <c r="P12" s="9" t="n">
+        <f aca="false">M12</f>
+        <v>17</v>
+      </c>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="11" t="n">
+        <f aca="false">P12+P14</f>
+        <v>20</v>
+      </c>
+      <c r="U12" s="9" t="n">
+        <f aca="false">MAX(R12,R18)</f>
+        <v>24</v>
+      </c>
+      <c r="V12" s="10"/>
+      <c r="W12" s="11" t="n">
+        <f aca="false">U12+U14</f>
+        <v>26</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+      <c r="A14" s="14" t="n">
         <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>6</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="15" t="n">
+        <f aca="false">C15-C12</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="16" t="n">
+        <f aca="false">MIN(F12,F18)-C12</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="14" t="n">
+        <f aca="false">VLOOKUP(F13,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <f aca="false">H15-H12</f>
+        <v>4</v>
+      </c>
+      <c r="H14" s="16" t="n">
+        <f aca="false">K12-H12</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="14" t="n">
+        <f aca="false">VLOOKUP(K13,$A$2:$H$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="L14" s="15" t="n">
+        <f aca="false">M15-M12</f>
+        <v>4</v>
+      </c>
+      <c r="M14" s="16" t="n">
+        <f aca="false">P12-M12</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="14" t="n">
+        <f aca="false">VLOOKUP(P13,$A$2:$H$10,8)</f>
+        <v>3</v>
+      </c>
+      <c r="Q14" s="15" t="n">
+        <f aca="false">R15-R12</f>
+        <v>4</v>
+      </c>
+      <c r="R14" s="16" t="n">
+        <f aca="false">U12-R12</f>
+        <v>4</v>
+      </c>
+      <c r="U14" s="14" t="n">
+        <f aca="false">VLOOKUP(U13,$A$2:$H$10,8)</f>
+        <v>2</v>
+      </c>
+      <c r="V14" s="15" t="n">
+        <f aca="false">W15-W12</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="17" t="n">
+        <f aca="false">C15-A14</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="18" t="n">
+        <f aca="false">MIN(F15,F21)</f>
+        <v>6</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="F15" s="17" t="n">
+        <f aca="false">H15-F14</f>
+        <v>10</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="18" t="n">
+        <f aca="false">K15</f>
+        <v>17</v>
+      </c>
+      <c r="K15" s="17" t="n">
+        <f aca="false">M15-K14</f>
+        <v>17</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="18" t="n">
+        <f aca="false">P15</f>
+        <v>21</v>
+      </c>
+      <c r="P15" s="17" t="n">
+        <f aca="false">R15-P14</f>
+        <v>21</v>
+      </c>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="18" t="n">
+        <f aca="false">U15</f>
+        <v>24</v>
+      </c>
+      <c r="T15" s="20"/>
+      <c r="U15" s="17" t="n">
+        <f aca="false">W15-U14</f>
+        <v>24</v>
+      </c>
+      <c r="V15" s="10"/>
+      <c r="W15" s="18" t="n">
+        <f aca="false">W12</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="21"/>
+      <c r="T16" s="22"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="21"/>
+      <c r="T17" s="22"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="21"/>
+      <c r="F18" s="9" t="n">
+        <f aca="false">C12</f>
+        <v>6</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11" t="n">
+        <f aca="false">F18+F20</f>
+        <v>13</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <f aca="false">H18</f>
+        <v>13</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="11" t="n">
+        <f aca="false">K18+K20</f>
+        <v>17</v>
+      </c>
+      <c r="P18" s="9" t="n">
+        <f aca="false">MAX(M18,M24)</f>
+        <v>18</v>
+      </c>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="11" t="n">
+        <f aca="false">P18+P20</f>
+        <v>24</v>
+      </c>
+      <c r="T18" s="22"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="21"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="22"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="14" t="n">
+        <f aca="false">VLOOKUP(F19,$A$2:$H$10,8)</f>
+        <v>7</v>
+      </c>
+      <c r="G20" s="15" t="n">
+        <f aca="false">H21-H18</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="16" t="n">
+        <f aca="false">MIN(K18,K24)-H18</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="14" t="n">
+        <f aca="false">VLOOKUP(K19,$A$2:$H$10,8)</f>
+        <v>4</v>
+      </c>
+      <c r="L20" s="15" t="n">
+        <f aca="false">M21-M18</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="16" t="n">
+        <f aca="false">P18-M18</f>
+        <v>1</v>
+      </c>
+      <c r="P20" s="14" t="n">
+        <f aca="false">VLOOKUP(P19,$A$2:$H$10,8)</f>
+        <v>6</v>
+      </c>
+      <c r="Q20" s="15" t="n">
+        <f aca="false">R21-R18</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="16" t="n">
+        <f aca="false">U12-R18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="17" t="n">
+        <f aca="false">H21-F20</f>
+        <v>6</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="18" t="n">
+        <f aca="false">MIN(K21,K27)</f>
+        <v>13</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="K21" s="17" t="n">
+        <f aca="false">M21-K20</f>
+        <v>14</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="18" t="n">
+        <f aca="false">P21</f>
+        <v>18</v>
+      </c>
+      <c r="O21" s="20"/>
+      <c r="P21" s="17" t="n">
+        <f aca="false">R21-P20</f>
+        <v>18</v>
+      </c>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="18" t="n">
+        <f aca="false">U15</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="21"/>
+      <c r="O22" s="22"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="21"/>
+      <c r="O23" s="22"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="21"/>
+      <c r="K24" s="9" t="n">
+        <f aca="false">H18</f>
+        <v>13</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="11" t="n">
+        <f aca="false">K24+K26</f>
+        <v>18</v>
+      </c>
+      <c r="O24" s="22"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I25" s="21"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="22"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K26" s="14" t="n">
+        <f aca="false">VLOOKUP(K25,$A$2:$H$10,8)</f>
+        <v>5</v>
+      </c>
+      <c r="L26" s="15" t="n">
+        <f aca="false">M27-M24</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="16" t="n">
+        <f aca="false">P18-M24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K27" s="17" t="n">
+        <f aca="false">M27-K26</f>
+        <v>13</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="18" t="n">
+        <f aca="false">P21</f>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="11">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="K25:M25"/>
   </mergeCells>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+  <conditionalFormatting sqref="V14 Q14 Q20 L20 L26 L14 G14 G20 B14">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:BJ1">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(OR(WEEKDAY(I$1)=7,WEEKDAY(I$1)=1),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2158,7 +3032,7 @@
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q15" activeCellId="0" sqref="Q15"/>
     </sheetView>
   </sheetViews>
@@ -2186,211 +3060,211 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="5" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="n">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="n">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="n">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="n">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="n">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="5" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3" t="n">
+      <c r="G8" s="7"/>
+      <c r="H8" s="5" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="n">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="P9" s="26" t="s">
+      <c r="P9" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="n">
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="5" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+      <c r="A14" s="14" t="n">
         <f aca="false">VLOOKUP(A13,$A$2:$H$10,8)</f>
         <v>15</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2400,7 +3274,7 @@
     <mergeCell ref="A13:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2449,239 +3323,239 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="5" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3" t="n">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="5" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="n">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="5" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3" t="n">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3" t="n">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="5" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3" t="n">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="5" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3" t="n">
+      <c r="G8" s="7"/>
+      <c r="H8" s="5" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="n">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="5" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="n">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="5" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="3" t="n">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="5" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="3" t="n">
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="n">
+      <c r="A16" s="14" t="n">
         <f aca="false">VLOOKUP(A15,$A$2:$H$12,8)</f>
         <v>4</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="16"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2690,7 +3564,7 @@
     <mergeCell ref="A15:C15"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2702,4 +3576,313 @@
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="40" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.84"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="41" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="42" t="n">
+        <v>45413</v>
+      </c>
+      <c r="G2" s="42" t="n">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="41" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="41" t="n">
+        <v>45380</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="41" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="41" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="41" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="41" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="41" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="41" t="n">
+        <v>45519</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="41" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="41" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="41" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="42" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="42" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="42" t="n">
+        <v>45651</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="42" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Übungen/Netzplan_Übung.xlsx
+++ b/Übungen/Netzplan_Übung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="85">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">C</t>
   </si>
   <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">E</t>
   </si>
   <si>
@@ -147,9 +150,6 @@
   </si>
   <si>
     <t xml:space="preserve">Freier Puffer (FAZ-Nachfolger – FEZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FP = kleinste FAZ(Nachfolger)- FEZ</t>
   </si>
   <si>
     <t xml:space="preserve">Datum</t>
@@ -363,7 +363,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +386,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
@@ -449,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -469,6 +475,27 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -520,6 +547,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -546,13 +580,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -560,6 +598,202 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -567,147 +801,43 @@
       <alignment horizontal="left" vertical="bottom" textRotation="70" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -728,7 +858,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="5">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -785,24 +915,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -850,7 +962,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -1046,1150 +1158,1941 @@
   </sheetPr>
   <dimension ref="A1:BJ67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="2" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="3.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="4.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="4.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="2" width="3.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="38.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="n">
+      <c r="I1" s="4" t="n">
         <v>45397</v>
       </c>
-      <c r="J1" s="3" t="n">
+      <c r="J1" s="4" t="n">
         <v>45398</v>
       </c>
-      <c r="K1" s="3" t="n">
+      <c r="K1" s="4" t="n">
         <v>45399</v>
       </c>
-      <c r="L1" s="3" t="n">
+      <c r="L1" s="4" t="n">
         <v>45400</v>
       </c>
-      <c r="M1" s="3" t="n">
+      <c r="M1" s="4" t="n">
         <v>45401</v>
       </c>
-      <c r="N1" s="3" t="n">
+      <c r="N1" s="4" t="n">
         <v>45402</v>
       </c>
-      <c r="O1" s="3" t="n">
+      <c r="O1" s="4" t="n">
         <v>45403</v>
       </c>
-      <c r="P1" s="3" t="n">
+      <c r="P1" s="4" t="n">
         <v>45404</v>
       </c>
-      <c r="Q1" s="3" t="n">
+      <c r="Q1" s="4" t="n">
         <v>45405</v>
       </c>
-      <c r="R1" s="3" t="n">
+      <c r="R1" s="4" t="n">
         <v>45406</v>
       </c>
-      <c r="S1" s="3" t="n">
+      <c r="S1" s="4" t="n">
         <v>45407</v>
       </c>
-      <c r="T1" s="3" t="n">
+      <c r="T1" s="4" t="n">
         <v>45408</v>
       </c>
-      <c r="U1" s="3" t="n">
+      <c r="U1" s="4" t="n">
         <v>45409</v>
       </c>
-      <c r="V1" s="3" t="n">
+      <c r="V1" s="4" t="n">
         <v>45410</v>
       </c>
-      <c r="W1" s="3" t="n">
+      <c r="W1" s="4" t="n">
         <v>45411</v>
       </c>
-      <c r="X1" s="3" t="n">
+      <c r="X1" s="4" t="n">
         <v>45412</v>
       </c>
-      <c r="Y1" s="4" t="n">
+      <c r="Y1" s="5" t="n">
         <v>45413</v>
       </c>
-      <c r="Z1" s="3" t="n">
+      <c r="Z1" s="4" t="n">
         <v>45414</v>
       </c>
-      <c r="AA1" s="3" t="n">
+      <c r="AA1" s="4" t="n">
         <v>45415</v>
       </c>
-      <c r="AB1" s="3" t="n">
+      <c r="AB1" s="4" t="n">
         <v>45416</v>
       </c>
-      <c r="AC1" s="3" t="n">
+      <c r="AC1" s="4" t="n">
         <v>45417</v>
       </c>
-      <c r="AD1" s="3" t="n">
+      <c r="AD1" s="4" t="n">
         <v>45418</v>
       </c>
-      <c r="AE1" s="3" t="n">
+      <c r="AE1" s="4" t="n">
         <v>45419</v>
       </c>
-      <c r="AF1" s="3" t="n">
+      <c r="AF1" s="4" t="n">
         <v>45420</v>
       </c>
-      <c r="AG1" s="4" t="n">
+      <c r="AG1" s="5" t="n">
         <v>45421</v>
       </c>
-      <c r="AH1" s="3" t="n">
+      <c r="AH1" s="4" t="n">
         <v>45422</v>
       </c>
-      <c r="AI1" s="3" t="n">
+      <c r="AI1" s="4" t="n">
         <v>45423</v>
       </c>
-      <c r="AJ1" s="3" t="n">
+      <c r="AJ1" s="4" t="n">
         <v>45424</v>
       </c>
-      <c r="AK1" s="3" t="n">
+      <c r="AK1" s="4" t="n">
         <v>45425</v>
       </c>
-      <c r="AL1" s="3" t="n">
+      <c r="AL1" s="4" t="n">
         <v>45426</v>
       </c>
-      <c r="AM1" s="3" t="n">
+      <c r="AM1" s="4" t="n">
         <v>45427</v>
       </c>
-      <c r="AN1" s="3" t="n">
+      <c r="AN1" s="4" t="n">
         <v>45428</v>
       </c>
-      <c r="AO1" s="3" t="n">
+      <c r="AO1" s="4" t="n">
         <v>45429</v>
       </c>
-      <c r="AP1" s="3" t="n">
+      <c r="AP1" s="4" t="n">
         <v>45430</v>
       </c>
-      <c r="AQ1" s="3" t="n">
+      <c r="AQ1" s="4" t="n">
         <v>45431</v>
       </c>
-      <c r="AR1" s="3" t="n">
+      <c r="AR1" s="4" t="n">
         <v>45432</v>
       </c>
-      <c r="AS1" s="3" t="n">
+      <c r="AS1" s="4" t="n">
         <v>45433</v>
       </c>
-      <c r="AT1" s="3" t="n">
+      <c r="AT1" s="4" t="n">
         <v>45434</v>
       </c>
-      <c r="AU1" s="3" t="n">
+      <c r="AU1" s="4" t="n">
         <v>45435</v>
       </c>
-      <c r="AV1" s="3" t="n">
+      <c r="AV1" s="4" t="n">
         <v>45436</v>
       </c>
-      <c r="AW1" s="3" t="n">
+      <c r="AW1" s="4" t="n">
         <v>45437</v>
       </c>
-      <c r="AX1" s="3" t="n">
+      <c r="AX1" s="4" t="n">
         <v>45438</v>
       </c>
-      <c r="AY1" s="3" t="n">
+      <c r="AY1" s="4" t="n">
         <v>45439</v>
       </c>
-      <c r="AZ1" s="3" t="n">
+      <c r="AZ1" s="4" t="n">
         <v>45440</v>
       </c>
-      <c r="BA1" s="3" t="n">
+      <c r="BA1" s="4" t="n">
         <v>45441</v>
       </c>
-      <c r="BB1" s="4" t="n">
+      <c r="BB1" s="5" t="n">
         <v>45442</v>
       </c>
-      <c r="BC1" s="3" t="n">
+      <c r="BC1" s="4" t="n">
         <v>45443</v>
       </c>
-      <c r="BD1" s="3" t="n">
+      <c r="BD1" s="4" t="n">
         <v>45444</v>
       </c>
-      <c r="BE1" s="3" t="n">
+      <c r="BE1" s="4" t="n">
         <v>45445</v>
       </c>
-      <c r="BF1" s="3" t="n">
+      <c r="BF1" s="4" t="n">
         <v>45446</v>
       </c>
-      <c r="BG1" s="3" t="n">
+      <c r="BG1" s="4" t="n">
         <v>45447</v>
       </c>
-      <c r="BH1" s="3" t="n">
+      <c r="BH1" s="4" t="n">
         <v>45448</v>
       </c>
-      <c r="BI1" s="3" t="n">
+      <c r="BI1" s="4" t="n">
         <v>45449</v>
       </c>
-      <c r="BJ1" s="3" t="n">
+      <c r="BJ1" s="4" t="n">
         <v>45450</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="5" t="n">
+      <c r="G2" s="8"/>
+      <c r="H2" s="6" t="n">
         <v>2</v>
       </c>
+      <c r="I2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="9"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="9"/>
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="9"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="9"/>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="9"/>
+      <c r="BH2" s="9"/>
+      <c r="BI2" s="9"/>
+      <c r="BJ2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="5" t="n">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="6" t="n">
         <v>8</v>
       </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="16"/>
+ 